--- a/기사데이터/토스/엑셀파일/news(토스, 2022.02.01~2022.02.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.02.01~2022.02.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2955,2506 +2955,6 @@
         </is>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>싱가포르 젊은 슈퍼리치, 고가저택 싹쓸이</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012980861?sid=104</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>스타트업·가상화폐 등으로 부 일궈…"주식보다 변동성 낮아 선호"공급 적고 부자는 많아져 집값↑…싱가포르 정부, 부동산값 잡기 나서싱가포르 국립 미술관에서 바라본 마리나 베이 샌즈 리조트[싱가포르 EPA 연합뉴스 자료사진. 재판매 및 DB 금지]    (서울=연합뉴스) 박의래 기자 = 싱가포르의 젊은 부자들이 고가저택들을 싹쓸이하고 있다고 블룸버그 통신이 12일(현지시간) 보도했다.    싱가포르 인구의 약 80%는 고층 공공주택에 살고 있다. 반면 부지가 1천400㎡가 넘는 고가 주택들은 사생활 보호를 위해 보통 싱가포르섬에서도 녹음이 우거진 곳에 자리한다.    부동산조사업체 나이트 프랭크의 자료에 따르면 싱가포르 내 이런 고가저택은 2천500여 채에 불과하지만 지난해에만 60여 채가 팔려 2019년에 비해 거래량이 3배 늘었다.    과거 이런 집을 사는 사람들은 전통 산업 분야의 사업가나 무역업자, 최고의 변호사나 의사였다. 하지만 지난 몇 년 동안은 스타트업 설립자나 전자상거래 경영진, 가상화폐로 부를 쌓은 사람들에게 팔리고 있다고 블룸버그는 전했다.     싱가포르 현지 언론 비즈니스타임스에 따르면 가상화폐 중심의 헤지펀드 쓰리에로우캐피털의 최고경영자(CEO) 겸 공동창업자인 수 주(Su Zhu)는 4천900만 싱가포르달러(약 436억원)에 싱가포르 부킷 티마 지역의 한 고가저택의 권리를 아내와 공동으로 사들였다.    30대인 그는 좋은 저택들을 구입해 공원으로 바꾸고 재생농업을 할 생각이라고 트위터에 밝혔다.    유네스코 세계문화유산인 싱가포르 식물원(Botanic Gardens) 인근의 한 초호화 저택은 싱가포르의 전자상거래 마케팅 플랫폼인 스탬프드를 창업한 토미 옹이 6천370만 싱가포르달러(약 567억원)에 사들였다. 1제곱피트(약 0.09㎡)당 가격은 약 4천291싱가포르달러(382만원)로, 1평(3.3㎡·약 35.5제곱피트) 가격이 약 1억3천600만원에 달하는 셈이다.     게이머를 위한 의자를 만드는 스타트업 달링 시크릿랩의 공동 창업자인 이안 앙은 아직 20대이지만 지난해 3천600만 싱가포르달러(약 320억원)를 주고 고가저택을 사들였다.    청년 부자들의 구입과 맞물려 부동산 가격도 오르고 있다. 나이트 프랭크에 따르면 지난해 고가 주택의 1제곱피트당 가격은 1천725싱가포르달러(약 154만원)로 2019년에 비해 25% 올랐다.    부동산회사 싱가포르 리얼토스의 공동창업자 부르스 라이는 "부자들은 주식보다 변동성이 적고 가치가 잘 유지되는 저택에 투자하길 원한다"며 "공급은 부족한데 싱가포르의 부유층은 늘어나고 있어 주택 가격은 더 오를 것으로 보인다"고 말했다.     나이트 프랭크가 지난해 발간한 보고서에 따르면 인구가 600만명에 육박하는 싱가포르에서 3천만 달러(약 360억원) 이상의 재산을 소유한 사람은 2025년 4천888명에 달해 2020년보다 31% 늘어날 전망이다.    이런 까닭에 싱가포르 정부는 부동산 가격 잡기에 나서고 있다. 싱가포르 정부는 작년 12월 2번째 주택을 사는 사람들에게 더 높은 인지세를 물리기로 했다.    하지만 이 정도 정책으로는 빠른 속도로 부를 축적하는 젊은 부자들의 주택 구입을 막지는 못할 것이라고 블룸버그는 예상했다.    laecorp@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>2022.02.01.</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>5% 이자·신용 낮으면 우대금리…세뱃돈 저축은행에 맡겨볼까</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005137589?sid=101</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>금리인상 따라 금융권 예·적금 금리 인상 기조저축은행 금리 가장 높아우대금리 조건 까다로워 꼼꼼히 살펴야하루만 맡겨도 이자지급…파킹통장 인기 지속[이데일리 박철근 기자] 설 연휴에는 세뱃돈이라는 가욋돈이 생긴다. 코로나19 여파로 예전처럼 많은 친척들끼리 만나기는 어렵지만 지난해부터 시작한 소위 ‘랜선 세뱃돈’ 유행으로 많게든 적게든 세뱃돈이 생기면 어떻게 재테크를 할 지가 관심이다.최근에는 증시 호황으로 미성년자들도 주식계좌를 개설하는 게 유행이었지만 올해는 증시 하락과 금리인상이라는 현상이 겹치면서 금융권의 각종 상품에 관심이 쏠린다.금융권 관계자는 “최근 시중은행, 저축은행, 인터넷은행 등 각 업권별로 예·적금 금리를 연이어 올리면서 증시로 흘러갔던 자금이 다시 금융권으로 돌아오고 있다”며 “각 은행별로 다양한 상품이 있다보니 소비자들이 각 상품의 특성을 비교하는 게 효과적인 재테크 수단이 될 것”이라고 말했다.한국은행이 지난달 기준금리를 연 1.25%로 인상함에 따라 KB·신한·우리·하나·농협 등 5대 시중은행이 모두 예·적금 금리를 상향 조정했다. (사진= 연합뉴스)이자수익 생각한다면 ‘저축은행’세뱃돈을 포함해 상대적으로 높은 이율을 기대한다면 저축은행권의 상품에 눈이 갈 수밖에 없다.우리금융저축은행은 지난해 12월 최고 연 5% 금리를 주는 ‘위드정기적금’을 선보였다. 연 2.1%의 기본금리에 자사 애플리케이션(앱)을 설치한 뒤 마케팅 동의를 하면 2.9%포인트 우대금리를 적용해준다. 1인 1계좌로 제한되며 월 최대 20만원까지 납입할 수 있다.고려저축은행도 연 5% 금리를 제공하는 ‘고 뱅크 정기적금’을 판매하고 있다. 가입 기간은 12개월로 월 최대 납입금은 20만원이다. 2월 말까지만 판매하고 한도 소진시 조기종료되기 때무네 판매하는 상품으로 한도 소진 시 조기 종료될 수 있다.웰컴저축은행은 신용점수가 낮을수록 더 높은 금리를 제공하는 웰뱅든든적금을 판매한다. 기본금리는 연 2%지만 신용점수가 350점 이하면 3%포인트의 추가금리를 적용한다. 특히 웰뱅저축은행 첫 고객에게는 1%포인트의 우대금리를 적용해 저신용자라면 최대 7%의 금리를 적용한다. 월 납입한도는 30만원이다.우대금리를 적용받으려면 다양한 조건이 붙어 꼼꼼하게 따져봐야 한다. 또 월 최대 납입금 한도가 작다보니 금리가 높아도 실제 얻는 이자수익은 크지 않다는 점도 고려해야 한다.(자료= 토스뱅크)하루만 맡겨도 이자가?…‘파킹통장’ 인기 여전파킹통장(수시입출금 통장)은 지난해까지 저금리 시대에 높은 인기를 얻었던 상품이다. 최근 예·적금 금리인상으로 파킹통장보다 높은 이율의 상품이 많지만 하루만 돈을 맡겨도 이자가 붙는다는 점때문에 인터넷은행을 중심으로 파킹통장은 여전히 재테크 수단으로 각광받고 있다.카카오뱅크(323410)의 대표 파킹통장 상품인 세이프박스 기본금리는 0.1%포인트 인상해 연 1.1% 금리를 적용한다. 세이프박스는 계좌 속 금고로 간편하게 잔고를 분리해서 관리할 수 있다는 장점도 있다. 세이프박스는 입출금 계좌당 1좌씩 개설할 수 있고 최대 보관 한도는 1억원이다. 케이뱅크는 파킹통장 ‘플러스박스’의 금리를 지난해 12월 기존의 연 0.8%(세전 기준)에서 0.2%포인트 오른 연 1.0%(세전 기준)의 금리로 인상키로 했다.플러스박스 계좌 잔액을 모두 합산해 최대 3억원까지 적용한다.이외에도 5대 은행에서는 0.70~1.75% 수준의 금리를 적용하는 자녀용 적금상품을 잇달아 선보이면서 금융권 전체가 예금 유치경쟁이 치열해지고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>2022.02.06.</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>삼성생명·화재·카드·증권 통합 앱 나온다....'거대 플랫폼' 탄생</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005140048?sid=101</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>삼성 계열사 고객 3200만명 이용삼성카드, 이르면 다음달 출시[이데일리 서대웅 기자] 삼성생명·화재·카드·증권 등 삼성 금융계열사 서비스를 한 번에 이용할 수 있는 통합 애플리케이션이 이르면 다음달 출시된다. 삼성금융 고객 3200만명을 아우르는 거대 금융플랫폼이 탄생하는 셈이다.서울 중구 삼성카드 본사.(사진=이데일리DB)6일 금융권에 따르면 삼성카드는 이르면 다음달께 생명·화재·증권 등 계열사 서비스를 한 곳에 모은 앱을 이르면 다음달 내놓는다. 비은행 금융사에서 통합 앱을 내놓는 것은 이번이 처음이다. 앞서 지난해 4월 삼성생명과 화재, 증권은 공동시스템 구축을 위해 총 391억원 규모의 운영 비용을 삼성카드에 지급한 바 있다.오픈뱅킹과 보험료 결제 등 통합 금융 서비스는 물론 내 차 시세 조회와 신차 견적, 부동산 시세 조회 등 자동차·보험 서비스, 각 계열사 데이터를 활용한 정보성 콘텐츠 등을 제공할 계획이다. 여기에 더해 걷기와 저축 같은 목표를 달성하면 리워드를 주는 등 차별화된 콘텐츠도 추가될 전망이다.삼성카드가 통합 앱을 선보이면 또 하나의 ‘공룡 플랫폼’이 탄생하게 된다. 현재 삼성카드와 화재가 각 1000만명의 고객을 보유하고 있으며 삼성생명과 삼성증권 고객 수도 각각 820만명, 400만명에 달한다. 이들 계열사 고객을 합하면 3200만명에 달한다. 은행권에서 가장 많은 고객을 보유한 KB국민은행(1500만명)은 물론 카카오페이(2000만명), 네이버페이(1600만명), 토스(1200만명) 등 빅테크보다 월등히 많은 규모다.통합 앱에는 오픈뱅킹과 보험료 결제와 같은 통합 금융 서비스는 물론 내 차 시세 조회, 신차 견적, 부동산 시세 조회 등 자동차·보험 서비스도 담길 계획이다. 계열사별 데이터를 활용한 정보성 콘텐츠와 이외의 차별화된 서비스도 내놓을 것으로 예상된다. 계열사별로 지급하고 있는 리워드 포인트를 통합해 운용할 수도 있다.특히 통합 앱이 삼성 스마트폰에 기본적으로 설치되는 삼성페이와 결합될지 주목된다. 당장 결합이 안되더라도 향후 연계 서비스를 내놓을 경우 시너지는 상당할 것으로 관측된다. 삼성페이 가입자는 지난해 7월 기준 1500만명에 이른다.다만 통합 앱이 당장 마이데이터 서비스를 내놓을 수 없는 점은 한계로 꼽힌다. 금융위원회는 지난달 삼성생명에 약관을 어기고 암 입원 보험금을 지급하지 않은 삼성생명에 중징계인 ‘기관경고’를 내렸고, 이에 따라 생명과 카드 등 자회사는 향후 1년간 당국 인·허가가 필요한 신사업에 진출할 수 없다.마이데이터 시장에 진출한 다른 금융사와 빅테크가 타사 고객 정보를 한 곳에 모아 서비스를 내놓을 때 삼성카드가 내놓을 통합 앱에선 삼성 금융계열사 고객 정보만 모을 수 있는 셈이다. 삼성생명 관계자는 “지난 4일 금융감독원으로부터 종합검사 결과서 일부를 받았고, 모두 수령하면 이를 면밀히 검토해 제재 결과를 수용할지 이의를 제기할지 등을 결정할 계획”이라고 말했다.삼성카드 관계자는 “통합 앱 출시는 마이데이터와 별개로 디지털 경쟁력 제고를 위해 지난해 초부터 추진해오던 것”이라며 “통합 앱을 통해 고객 편의성과 서비스를 강화할 계획”이라고 강조했다. 다만 이 관계자는 “통합 앱 출시 일정이나 명칭 등은 아직 확정하지 않았다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>슬랙 활성화율 세계 1위 '롯데온', 거래액 45%로 껑충</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002996940?sid=101</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>롯데온 직원들이 회의를 진행하는 모습롯데온의 의사결정 속도가 빨라졌다. 업무 전반에 걸친 수평적 소통과 협업 문화가 정착되면서 사업 효율이 개선됐다. 업무용 협업 툴인 '슬랙'(Slack)이 중요한 역할을 했다. 이로 인해 지난해 롯데온 거래액은 45% 늘었다.슬랙은 지난달 서울 잠실에 있는 롯데e커머스 본사를 방문했다. 롯데온이 슬랙의 실시간 음성대화 기능인 허들을 가장 활발하게 사용하는 조직으로 꼽혀서다. 롯데온의 슬랙 허들 활성화율(전체 임직원 수 대비 이용률)은 62%로 모든 기업 중 1위로 나타났다.슬랙 허들은 실시간 오디오 채널로 전환해서 자유롭게 대화할 수 있는 기능이다. 슬랙은 롯데온의 수평적 소통과 협업 방식에 주목했다. 롯데온은 이메일과 서류 중심 업무 방식에서 벗어나 슬랙을 적극적으로 활용해 업무 효율을 대폭 끌어올렸다. 롯데온 슬랙에는 6000개 채널에서 270만건의 포스트가 생성됐다. 임직원의 94.2%가 포스팅을 통해 업무를 처리했다.슬랙 핵심은 커뮤니케이션이다. 업무 단위로 자유롭게 채널을 생성하고, 소통·공유할 수 있다. 채널을 통해 임직원 누구나 업무 진행 상황을 손쉽게 알 수 있고, 클라우드·캘린더 등 외부 툴과의 연동이 가능하다. 필요한 경우 외주 인력도 참여할 수 있다. 개발 업무에 최적화된 덕분에 토스와 쿠팡, 배달의민족 등이 주로 사용한다.업무용 협업툴 슬랙 사용 예시슬랙을 통해 비개발직과 개발직의 긴밀한 협력 체계를 구축한 것이 주효했다. 기존 유통업에서는 상품을 매입하는 상품기획자(MD)와 마케터 협업이 중심이었다면 온라인 유통에서는 개발 역량이 추가된다. e커머스 시장에서 상품 조직과 개발자 간 상호작용이 없다면 좋은 결과를 얻을 수 없다는 판단이다. 롯데온 관계자는 “e커머스에서는 최적화된 사용자 환경(UI), 사용자 경험(UX)을 만드는 프론트엔드·백엔드 개발이 뒷받침돼야 경쟁력을 갖출 수 있다”면서 “슬랙을 통해 직군을 뛰어넘는 부서 간 활발한 협업이 가능해졌다”고 말했다.업무 속도도 빨라졌다. 장애 대응 시간이 60% 감소했고, 연중 최대 행사인 롯데온세상 준비 기간도 예년보다 절반 이상으로 줄었다. 대표부터 말단 사원까지 전 임직원이 슬랙에서 의견을 나누고 업무를 교류하면서 의사결정을 줄인 덕분이다.변화를 이끈 건 나영호 대표다. 지난해 4월부터 롯데온을 맡은 나 대표는 e커머스 시장 변화에 맞게 개발자 중심으로 조직을 개편했다. 디지털 전환에 방해가 되는 오프라인 관점의 제도, 프로세스, 문화는 모두 바꾸겠다는 의지다. 슬랙 도입 역시 구태를 벗고 IT 업무에 맞는 조직으로 체질을 개선하기 위함이다. 지난달에는 그룹 내 처음으로 직급제를 폐지하고 레벨제를 도입했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>2022.02.10.</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>알다, 실시간 비교 가능 금융사 25곳으로 확대... 전년비 4배↑</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/123/0002266796?sid=101</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>◆…사진=팀윙크 제공마이데이터 관련 스타트업 팀윙크는 자사의 대출 비교 플랫폼 '알다'에 광주은행과 IBK저축은행이 신규 입점하면서, 실시간 대출 비교를 할 수 있는 금융사가 작년 초 7곳에서 25곳으로 4배 가까이 확대됐다고 10일 밝혔다.   팀윙크는 토스, 카카오페이, 핀다, 핀크 등과 함께 마이데이터 1차 사업자로 선정된 핀테크 기업이다. 대출 과정에서의 불편함을 해소하고, 공급자 중심의 대출 시장을 소비자 중심으로 혁신하기 위해 대출 비교 플랫폼 ‘알다’를 운영하고 있다. 2월 기준 1금융권·저축은행·캐피탈 등 다양한 금융사의 80여 개 대출 상품을 한 번에 비교할 수 있다.   이번에 알다에 신규 입점한 금융사는 광주은행과 IBK저축은행이다. 알다 앱에 간단한 정보를 입력하면 광주은행과 IBK저축은행의 대출 조건을 비교할 수 있다. 광주은행은 개인 급여소득자를 대상으로 한 비대면 중금리대출을, IBK저축은행은 소득이 있는 만 19세 이상 성인을 대상으로 한 개인신용대출과 온라인햇살론 상품을 선보인다.   팀윙크 관계자는 “현재 다수의 금융사와 추가 제휴를 논의 중이며, 1분기 내 제휴 금융사 수를 30곳 수준으로 확대할 것”이며, "2분기 내에는 핀크/토스 등의 제휴사 수준(40곳 내외)으로 확장 예정"이라고 밝혔다.   팀윙크 강민주 파트너십 매니저는 “대출 과정에서 금융 소비자들이 겪는 불편을 줄이고, 대출 선택권을 보장하기 위해 다양한 금융사를 연계하고 있다”며, “주택담보대출·차량 담보대출 등 더욱 다양한 상품을 선보이고, 알다 앱 안에서 대출의 모든 과정을 마무리할 수 있도록 하는 등 비대면 대출 활성화를 위한 알다 만의 혁신적 서비스를 선보여 나갈 것”이라 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>마이데이터 사업자, 쿠콘 API 활용해 대출 비교 서비스 구현</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002118402?sid=105</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 비즈니스 데이터 플랫폼 기업 쿠콘(대표 김종현)은 자사 상품 ‘대출한도 및 금리조회 API’로 구현되는 대출 비교 서비스가 다양한 업권에서 활용되고 있다고 8일 밝혔다.최근 쿠콘은 키움증권과 하나카드의 마이데이터 서비스에 대출 비교 서비스를 연계했다. 쿠콘이 구현한 대출 비교 서비스는 각각 키움증권의 마이데이터 서비스 ‘MY자산’과 하나카드의 마이데이터 서비스 ‘하나합’에서 만나볼 수 있다. 쿠콘이 제공하는 대출 비교 서비스는 30여 개의 금융기관으로부터 대출 한도와 확정 금리 정보를 실시간으로 제공받을 수 있는 서비스다. 기업은 쿠콘만 연결하면 금융기관을 일일이 연계하지 않아도 많은 금융기관의 상품 정보를 조회할 수 있다.작년 마이데이터(본인신용정보관리업) 본허가를 취득한 키움증권, 하나카드와의 이번 연계는 쿠콘의 API가 은행, 핀테크 기업뿐만 아니라 증권사, 카드사 등 다양한 업권에서 활용되고 있는 것을 보여주는 사례이기도 하다. 특히, 키움증권과의 연계는 쿠콘과 증권사가 최초로 API를 연계한 사례라는 점에서 의미가 있다. 쿠콘 대출한도 및 금리조회 API는 마이데이터 시대에 최적화된 API로, 초개인화된 서비스 구현이 가능하다. 시중에 출시된 대부분의 대출 비교 서비스가 쿠콘 API를 탑재하였으며, 시장 내에서 서비스 안정성과 기술력을 인정받고 있다. 대표적으로 토스, 카카오페이, 핀다, 현대카드 등이 쿠콘 대출한도 및 금리조회 API를 통해 개인 맞춤형 대출 상품 비교·추천 서비스를 제공 중이다. 특히 마이데이터 사업자들의 경우 통합자산관리와 대출 상품 비교·추천 서비스를 접목하여 보다 정교화된 마이데이터 서비스를 선보일 수 있다. 쿠콘과 연계하여 대출 상품 비교·추천 서비스를 출시하는 금융기관, 마이데이터 사업자는 꾸준히 늘고 있으며, 다양한 업권에서 들어오는 연계 문의 또한 계속해서 이어지는 중이다. 김종현 쿠콘 대표는 “쿠콘 대출한도 및 금리조회 API가 은행이나 핀테크 기업뿐만이 아닌 다양한 업권에서 마이데이터 서비스를 고도화하는 데 적극 활용되고 있어 기쁘다”며, “쿠콘은 앞으로 핀테크 서비스와 금융기관 간 연계사업을 활성화해 금융소비자에게 다양한 대출상품 정보가 제공될 수 있도록 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>유스비, 비대면 금융인증 솔루션 'eKYC' 출시</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002246576?sid=105</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>신분증 OCR·진위확인 API·1원 계좌인증·안면인식 SDK 등 종합 제공레그테크(RegTech) 스타트업 유스비(대표 김성수)는 비대면 금융고객확인 솔루션 ‘eKYC’를 출시했다고 4일 밝혔다.eKYC는 기업이 고객확인제도(KYC)를 이행할 수 있는 비대면 금융인증 종합 솔루션이다. 신분증 OCR(광학식 문자판독장치), 신분증 진위확인, 1원 계좌인증, 얼굴인식 등 비대면 인증에 필요한 모든 기능을 한 번에 제공한다. 기업에서는 원하는 기능만 온∙오프(On∙Off)해 선택적으로 사용할 수 있다고 유스비는 밝혔다.앞서 지난해 11월 영상인식 AI기업 알체라(대표 황영규)가 유스비를 인수한 바 있다. 현재 국내 금융기업들은 금융실명법상 비대면으로 고객을 확인할 때 규정에 따라 고객으로부터 신분증 사본 수령, 영상통화 또는 기존계좌를 활용한 실명확인(1원 계좌인증) 등의 절차를 거쳐야 한다. 이에 따라 핀테크 및 가상자산 사업자 신고를 준비하는 기업은 신분증 OCR, 신분증 진위확인 API, 1원 계좌인증 및 안면인식 SDK 등 다양한 비대면 본인인증 솔루션을 구축해야 하는 실정이다.하지만 이와 관련한 종합 솔루션이 없어 그동안 기업들은 여러 업체로부터 각각의 솔루션을 구매, 직접 UI를 기획하고 개발해야 했기 때문에 비용도 많이 들고 직접 개발에 어려움을 겪어야 했다는게 유스비 판단이다. 유스비가 'eKYC' 솔루션을 출시한 이유다.김성수 유스비 대표는 "eKYC 솔루션은 별도의 UI 개발 없이 바로 웹과 모바일 앱에 적용해 사용하는 것으로 비대면 고객확인제도(KYC)를 준수해야 하는 핀테크∙가상자산 사업자들의 어려움을 해소할 수 있을 것으로 기대한다”고 밝혔다.한편 이번 eKYC 솔루션에 알체라의 AI 기반 고객 신원확인 서비스 ‘에어아이디(AIIR ID)’가 적용됐다. 에어아이디는 고도화된 얼굴 위변조방지(Anti Spoofing) 기술을 적용, 다양한 카메라 환경에서도 99% 이상의 정확도로 얼굴 위변조 여부를 판별해낸다고 알체라는 설명했다.황영규 알체라 대표는 “알체라의 얼굴인증 솔루션은 토스 등 다수의 금융기업에서 적용하고 있는 안전하고 우수한 기술”이라며 “금융규제 문제로 어려움을 겪는 핀테크 스타트업들을 지원할 수 있도록 유스비와 레그테크 개발에 총력을 다하겠다”고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>2022.02.11.</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>‘카뱅 vs 토뱅’ 어디로 찾아갈까?…대출 경쟁 불붙은 인터넷은행</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000073215?sid=101</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>(카카오뱅크 제공) 정부의 가계대출 규제로 어려움을 겪은 인터넷전문은행들이 활로 모색을 위해 새로운 대출 상품을 잇따라 선보이고 있다.인터넷은행 카카오뱅크는 대출 신청부터 서류 제출, 대출금 지급까지 모든 과정을 100% 비대면으로 진행하는 주택담보대출을 이르면 오는 2월 22일 선보일 예정이라고 밝혔다. 은행권에서는 지난해 7월 우리은행이 100% 비대면 주택담보대출을 처음 선보였으나, 인터넷은행 중에서는 카카오뱅크가 최초다. 이 상품은 주택구입자금뿐 아니라 생활안정자금 대출까지 가능하다. 다만 대상은 아파트 매매에 한정돼 있다. 카카오뱅크는 향후 빌라 등으로 대출 대상을 넓힐 계획이다.이에 질세라 토스뱅크는 2월 14일 무보증·무담보 개인사업자(소호·SOHO) 신용대출 상품을 선보인다. 인터넷은행 중 자체 소호대출 상품을 내놓은 것은 토스뱅크가 처음이다. 연 소득 1000만원 이상, 사업 기간 1년 이상 사업자가 대상이다. 금리는 토스뱅크 신용평가모형과 매출 증빙 자료 등을 종합적으로 활용해 결정된다. 지난해 10월 출범한 토스뱅크는 대출 상품이 신용대출 하나뿐이라 다양한 포트폴리오가 필요하다는 지적이 많았다. 이런 상황에서 아직 다른 인터넷은행들이 상품을 내놓지 않은 틈을 타 대출을 확대하겠다는 전략으로 풀이된다.국내 최초 인터넷은행 케이뱅크 역시 연내 소호대출을 선보인다는 계획이다. 구체적인 시점은 정해지지 않았지만 소호대출을 통해 대출 상품 라인업을 강화하겠다는 전략이다. 이처럼 인터넷은행들이 줄줄이 대출 상품을 내놓는 이유는 최근 금융당국이 인터넷은행 규제를 개편한 영향이다. 금융당국은 인터넷은행의 예대율 규제를 시중은행과 동일하게 하고 기업대출 심사에 요구되는 현장 실사와 대면 거래를 허용하는 등 규제를 개편했다. 그동안 정부의 가계대출 규제로 수익성에 어려움을 겪던 인터넷은행들이 규제 개편에 따라 대출 시장에 적극적으로 뛰어든 것이다.증권가에서는 인터넷은행이 대출 상품을 확대를 통해 성장 기반을 마련했다는 평가를 내놓는다. 김현기 하이투자증권 애널리스트는 “그동안 인터넷은행은 가계대출만 취급했으나 최근 금융위원회의 규제 완화로 점진적으로 비대면 소호대출이 이뤄질 것”이라며 “비대면 주택담보대출과 소호대출 등을 통해 성장 기반을 마련할 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>2022.02.01.</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>역대급 IPO 올해도 계속…현대ENG 대신할 다음 주자는?</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004659016?sid=101</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>올해 신규 상장 기업 80개·공모 규모 25조원 예상"지난해 못지 않은 시장 흐름 이어질 것"(사진=게티이미지뱅크)LG에너지솔루션에 이은 대어급 공모주로 주목 받았던 현대엔지니어링이 상장을 미루면서 아쉬움을 토로하는 투자자들이 많다. 하지만 실망하기엔 이르다. 올해 기업공개(IPO) 시장을 빛낼 예비 기업들이 줄줄이 대기하고 있기 때문이다.2일 금융투자업계에 따르면 현대엔지니어링은 지난달 28일 IPO 철회신고서를 제출하고 유가증권시장 상장 계획을 연기했다. 최종 공모가 확정을 위한 수요예측을 실시했으나 회사 가치를 적절히 평가받기 어려운 측면 등 제반 요건을 고려해 철회신고서를 제출했다"고 설명했다.비록 현대엔지니어링의 상장은 미뤄졌지만 이외에도 상장을 앞두고 있는 기업은 많다. 현재 △원스토어 △현대오일뱅크 △교보생명 △쏘카 △SK쉴더스가 청구서를 접수해 둔 상황이다. 이밖에 △SSG닷컴 △컬리 △CJ올리브영 △오아시스 △카카오엔터테인먼트 등도 새롭게 증시에 입성할 것으로 보인다. 최종경 흥국증권 연구원은  "올해 코스피와 코스닥 공모를 통한 신규 상장 기업 수는 80개, 공모 규모는 25조원으로 예상된다"며 "올해는 작년(89개, 20조원)과 비교해 상장 규모는 실질적으로 감소하겠지만 전년 못지 않은 시장 흐름이 계속될 것"이라고 말했다.올해 IPO 시장을 빛낼 예비 기업들을 살펴보면 환경·사회·지배구조(ESG)의 대주제 아래 2차전지, 친환경, 재생에너지 등의 관심과 신규 상장이 지속될 것으로 기대된다.우리 증시에서는 기업의 비재무적 요소 ESG 중 환경(E) 요소만 부각되는 경향이 높아 2차전지, 수소연료전지, 배터리 리사이클링과 광범위하게는 친환경 재생 산업이 상대적으로 관심이 높은 상황이다. 아직 구체적 일정은 공개되지 않았지만 자연스럽게 다음 관심은 SK온의 상장에 모이고 있다. 이와 함께 △범한퓨얼셀(수소 연료전지) △성일하이텍(배터리 재활용) △세아메카닉스(2차전지 부품)와 보다 광범위한 분류로 △대명에너지(신재생에너지 시설) △이지트로닉스(전력변환장치) △태림페이퍼(폐지 재활용 및 골판지)까지 올해 시장에 상장할 예정이다.지난해 가장 좋은 업황 분위기를 보인 IT 업종이 현재 상장 예정 기업 명단에도 가장 많은 지분을 차지하고 있다. △나래나노텍(디스플레이 장비) △비씨엔씨(반도체용 합성 쿼츠) △풍원정밀(디스플레이 소재) △에이엘티(시스템 반도체 후공정) △에이치피에스피(반도체 열처리 공정 장비) △가온칩스(반도체 공정 설계) △영창케미칼(반도체 포토레지스트) △미코세라믹스(반도체부품/서비스) △넥스트칩(자율주행 차량용 반도체) 등의 신규 상장이 진행되고 있다.신기술·신산업을 기반으로 성장한 예상 시가총액 1조원 이상의 K-유니콘 기업들과 모바일·온라인 기반의 신유통 기업들의 신규 상장 역시 본격화될 전망이다. 국내 대표 카쉐어링 플랫폼 쏘카는 이미 청구서를 접수해 신규 상장을 공식화했고 SSG 닷컴, 컬리, CJ 올리브영, 오아시스 등의 신규 상장도 회사 안팎으로 비교적 구체적으로 얘기되고 있다. 여기에 비바리퍼블리카(토스), 카카오그룹의 카카오엔터테인먼트 상장 가능성도 남아 있으며 야놀자의 미국 나스닥 상장 도전까지 풍성한 한 해가 예상된다.최 연구원은 "신규 상장 시장은 구조적으로 무(無)에서 유(有)를 창조하는 시장이 아니고 잘 익은 비상장 기업을 수확하고 추수하는 구조이기 때문에 공급 측면에서 급증·급감보다는시장의 체력 수준을 유지한다고 가정하는 것이 합리적"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>NHN페이코, 후불결제 시장 진출...빅테크 격전장 부상</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002996935?sid=101</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>네이버파이낸셜·쿠팡 이어내달 NHN페이코 '피스코어'카카오페이, 후불형 교통카드토스, 30만원 내 결제 선봬후불 결제시장이 빅테크 격전장으로 부상했다. 네이버파이낸셜, 쿠팡에 이어 NHN페이코가 후불결제 시장에 뛰어들었다. 이어 연내 카카오페이, 토스도 시장 진출을 앞두고 있어 신용카드사와의 한판 격돌을 예고했다. 이들은 신용카드 발급이 어렵지만 간단한 디지털 소액 신용대출 서비스가 필요한 젊은 층을 집중 공략한다는 전략이다.6일 NHN페이코는 다음 달 자체 개발한 신용평가모형 '피스코어'(P-Score)를 출시하고 후불결제 시장에 뛰어든다. 신한은행과 함께 후불결제 서비스를 연내에 선보인다는 계획이다. 이용자별 후불결제 한도 산정에 피스코어를 활용한다. 산출된 모형을 기반으로 데이터 분석 기반 금융상품 추천 서비스도 출시한다. NHN페이코는 피스코어를 활용해 고객 신용을 평가하고 점수에 맞춰 대출 상품을 연계해주는 등 다양한 분야에 적용할 방침이다.카카오페이는 지난달 월 15만원 한도의 모바일 후불형 교통카드를 일부 사용자 대상으로 시작했다. 다음 달 전체 사용자를 대상으로 서비스를 확대할 예정이다. 카카오페이는 선불충전 방식 모바일 교통카드만 제공했다. 후불결제 기능이 도입되면 미리 충전하지 않고 교통카드를 쓰고 나중에 결제할 수 있다. 교통카드로 시작하지만 향후 쇼핑 등 일반 결제에 관한 소액결제 시장까지 영역을 확대할 것으로 보인다.토스도 다음 달 월 30만원 내 후불결제서비스를 출시한다. 대출이나 카드 실적이 없어도 신용도를 측정할 수 있는 자체 신용평가사 '토스신용데이터준비법인'을 2분기에 설립한다.네이버파이낸셜, 쿠팡은 이미 후불 결제서비스를 제공하고 있다. 여기에 NHN페이코를 필두로 카카오페이, 토스가 가세하면서 시장 경쟁은 한층 치열해질 전망이다. 카드사는 시장 점유율을 빼앗길 가능성에 예의주시하고 있다. 빅테크 기업은 대학생, 사회초년생, 주부 등 금융 이력이 부족한 저신용자를 주목하고 있다. 국내 저신용자는 1300만명으로 추산된다.후불결제는 비금융 데이터와 머신러닝 등 IT를 활용한 대안신용평가모델로, 신용 기록이 없는 저신용자도 이용이 가능한 거래 구조를 갖고 있다. 플랫폼 기업이 가진 빅데이터는 후불결제 사업 핵심 경쟁력으로 꼽힌다. 빅테크 기업은 자체 플랫폼에서 후불결제서비스를 제공하면 결제액의 최대 2.3%에 해당하는 카드사 수수료를 지불하지 않아도 된다. 카드사 수수료가 없기 때문에 판매자나 소비자에게 더 나은 혜택이 돌아갈 수 있다는 이점이 있다. 빅테크기업이 후불 결제를 확대하면서 기존 금융시장에 영향을 미칠 것으로 보인다.해외처럼 후불결제서비스가 신용카드를 대체하는 결제수단으로 성장할 가능성도 있다. 최근 미국과 유럽 등에서는 밀레니얼 세대를 중심으로 후불결제 서비스인 BNPL(Buy Now Pay Later)시장이 급격히 커지고 있다. BNPL은 현금 없이 일단 구매하고 나중에 결제하는 '선구매 후결제' 서비스다. 이자와 수수료가 없고, 만 18세 이상이면 누구나 이용할 수 있다.엄격한 신용카드 발급 심사를 거치지 않고 애플리케이션(앱)을 내려받아 가입하면 이용할 수 있다는 점에서 MZ세대에게 각광받고 있다. BNPL 서비스가 먼저 시작된 스웨덴의 경우 e-커머스 결제의 25%가 BNPL 결제다. 애플, 페이팔, 아디다스, 세포라 등 글로벌 유명 브랜드는 후불결제를 도입했다. 아마존, 이베이 등 온·오프라인 유통 채널도 BNPL을 사용하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>男→女 성전환 수영선수 잇딴 신기록…美수영계 발칵 "규정 강화"</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/025/0003170864?sid=104</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>리아 토마스. [AFP=연합뉴스]           미국 수영계가 발칵 뒤집혔다. 한 선수가 남성에서 여성으로 성전환 한 뒤 여성으로 참가한 대회에서 잇따라 신기록을 내놓자 공정성 논란이 불거진 것이다. 이에 미국수영협회는 성전환 선수의 경기 출전 자격과 관련한 규정을 강화하기로 했다.      1일(현지시간) 스위밍월드매거진 등 현지 언론에 따르면 미국수영협회(USA Swimming)는 이날 호르몬 수치 요건 등을 조정한 성전환 선수 참가 규정을 발표했다.      이에 따라 남자에서 여자로 성전환한 선수가 경기에 참가하려면 이전 36개월간 혈중 테스토스테론 수치가 리터(L)당 5나노몰(nM)을 넘지 않아야 한다. 테스토스테론은 대표적인 남성 호르몬이다.      아울러 남성으로서 사춘기를 보낸 것이 다른 시스젠더(타고난 생물학적 성과 젠더 정체성이 일치하는 사람) 여성과의 경쟁에 도움이 되지 않았다는 사실도 증명해야 한다.       선수가 이와 관련해 두 가지 증거를 제시하면 의료인으로 구성된 3명의 패널이 이를 검토하게 된다.      수영협회가 새롭게 제시한 성전환 여성 선수의 출전 규정은  국제올림픽위원회(IOC) 기준보다 엄격한 수준이다. IOC는 최소 12개월 동안 토스토스테론 혈중 농도를 리터(L)당 10나노몰(nM) 미만으로 유지한 경우에 한해 성전환 여자 선수의 출전을 허용하고 있다.      미국 수영협회의 이 같은 조치는 최근 잇따라 신기록을 갈아치운 리아 토마스(22)와 같은 사례를 겨냥한 것이라는 분석이 나온다.     리아 토마스. [AP=연합뉴스]       토마스는 지난 3개 시즌 동안 남성 수영 선수로 활동한 당시 별다른 주목을 받지 못했으나, 성전환 선언 뒤 여성팀으로 옮긴 이후인 지난해 11월 미 대학스포츠협회(NCAA)가 주관하는 수영경기 중 여성 200m, 500m 자유형 종목에 출전해 각각 대회 최고 기록을 세웠다.      토마스의 신기록 소식에 수영계 일각에서는 토마스가 여성과 경쟁하는 것이 공정성에 어긋난다는 지적이 제기됐다.      실제 이번 미국수영협회가 강화한 규정에 따르면 지난 36개월 이전에 남성이었던 토마스는 출전이 불가능하다.        다만, 토마스가 이달 말 출전 예정이었던 아이비리그챔피언십 참가 자격을 박탈당하지는 않을 것으로 보인다. 우선 토마스는 현재 미국수영협회 소속 선수가 아닌 대학 소속이어서 이번 규정이 적용되지 않기 때문이다.      또 미 수영협회는 이 정책을 발표하면서 “트랜스젠더 학생 운동선수가 새로 채택된 기준을 충족해 정책 변경으로 인한 자격을 잃을 경우 추가 자격을 허용할 수 있는 유연성을 권장한다”고 여지를 남긴 바 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>방역패스 예외 적용자 1만9169명…"다중이용시설 자제해달라"</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005039679?sid=102</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>면역결핍이 1만1262건으로 가장 많아지난 3일 기준 총 1만9169명이 방역패스 예외확인서를 발급받은 것으로 나타났다. 4일 중앙방역대책본부는 지난달 24일부터 쿠브 또는 전자출입명부 애플케이션(앱)에서 예외 확인서 발급을 시작하면서 보건소에서 관리하던 발급 현황이 전산화됐다며 이 같이 밝혔다. 방역패스 예외 확인서는 코로나19 백신 임상시험 참여자와 의학적 사유에 의한 예외 적용자에게 발급된다. 방역패스 예외를 인정받는 의학적 사유로는 ▲코로나19 백신 접종 후 중대한 이상반응 ▲백신 구성물질에 중증 알레르기 발생 이력 ▲면역결핍 혹은 면역억제제·항암제 투여 등이 있다.3일 기준 전산 등록된 방역패스 예외적용자는 면역결핍과 관련한 경우가 1만1262건으로 가장 많았다. 가장 적은 분류군은 백신 이상반응으로 '4-1 인과성 근거 불충분' 판정을 받은 경우(41건)였다.방역패스 예외확인서는 쿠브 앱과 전자출입명부 앱(네이버·카카오·토스·패스)에서 발급받을 수 있다. 종이 통합확인서는 방역패스 통합확인서 발급 누리집에서 온라인으로 발급 가능하다.다만 코로나19 백신 접종 후 중대한 이상반응으로 접종금기·연기 통보를 받거나 접종 후 이상반응으로 인과성 근거 불충분 판정을 받은 경우를 제외하면 보건소에서 증빙서류를 제출한 뒤 예외자로 등록하는 과정을 거쳐야 한다.정은경 질병관리청장은 "방역패스 예외확인서를 받으면 시설 이용은 가능하지만 코로나19 감염 및 중증 위험이 높다"며 "실내 다중이용시설 이용은 자제해달라"고 당부했다. 이어 "예외확인서 발급 받은 경우에도 건강 상태가 호전되면 예방 접종을 완료해달라"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>토스뱅크, 이사회 의장에 홍민택 대표 재선임</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012958039?sid=101</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표[토스뱅크 제공, 재판매 DB 금지]    (서울=연합뉴스) 오주현 기자 = 토스뱅크는 홍민택 대표이사가 이사회 의장에 재선임됐다고 4일 밝혔다.     전날 열린 토스뱅크 이사회에서 홍 대표는 만장일치로 이사회 의장에 재선임됐다.     이사회에서는 홍 대표를 의장에 선임해 은행의 책임 경영을 강화하고, 이사회가 효율적으로 운영되도록 해야 한다는 공감대가 형성된 것으로 전해졌다.    선임 사외이사에는 토스뱅크의 사외이사를 맡고 있는 서승원 전 중소기업중앙회 상근부회장이 재선임됐다.     이사회 의장과 선임 사외이사는 관련 법령에 따라 매년 임명된다.     임기는 이날부터 2023년 정기주주총회 종료 시까지다.     viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>한국전자인증, 안군식 국내총괄사장 선임</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002247540?sid=105</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>한국전자인증은 안군식 부사장을 국내총괄사장으로 승진 발령했다고 14일 밝혔다.안 신임 사장은 창업 초기 멤버로, 인증사업본부장, 보안솔루션 본부장, CISO 등 주요 보직을 역임하며 전자인증사업의 성장기반을 구축하고, FIDO 생체인증과 V2X 보안인증체계 사업 등 신사업에 대해서도 총괄 지휘했다. 국세청, KB국민은행 등 공공·금융분야에 고객편의성과 안전성을 높인 간편인증서비스를 제공하고 토스뱅크와의 전략적 파트너십도 체결하는 등 다양한 분야에서의 인증서비스 확대를 위해 노력해왔다.한국전자인증은 안 사장 선임으로 국내 사업의 역량을 강화하고, 신홍식 대표가 미국 팔로알토에서 이끌고 있는 글로벌 비즈니스와의 시너지도 극대화 한다는 계획이다.한국전자인증 안군식 국내총괄사장이를 통해 AI와 생체기술을 접목한 보안인증기술을 주무기로 글로벌 보안인증 전문기업으로 성장세를 이어나가겠다는 전략이다.신홍식 한국전자인증 대표는 "안군식 사장은 탁월한 리더쉽의 보안인증 전문가로서 국내사업을 5년내 1억불대로 성장시키는 한편 스위스 제네바 소재 전자인증 센터를 중심으로 글로벌 브랜드인 튜링사인을 앞세워 올해 초부터 아시아는 물론 미국 및 유럽 등 전 세계 글로벌 시장 확산에 크게 기여할 것으로 기대한다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>“금융판 확 바꿔보겠다”…정인영·이혜민·이근주 3파전</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005145313?sid=105</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>17일 핀테크산업협회장 선거, 뜨거운 막판 선거전전금법·금소법 개정 등 ‘핀테크 규제혁파’ 한목소리정인영 ‘기술’, 이혜민 ‘창업’, 이근주 ‘경륜’ 강점누가 돼도 차기정부서 ‘핀테크 파이터’ 역할할듯[이데일리 최훈길 기자] 334개 핀테크 기업을 이끌 신임 한국핀테크산업협회장 자리를 놓고 선거전이 치열하다. 차기정부의 핀테크 산업 규제 혁신을 위해 앞장서야 할 자리여서다. 세 명의 후보들은 기술, 창업, 경륜 등 각자 차별화된 경쟁력을 강조하면서 금융판을 확 바꿔보겠다고 벼르고 있다.  한국핀테크산업협회 후보 기호순 정리, 주요 공약은 협회에 제출한 내용 요약. (사진=김태형 기자, 자료=각사 종합)핀테크 규제혁파 1순위로 내건 후보들13일 한국핀테크산업협회에 따르면 협회는 오는 17일 정기총회를 열고 정인영 디셈버앤컴퍼니자산운용 대표, 이혜민 핀다 대표, 이근주 한국간편결제진흥원 원장(이상 후보 기호순) 중에서 제4대 협회장을 선출할 예정이다. 협회장 임기는 2년이다. 이승건 비바리퍼블리카 대표, 김대윤 피플펀드 대표는 추대를 받아 각각 1~2대 협회장을 맡았다. 3대 협회장은 류영준 전 카카오페이(377300) 대표와 신승현 데일리금융그룹 대표가 경합해 류 전 대표가 선출됐다. 3파전으로 치르는 선거는 협회 창립 이후 처음이다.이는 핀테크 업계 규모·위상이 커졌기 때문이다. 협회 회원사는 현재 344곳으로 불어났다. 네이버페이·카카오페이·토스 등 지급결제 회사, 두나무·빗썸·코인원·코빗 등 가상자산거래소를 비롯해 온라인투자연계금융업, 크라우드펀딩, 보안인증 기업까지 회원사다. 오는 5월 차기정부 출범과 맞물려 있어 정부와 가교 역할을 해줄 협회장에 대한 관심도 높다. 의결권 중 50%는 1사1표, 나머지 50%는 회비 납부 금액에 따라 비례해 산정된다. 업계 관계자는 “‘기울어진 운동장’이라며 디지털 시장 전반에 대한 견제가 많아지고 있어 현안에 대한 파이팅을 해줄 후보가 당선될 것”이라고 내다봤다. 후보 3명 모두 이데일리와의 인터뷰에서 핀테크 산업을 키우기 위한 규제 혁파를 강조했다. 대표적인 현안은 △핀테크 기업의 전자금융업 진입 문턱을 낮추는 내용 등을 담은 전자금융거래법(전금법) 개정안 처리 △업무망과 인터넷망 분리를 엄격하게 한 망분리 규제를 완화해 핀테크 서비스 숨통을 틔워주는 방안이다. 혁신 서비스인 마이데이터를 활성화하는 것도 공통 공약이다. 정인영 후보는 “한국만 동떨어진 갈라파고스가 되면 금융산업 경쟁력을 키울 수 없다”며 “예금 상품 비교, 투자일임 계약을 맺고 퇴직연금 운용을 맡기는 서비스 등 외국과 달리 국내에선 금지된 규제를 풀자고 할 것”이라고 말했다. 이혜민 후보는 “이대로 가면 금융의 미래가 없어진다”며 “금융소비자보호법(금소법)을 개정해 보험 비교 서비스를 도입해야 한다”고 지적했다. 이근주 후보는 “규제 때문에 핀테크 산업이 발목 잡혀 있다”며 “전금법 개정안부터 1순위로 통과돼야 한다”고 강조했다. 차기정부 출범 맞물려 치열한 선거전이들 후보들은 규제혁파에 한목소리를 내면서도 각자 차별화된 경쟁력을 강조했다. 정 후보는 서울대 전기공학부를 졸업해 세 후보 중 유일한 공대 출신이다. 엔씨소프트 투자경영실장 출신인 그는 김택진 엔씨소프트 대표로부터 투자 유치를 받았다. 최근에는 배우 전지현이 디셈버앤컴퍼니자산운용의 서비스인 핀트(fint) 광고를 하고 있다. 그는 “iMBC에서 개발·기획 경험도 있어 기술, 콘텐츠, 서비스 이해도가 높다”며 “기술을 통해 서비스와 세상을 바꿔보고 싶다”고 말했다. 이혜민 후보는 20대였던 2011년에 글로시박스(화장품 구독 서비스)를 시작으로, 베베엔코(유아용 식재료 구독), 눔코리아(건강관리앱), 핀다까지 4차례 창업을 했다. 창업 과정에서 ‘대출 퇴짜’를 맞자 포기하는 게 아니라 오히려 “당당하게 대출받도록 세상에 없던 서비스를 만들겠다”며 핀다를 창업했다. 작년 초 핀다 직원이 20여 명이었는데 올해는 약 200명까지 늘릴 계획이다. 그는 “무(無)에서 유(有)를 만든 경험이 경쟁력이 될 것”이라고 말했다. 이근주 후보는 IBK 기업은행 전산정보부, 뉴욕지점, 국제업무부, 스마트금융부 등 금융 경험이 많은 전문가다. 핀테크산업협회 설립준비국장·사무국장도 맡은 경험이 있어 협회 태동기부터 핀테크 기업들의 애로사항을 챙겨왔다. 최근에는 동국대 대학원 핀테크블록체인학과도 졸업해 가상자산 시장으로도 보폭을 넓히는 중이다. 그는 “특정 기업에 소속되지 않은 후보로서 핀테크 업계 전반의 애로사항을 가감 없이 당국에 전할 것”이라고 강조했다. 현재 각각 100명 이내 직원을 가진 디셈버앤컴퍼니자산운용과 핀다는 협회장 선거를 통해 차기정부에서 회사도 함께 커가는 포부를 갖고 있다. 한국간편결제진흥원은 서울시와 제로페이·서울페이플러스를 놓고 최근에 이견이 벌어진 상황에서 새로운 활로 모색에 나선 상황이다. 김형중 한국핀테크학회장(고려대 정보보호대학원 특임교수)은 “앞으로 네·카·토(네이버·카카오·토스) 출신 시중은행장이 나오는 시대가 열릴 것”이라며 “협회장 선거 이후 차기정부에서 핀테크 산업의 성장을 위한 다각적인 방안이 나와야 금융 혁신도 이뤄질 것”이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>금감원장, 16일 출국…주요국 중앙은행장·신평사 최고위급 면담</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012985815?sid=101</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>정은보 금감원장   [연합뉴스 자료사진]    (서울=연합뉴스) 하채림 기자 = 정은보 금융감독원장이 17∼24일 유럽·영국 중앙은행장과 독일 금융감독청 부청장 등을 만나려고 16일 출국한다고 금감원이 15일 밝혔다.     정 원장은 독일 프랑크푸르트에서 크리스틴 라가르드 유럽중앙은행(ECB) 총재, 토스튼 포에취 독일 금융감독청(BAFIN) 부청장을 면담하고, 런던에서 영국 중앙은행인 잉글랜드은행(BOE)의 앤드루 베일리 총재를 만난다.     이어 뉴욕에서는 국제신용평가사인 무디스의 롭 파우버 회장, 블라디미르 보론코프 유엔 대테러실(UNOCT) 사무차장과 잇따라 면담한다.     정 원장은 중앙은행·감독 당국 고위급과 만난 자리에서 글로벌 금융 긴축과 우크라이나 사태 등 대외 리스크와 관련한 각 기관의 대응 방안과 금융감독 협력 사항을 폭넓게 논의할 것이라고 금감원은 설명했다.     보론코프 UNOCT 사무차장과도 양 기관의 협력 방안을 논의한다.    금감원 관계자는 "글로벌 금융 변동성이 커지는 가운데 주요국 관계자들과 글로벌 현안 대응 방안을 논의하고 위기 발생 시 긴밀히 협력할 수 있는 핫라인을 구축할 수 있을 것"이라고 기대했다.    tree@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>2022.02.09.</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>점점 짧아지는 금융위 핀테크 국장 임기</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004661801?sid=101</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>안창국 단장 6개월만에 교체전임자들 2년·1년 재직과 대조"빅테크 규제와 무관치 않은듯"“갈수록 짧아지는 핀테크 담당 국장의 임기가 지난해 하반기부터 본격화된 빅테크 규제 바람과 과연 무관하다고 할 수 있겠느냐.”금융위원회가 9일 단행한 고위공무원단 인사를 두고 금융권 안팎에선 이 같은 반응이 나오고 있다. 금융위는 가상자산(암호화폐) 관리 등 업무를 맡는 금융정보분석원(FIU) 제도운영기획관에 전요섭 기획행정실장을 승진 발령하고 핀테크 지원, 혁신금융서비스(금융규제 샌드박스) 등을 주관하는 금융혁신기획단장에 국무총리실로 잠깐 파견가 있던 박민우 국장을 임명했다. 눈길을 끈 건 금융혁신기획단장 전보 발령이었다. 전임인 안창국 단장이 고승범 금융위원장 취임 직전인 지난해 8월 이뤄진 국장급 인사에서 임명된 지 6개월 만에 보직을 내려놨기 때문이다. 안 단장은 곧 국가공무원인재개발원에서 고위공무원단 신규 진입자를 대상으로 하는 외부 위탁 교육을 받을 예정이다.금융위는 안 단장이 고위공무원단으로 승진한 이후 아직 교육을 받지 않았던 데다 부처별 파견 대상 인원(TO)이 정해져 있어 어쩔 수 없이 안 단장이 선정된 것이라고 설명했다. 금융위 주요 국장급 자리에 대한 순환보직 주기가 다른 부처에 비해 상대적으로 짧다는 점에서 재임 기간 6개월이 크게 이상할 게 없다는 얘기도 했다.하지만 안 단장의 전임 인사들을 볼 때 이례적이라는 분석이 설득력을 얻고 있다. 실제 전임 이형주 단장(현 금융산업국장)은 1년 임기를 채웠고, 권대영 단장(현 금융정책국장)은 무려 2년의 재임 기간 토스 카카오뱅크 등 빅테크의 ‘산파’ 노릇을 하면서 ‘핀테크의 아버지’라는 별명을 얻기도 했다.한 빅테크 업체 관계자는 “안 단장이 지난해 업계의 고충과 어려움을 해결하기 위해 나름대로 애를 많이 썼다”며 “그럼에도 최대 당면과제였던 가계부채 문제 등 우선순위에 밀려 내부에서 제 목소리를 내기 힘들었을 것”이라고 했다. 안 단장의 후임인 박민우 단장도 서울대 법대를 졸업하고 자본시장과장, 은행과장 등 주요 보직을 골고루 거친 엘리트 관료라는 평가다. 금융계는 박 단장이 안 단장의 교체에 불안해하는 핀테크업계의 우려를 불식시킬 수 있을지 주목하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>비즈니스온, SaaS기반 인사관리 솔루션 '시프티' 280억원에 인수</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002118299?sid=105</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 비즈니스온커뮤니케이션(대표 라민상, 강민철, 이병두 / 이하 비즈니스온)이 통합인력관리 SaaS 솔루션 업체인 시프티를 인수한다고 발표했다. 이는 시프티의 지분 66.7%를 280억원에 인수하는 거래로 비즈니스온 역대 최대 규모 인수다.비즈니스온은 최근에 글로싸인(전자서명), 플랜잇(데이터 분석/시각화), 넛지(재무솔루션)를 연달아 인수, 비즈니스온과 피인수 기업들 간의 유기적인 협업으로 교차 판매 확대와 솔루션 개선을 통해 인수의 시너지를 단 기간 내에 실현해 왔다.  시프티는 SK네트웍스, 미래에셋, 롯데쇼핑, 현대오일뱅크 등의 대기업과 카카오, 쿠팡, 토스, 배달의민족 등 빅테크 기업들을 포함한 15만 기업을 고객사로 확보하고 있는 통합인력관리 솔루션 제공 기업이다.   비즈니스온은 이번 시프티 인수를 통해 기업용 SaaS 솔루션을 재무 영역에서 인사관리 영역으로까지 확대함으로써, 400만의 비즈니스온 기존 고객들을 대상으로 한 교차 판매의 효과가 더욱 확대될 것으로 예상하고 있다. 그리고, 비즈니스온의 기술과 역량을 접목하여, 시프티의 기존 솔루션을 전자계약, 급여 정산, 원천세 신고 등 다양한 기능들로 확장함으로써, 기존의 인사관리 솔루션들과는 차별화되는 종합 인사관리 솔루션으로 진화해 나가면서 경쟁력을 더욱 강화할 것으로 전망된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>비즈니스온, 기업 HR관리 스타트업 '시프티' 280억에 인수</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004704715?sid=101</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>B2B SaaS(기업용 서비스형 소프트웨어) 기업 비즈니스온커뮤니케이션이 통합 인력관리(HR) 솔루션 스타트업 시프티를 인수했다고 7일 밝혔다. 시프티의 지분 66.7%를 280억원에 인수하는 거래다. 비즈니스온은 최근 글로싸인(전자서명), 플랜잇(데이터 분석·시각화), 넛지(재무솔루션)를 연이어 인수한 바 있다. 피인수 기업들과의 유기적인 협업을 통해 B2B SaaS 전문 기업으로의 빠른 성장에 박차를 가한다는 목표다. 시프티는 SK네트웍스, 미래에셋, 롯데쇼핑, 현대오일뱅크, 카카오, 쿠팡, 토스, 배달의민족 등 15만 기업을 고객사로 확보하고 있다. 창업 3년 만에 손익분기점(BEP)을 넘기는 흑자 경영으로 매년 매출이 성장하고 있다. 시프티 관계자는 "재택근무 확산, 다양한 유연 근무 확대, 주 52시간 근무 제도의 의무화 등으로 인해 신규 고객은 앞으로도 증가할 것"이라고 했다. 비즈니스온 관계자는 "시프티 인수를 통해 B2B SaaS 솔루션을 재무 영역에서 인사관리 영역으로까지 확대할 것"이라며 "400만 비즈니스온 기존 고객들을 대상으로 교차 판매의 효과가 더욱 확대될 것으로 예상하고 있다"고 했다. 이어 "시프티의 기존 솔루션을 전자계약, 급여정산, 원천세 신고 등 다양한 기능들로 확장해 다른 인사관리 솔루션들과는 차별화되는 종합 인사관리 솔루션으로 진화해 나가면서 경쟁력을 더욱 강화하겠다"고 덧붙였다. [머니투데이 스타트업 액셀러레이팅 미디어 플랫폼 '유니콘팩토리']</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>순창군, 팔덕면 실내 야구연습장 준공</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/079/0003609197?sid=102</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>순창군 팔덕면 구룡리 45번지 일원에 989.7㎡ 규모로 조성된 실내야구연습장. 순창군 제공전북 순창군이 14일 실내 야구 연습장을 조성하고 준공행사를 개최했다.순창군 팔덕면 구룡리 45번지 일원에 989.7㎡ 규모로 조성된 실내야구연습장은 총 21억 원의 사업비가 투입됐다.2020년 12월부터 지난해 12월까지 1년여 공사 기간을 거쳐 지상 2층으로 신축된 실내야구연습장에는 메이저리그에서 주로 사용되는 피칭머신 2대, 토스머신 3대 등 최신 설비를 갖추고 있다.또 인근 팔덕다용도 경기장은 전용야구장 1면과 겸용야구장 1면을 갖추고 있어 실내야구연습장과 더불어 전지훈련 야구팀 유치를 위한 인프라를 갖추고 있다.순창군은 이번 실내야구연습장 조성으로 야구 관련 시설 집단화가 완료돼 사계절 스포츠 전지훈련지와 각종 대회 유치 장소로 전국적인 인기 상승과 함께 더욱 많은 야구팀의 전지훈련 유치 확대를 기대하고 있다.※CBS노컷뉴스는 여러분의 제보로 함께 세상을 바꿉니다. 각종 비리와 부당대우, 사건사고와 미담 등 모든 얘깃거리를 알려주세요.이메일 : nocutnews@cbs.co.kr카카오톡 : @노컷뉴스</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>가계대출 여력 10조 줄인 5대銀, 올해 기업대출 42조 늘린다</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004708036?sid=101</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>(서울=뉴스1) 박세연 기자 = 우리나라 가계와 기업의 빚 증가세가 멈추지 않으면서 올해 2분기 말 기준으로 4000조원을 돌파했다. 특히 20~30대 청년층의 가계부채증가율은 다른 연령층을 크게 웃돌았고 이들의 가계부채 비중도 26.9%에 달했다.   24일 한국은행이 발표한 '금융안정상황(2021년 9월)' 보고서에 따르면, 지난 2분기 말 기준 명목 국내총생산(GDP) 대비 민간신용 비율은 217.1%(추정치)를 기록했다. 전년 말 대비로는 3.4%포인트(p) 오른 수치다. 민간신용은 자금순환통계상 가계(가계 및 비영리단체)와 기업(비금융법인) 부문의 대출금, 정부융자, 채권 등 부채 잔액을 의미한다. 이러한 민간신용(추정치)는 지난 2분기 말 기준으로 4321조3000억원을 기록했다. 사진은 이날 서울시내 한 시중은행 대출 창구. 2021.9.24/뉴스1     국내 5개 주요 은행이 올해 신규 기업대출 공급 여력을 가계대출에 비해 12조원 이상 늘려 잡았다. 총량 관리와 대출규제 강화, 금리 인상으로 가계대출 확대가 어려운 만큼 수익성이 높고 건전성에 문제가 없는 우량 기업과 개인사업자 대출에서 활로를 찾겠다는 것이다.  금융당국은 금리 인상기 긴축 과정에서 취약차주인 자영업자 등의 개인사업자대출 부실화 우려를 감안해 대출 심사와 관리를 더 깐깐히 할 계획이다. 14일 머니투데이가 KB국민 신한 하나 우리 NH농협은행 등 5대 은행의 올해 기업대출(대기업·중소기업·개인사업자) 확대 목표를 취합해 분석한 결과 평균 증가율은 6.68%, 합산 증가액은 42조4472억원으로 파악됐다.  은행별론 △KB국민 7%(10조4026억원) △신한 7~8%(9조8852억원) △하나 4~5%(5조5123억원) △우리 8%(9조5358억원) △농협 6.25%(7조1113억원) 등의 증가율(증가액) 목표를 제시했다. 우리은행이 가장 적극적인 기업대출 성장 목표를 제시했고 하나은행이 상대적으로 보수적인 성장 전략을 공개했다. 반면, 5대 은행의 올해 가계대출 평균 증가율과 합산 증가액은 각각 4.15%, 29조4644억원에 그치는 것으로 집계됐다. 지난해 5대 은행이 늘린 가계대출(38조8990억원·평균 5.8% 증가)과 견주면 올해는 10조원 가까이 신규 대출 공급 여력을 축소겠다는 것이다. 금융당국이 올해 금융권 가계대출 총량을 증가율 4~5%대에서 관리하기로 한 데다 기준금리 인상과 총부채원리금상환비율(DSR) 규제 확대로 대출 증가가 여의치 않다는 판단이 작용한 것으로 보인다. 은행별 가계대출 증가율 목표는 KB국민과 신한이 5%, 우리·농협이 4%, 하나은행이 2~3% 수준으로 파악됐다.  은행권 대출 전략은 지난달 대출 잔액 증감 수치에서도 확인된다. 이들 5대 은행의 1월말 기준 가계대출 잔액은 전월말에 비해 1조3634억원 줄었다. 지난해 5월 이후 8개월 만의 첫 감소다. 한국은행이 최근 발표한 지난 1월 전체 은행권 가계대출 잔액도 관련 통계 속보치를 작성한 2004년 이후 처음으로  두 달 연속 줄었다. 이에 반해 5대 은행의 1월 기업대출 잔액은 전월말보다 8조1739억원 급증했다. 전체 은행으로 넓히면 1월 기업대출 증가액이 약 13조3000억원에 달했다. 은행권 관계자는 "코로나19 감염 확산이 시작된 2020년 초부터 작년 상반기까지 이어진 초저금리 기간 주택구입과 자산 투자를 위한 가계대출 수요가 크게 늘었지만 작년 하반기 기준금리 인상이후 상황이 완전히 달라졌다"며 "올해는 우량 중소기업과 개인사업자를 두고 은행 대출 경쟁이 벌어질 것"이라고 했다.  가계대출로 세를 넓혀 온 인터넷전문은행들도 기업대출 시장에 본격적으로 진출했다. 토스뱅크는 이날 인터넷은행 중 최초로 개인사업자 대출을 출시했다. 실제 사업을 영위해 매출을 내는 자영업자와 소상공인 등 개인사업자가 대상이다. 최저금리 연 3% 초중반(변동금리)에 최대 1억원을 빌려준다. 대출 신청부터 실행까지 전 과정을 비대면, 무보증·무담보로 진행한다. 케이뱅크도 1분기 안에 '개인사업자 운전자금 대출' 상품을 출시한다. 카카오뱅크는 올해 하반기 개인사업자 대상 소호(SOHO) 대출을 선보인다. 지방은행 역시 기업대출 경쟁에 속속 가세하고 있다. 부산은행이 최근 지방은행 최초로 중·저신용 개인사업자를 위한 비대면 소호 중금리대출 상품을 내놨다. 은행권에선 중소기업과 개인사업자 대출 경쟁이 격화할 경우 무리한 영업과 자산 확대가 부실을 키울 수 있다는 우려도 나온다. 금융당국도 이날 '2022년 업무계획'을 발표하면서 기업대출로 분류되는 개인사업자대출 심사·관리를 강화하겠다고 밝혔다. 가계대출과 개인사업자대출이 모두 가능한 자영업자의 소득 대비 대출비율(LTI)을 대출심사에 활용하는 방안 등을 검토한다. 시설·운영자금 등 기업 활동 목적에 사용해야 하는 개인사업자대출을 부동산 투자 등에 용도 외 유용하는 사례를 막기 위해 용도심사 및 사후 관리 강화방안도 모색한다. 한 시중은행 관계자는 "오미크론 변이 확산으로 코로나19 위기 상황이 이어지고 있어 올해는 대출 건전성 확보가 화두가 될 것"이라며 "우량하고 건전한 중기·소호(개인사업자)를 위주로 시장에 대응할 계획"이라고 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>[5대 금융지주 수장에게 듣는다] 작년 디지털 강화에 5000억 투자… 차별화 서비스 결실</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002718589?sid=101</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>농협금융지주는 지난해 디지털 전환과 ESG 경영 성과내기에 박차를 가했다. 농협금융지주 제공    농협금융지주의 지난 2021년은 디지털 금융 강화를 이뤄냈다는 평가를 받는다. 지난해 농협금융은 디지털 시스템의 안정적 운영을 위해 농협은행 3200억원, 농협생명 484억원, NH투자증권 469억원 등 약 5000억원을 IT 부문에 투자했다. 금융권 최초 오픈 API 방식 상용화 주역인 손병환 농협금융지주 회장 주도로 계열사별 디지털 혁신 상황을 점검했고 우수한 사업장을 방문해 직원과 고객 의견을 수렴, 반영하는 등 심혈을 기울였다.손 회장은 인터넷전문은행 카카오뱅크·토스를 벤치마킹해야 한다고 강조하기도 했다. 뱅킹 앱 디자인과 속도 등에서 사용자 만족감을 극대화해야 한다는 취지다. 농협은행은 지난해 하반기부터 사업부서와 IT 부서를 하나로 묶은 공동업무 조직인 '융합센터'를 운영하고 있다. 사업조직과 개발 조직 간 업무가 유기적으로 이뤄지도록 했다.농협생명은 간편 청구 제휴병원을 확대해나가고 있다. 특히 만 70세 이상 고객에겐 격월로 전담간호사가 안부를 묻고 상담하는 효도콜 서비스 등 고령층 특화 서비스도 제공했다. 농협손해보험은 2030세대 고객이 선호하는 소액 단기보험 개발에 박차를 가하고 있다. 보험 가입 채널도 넓혀 기존 농협손해보험 앱이 아닌 타 앱을 통해서도 가입할 수 있도록 제휴 플랫폼을 늘려나가고 있다. 올해 초부터는 농협금융의 마이데이터 사업도 시행되면서 디지털 전환에 속도를 낼 전망이다.농협금융은 지난해초 '탈석탄 선언'으로 ESG 경영 확대에 나서기도 했다. 앞으로 국내외 석탄 발전소 건설에 들어가는 신규 프로젝트파이낸싱(PF) 대출과 채권에 투자하지 않고, 친환경 사업과 신재생 에너지 분야 투자를 확대한다는 내용이다. 관련 조직개편도 이뤄졌다. ESG 의사결정 체계를 구축하고자 이사회 안에 '사회가치 및 녹색금융위원회'와 회장 주관 'ESG 전략협의회'를 신설했다. 또 기존 전담 조직인 'ESG추진팀'을 'ESG추진단'으로 격상해 운영 중이다. 농협금융은 ESG 경영 전략으로 신재생에너지 투자 등 '그린 임팩트금융'과 친환경 농업, 농식품 기업을 지원하는 '농업 임팩트금융'을 소개하기도 했다.그 결과 농협금융은 지난해 3분기 최대 성과를 달성하기도 했다. 지난해 3분기 농협금융의 누적당기순이익은 전년 대비 24.9% 증가한 1조8247억원으로, 금융지주 출범 후 역대 최고 실적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>"퇴근 후 은행 간다"…KB `아날로그+디지털` 혁신[New Start, New finance②]</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001012726?sid=101</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>한국경제TV '뉴 스타트, 뉴 파이낸스' 기획KB국민은행, '나인투식스 은행(9To6 Bank)' 확대 올해 상반기 전국 72개 계획'대면 + 비대면' 시너지 기대&lt;앵커&gt;한국경제TV는 `뉴 스타트, 뉴 파이낸스(New Start, New finance)`라는 주제로 금융사들의 새로운 도전을 집중 조명하고 있습니다.오늘(3일)은 기존 강점인 영업점 영업시간을 확대·탄력 운영하며, 이른바 `아날로그` 혁신에 나선 KB국민은행의 영업 전략을 분석해 봅니다.문성필 기자의 보도입니다.&lt;기자&gt;땅거미가 내려앉은 어슴푸레한 시간.일반 은행 영업점들이 이미 문을 닫았을 때입니다.지금은 오후 6시23분입니다. 이 시간에도 창구에서는 고객 상담이 여전히 이뤄지고 있습니다.서초구 우면동에 위치한 이 지점은 지역별 특성에 따라 KB국민은행이 탄력적으로 영업 시간을 조정하고 있습니다.지역 내 직장인이 많기 때문에 퇴근 후 은행을 찾는 경우가 많아 문 여는 시간은 늦춰 오후 늦게까지 영업을 하고 있습니다.[김숙리 / KB국민은행 고객: 일반 은행은 3시 정도 업무가 끝나니까 오후 시간을 이용할 때 가장 좋더라고요.]출근 시간이 늦어진 만큼 오전 시간 활용이 가능해져 직원들의 만족도도 높습니다.[김수정 / KB국민은행 대리: 출근 시간이 다른 지점보다 늦다보니 오전 시간을 여유롭게 가질 수 있어서 자기계발을 한다거나 운동을 한다거나 이런 부분들이 장점인 것 같습니다.]KB국민은행은 지난 2017년부터 이용자 수요에 맞춰 영업시간을 탄력적으로 운영하는 이른바 `나인투식스 은행(9To6 Bank)`를 운영하고 있습니다.기존에는 전국에 20개 지점만 운영했지만, 올해 상반기 안에 이를 3배 넘게 늘릴 계획입니다. (20개→72개)카카오뱅크와 케이뱅크, 토스뱅크 등 비대면 영업은 강하지만 대면 영업은 약한 인터넷 전문은행과의 차별화를 위해 강점인 지점 영업을 혁신한 겁니다.[최찬현 / KB국민은행 영업기획부 팀장: 대면만이 제공할 수 있는 서비스가 있습니다. 대면을 고도화할 것이고 은행 영업도 그런 방향으로 대면 채널으로 고객들에게 비대면과는 다른 차별화된 서비스를 제공하는 방향으로 옮겨가겠죠.]비대면 영업 전략인 `디지털` 부분도 강화합니다.다른 금융회사와 비금융 자산까지 포함해 이용자 정보를 분석, 특성을 8가지로 분류한 뒤 유형에 맞는 자산관리 서비스를 추천하고.하나의 앱에서 KB금융그룹 모든 서비스를 이용할 수 있게 하는 이른바 `슈퍼 앱` 전략도 확대합니다.주식, 페이, 보험 등 6개 계열사 핵심 서비스를 하나의 앱에서 이용할 수 있는 셈입니다.[김운태 / KB국민은행 영업그룹대표 부행장: 대면으로 처리하는 영업점과 KB스타뱅킹을 중심으로 한 비대면 채널과의 완벽한 연계를 통해 3,200만 KB국민은행 고객 모두 365일 24시간 국민은행에서 제공하는 모든 서비스를 다 누릴 수 있도록 하겠습니다.]KB국민은행이 최근 금융업계 화두인 디지털은 물론 기존 강점인 대면, 이른바 `아날로그` 영업 혁신으로 차별화를 꾀하고 있습니다.한국경제TV 문성필입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>비즈니스온, M&amp;A로 ‘무한확장’</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001947691?sid=101</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>회계·전자서명 기술확보 이어재무 이어 인사까지 영업확대고객사만 15만곳…성장동력↑사모펀드(PEF) 운용사 프랙시스캐피탈이 보유한 ‘비즈니스온’이 잇따른 인수합병(M&amp;A)에 나서고 있다. 프랙시스캐피탈이 기업용 SaaS(서비스형 소프트웨어) 전문업체인 비즈니스온에 다양한 솔루션을 추가해 서비스 라인을 확장하는 ‘볼트온(bolt-on, 동종기업 인수)’ 전략을 적극 구사하는 모습이다.비즈니스온은 지난 7일 근태·인력관리 솔루션 스타트업 시프티 지분 66.72%를 280억원에 인수했다. 프랙시스캐피탈을 최대주주로 맞은 이후 최근 4번째 M&amp;A로 규모는 가장 크다. 이번 거래로 기존 재무영역을 아우르는 SaaS 플랫폼에 더해, 인사관리(HR) 영역으로까지 서비스를 확대하게 됐다.시프티는 SK네트웍스, 미래에셋, 롯데쇼핑, 현대오일뱅크 등 대기업은 물론, 카카오, 쿠팡, 토스, 딜리버리히어로, 우아한형제들과 같은 정보기술(IB) 기업까지 15만 곳의 고객사를 확보하고 있다. 프랙시스캐피탈은 2019년 9월 비즈니스온 경영권을 인수했다. 특수목적회사(SPC)인 비아이에스홀딩스를 통해 지분 36.24%를 730억원에 취득하고, 신주인수권부사채(BW)와 전환사채(CB)도 각각 100억원씩 인수, 총 930억원을 투자했다. 비아이에스홀딩스는 2020년 4분기 중 신주인수권과 전환권을 행사해 지분율이 46.51%까지 높아졌다.비즈니스온은 프랙시스 인수 직후부터 현재까지 총 710억원에 달하는 금액을 M&amp;A에 투입했다. 지난해에는 e-어카운트솔루션 ERP 전문회사인 넛지를 100억원에 인수했고, 앞서 2020년에는 웹 기반 간편인증 전자서명 기술을 보유한 글로싸인을 60억원에 사들였다. 빅데이터 분석 기업인 플랜잇도 270억원에 껴안으며 서비스 확장 밑그림을 그렸다.유진투자증권은 지난해 비즈니스온의 연결기준 매출액이 전년 대비 82% 성장한 336억원, 영업이익은 같은 기간 78% 상승한 98억원을 기록할 것으로 전망했다. 3분기까지 비즈니스온은 매출 249억원, 영업이익 72억원을 기록한 바 있다.회사 관계자는 “앞으로도 비즈니스온은 시너지 창출 극대화로 이어질 수 있는 다양한 M&amp;A 등 공격적인 투자를 지속할 예정”이라고 밝혔다.이세진 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>2022.02.01.</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>"네이버, 토스도 왔는데"…금융플랫폼 간담회 빠진 카카오페이의 속사정</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005038346?sid=101</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>금융플랫폼의 대표 주자인 카카오페이가 최근 열린 금융플랫폼 간담회에 '내부 사정'을 이유로 불참하면서 업계에서는 그 배경에 대해 설왕설래가 이어지고 있다. 1일 금융권에 따르면 정은보 금융감독원장은 지난달 26일 서울 명동 은행연합회에서 금융플랫폼과의 간담회를 가졌다. 이 자리에는 최인혁 네이버파이낸셜 대표, 토스의 운영사 비바리퍼블리카의 이승건 대표, KB금융지주·신한금융지주·하나금융지주의 주요 임원들이 참석했다. 하지만 정작 빅테크의 양대산맥인 카카오페이가 불참했다. 카카오페이는 국민 메신저인 카카오톡을 기반으로 편리한 간편결제, 송금 등의 서비스를 내놓으면서 혁신 대표 주자라는 평가를 받아왔다. 이때문에 카카오페이의 소통 노력이 부족하다는 지적도 나왔다.하지만 카카오페이는 최근 주요 경영진들의 도덕적 해이 논란 이후 아직도 내홍이 완벽히 수습되지 않으면서 공개석상에 모습을 드러내기 쉽지 않은 상황이다. 류영준 대표 등 카카오페이 주요 경영진 8명은 지난해 12월10일 카카오페이 주식 900억원어치를 매각했다. 이를 두고 직원들 사이에서는 '먹튀 논란'이 불거졌고, 노조도 류 대표의 사퇴를 요구하면서 카카오 공동체가 들썩였다. 이 사건은 카카오 계열사 전체에게도 타격을 입혔다. 카카오는 지난해 골목상권 침해, 독점 논란 등으로 김범수 카카오 이사회 의장이 3번이나 국정감사에 출석하는 초유의 사태를 겪었다. 카카오는 올해 전사적으로 '상생'을 외치면서 긍정적인 기업 이미지를 회복하는 데 총력을 다하려했지만, 시작도 전에 계열사에서 '사고'가 또 터진 것이다. 게다가 류 대표는 카카오 대표로 내정된 상태였다.결국 류 대표는 자진 사퇴 의사를 밝혔고, 카카오페이 임원진도 정리 수순에 들어갔다. 류 대표는 결국 3월까지 예정됐던 카카오페이의 대표직에서도 물러났고 장기주 경영기획 부사장(CFO), 이진 사업총괄 부사장(CBO)도 최근 사태에 대해 책임을 지고 사퇴했다. 주요 임원들이 자리에서 물러나면서 금융플랫폼 간담회에 회사를 대표해서 참석할 인물이 마땅치 않게 된 것이다. 게다가 신원근 대표 내정자 역시 논란의 당사자라 언론들이 대거 참석한 자리에 모습을 드러내기가 쉽지 않은 상황이다. 카카오페이는 현재 대외활동보다는 내부 정리가 시급하다. CFO와 CBO가 물러나면서 리더십 체계도 재정비해야 하고, 내부 민심도 수습해야 한다. 신 내정자도 잔류해 상황을 수습하는 데 최선을 다하겠다고 밝혔다. 신 내정자는 "매각한 주식을 재매입하고, 대표로 선임되는 경우 임기 동안 매도하지 않겠다"며 "카카오페이를 처음 출시하던 초심으로 돌아가 고객과 주주의 신뢰를 회복하기 위해 최선의 노력을 기울이겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>"토스의 성장 원동력은 혁신조직…아이디어 좋으면 누구나 리더"</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004659281?sid=101</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>이승건 비바리퍼블리카 대표에게 듣는다팀원 한 명 400억 프로젝트CEO 결재 없이 추진 가능평가는 잔인할 정도로 솔직하게예금·대출·투자 진입장벽 낮춰누구나 토스 찾도록 할 것플랫폼 규제 속도조절 필요올해 신용평가사 설립할 것이승건 비바리퍼블리카 대표 뒤로 '가족보단 스포츠팀처럼'이라는 캐치프레이즈가 보인다. 실패와 성공의 경험을 모든 구성원이 공유하며 치열하게 성장한다는 토스의 조직문화를 상징하는 문구다.   신경훈  기자토스 창업자 이승건 비바리퍼블리카 대표(40)를 만난 것은 지난달 26일. 말끔한 슈트 차림으로 들어온 그는 난처한 표정으로 “옷 좀 갈아입고 와도 되겠느냐”고 했다. 인터뷰 직전 정은보 금융감독원장과 핀테크업계 간담회에 참석하느라 정장을 입긴 했는데, 어색하고 불편하다는 것이었다. ‘근무복’인 헐렁한 니트로 바꿔입고서야 한결 편안해 보였다. 그는 집무실 없이 직원들 틈에 책상을 놓고 매일 야근하는 워커홀릭으로 유명하다.2015년 간편송금 앱으로 출발한 토스는 2100만 명이 가입한 ‘국민 금융 앱’으로 성장했다. 인터넷전문은행, 증권사, 보험판매회사, 전자결제(PG)회사까지 거느린 거대 금융그룹이 됐다. 이 모든 서비스를 하나의 앱에서 제공하는 ‘슈퍼 앱’ 전략도 토스만의 경쟁력으로 꼽힌다. ▷올해 가장 집중할 경영 목표는.“슈퍼 앱 전략을 토대로 스케일(덩치)을 더 키워야 한다. ‘토스 있으면 다 된다, 다른 금융 앱 없어도 되더라’는 경험과 인식을 확실하게 심어줄 것이다. 토스뱅크와 토스증권이 출범하면서 남다른 예금 통장과 대출상품, 편리한 주식거래 경험까지 직접 줄 수 있게 됐다. 마이데이터는 2위 업체와의 트래픽 격차가 10배 정도 난다.” ▷20대의 80%, 30대의 68%가 토스 회원이다. 포화상태 아닌가.“더 많은 국민이 토스를 쓰게 만드는 게 올해의 핵심 목표다. 청소년과 노년층도 쉽게 쓸 수 있는, 완전히 새로운 서비스도 개발하고 있다. 지방에는 아직도 돈을 부치려고 왕복 3시간을 들여 읍내에 나가는 어르신이 있다. 14세 미만은 은행 계좌도 쉽게 개설하지 못한다. 반드시 바꿔야 할 문제라고 생각한다.” ▷‘연 2% 예금’과 ‘중금리 대출’로 돌풍을 일으켰다. 리스크 관리는 자신 있나.“인터넷은행에 진출한 것은 진심으로 중금리 대출을 잘해보기 위해서였다. 토스뱅크는 1금융권 대출이 불가능했던 중신용자에게 2금융권보다 평균 5%포인트 낮은 금리로 대출을 제공하고 있다. 기존 2금융권보다 낮은 조달금리와 차별화된 신용평가가 경쟁력이다. 연 2% 예금 금리도 그래서 가능하다. 업계는 우리가 연 2% 예금 금리를 잠깐 유지하다 말 것처럼 말하는데, 절대 그렇지 않을 것이다.” ▷토스증권의 혁신 포인트는.“국내 주식투자 인구 비중이 선진국에 비해 매우 낮다. 증권 서비스도 헤비 트레이더와 고액 자산가 중심이다. 토스증권은 투자 첫 경험의 진입장벽을 낮추는 게 목표다. 고객 저변을 넓히면 1인당 이익이 적더라도 다른 증권사만큼 이익을 낼 수 있다.” ▷혁신의 완결판은.“금융산업에서 가장 많이 바뀌어야 할 부분이 조직문화라고 생각한다. 토스가 빠른 속도로 성장하고 혁신을 이어온 원동력도 전적으로 조직문화다. 그걸 널리 인정받으면 미션 완성이다. 물론 직원의 70%가 지점에 있고 노조가 강력한 기존 은행과 토스는 다른 점도 많다. 하지만 기업이 좋은 엔지니어와 디자이너를 뽑고 좋은 제품을 만들어내려면 문화가 필수다.” ▷토스 조직문화는 어떻게 다른가.“유능한 개인을 모셔 의사결정의 전권을 준다. 좋은 아이디어만 있다면 누구나 리더가 되는 경험을 할 수 있다. 팀원 한 명이 6개월 동안 400억원을 쓰는 프로젝트를 최고경영자(CEO) 결재 없이 할 수 있다. 2020년 토스가 처음 출시한 재난지원금 조회 서비스는 한 직원의 제안에 동료들이 호응해 주말 동안 80명이 모여 이틀 만에 만들어낸 것이다.” ▷자율성을 보장하려면 정확한 평가와 보상이 전제인데.“완전히 믿을 수 있을 만한 역량과 도덕성이 없다면 아예 채용하지 않는다. 모든 경영정보를 공유하고 실패해도 계속 기회를 준다. 피드백은 잔인할 정도로 과감하고 솔직하게 한다. 개인 고과나 팀 평가 자체가 없다. 성과급도 나를 포함한 전 직원이 똑같이 받는다. 철저하게 원팀이 돼 협력할 일밖에 없다.” ▷금융업의 추가 확장 계획은.“올해 개인신용평가사(CB) 설립을 준비 중이다. 플랫폼기업의 데이터를 활용한 새로운 평가모델을 선보이려 한다. 예컨대 사업자금이 필요한 치킨집 사장님에게 배달의민족 등의 거래 데이터를 결합하면 기존 신용평가사에 비해 훨씬 포용적이고 정교한 신용평가가 가능해진다. ” ▷‘네카토(네이버·카카오·토스)’로 상징되는 빅테크를 견제하는 목소리가 많다.“토스는 빅테크가 아니다. 합당한 규제가 필요하다는 데 공감하지만 속도 조절이 필요하다. 솔직히 ‘기울어진 운동장’이란 논란이 플랫폼 규제를 강화하지 않을까 걱정된다. 핀테크기업이 빠르게 성장하고 있지만 매출이나 이익이 지배적 사업자 수준은 아니다. 소비자 편익 관점에서 진흥에 초점을 맞췄으면 한다.” ▷카카오뱅크·페이 상장 이후 핀테크의 기업가치가 과대평가됐다는 논란이 있는데.“다른 회사를 평할 수는 없다. 토스의 지난해 매출은 전년 대비 두 배 증가해 8800억원쯤 된다. 매출의 15~20배를 기업가치로 인정하는 것이 글로벌 스탠더드이고, 토스의 밸류에이션은 거기에 부합한다고 생각한다. 사실 이용자 규모와 만족도를 중시하고, 기업가치에 집착하지 않는다. 우리가 꿈꾸는 일을 하려면 현실적으로 투자금이 필요하고, 그 과정에서 기업가치가 산정될 뿐이다.” ▷창업 후 가장 힘들었던 순간은.“자금 조달이 어려웠던 2015~2016년께다. 핀테크는 규제 때문에 불확실하다는 우려가 많아 국내 모든 벤처캐피털에서 거절당했다. 운영자금이 떨어져 마음 졸이는 주말이 반복됐고 ‘아, 이렇게 망하는구나’ 싶었다. 짧은 영어로 해외 투자자를 설득해보려 필사적으로 뛰었다. 한국 스타트업 최초로 싱가포르투자청, 세쿼이아차이나 등에서 투자를 유치하고 유니콘 기업(기업가치 1조원 이상 스타트업)에 오른 2018년께부터 해외에서 ‘한국에 투자한다면 토스’라는 평가를 들었다.” ▷그렇다면 가장 기뻤던 순간은.“아직 안 왔다. 누구나 금융이 필요할 때 토스를 가장 먼저 찾는 날이 오면 기쁠 것 같다. 5년 안에 그렇게 만들 것이다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>알뜰폰 요금 비교 플랫폼 '모요', 카카오벤처스 투자 유치</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002998640?sid=105</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>알뜰폰 요금제를 비교·검색해주는 플랫폼 '모요'(모두의 요금제)가 카카오벤처스와 베이스인베스트먼트로부터 10억 원의 시드 투자를 유치했다를 유치했다고 밝혔다.모요는 알뜰폰 요금제를 쉽게 검색하고 비교할 수 있게 만든 온라인 플랫폼이다. 단순 검색을 넘어 편리한 개통 신청까지 지원한다. 통신사용량을 입력하면 1300여 개의 알뜰폰 요금제 중에서 나에게 맞는 최적의 요금제를 추천받을 수 있다. 자급제 휴대전화를 가장 저렴하게살 수 있는 비교 서비스도 제공한다. 할인 쿠폰과 회원가 등을 적용한 실제 구매가격도 비교 가능하다.모요는 토스의 PO(Product Owner)였던 안동건 대표를 비롯해 쿠팡이츠, 여기어때, 토스, 리멤버, 굿닥 등 플랫폼 전문가들이 모여 설립한 회사다. 2021년 8월 첫 서비스를 선보인 이후 5개월 만인 지난달 기준 약 30만 명이 서비스를 이용했다.안동건 모요 대표는 “알뜰폰 시장이 빠르게 성장하고 있는 데 반해 투명하고 믿을 수 있는 정보가 많이 없는 게 현실”이라며 “이용자가 좀 더 편리하게 알뜰폰을 이용할 수 있도록 서비스를 혁신적으로 개선하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>[마켓인]비즈니스온, 280억에 근태관리 솔루션 '시프티' 인수</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005140858?sid=101</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>시프티 지분 66.7% 280억원에 인수SaaS에 HR 더한 올인원 플랫폼 제공[이데일리 김성훈 기자] 기업용 SaaS(서비스형 소프트웨어) 서비스 업체인 비즈니스온커뮤니케이션(비즈니스온)은 통합인력관리 SaaS 솔루션 1위 업체인 시프티를 인수한다고 7일 밝혔다. 이번 거래는 비즈니스온이 시프티 지분 66.7%를 280억원에 인수하는 거래로 비즈니스온 역대 최대 규모 인수다. 시프티는 근태·인력관리 분야 오픈 API(응용 프로그램 인터페이스)를 구축 제공하는 솔루션으로 50인 미만 사업장을 대상으로는 무료로 제공한다. 주요 고객으로 SK네트웍스와 미래에셋, 롯데쇼핑, 현대오일뱅크, 세아그룹 등 대기업은 물론, 카카오, 쿠팡, 토스, 딜리버리히어로, 우아한형제들과 같은 중견·정보기술(IT) 스타트업 등 15만곳의 고객사를 확보하고 있다. 비즈니스온은 시프티 인수를 통해 재무 영역을 아우르는 서비스형소프트웨어(SaaS) 플랫폼에 업무 연계성과 확장성이 높은 인사관리(HR) 서비스까지 확대 제공할 수 있게 됐다. 회사가 보유한 전자계약과 급여정산, 원천세와 같은 솔루션을 접목해 완성도 높은 올인원 플랫폼을 제공할 전망이다.비즈니스온은 최근 2년간 인수·합병(M&amp;A)에 적극 나서고 있다. 지난 2020년 전자계약 플랫폼 글로싸인 인수에 이어 지난해 넛지파트너스를 인수하며 전자세금계산서 구축 사업에 전자 증빙·부가세를 접목한 재무통합 솔루션을 확대했다. 또 플랜잇 인수를 통해 고도화된 분석과 데이터 시각화 서비스를 제공하며 빅데이터 사업까지 영역을 넓혔다. 비즈니스온 관계자는 “재무 솔루션 라인업을 넘어 HR 솔루션으로 사업 영역을 확장함으로써 기업 업무의 디지털 인프라 구축에 앞장서고 향후 모든 산업군에 걸친 SaaS 라인업을 완성하기 위해 노력하겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>“최대 1억·금리 연 3%” 토스뱅크, 인터넷銀 최초 개인사업자 대출 출시</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000073261?sid=101</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>토스뱅크가 인터넷전문은행 최초로 개인사업자를 대상으로 한 대출 상품을 선보인다. 사진은 서울시 강남구에 위치한 토스뱅크 사무실 모습. (매경DB) 토스뱅크가 인터넷전문은행 최초로 자영업자와 소상공인 등 개인사업자를 대상으로 한 대출 상품을 선보인다.토스뱅크는 ‘토스뱅크 사장님 대출’이라는 이름의 개인사업자 대출 상품을 내놓는다고 2월 14일 밝혔다. 개인사업자 대출 상품을 내놓은 것은 인터넷전문은행 중에서 토스뱅크가 처음이다. 최대 대출 한도는 1억원이고 최소 대출 신청 가능 금액은 100만원부터다. 대출금리는 최저 연 3.54%, 최대 연 15%다. 대출 시 기준금리를 ▲연 1.45%(금융채 3개월) ▲연 1.16%(금융채 6개월) ▲연 1.93%(금융채 12개월) 중 선택할 수 있다. 각 금융채의 개월 수를 주기로 기준금리가 변동되며, 선택한 기준금리의 매 변동 주기에 연동해 대출금리도 함께 변동된다. 가산금리는 14일 기준 연 2.09~13.07%로 대출 기간 중에는 변경되지 않는다.대출 기간은 만기에 전액을 상환하고 대출 기간 중에는 매월 이자만 납부하는 ‘만기일시상환’과 대출 금액과 이자 금액의 합계액을 대출 기간 중 매월 분할 납부하는 ‘원리금균등분할상환’ 두 가지 경우에 따라 다르다. 만기일시상환은 대출 기간이 1년이며 1년 단위로 최대 10년까지 연장할 수 있다. 원리금균등분할상환의 대출 기간은 1~5년이고 중도상환 수수료는 없다. 가입 대상은 사업자등록증상 개업일로부터 1년 이상 실제 사업을 영위했거나 최근 6개월 이상 매출액이 발생한 개인사업자다. 최소 증빙 연소득은 소득금액증명원 기준 1000만원 이상이어야 한다. 대출은 신청부터 실행까지 전부 비대면으로 이뤄진다. 사업자등록증명과 소득금액증명 등 자격 확인 서류를 토스 모바일 앱으로 제출하면 대출 신청이 가능하다. 이 상품은 보증기관 보증서나 고객의 부동산 등을 담보로 하지 않는 무보증·무담보 대출이다. 한도는 개인 신용도에 따라 부여된다. 토스뱅크가 자체적으로 개발한 신용평가 모형에 따라 고객 맞춤형 한도와 금리를 산정한다. 매출 규모가 크고 수입이 정기적일수록 금리와 한도에서 우대받을 수 있다는 설명이다. 토스뱅크 관계자는 이번 개인사업자 대출 상품을 두고 “고객의 실질 상환 능력은 물론 실제 영업 여부를 면밀하게 심사할 계획”이라며 “이번 상품이 코로나19로 피해를 입은 자영업자와 소상공인들에게 적절한 때 실질적인 도움을 줄 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>2022.02.06.</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>[단독]삼성 이름으로 거대 금융플랫폼…네이버 카카오도 초긴장</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004917989?sid=101</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>3200만명의 파괴력금융 통합앱 '모니모' 내달 출시삼성생명·화재·카드·증권 4社데이터 다 합쳐 시너지 노려보상포인트 '젤리'는 현금처럼1등앱 삼성페이 연계땐 폭발력他금융사 정보 못보는건 한계◆ 삼성금융사 디지털 대반격 ◆  삼성 금융계열사가 이르면 다음달 통합 애플리케이션(앱) '모니모'를 내놓으면 핀테크업계와 마이데이터 시장 판도도 급변할 전망이다.모니모 출시와 함께 기존 금융권과 핀테크업계를 뒤흔들 수 있는 '규모의 경제'가 가능해지기 때문이다.6일 금융업계에 따르면 4개 삼성 금융계열사 가입자는 3200만명(중복 가입자 포함)에 달한다. 지난달부터 본격 서비스를 시작한 마이데이터 전체 금융권 가입자 수가 1000만명(중복 가입자 포함)을 웃도는 수준임을 감안하면 모니모의 파괴력을 가늠해 볼 수 있다.가입자 3200만명은 많은 회원 수를 기반으로 한 데이터를 강점으로 내세워 온 국내 핀테크업체들 입장에서도 위협적인 숫자다. 현재 카카오페이가 2044만명, 네이버페이가 1600만명, 카카오뱅크가 1470만명, 토스가 1200만명의 회원을 확보하고 있다. 이들에게도 모니모는 위협적이다. 국내 시장에서 가장 규모가 큰 삼성의 보험 부문에 카드와 증권까지 결합되고 오픈뱅킹까지 더해지면 은행·보험·카드·증권까지 모든 업무가 가능해진다. 그만큼 은행, 카드, 보험 등 계열사별로 '따로 또 같이' 전략을 펼쳐왔던 전통 금융권의 금융 플랫폼 전략 수정도 불가피할 전망이다.  그간 은행권 금융사들은 은행 앱을 중심으로 카드, 보험 계열사들과 서비스하는 '따로 또 같이' 전략을 취해왔다. 비은행 금융사 최초로 삼성이 통합 앱을 출시하는 만큼, 앞으로 앱 하나로 승부하려는 '슈퍼 원앱' 전략이 속도를 낼 전망이다.상대적으로 더딘 보험업계 마이데이터 서비스 시장을 삼성이 선점할 수 있을지도 관심을 모은다. 현재 보험업권에서 마이데이터 서비스를 출시한 곳은 교보생명뿐이고, 본허가를 받은 회사도 한화손해보험밖에 없다. 이에 반해 모니모에는 각각 생명보험·손해보험 업계 1위인 삼성생명과 삼성화재가 모두 참여한다. 여기에 증권과 카드 빅데이터를 결합한 새로운 핀테크 서비스도 출시될 수 있을 전망이다. 핀테크업계에서는 모니모가 향후 삼성페이와 결합될 경우 시너지 효과를 두려워하고 있다. 삼성페이는 한국인이 가장 많이 사용하는 금융 앱 1위(작년 7월 기준·가입자 1485만명)다. 당장 모니모와의 통합 계획은 없지만, 향후 몇 년 안에 파괴력은 기존 빅테크업체를 넘어서는 수준이 될 수도 있는 평가가 나온다. 다만 삼성 금융 앱의 한계도 있다. 타사는 마이데이터 서비스로 다른 금융사 정보를 한데 모아서 볼 수 있지만, 모니모에서는 고객 동의를 받아 삼성 금융계열사 정보만 볼 수 있다. 이 같은 취약점을 극복하기 위해 삼성 금융계열사들은 타사 앱과의 차별화 전략에 공을 들이고 있는 것으로 알려졌다. 일례로 현금처럼 쓸 수 있는 리워드 포인트 '젤리'도 통합 운용한다는 계획이다. 삼성카드 포인트나 삼성화재 포인트를 젤리로 바꿔 삼성증권의 소액 주식 투자에 활용할 수 있는 식이다. 또 건강 목표 달성이나 이벤트 참여, 앱 활동으로 젤리를 적립하고 이를 다시 투자에 활용할 수 있도록 하는 식이다. 삼성 금융계열사들은 모니모와 별도로 '마이데이터 서비스'를 내놓을 방안도 고심 중인 것으로 알려졌다. 삼성생명은 지난 4일 금융감독원에서 암 입원 보험금 미지급 등과 관련해 최종 기관경고 통보를 받았다. 삼성생명이 이를 수용하면 결과서 수령일로부터 1년간 금융당국 인허가가 필요한 신사업에 진출할 수 없다. 삼성카드 등 자회사도 같은 제한을 받는다. 석 달 안에 행정소송을 제기한다고 해도 신사업 진출은 재판기간 내내 연기될 것으로 보인다. 늦어지는 기간만큼 핀테크 관련 경쟁에서 뒤처질 수밖에 없는 것이 현실이다. 한 금융권 관계자는 "삼성 금융사들이 통합 앱을 내놓는다 해도 마이데이터 서비스 없이 디지털 경쟁력을 확보하기는 어려울 것"이라며 "삼성생명과 삼성카드 등 관련사들이 마이데이터를 서비스할 수 있는 방안이 없는지 고심하고 있는 것으로 안다"고 밝혔다. 삼성 금융계열사들은 지난해 4월부터 통합 앱 개발에 착수했다. 당시 계열사 중 삼성화재가 174억원, 삼성생명과 삼성증권이 각각 143억원, 74억원을 분담하고 삼성카드는 통합 플랫폼 시스템을 구축·운영하기로 공동협약을 체결했다. 금융당국 제재를 받아들이든 불복해 행정소송을 제기하든 마이데이터 서비스 출시 연기가 불가피한 만큼 모니모 앱으로 격차를 최대한 줄인다는 복안이다. 삼성생명은 지난 4일부터 행정소송을 제기할지 내부 검토에 들어간 것으로 알려졌다. 회사 관계자는 "종합검사 결과서 내용을 면밀히 검토한 후 대응 방향을 결정하겠다"고 말했다.■ &lt;용어 설명&gt;▷ 마이데이터 : 각 금융기관에 흩어져 있는 신용(금융)정보를 소비자가 한곳에 모아 관리하고 맞춤 컨설팅을 받을 수 있는 서비스다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>토스뱅크, 소상공인에 1억까지 신용대출…케이뱅크, 고정금리 주담대 0.5%P 인하</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004663428?sid=101</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>인터넷은행 토스뱅크가 무보증·무담보 개인사업자 대출을 출시했다고 14일 발표했다. 보증기관의 보증서나 부동산을 담보로 하지 않고 개인 신용만으로 한도를 부여하는 게 특징이다. 최저 금리는 연 3% 초중반(변동금리)이며 최대한도는 1억원이다. 상환은 만기 일시 또는 원리금 균등 상환 방식 둘 중에서 선택할 수 있다.사업자 등록번호를 갖고 1년 이상 사업을 해왔거나 6개월 이상 매출이 발생한 자영업자·소상공인에 한해 개인사업자 대출을 신청할 수 있다. 증빙 가능한 연 소득이 소득금액증명원을 기준으로 1000만원 이상이어야 대출받을 수 있다. 토뱅 관계자는 “고객의 실질 상환 능력은 물론 실제 영업 여부 등을 면밀히 심사할 계획”이라고 밝혔다. 매출 규모가 크고, 수입이 정기적일수록 금리와 한도에서 우대받을 수 있다. 토뱅은 지역신용보증재단이 보증서를 발급하는 비대면 개인사업자 대출상품인 온택트특례보증도 준비 중이다.케이뱅크는 최근 시장금리 상승으로 고정금리형 대출상품 수요가 늘어난 점을 고려해 고정금리형 아파트담보대출 금리를 0.5%포인트 인하했다. 총대출금액 1000억원까지 인하된 금리를 적용한다. 고정금리형 아파트담보대출 최저금리는 연 4.0%에서 연 3.5%로 낮아졌다. 케뱅 관계자는 “금리인상기에 이자 부담이 큰 기존 차주의 고정금리 대환 수요에 맞춰 금리 혜택을 확대했다”고 밝혔다. 지난해 8월 전까지 10%에 못 미쳤던 케이뱅크 아파트담보대출 고객 중 고정금리형을 선택한 신규 고객 비중은 꾸준히 늘어 지난달 변동금리형을 넘어섰다.케이뱅크 아파트담보대출은 신규 주택 매입 자금 용도로는 불가능하며, 타은행 대출 갈아타기(대환대출·최대 10억원) 또는 생활안정자금대출(최대 1억원) 등이 대상이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>2022.02.06.</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>[위클리콘] 'IT업계 뒷얘기 알려드려요'…구독형 뉴스레터 '주목'</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000652000?sid=105</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>베스핀글로벌이 운영하는 클라우드 뉴스레터 '베스픽' 매일같이 쏟아지는 콘텐츠 소식. 영화부터 드라마, 다큐멘터리, 게임, 심지어 정부 홍보 영상까지 콘텐츠라면 장르를 가리지 않고 소개합니다. 주말에 만나는 위클리콘! 지금 시작합니다.  [편집자주]일반인들은 잘 알지 못하는 클라우드 산업의 트렌드와 인사이트를 전하는 뉴스레터가 있다. 바로 클라우드 매니지먼트 제공(MSP) 기업 베스핀글로벌에서 운영하는 클라우드 뉴스레터 '베스픽'이다.베스픽 일부 내용 [사진=베스핀글로벌]일반적으로 기업 뉴스레터는 자사 홍보성 내용 위주인 데 반해 '베스픽'은 클라우드 산업 전반에 대한 정보성 내용을 담고 있는 것이 특징이다. 구독자들이 열어보고 싶은 뉴스레터, 읽고 난 뒤 얻어가는 것이 있는 뉴스레터를 만들어야겠다는 생각으로 뉴스레터를 시작하게 됐다고 회사 측은 전했다.베스픽에서 주로 다루는 내용은 사람들이 한번쯤 궁금해할만한 기술의 뒷이야기다. 구체적으로 ▲아마존은 올해 서비스형소프트웨어(SaaS) 회사를 살수 밖에 없다? ▲K마트 직원이 클라우드를 공부하는 이유 ▲박지성도 만난 스포츠 AI 스타트업? 클라우드 타고 유럽 진출 ▲美 1억 7천만 명 백신접종, 구글과 아마존은 무엇을 했나? ▲토스 8조, 카뱅 10조, 금융클라우드 승자는? 등이 있다.베스픽 지난 리스트 [사진=베스핀글로벌]뉴스레터는 기술을 잘 모르는 사람들도 이해하기 쉽도록 구성된다. 최근 이슈와 접목해 기술 동향을 설명하거나, 낯선 용어는 쉽게 풀어쓰는 등 클라우드의 중요성을 전달하고 있다. 또 뉴스레터 말미에 '안보면 클나우'와 '안쓰면 클나우' 코너를 통해 핵심뉴스거리나 클라우드 이용자가 꼭 알아야 할 보안이슈 등을 다루고 있다.실제 뉴스레터를 작성하는 사람도 IT기술자가 아닌, IT분야 B2B 마케터들이다.매주 베스픽을 작성하고 있는 베스핀글로벌 마케팅팀 관계자는 "내부 직원들은 물론, 영업 대표 분들을 통해 고객사에서도 베스픽을 잘 보고 있다는 이야기를 전해듣곤 한다"면서, "최근에는 '이런 내용이 들어갔으면 더 좋았겠다'라는 피드백을 받을 정도로 구독자분들의 애정이 높다는 것을 느꼈다"고 전했다.베스픽은 지난해 2월부터 시작했으며, 매주 화요일 오후에 발송된다. 현재 구독자는 약 2만 5천명 정도다. 클라우드가 전 산업 영역에서 활용되는만큼 구독자들의 업종도 IT, 유통, 제조, 금융, 게임, 미디어 등 다양하다. 직급 역시 실무자 분들부터 C-레벨까지 다양하게 분포돼 있다.또한 오픈율이 25%에 달할 정도로 높은 편이라고 회사 측은 전했다. 특히, 기업간 거래(B2B) 마케팅에서 고객의 구매 여정이 평균 1년 정도로 긴 편인데, 그 과정에 베스픽은 고객과 꾸준한 신뢰관계를 쌓는 역할을 하고 있다. 실제로 베스픽 구독자가 베스핀글로벌 고객으로 이어지는 경우도 많다고 전했다.베스핀글로벌 관계자는 "베스픽이 곧 1주년은 맞이하는 만큼 앞으로 더욱 다양한 콘텐츠, 새로운 모습을 보여줄 것"이라면서, "더 많은 분들이 클라우드에 대한 정보를 많이 얻어가고, 점점 커지는 시장인 클라우드 산업에 대한 이해를 높이는데 베스픽이 필독 뉴스레터로 자리잡길 바란다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>우리금융, 신임 우리은행장에 이원덕…완전민영화 원팀 시너지 나오나</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000037928?sid=105</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>우리금융그룹 사옥 전경(사진=우리금융그룹)우리금융그룹이 지난달 27일 과점주주 사외이사 2명을 새로 선임해 지배구조를 새롭게 구축한데 이어 이원덕 우리금융지주 수석부사장을 우리은행장 후보로 추천했다. 금융업 디지털 전환이 가속화하는 시대에 완전민영화를 계기로 지주사를 중심으로 자회사간의 원팀 시너지를 가속화할 지 주목된다.우리금융그룹은 7일 자회사대표이사후보추천위원회(이하 자추위)를 개최하고 우리은행, 우리종금 등 8개 자회사에 대한 CEO(최고경영자) 후보 추천을 완료했다고 밝혔다. 우리은행장 후보는 사전 논의된 후보군 중에서 최종적으로 우리금융지주 이원덕 수석부사장이 단독 후보로 추천됐다.손태승 우리금융지주 회장과 같은 한일은행 출신인 이원덕 수석부사장은 사내에서 '전략통'으로 불린다. 사내이사로서 손 회장과 함께 지주 이사회에 참여하는 유일한 임원이기도 하다. 손 회장이 전략기획팀 부장으로 있었을 때도 같은 팀에서 활약한 바 있다. 우리금융의 민영화 과정에서 잠재투자자 관리 및 매각 실무를 담당해 공이 컸다는 평가를 받는다. 자추위는 이 부사장을 완전민영화 이후 분위기 쇄신 등 은행 조직의 활력과 경영 안정성 제고를 위한 최고의 적임자로 판단했다.우리금융 자추위는 "이원덕 후보는 우리은행 미래금융단 상무, 경영기획그룹장을 역임하고 지주사 수석부사장으로 전략·재무·M&amp;A(인수합병)·디지털·자금 등 그룹 내 주요 핵심업무를 담당하면서 그룹 전반에 대한 폭넓은 이해를 하고 있다"며 "향후 플랫폼 경쟁력이 핵심 경쟁요소가 되고 있는 상황 속에서 그룹 디지털혁신소위원회 의장으로서의 경험 등이 높이 평가됐다"고 설명했다.우리은행장 단독 후보로 추천된 우리금융지주 이원덕 수석부사장.(사진=우리금융그룹)그간 우리은행은 옛 5대 은행 중 상업·한일은행이 합병해 탄생한 규모에 걸맞지 않게 4위의 길을 길어왔다. 우리금융 직원의 90% 이상이 합병 이후 통합세대로 구성돼 있다. 손 회장은 능력 중심의 새로운 인사문화를 구축, 계파갈등 해결에 힘써왔다. 지난해 3분기 말 하나은행을 제치고 순이익 3위에 올랐다. 안주할 새 없이 카카오뱅크, 토스뱅크, 케이뱅크 등 인터넷전문은행이 소매금융을 빠른 속도로 장악하고 있다. 우리금융이 '인사 혁신'을 천명한 이유다.우리금융 자추위는 "향후 인사 시 역동적 조직으로 탈바꿈시키기 위해 인적 쇄신 및 과감한 인재 발탁을 추진하고 CEO 경영승계프로그램을 적극적으로 운용해 학연, 지연, 출신은행, 외부청탁 등을 과감히 배제한 인사가 될 수 있도록 하는 것을 결정했다"고 강조했다.우리종합금융 김종득 대표이사, 우리자산신탁 이창재 대표이사, 우리펀드서비스 고영배 대표이사, 우리프라이빗에퀴티자산운용 김경우 대표이사, 우리금융경영연구소 최광해 대표이사는 연임됐다. 우리신용정보와 우리에프아이에스 대표이사 후보에는 각각 이중호 우리은행 집행부행장과 고정현 우리은행 집행부행장보가 새로 추천됐다.특히 우리에프아이에스의 경우 디지털전문 자회사로 육성시키기 위해 우리은행에서 디지털 업무경험이 많은 고정현 집행부행장보가 대표이사 후보로 추천됐으며, 추후 지주사 및 은행 경영진 인사시 MZ세대(밀레니얼+Z세대) 고객들을 대상으로 그룹의 미래 경쟁력을 끌어올리기 위한 젊은 디지털부문 임원(CDO) 후보의 외부 영입도 함께 논의했다.우리금융그룹은 이사회에서 3월 정기주주총회 시 선임할 여성 사외이사 후보군에 대해 법률 및 ESG(환경·사회·지배구조) 분야 전문가를 후보군으로 하는 방안도 논의했다. 이와 함께 완전민영화 이후 적극적 사업포트폴리오 확장 추진, 그룹 핵심성장부문 강화 및 전 자회사간 적극적 결집과 원활한 소통 역할을 수행하기 위해 지주사 내 사장직제의 도입과 함께 우리은행장 최종 후보자(숏리스트)에 포함됐던 박화재, 전상욱 후보를 향후 관련 절차를 거쳐 사장으로 선임할 예정이다.우리금융그룹은 이사진 구성, 법률 및 ESG 전문가 여성 사외이사 확충 및 은행장을 포함한 자회사 CEO 후보 추천, 지주사 사장직제 도입, 젊은 디지털임원 영입 등 주요 경영 사항들에 대한 의사 결정을 진행해 나가면서, 앞으로 완전 민영화에 따른 지배구조의 새로운 변화와 함께 그룹가치 제고를 위한 행보를 더욱 본격화할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>‘슈퍼 원앱’ 경쟁…전통금융·빅테크 이어 삼성 가세</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002502338?sid=101</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>삼성계열사 내달 통합앱 출시 고객 3200만명 달해 파급력 커 네이버·카카오·토스 등 긴장 KB·신한 사활 걸고 진행중 주요 금융지주회사들과 빅테크·핀테크 간의 ‘슈퍼 원앱’ 전쟁이 치열하다. 슈퍼 원앱은 하나의 앱에서 다양한 금융 서비스를 하나로 묶어 제공, 소비자 편익을 극대화하는 서비스다. 당초 슈퍼 원앱은 정보기술(IT)을 바탕으로 금융 서비스를 재구성해 제공하는 핀테크의 전유물처럼 여겨졌는데 이제는 KB금융·신한금융에 이어 삼성그룹 금융계열사들이 본격적으로 뛰어들고 있다. 현재 금융당국의 집중 견제를 받고 있는 네이버, 카카오 등 빅테크 금융계열사들도 조속한 시일 안에 슈퍼 원앱으로 전략 궤도를 수정할 것이라는 전망이 나온다.7일 금융권에 따르면 삼성생명, 삼성화재, 삼성카드, 삼성증권 등 삼성그룹 금융사들은 이르면 다음 달 통합 앱을 출시할 계획이다. 이들 회사 고객이 줄잡아 3200만 명(중복 포함)인 점과 삼성 브랜드 파워를 고려할 때 시장 파급력은 작지 않을 것으로 보인다. 통합 앱 명칭과 앱 안에서 현금처럼 사용할 수 있는 포인트 명칭은 각각 ‘모니모’ ‘젤리’로 알려졌다. 삼성 금융계열사 고위 관계자는 “통합의 시너지와 경쟁력 제고를 위해 창구를 일원화한 시스템을 구축한 것”이라고 밝혔다. 삼성그룹 금융계열사의 이러한 움직임은 핀테크를 바짝 긴장시키고 있다. 빠르게 사세를 확장하고 있지만 현시점에서 저력의 삼성 금융계열사에 맞대응하기란 쉬운 일이 아니기 때문이다. 토스뱅크를 포함해 대표적으로 슈퍼 원앱 전략을사용하고 있는 비바리퍼블리카(토스)는 현재 1200만 명의 회원을 확보하고 있다. 카카오페이와 네이버파이낸셜도 각각 2000만 명, 1600만 명의 회원을 보유 중이다.가장 왕성하게 슈퍼 원앱 전략을 추진해온 KB·신한 금융그룹은 가속화 방안을 모색하고 있다. KB금융그룹은 지난해 10월 말 △자동 로그인 기능 도입 △이체 편의성 개선 △홈 화면 개인화 △고객별 맞춤 자산관리 추가 △6개 계열사 핵심 서비스 제공 △알림 기능 강화 등 개인 맞춤형 서비스 제고에 초점을 맞춰 ‘KB스타뱅킹’을 대대적으로 개편한 바 있다. 스마트폰에서 KB스타뱅킹 앱을 설치하면 추가 설치 없이 주식 매매 서비스(KB증권), 간편결제(KB국민카드)를 할 수 있다. 신한금융그룹은 2018년 8월 ‘신한플러스’를 출시한 이후 SOL(신한은행), pLay(신한카드), 신한 알파(신한금융투자), 스마트창구(신한라이프) 등 서비스를 계속 추가하고 있다. 별도 로그인 절차 없이 한 앱에서 다양한 서비스를 이용할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>정은보 금감원장, 미·영·독 3개국 출장…"글로벌 긴축·우크라사태 논의"</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005906399?sid=101</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>정은보 금융감독원장.© News1 허경 기자(서울=뉴스1) 국종환 기자 = 정은보 금융감독원장이 글로벌 금융시장 동향 파악과 해외에 진출한 국내 금융회사 지원방안을 논의하기 위해 오는 17일부터 24일까지 미국과 영국, 독일 3개국을 방문한다.정 원장은 이번 출장에서 크리스틴 라가르드 유럽중앙은행(ECB) 총재, 앤드류 베일리 영란은행 총재, 토스튼 포에취 독일 금융감독청 부청장, 롭 파우버 무디스 회장 등과 면담을 갖고, 최근 글로벌 금융시장에 대한 의견을 교환하는 한편, 글로벌 금융긴축, 우크라이나 사태 등 대내외 리스크 관련 대응 방안과 협력 사항 등을 폭넓게 논의할 예정이다. 블라드미르 보론코프 유엔 대테러실(UNOCT) 사무차장과도 만나 자금세탁 방지 관련 양 기관 간 협력 방안 등에 대해 의견을 나눈다.또한 정 원장은 현지 금융회사 관계자들과 간담회를 열어 국내 금융사의 현지화 현황 및 애로사항 등을 청취하고, 해외 진출 지원방안 등도 함께 모색할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사, 올해 개인사업자 대출 상품 출시</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001701212?sid=101</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행 3사가 올해 잇따라 개인사업자 대출 상품을 출시합니다.토스뱅크는 내일(14일) 인터넷 전문은행 중 최초로 개인사업자 대출을 출시합니다.자영업자와 소상공인 등 개인사업자가 대상이며, 최저금리는 연 3% 초중반, 최대한도는 1억 원입니다.케이뱅크는 최근 올해 1분기 중 '개인사업자 운전자금 대출' 상품을 출시하기로 했습니다.케이뱅크는 먼저 신용보증재단과 협력해 보증 기반 상품을 출시하고, 순차적으로 신용 기반 상품을 내놓을 예정입니다.카카오뱅크는 올해 하반기에 개인사업자 대상  대출을 출시할 예정입니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표, 이사회 의장 재선임</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010981070?sid=101</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>기사내용 요약내년 정기주총까지 임기[서울=뉴시스] 홍민택 토스뱅크 대표. (사진=토스뱅크 제공) 2021.10.05. photo@newsis.com *재판매 및 DB 금지[서울=뉴시스] 박은비 기자 = 홍민택 토스뱅크 대표가 이사회 의장으로 재선임됐다.4일 토스뱅크 공시에 따르면 전날 오후 정기이사회를 열고 홍 대표를 이사회 의장으로 선임하는 안건을 가결했다.이사회 의장 임기는 이날부터 내년 정기주주총회까지다. 서승원 선임사외이사도 재선임돼 같은 기간 임기를 이어간다. 이사회 의장과 선임사외이사는 관련 법령에 따라 매년 선임 절차를 거친다.토스뱅크는 "대표이사를 이사회 의장으로 선임해 책임 경영을 도모할 것"이라며 "이사회 구성원의 높은 신뢰를 바탕으로 효율적이고 원활하게 운영하기 위해 홍 대표를 이사회 의장으로 선임했다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>‘코 묻은 돈’ 옛말… 10대 손님 모시기 나선 금융사</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003248801?sid=101</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>평생 ‘충성고객’ 선점에 안간힘카뱅 10대 선불카드 100만명 가입KB·하나銀·토스 전용상품 출시은행권이 10대 청소년 고객을 겨냥한 금융서비스 강화에 힘을 쏟고 있다. 청소년기에 쓰면서 익숙해진 금융사 서비스를 성인이 돼서까지 사용하는 ‘충성고객’이 될 수 있다는 생각에서다.금융업계 관계자는 2일 “아이들 돈을 ‘코 묻은 돈’ 치부하는 것은 옛날 얘기”라며 “청소년 고객들을 선점해 ‘평생고객’으로 만들기 위한 금융사들의 경쟁이 치열하다”고 말했다. 10대 청소년 금융시장 포문을 연 것은 인터넷전문은행 카카오뱅크다. 카카오뱅크는 2020년 10대 전용 선불전자지급수단 ‘미니’를 내놓았다. 미니는 본인 명의 휴대폰만 있으면 개설이 가능하다. 입금·이체뿐 아니라 실물 카드를 발급받아 온·오프라인 결제도 가능하다. 지난해 10월 출시 1년여 만에 가입 고객 100만명을 넘어서는 등 청소년층 사이에서 인기를 끌었다.이에 KB국민은행은 지난해 11월 10대를 겨냥한 애플리케이션(앱) ‘리브 넥스트’(Liiv Next)를 내놓으며 맞불을 놨다. 14세 이상이면 본인 명의 휴대전화로 인증한 전용 앱을 통해 결제, 송금, 자동화기기(ATM) 입출금을 이용할 수 있는 ‘리브포켓’을 만들 수 있다. 신한은행은 10대 전용 충전형 선불카드인 ‘신한 밈(Meme) 카드’를 서비스 중이다. 결제 시 0.1∼5% 포인트 적립 혜택을 제공하고 있다. 기존 모바일뱅킹 앱 ‘쏠’(SOL)에 관련 서비스를 담아 성인이 돼도 자연스럽게 같은 앱을 그대로 사용하도록 의도했다. 하나은행의 Z세대 금융플랫폼인 ‘아이부자’ 서비스는 자녀의 용돈을 부모와 함께 관리할 수 있도록 한 게 특징이다. 부모와 자녀가 각자 휴대전화에 전용 앱을 설치하고 앱을 통해 주고받는 용돈을 기반으로 모으기, 쓰기(소비), 불리기(투자), 나누기(기부) 등을 할 수 있다.국내 3호 인터넷전문은행 토스도 최근 충전식 청소년 전용 카드 ‘토스 유스카드’를 출시했다. 기존 금융권 청소년 전용 카드가 대부분 14세 이상을 대상으로 한 것과 비교해 이용 연령을 만 7세로 대폭 낮췄다. 다만 14세 미만은 보호자 동의를 받아야 한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>카카오벤처스, 알뜰폰 요금제 비교검색 플랫폼 '모요'에 투자</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/031/0000653601?sid=105</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>"나에게 맞는 최적의 요금제 추천"카카오벤처스가 알뜰폰 요금제 비교 검색 플랫폼에 투자를 진행했다.카카오벤처스가 알뜰폰 요금제 비교 서비스 모요에 투자했다. 사진은 모요 관련 이미지.  [사진=카카오벤처스]알뜰폰 요금제 비교·검색 플랫폼 '모요'(모두의 요금제)는 카카오벤처스와 베이스인베스트먼트로부터 10억 원의 시드 투자를 유치했다고 14일 발표했다.모요는 알뜰폰 요금제를 쉽게 검색하고 비교할 수 있게 만든 온라인 플랫폼으로 단순 검색을 넘어 편리한 개통 신청까지 지원한다. 자신의 통신 사용량을 입력하면 1천300여 개의 알뜰폰 요금제 중에서 나에게 맞는 최적의 요금제를 추천받을 수 있다.알뜰폰 요금제를 이용하는 고객들이 많이 구매하는 자급제 휴대전화를 가장 저렴하게 살 수 있는 비교 서비스도 제공한다. 할인 쿠폰과 회원가 등을 적용한 실제 구매가격을 한 눈에 비교할 수 있어 어디에서 가장 합리적인 가격으로 휴대전화를 살 수 있는지 알 수 있다.모요는 토스의 프로덕트 오너(PO)였던 안동건 대표를 비롯해 쿠팡이츠, 여기어때, 토스, 리멤버, 굿닥 등 플랫폼 전문가들이 모여 설립한 회사이다. 통신 시장의 정보비대칭 문제를 해결하기 위해 모요를 출시했다. 2021년 8월 첫 서비스를 선보인 이후 5개월 만인 올해 1월 약 30만 명이 모요 서비스를 이용했다.안동건 모요 대표는 "알뜰폰 시장이 빠르게 성장하고 있는 데 반해 투명하고 믿을 수 있는 정보가 많이 없는 게 현실"이라며 "고객들이 좀 더 편리하게 알뜰폰을 이용할 수 있도록 서비스를 혁신적으로 개선해 가겠다"고 말했다.정신아 카카오벤처스 대표는 "기술력이 뛰어난 것은 물론 철저하게 사용자 시각에서 탐색-결제-CS까지 접근한 점이 인상적"이라며 "모요가 기존 시장의 문제점을 해소하고 중소 알뜰폰(MVNO) 시장을 성장시키는 역할을 할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>30여곳 금융 대출 비교를 한번에</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004784319?sid=105</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>마이데이터 사업자들 쿠콘 API 활용   [파이낸셜뉴스] 쿠콘의 '대출한도 및 금리조회 애플리케이션 프로그래밍 인터페이스(API)'를 활용해 대출 비교 서비스가 다양한 업권에서 활용되고 있는 것으로 나타났다.   쿠콘은 최근 키움증권과 하나카드의 마이데이터 서비스에 대출 비교 서비스를 연계했다고 8일 밝혔다. 쿠콘이 구현한 대출 비교 서비스는 각각 키움증권의 마이데이터 서비스 'MY자산'과 하나카드의 마이데이터 서비스 '하나합'에서 만나볼 수 있다.   쿠콘이 제공하는 대출 비교 서비스는 30여개의 금융기관으로부터 대출 한도와 확정 금리 정보를 실시간으로 제공받을 수 있는 서비스다. 기업은 쿠콘만 연결하면 금융기관을 일일이 연계하지 않아도 많은 금융기관의 상품 정보를 조회할 수 있다. 쿠콘은 대출 비교 서비스 연계 시장에서 독점적 시장 지위를 확보하고 있다.   지난해 마이데이터 본허가를 취득한 키움증권, 하나카드와의 이번 연계는 쿠콘의 API가 은행, 핀테크 기업뿐만 아니라 증권사, 카드사 등 다양한 업권에서 활용되고 있는 것을 보여주는 사례이기도 하다. 특히, 키움증권과의 연계는 쿠콘과 증권사가 최초로 API를 연계한 사례라는 점에서 의미가 있다.   쿠콘 대출한도 및 금리조회 API는 마이데이터 시대에 최적화된 API로, 초개인화된 서비스 구현이 가능하다. 시중에 출시된 대부분의 대출 비교 서비스가 쿠콘 API를 탑재했으며, 시장 내에서 서비스 안정성과 기술력을 인정받고 있다. 대표적으로 토스, 카카오페이, 핀다, 현대카드 등이 쿠콘 대출한도 및 금리조회 API를 통해 개인 맞춤형 대출 상품 비교·추천 서비스를 제공 중이다.   김종현 쿠콘 대표는 "쿠콘은 앞으로 핀테크 서비스와 금융기관 간 연계사업을 활성화해 금융소비자에게 다양한 대출상품 정보가 제공될 수 있도록 노력하겠다"고 말했다.   한편, 쿠콘은 금융, 공공, 의료, 물류, 통신 등 국내 500여개 기관과 해외 40여개국, 2000여개 기관의 데이터를 수집·연결해 API 형태로 제공하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>모요, 카카오벤처스 등서 투자 유치</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002247455?sid=105</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>알뜰폰 요금제 비교·검색 플랫폼 모요 10억원 투자받아알뜰폰 요금제 비교, 검색 플랫폼 모요(모두의 요금제)가 카카오벤처스와 베이스인베스트먼트로부터 10억원 시드 투자를 유치했다고 14일 밝혔다.모요는 단순 검색을 넘어, 개통 신청까지 가능한 플랫폼이다. 이용자는 통신 사용량을 입력하면 1천300개 요금제 중 적합한 최적의 요금제를 추천받고, 실시간 업데이트를 통해 시중에 나온 요금제와 이벤트를 정확하게 확인할 수 있다.자급제 휴대폰을 저렴하게 살 수 있는 비교 서비스도 제공한다. 할인 쿠폰과 회원가 등을 적용한 실제 구매가격을 한 눈에 비교해, 합리적인 가격으로 구매 가능한 장소를 파악할 수 있다.(사진=모요)토스 제품 오너(PO) 출신의 안동건 대표를 필두로 한 모요는 쿠팡이츠와 여기어때, 토스, 리멤버, 굿닥 등 플랫폼 전문가들이 모여 설립한 회사다. 작년 8월 첫 서비스를 선보인 이후 5개월 만인 지난달, 약 30만명이 모요 서비스를 이용했다.안동건 대표는 “알뜰폰 시장이 빠르게 성장하고 있는 데 반해, 투명하고 믿을 수 있는 정보가 많이 없는 게 현실”이라며 “고객들이 좀 더 편리하게 알뜰폰을 이용할 수 있도록 서비스를 혁신적으로 개선해 갈 것”이라고 했다.정신아 카카오벤처스 대표는 “뛰어난 기술력과 함께 사용자 시각에서 탐색, 결제, CS까지 접근한 점이 인상적”이라며 “모요가 중소 알뜰폰 시장 성장에 이바지하도록 할 것”이라고 말했다.양형준 베이스인베스트먼트 팀장은 “모요는 이미 온라인 커뮤니티, 인플루언서 등을 통해 알뜰폰 가입자 사이에서 빠르게 입소문이 나고 있는 만큼, 향후 시장을 주도적으로 이끌어 나갈 것으로 기대한다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>2022.02.06.</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>DSR 등 총동원하고도 가계빚 관리 실패… 금융혁신은 성과</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004783281?sid=101</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>文정부 5년 금융정책 평가자영업자 대출정책 코로나에 발목가처분소득대비 부채율 계속 증가법정최고금리 인하도 무용지물로인뱅 대주주 자격요건 완화 효과시장 경쟁 통해 디지털금융 성장  지난 2017년 5월, 1350조원 가계부채를 잡기 위해 문재인 정권은 7대 해법을 제시했다. 핵심은 가계부채 총량관리제였다. 가계의 가처분소득 대비 부채(가계신용 기준) 비율이 150%를 넘지 않도록 제한다는 게 목표였다.   30%에 육박하던 법정최고금리를 20%까지 낮추고, 22조원 규모의 서민 빚을 탕감해주는 방안도 공약집에 넣었다.   또 인터넷은행을 출범시키고 핀테크를 육성하는 등 혁신에도 힘을 기울였다.   결국 지난 5년 간 문 정부의 금융 혁신은 성과가 있었지만 가계부채와 관련해선 대부분의 공약이 사실상 실패했다는 평가가 나온다.   6일 금융업계에 따르면 문재인 정부가 출범 당시 150%를 넘지 않게 관리하겠다던 가처분소득 대비 가계부채 비율은 집권연도인 2017년 157%에서 2018년 164%, 2019년 167%로 꾸준히 늘었다. 지난 2020년엔 170%를 돌파했고 2021년에도 176%로 한 번의 꺾임 없이 상향했다.   기획재정위원회 소속 장혜영 의원의 계산으로는 이 숫자가 지난 해 200%를 넘기도 했다. 한성대 김상봉 교수는 "문재인 정권은 취임 당시 내놓은 가계부채 7대 해법을 거의 다 했다. 하지만 가계부채 관리는 실패했고 뛰는 집값에 기름만 붓는 부작용을 냈다"면서 "잘못 나온 정책이란 의미"라고 말했다.   문 대통령은 당시 공약집에서 현재 금융당국이 시행 중인 총부채원리금상환비율(DSR)을 대출 기준 지표로 활용하겠다고 했다. 갚을 수 있는 만큼만 빌리라는 취지다.   하지만 코로나19가 발목을 잡았다. 소득이 늘어나지 않은 상황에 대출만 조이면 대출 수요가 2금융권이나 대부업으로 몰리는 부작용을 우려해 적극적으로 나서지 못했다. 서울대 김소영 교수는 "코로나19로 인한 저금리 기조 강화가 가계부채 증가에 영향을 미친 건 맞다"면서도 "하지만 코로나19 전에도 가처분소득 대비 부채 비율이 꾸준히 늘어난 점을 보면 가계부채 관리는 실패한 것"이라고 말했다. 한양대 하준경 교수는 "코로나 대응을 재정보다는 금융으로 많이 하다보니 자영업자를 중심으로 가계부채 늘어난 부분이 있다. 아쉬운 부분"이라고 말했다.   다른 공약들도 시행은 됐지만 부작용 역시 크다는 평가가 나온다.   대표적으로 지난해 7월 20%로 인하된 법정최고금리와 관련한 논란이 있다. 문재인 정권은 대부업법상 최고 금리(27.9%)와 개인 금전거래에 적용되는 이자제한법의 최고 금리(25%)를 연 20%로 통일했다.   하지만 지난해 하반기부터 시작된 기준금리 인상으로 대출금리가 크게 오르면서 신용점수 600~700점인 중신용자가 이미 20% 수준에서 대출을 받게 됐다. 500점 이하인 저신용자는 갈 곳이 없어진 상황이라는 지적이다.   회수 가능성이 없는 빚을 탕감해주는 방안도 가계부채 비중에 큰 도움이 되진 않고 도덕적 해이만 부른다는 비판을 받기도 했다.   반면 인터넷은행을 통한 금융 혁신은 성과가 있는 것으로 평가됐다. 인터넷은행 대주주의 자격 요건을 완화하는 인터넷전문은행법 시행으로 케이뱅크 경영이 정상화 되면서 카카오뱅크, 토스뱅크와의 3파전이 본격화 됐다. 금융권 관계자는 "인터넷은행 월간 이용자 수(MAU)가 이미 시중은행을 뛰어넘었다"며 "금융혁신은 성과가 있었다"고 평가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>사업자 대출 이어 주담대 상품도 출시... 대출 영역 넓히는 인뱅들</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/469/0000658421?sid=101</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>카카오뱅크 22일 주담대 출시신규 주택구입 자금으로는 인뱅 최초"중금리 대출 소홀" 우려도카카오뱅크 주택담보대출 출시. 카카오뱅크 제공카카오뱅크(카뱅)가 인터넷전문은행(인뱅) 최초로 주택구입자금용 주택담보대출(주담대) 상품을 판매한다. 최근 토스뱅크도 인뱅 최초로 개인사업자대출 상품을 출시하는 등 인뱅들이 본격적으로 대출영역을 확대하는 분위기다.15일 금융권에 따르면, 카뱅은 'KB시세' 기준 9억 원 이하 수도권(서울·경기·인천) 소재 아파트를 대상으로 대출 상품을 판매한다. 대출 용도는 △신규 주택구입 자금 △기존 주담대 대환 △전월세보증금 반환 등이다. 현재 주담대 상품을 판매하고 있는 케이뱅크는 대환 대출만 취급하고 있기 때문에 신규 주택구입자금 대출로는 카뱅 주담대가 업계 최초다.대출 가능 금액은 최대 6억3,000만 원, 금리는 최저 2.989%(변동금리)다. 금리는 대출·거치 기간, 상환 방법 등에 따라 달라진다. 1개월 이상 근로 소득자나 소득증빙이 가능한 사업 소득자면 대출을 신청할 수 있다.카뱅 주담대 상품의 특징은 카카오톡 대화를 나누듯 대출신청을 할 수 있다는 점이다. 고객이 카뱅 애플리케이션에 접속해 주담대를 신청하면 챗봇과의 대화창이 열리며 이 창에서 △한도·금리 조회 △서류 제출 △대출 심사 △대출 실행 등 대출 전 과정이 진행된다.서류 제출에 대한 부담도 대폭 줄어들게 된다. 부동산 매매 계약서는 사진으로 촬영해 제출하면 되고, 그 외 서류는 카뱅이 유관기관을 통해 직접 확인한다. 소유권 이전 등기가 필요한 대출은 카뱅과 협약을 맺은 법무사가 잔금 지급일에 고객을 직접 찾아간다.앞서 토스뱅크는 전날 연 3%(변동금리)대·최대 한도 1억 원의 '100% 비대면' 개인사업자 대출 상품을 출시했다. 이 역시 인터넷 은행 최초의 사업자대출 상품이다.인뱅들이 사업자와 주담대 등으로 대출 영역을 넓히자, 시중은행들은 잔뜩 긴장하고 있다. 특히 대출 절차가 편리하고, 조건만 충족하면 더 낮은 금리의 대출상품을 이용할 수 있어, 대출절벽 상황에서 돈 구하기 어려운 차주들의 관심도 높아지고 있다.다만 이 같은 대출영역 확대로 인뱅의 출범취지인 중금리 대출이 소홀해지는 것 아니냐는 우려의 목소리도 나온다. 한 금융권 관계자는 “인뱅들이 중금리 대출 목표치를 달성하지 못하고 있음에도 시중은행이 취급하는 상품까지 속속 내놓고 있다”며 “상품이 다양해진 상황에서 중금리 대출판매에 집중할 수 있을지 의문”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>2022.02.05.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표, 이사회 의장 재선임</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005039822?sid=101</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표홍민택 토스뱅크 대표가 이사회 의장에 재선임됐다.5일 토스뱅크에 따르면 지난 3일 열린 이사회에서 홍 대표는 만장일치로 이사회 의장에 재선임됐다.이사회에서는 홍 대표를 의장에 선임해 은행의 책임 경영을 강화하고 이사회가 효율적으로 운영되도록 해야 한다는 데 공감한 것으로 알려졌다.선임 사외이사에는 서승원 전 중소기업중앙회 상근부회장이 재선임됐다.이사회 의장과 선임 사외이사는 매년 임명된다.임기는 이날부터 내년 정기주주총회 종료 시까지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>위메프, 갤럭시 S22 자급제폰 사전 예약 판매…최대 13% 할인</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005043835?sid=101</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>사전예약 8% 할인쿠폰…결제 시 5% 할인 15일 라이브 방송…백화점 상품권 제공위메프가 '갤럭시 S22' 시리즈 자급제 모델 사전 예약 판매를 시작한다.위메프는 오는 21일까지 갤럭시 S22 전 시리즈를 출고가 대비 최대 13% 할인한 가격으로 사전 예약 판매한다고 14일 밝혔다.사전 예약 기간 모든 고객에겐 8% 할인 쿠폰을 제공하고 카드(국민/삼성/농협/비씨/우리/하나/전북), 간편결제(카카오페이/페이코/토스/차이) 결제 시 5% 즉시 할인이 가능하다. 이밖에 구매 사은품도 있다.15일에는 라이브 방송 판매를 진행한다. 당일 오후 2시부터 2시간 동안 구매하는 고객에게는 백화점 상품권 1만원권을 제공할 예정이다. 방송은 위메프 앱/웹 갤럭시 S22 사전 예약 판매 페이지에서 볼 수 있다.위메프에서는 △갤럭시 S22(블랙·화이트·그린·핑크) △갤럭시 S22+(블랙·화이트·그린·핑크) △갤럭시 S22 울트라 256G/512G (블랙·화이트·그린·버건디) 3종 시리즈 선보인다.갤럭시 S22 시리즈는 전작 대비 커진 이미지 센서와 향상된 동영상 촬영 기능이 특징이다. 갤럭시 S 시리즈 최초로 아머 알루미늄을 적용해 내구성도 강화했다.위메프 관계자는 "갤럭시 S22 시리즈가 공개되면서 사전 예약 신청 문의가 많았다"며 "언제든 고객이 찾는 인기 트렌드 상품을 좋은 혜택에 제공하는 커머스 플랫폼이 될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>핀테크 절반은 간편결제·자산관리…보험·플랫폼으로 영토 확장</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004917118?sid=101</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>핀테크協 288개사 분석해보니고객 불편에서 사업기회 포착특정 소비자군 맞춤용 서비스싸고 빠르게 만들어 시장장악자산관리 대중화도 핀테크 몫마이데이터 초반 경쟁 앞서가블록체인·AI등 최신기술 흡수기술중심 '테크핀' 기업 진화중유니콘 토스 한곳…갈길 멀어◆ 대한민국 핀테크 대해부 ① ◆  "핀테크 확장세가 무섭다. 이 추세라면 핀테크 업계에서 세계 10위 기업이 나올 것." 한 금융 리더는 최근 빅테크·핀테크의 약진을 비교하며 이같이 말했다. '고객 중심' '넘버원 금융 플랫폼' '서비스형 뱅킹(Banking as a Service·BaaS)' 등이 최근 세계 금융시장 트렌드이자 국내 핀테크 기업의 성공 전략 키워드로 떠올랐다.3일 매일경제가 한국핀테크산업협회 288곳을 분석한 결과 간편페이 등 지급결제와 자산관리 기업(로보어드바이저 포함)이 절반에 가까운 138개사를 차지했다. 초기 핀테크 산업을 주도한 온라인투자연계금융(옛 P2P)도 32곳으로 나타났다. 이들 3대 서비스가 지난 5년간 고객 경험을 혁신하며 핀테크를 꽃피웠다면, 최근에는 블록체인과 인공지능(AI) 기술이 접목되며 보험·플랫폼 등 새로운 영토를 개척하고 있다. 한국핀테크지원센터에 따르면 2014년 말 국내 금융시장에 등장한 핀테크 산업은 8년 만에 종사자 1만6000여 명, 투자금액 2조원대 시장으로 성장했다. 핀테크 기업이 초고속으로 성장한 비결은 '소비자 불편'을 콕 집어서 해결한다는 데 있다. 기존 은행권이나 카드·보험·증권사처럼 기성복 몇 개를 걸어놓고 고르는 것이 아니라 고객이 원하는 스타일에 따라 맞춤옷을 만들어준다. 가격(수수료)은 훨씬 싸고 배송(상품 가입)도 빠르다. 시장에 내놓자마자 줄줄이 '킬러 서비스'가 되는 이유다. 이렇게 내놓은 서비스는 비용·효율성·편리함 측면 등에서 전통 은행권을 압도한다. 핀테크사가 고객을 블랙홀처럼 흡수하는 이유다.  요즘 대세는 고객 중심 BaaS다. 나이·자산 등으로 구분해 누구에게나 가입하라고 홍보하기보다 특정 소비자군에 집중하는 서비스로 공략한다. 고위드는 스타트업이라는 고객에 집중해 전용 법인카드를 비대면으로 만들어주고 애플리케이션(앱)을 통해 전체 지출관리까지 알아서 해준다. 입사와 퇴사가 많은 스타트업 특성에 맞춰 사무 기자재와 PC 등을 유연하게 빌려 쓸 수 있는 구독 모델을 선보였고 연내 스타트업 전용 대출 서비스도 준비하고 있다. 김항기 고위드 대표는 "핀테크 회사들은 타깃이 명확해서 필요한 서비스가 뭔지 바로 알 수 있고 하루라도 빨리 개발해 제공하는 속도전을 벌인다"고 말했다. 그는 이어 "금융의 본질은 돈이 필요한 곳에 가도록 하는 것"이라면서 "지금 가장 돈이 필요한 스타트업 분야에 자금이 잘 흐르도록 하는 것이 고위드의 사명"이라고 강조했다. 이 회사는 이 같은 사업 모델로 고객사 2000곳을 확보했고 946억원 규모 투자를 유치했다.비싸고 번거로운 해외 송금을 블록체인 기술로 간편하게 해결하려는 핀테크 기업도 눈에 띈다. 센트비·핑거·핀샷 등 핀테크협회 회원사 중 20곳이 이 분야를 개척하고 있다. 아직 외국인 근로자와 유학생 등 수요가 한정적이기는 하지만 기존 방식에 비해 월등한 경쟁력으로 빠르게 성장하고 있다. 모인은 '비대면 해외 송금 신청 단 5분이면 완료. 4배 더 빠르고 최대 90% 저렴하게'를 모토로 내세웠다. 몇만 원인 해외 송금 수수료를 2000원으로 낮췄다. 예를 들어 500만원을 해외로 보내려면 송금은행 수수료 1만5000원과 중개은행 수수료 3만5000원에 전신료(스위프트) 8000원을 내야 한다. 반면 모인은 2000원만 내면 바로 송금해준다.프라이빗뱅킹(PB)센터에서 고액 자산가나 받을 수 있었던 맞춤형 자산관리 서비스를 대중화한 것도 핀테크 업계다. 작년 12월 시범 서비스를 시작한 마이데이터 초반 경쟁에서 핀테크가 은행·카드 등 기존 금융권을 제치고 선두를 달리고 있다. 뱅크샐러드는 '유전자 검사' 서비스를 제공하면서 의료·건강 데이터와 연계할 방안을 모색 중이고 핀크는 마이데이터 중심으로 재단장한 이후 모바일 앱 누적 다운로드 수가 1000만건을 넘었다.AI를 활용한 로보어드바이저와 일임형 자산관리 서비스도 인기다. AI  투자 솔루션 '라씨(RASSI)' 브랜드로 유명한 씽크풀은 구글 앱스토어 금융 부문 매출 1위다. 매일 2TB 분량의 키워드를 수집하고 정제·분석해 시장 방향성과 종목 움직임을 예측해준다. 로보어드바이저 앱 파운트는 30만명의 자산 9000억원(2021년 3분기 기준)을 운용 중이다. 보험·은행·증권사 등 금융기관 20여 곳에도 AI 투자 솔루션을 제공한다. 투자금액은 월 10만원부터다. 업계 1위인 이 회사는 지금까지 투자금 746억원을 유치했다. 핀테크2.0 시대가 열리고 있다는 점 역시 주목할 만하다. 지금은 간편결제·자산관리 기업이 많지만 이제 막 태동하는 핀테크 기업은 기술(테크)로 금융 문제를 해결하는 테크핀으로 진화 중이다. 편리한 투자와 대출·송금 수단을 넘어 블록체인과 AI 기술로 산업 전반을 혁신하는 '게임 체인저'로 성장하고 있다. 비접촉 생체인증 기술인 에어록스를 개발한 위닝아이와 위치추적(GPS) 기반으로 출퇴근을 인증하고 당일 급여를 정산받을 수 있는 알바워치 등이 새로운 시장을 개척하고 있다.물론 아직 갈 길이 멀다. 한국핀테크산업협회에 따르면 전 세계 핀테크 유니콘 기업(기업가치 1조원 이상 스타트업)은 94개사다. 이 중 한국 기업은 토스 단 한 곳에 불과하다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
-        <v>146</v>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>우리은행 새 사령탑 ‘이원덕’...미래경쟁력 확보 등 현안 산적</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002573279?sid=101</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>“완전민영화 이후 조직 쇄신 기대”손태승號 종합금융그룹 도약에 일조차기 우리은행장에 내정된 이원덕 수석부사장 ⓒ 우리은행[데일리안 = 이호연 기자] 우리은행이 이원덕 수석부사장을 새로운 수장으로 맞이했다. 2년만의 최고경영자(CEO) 교체다. 손태승 우리금융회장의 복심으로 알려진 이원덕 내정자는 ‘완전민영화’ 이후 우리은행의 조직 쇄신을 이끌어 종합금융그룹 도약에 핵심 역할을 할 것으로 기대된다.◆ 이변 없었다...그룹 시너지 극대화우리금융그룹은 7일 자회사대표이사후보추천위원회(자추위)를 개최하고, 이원덕 부사장을 차기 우리은행장 단독 후보로 낙점했다고 밝혔다. 완전민영화 이후 분위기 쇄신 등 은행 조직 활력과 경영 안정성 제고를 위한 적임자라는 판단에서다.우리금융 자추위는 “이원덕 후보는 우리은행 미래금융단 상무, 경영기획그룹장을 역임하고, 지주사 수석부사장으로 그룹 전반에 대한 폭넓은 이해를 하고 있다”며 “플랫폼 경쟁력이 핵심 경쟁요소가 되고 있는 상황 속에서 그룹 디지털혁신소위원회 의장으로서의 경험 등이 높이 평가됐다”고 내정 배경을 설명했다.앞서 이 내정자는 유력 후보로 언급돼왔다. 우리금융에서도 손꼽히는 전략통으로 전략기획 부문을 오래 담당하며 그룹 전략가로서의 면모를 유감없이 발휘해왔다. 이 내정자는 우리은행 전략사업부를 거쳐 미래전략단장, 경영기획그룹 부행장 등을 지냈다. 2020년부터는 지주 CSO선임됐으며, 손태승 회장과 함께 우리금융의 사내이사로 유일하게 이름을 올렸다. 또 직무대행 역할도 부여받으며 그룹 2인자의 역할을 무리없이 수행했다. 특히 우리금융 민영화 과정에서 잠재투자자 관리와 지분매각을 담당하며 과점주주 지배구조 체제 완성을 위한 역할을 충실히 수행했다. 손 회장과의 합도 좋아 지주와 은행간 관계를 재정립하는데 적임자라는 평이다. 그는 손 회장과 같은 옛 한일은행 출신으로 전략기획팀에서 한솥밥을 먹었다. 우리금융이 완전민영화 이후 새출발하려는 시점에서 이 내정자의 발탁은 합리적인 선택이라는 평가다. 자추위 또한 인선 과정에서 이같은 점을 거듭 강조해왔다.◆ ‘수익성’ ‘디지털 전환’ 두마리 토끼 잡아야이 내정자는 다음달 열리는 주주총회에서 선임을 확정짓고 공식 임기를 시작한다. 임기는 2년을 부여받았다. 우리금융은 올해 증권사와 보험사 인수합병(M&amp;A)을 통해 종합금융그룹으로 도약을 꿈꾸고 있다. 그룹 맏형이자 핵심 ‘캐시카우’인 우리은행의 역할은 그 어느때보다 중요하다.하지만 금융당국의 고강도 가계대출 관리, 코로나19 장기화 속 취약계층의 금융 지원, 빅테크와의 경쟁 등 우리은행이 안팎으로 처한 상황이 녹록지 않다. 우리금융이 역대 최대 실적을 달성한 권광석 행장의 연임이 아닌 교체를 선택한 것도 이러한 위기감이 반영된 것으로 풀이된다.우리은행은 지난해 1~3분기 누적 순이익이 전년 대비 70.9% 급증한 1조9860억원을 기록하는 등 역대 최대 실적을 달성하며, 3위인 하나은행과 경쟁관계에 이를 정도로 성장했다. 2019년 말 348조원이던 자산규모도 지난해 9월말 408조원까지 증가했다. 금리상승기에 진입하면서 올해도 호실적이 예상되지만, 금융당국이 올해 가계 대출 규제의 고삐를 더욱 바짝 죄면서 소매금융 영업이 쉽지는 않을 전망이다.카카오와 토스 등 빅테크와의 경쟁도 격화되고 있다. 핵심 소비층으로 떠오르고 있는 MZ세대(밀레니얼+Z세대)를 사로잡아미 미래 경쟁력을 끌어올려야 한다. 당장 지난달 14일부터 정식으로 시행된 마이데이터 사업에서 우위를 확보해야 한다. 마이데이터는 소매금융 영업에 필수적인 고객  빅데이터를  활용할 수 있어 모든 금융사가 공을 들이고 있다. 현재 활용성을 보면 빅테크의 완승이다. 치열한 금융시장에서 생존하기 위해, 올해 경영 목표인 ‘고객중심 No.1 금융플랫폼 기업’을 실현하려면 사활을 걸어야 한다.우리금융측은 “완전민영화 이후 조직 쇄신을 통해 조직의 활력과 역동성을 제고하고, 동시에 안정적인 조직운영을 바탕으로 은행의 미래 성과를 창출할 수 있는 역량을 가진 후보를 선정하기 위해 심도있는 논의를 거쳐 이번 결과를 발표했다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
-        <v>147</v>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>367개 대학 성적·졸업증명서 모바일로 뗀다</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011003636?sid=102</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>기사내용 요약행안부·㈜디지털존·㈜아이앤텍, 26일부터 서비스 확대  [세종=뉴시스] 대학제증명 전자증명서 발급 사이트 예시. (자료= 뉴시스 DB) [세종=뉴시스] 변해정 기자 = 사이버대학을 비롯한 전국 367개 대학교의 졸업·재학·성적증명서를 모바일 전자증명서로 발급받을 수 있게 된다.행정안전부는 인터넷 증명서 발급 전문기관인 ㈜디지털존 및 ㈜아이앤텍과 함께 '대학제증명 모바일 전자증명서 발급 서비스'를 오는 16일부터 확대 제공한다고 15일 밝혔다. 대학 관련 증명서는 취업이나 상급학교 진학 시 필요한 서류 중 하나다. 졸업증명과 졸업예정증명, 수료증명, 재학증명, 휴학증명, 제적증명, 자퇴증명, 성적증명, 교육비 납입증명 등 총 20종이 있다.   그동안 20개 일부 대학교만 모바일 전자증명서로 발급해왔다.  이번에 한양사이버대학 등 24개 사이버대학을 포함한 347개 대학교가 추가됐다. 특히 사이버대학은 재교육을 원하는 직장인, 주부, 고졸 학력 보유자 등이 많이 수강함에 따라 약 45만명이 수혜를 받을 것으로 기대된다. 대학 제증명을 모바일 전자증명서로 떼려면 행정서비스통합포털인 정부24(www.gov.kr) 또는 페이코·토스 앱을 스마트폰에 내려받은 후 전자문서지갑을 발급 받아 제증명 수령 방법을 전자문서지갑으로 선택하면 된다. 이후 ㈜디지털존(www.webminwon.com) 또는 ㈜아이앤텍(www.certipia.com) 홈페이지에 접속해 발급 신청을 하면 된다. 대학교 또는 가까운 읍·면·동 주민센터를 직접 방문해 수령하거나 인터넷 증명서 발급 대행기관 사이트에서 종이로 출력한 뒤 기관에 제출해야 하는 번거로움이 사라지게 된 셈이다. 또 우정사업본부의 '우체국 스마트뱅킹 앱'과 경찰청의 '경찰민원 모바일 앱'에서 서류를 전자증명서로 발급 받아 제출할 수 있게 된다. 발급·제출 가능한 증명서는 우체국은 주민등록등본과 한부모가족증명서 등 14종, 경찰청은 운전경력증명, 교통사고사실확인원 등 5종이다.   이세영 행안부 공공지능정책과장은 "이제 대부분의 대학교 제증명을 모바일 전자증명서로 발급받을 수 있다"면서 "앞으로도 디지털 정부혁신의 일환으로 언제 어디서나 전자증명서를 편리하게 이용할 수 있도록 활용 분야를 지속 확대해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
-        <v>148</v>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>순창군 실내야구연습장, 팔덕경기장 연계 야구 인프라 최적</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011001883?sid=102</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>순창군 팔덕다용도구장와 실내야구연습장. *재판매 및 DB 금지[순창=뉴시스] 김종효 기자 = 전북 순창군이 공공 체육시설 수요에 부응하고 야구산업 저변 확대를 위해 관내에 실내야구연습장을 조성했다.14일 팔덕면 구룡리 일원에 조성된 실내야구연습장에서는 황숙주 군수와 이상근 대한유소년야구연맹 이상근 회장을 비롯한 관계자들이 참석한 가운데 시설 이용자의 안전과 스포츠마케팅산업 발전을 기원하는 '안녕기원제' 형식의 준공식이 열렸다.8663㎡ 부지에 989.7㎡ 규모로 조성된 실내야구연습장은 국비 7억2000만원, 군비 13억8000만원 등 총 21억원이 사업비가 투입됐다.지난해 12월까지 1년여의 공사를 거친 끝에 지상 2층으로 신축된 실내야구장에는 피칭머신 2대와 토스머신 3대 등의 설비도 갖췄다.실내야구연습장은 인근의 팔덕다용도경기장의 전용야구장 1면과 겸용야구장 1면과 연계할 경우 야구 전지훈련 유치를 위한 최적의 인프라를 갖추게 된다.군 관계자는 "팔덕다용도경기장과의 시너지 효과를 내서, 야구종목 전지훈련 유치로 지역경제 활성화에 기여하도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>“7세도 본인 카드… 어엿한 금융 고객”</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003250009?sid=101</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>‘유스카드’ 만든 토스 윤주승 PO금융 수요 반영해 7세부터 이용“부모 카드 쓰면 잔액 잘 모르고소비 활동 감시받는 느낌 들어아이 경제 역량 높이도록 지원”윤주승 토스 틴즈 사일로 PO가 7일 서울신문과의 인터뷰에서 어린이·청소년 금융 교육의 중요성을 강조하고 있다.“아이들이 호소하는 건 명확했어요. ‘내 용돈은 내가 관리하겠다’는 것이죠. 부모님 카드를 쓰면 잔액이 얼마가 남았는지, 얼마를 썼는지 뚜렷하게 알 수 없는 데다 소비 활동이 감시를 받는다는 느낌이 들기 때문이죠.”토스에는 ‘틴즈 사일로’라는 어린이·청소년 대상 상품을 개발하는 부서가 있다. 이 부서에서 상품 개발을 책임지고 있는 윤주승(35) 상품 책임자(PO)를 7일 서울 강남구 토스 사무실에서 만났다. 그는 “보통 아이들의 금융 능력은 부모가 가진 경제적 역량이나 관심도에 따라 차이가 크다”며 “부모들도 자녀 경제 교육이 막막한 측면이 있는 만큼, 아이들이 토스를 통해 경제 역량을 높일 수 있는 상품을 지원하려 한다”고 말했다.최근 토스는 만 7세부터 필요한 서비스를 제공하기 위한 작업을 진행하고 있다. 어린이·청소년을 대상으로 한 상품을 만들기 위해 윤 PO는 직접 아이들과 부모의 목소리를 찾아다녔다. 그는 “‘세뱃돈은 엄마가 통장에 잘 넣어 둘게’라는 말처럼 부모들은 자녀가 모르는 자녀 명의의 통장에 돈을 모아 두곤 하더라”며 “원하는 카드 디자인을 조사했을 땐 부모는 캐릭터가 있는 알록달록한 카드를 꼽았지만 아이들은 외려 ‘심플하고 세련돼 보이는 카드’를 선호해 부모와 자녀 간 취향이 겹치는 지점은 10%도 채 되지 않았다”고 말했다. 이를 바탕으로 지난해 12월 만 7세 이상부터 만 16세 이하 고객을 대상으로 한 토스 유스카드를 출시했다.틴즈 상품을 만들 땐 조심스러운 측면도 많다. 윤 PO는 “청소년 금융은 도덕적, 윤리적 측면까지 따져 더 까다롭게 접근을 해야 한다”며 “10대의 금융 이용 패턴에 맞춘 이상거래탐지시스템(FDS)을 맞춤 운영하고 있다”고 밝혔다. 그는 “금융 생활에 대한 수요가 어린 고객층에서도 생겨나고 있는 만큼 제도적 기반 역시 다져야 할 때”라며 “삼촌의 마음으로 조카뻘 아이들에게 주체적으로 용돈 관리를 하는 기쁨을 알게 해주고 싶다”는 바람을 내비쳤다. 최근엔 용돈기입장 개념을 바탕으로 한 용돈 운용 방법을 조언하는 서비스도 준비하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
-        <v>150</v>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>민팃 "추가 보상 받고 갤럭시 S22 구매하세요”</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004787606?sid=101</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>민팃, 갤럭시S22 추가보상 이벤트 포스터. SK네트웍스 제공 [파이낸셜뉴스] ICT 리사이클 기업민팃은 삼성전자가 사전 예약을 시작한 ‘갤럭시 S22’ 구매 고객 대상으로 기존 사용 휴대폰에 대한 추가 보상 프로그램을 운영한다고 14일 밝혔다. 3월 말까지 갤럭시 S22 폰을 구매∙수취한 후 14일 이내 중고폰을 반납하면 민팃 시세에 더해 기기 모델별 특별 보상을 하는 것이다.   특히 갤럭시 S20∙노트10∙노트9 시리즈는 15만원, 갤럭시 S21∙S10∙S9∙노트20은 10만원의 추가 보상이 이뤄진다.   민팃은 통신3사 신규가입 및 보상기변 고객은 물론, 자급제 고객도 이용이 가능하도록 이번 프로그램을 기획했다.   통신사에서 신규폰을 구매한 고객은 각 통신사 매장에 설치된 민팃ATM을 통해 자급제폰 구매 고객은 삼성디지털프라자와 하이마트, 이마트, 홈플러스, 롯데마트 등에 위치한 민팃ATM을 이용하면 된다. 통신사 고객의 경우 개통 2주 유지 확인 후 보상이 진행되며, 자급제 폰은 계좌 확인 등의 절차를 거쳐 바로 보상된다.   민팃은 이번 프로그램 관련 고객 참여 확대를 위해 다양한 혜택을 담은 이벤트를 진행한다. 이달 21일까지 홈페이지에서는 ‘룰렛 이벤트’를 통해 총 1600여명의 고객에게 갤럭시 S22(2명), 갤럭시 버즈2(5명), 스타벅스∙베스킨라빈스 기프티콘 등을 제공할 계획이다. 더불어 14일부터 24일까지 삼성디지털프라자 홍대 본점에 ‘찾아가는 민팃(민팃 스페셜존)’을 운영하며, ‘토스 앱을 통한 만보기 이벤트’도 준비해 고객과 소통할 예정이다.   민팃 관계자는 “이번 추가 보상 활동을 통해 신규 휴대폰 구매와 동시에 사용하던 폰은 서랍이나 장롱 속이 아닌 민팃ATM으로 유통되어 자원 재순환으로 이어지길 기대한다”며 “3월 이후에도 신규폰 합리적 구매와 중고폰 유통 문화 확산을 연계 방안을 고민해 ‘중고폰 민팃 거래’를 이끌 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
-        <v>151</v>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>토뱅 뛰어든 자영업대출…커진만큼 부실 부담도 ‘UP’</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000275368?sid=101</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>[앵커] 인터넷은행들이 올해 개인사업자대출을 잇따라 내놓습니다. 가계대출 규제 속에서 활로를 모색하는 건데, 다음 달 자영업자 대출 만기 연장 조치 종료를 앞두고 있어 자칫 부실이 더 커지는 건 아닌지 우려도 나옵니다. 김성훈 기자의 보도입니다. [기자] 토스 뱅크가 인터넷 전문은행으로서는 처음으로 개인사업자 대출 상품을 출시했습니다. 자영업자와 소상공인들에게 연 3% 초중반대의 금리에 최대 1억 원을 내주는 신용대출 상품입니다. [토스뱅크 관계자 : 코로나19 여파로 자금 수요가 많은 자영업자나 소상공인들에게 적시적소에 투입되는 대출상품을 마련하고자 했고요. 자체 개발한 신용평가모형에 따라 소상공인에 특화된 심사기준을 추가로 반영했고요.] 케이뱅크는 올해 1분기, 카카오뱅크도 올해 안으로 개인사업자 전용 대출을 내놓을 예정입니다. 인터넷은행들이 이처럼 개인사업자 대출에 뛰어드는 이유는 가계대출 규제가 강화되고 있기 때문입니다. 여기에다 자영업 대출은 가계대출보다 더 빠르게 늘고 있습니다. 코로나19 상황이 장기화되면서 2년 사이 개인사업자 대출 규모는 23%, 대출 건수는 60% 가까이 늘었습니다. 문제는 용도 외 사용 적발도 늘고 있다는 점입니다. 2년 사이 기업활동 외에 생계비 등 다른 목적으로 개인사업자 대출을 쓴 유용 사례가 2배 이상 늘기도 했습니다. 지난 2년간 만기 연장과 상환 유예된 자영업자 대출 원금과 이자 규모는 140조 원 규모입니다. [ 이정환 / 한양대 경제금융학부 교수 : 코로나19 상황 때문에 살릴 기업과 살리지 못할 기업이 헷갈리는 상황이긴 하거든요. 살리지 못할 기업에도 추가적으로 자금이 들어가고 부실 위험이 커지고 부정적이라고 할 수 있겠습니다.] 이에 금감원도 상대적으로 규제가 약한 개인사업자 대출에 수요가 몰리는 '풍선효과'를 막기 위해 가계대출과 개인사업자대출을 통합해 관리하는 방안을 마련하기로 했습니다. SBS Biz 김성훈입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
-        <v>152</v>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>이번엔 근태관리 솔루션까지…비즈니스온 M&amp;A로 무한확장</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001947470?sid=101</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>회계·전자서명 기술확보 이어재무 이어 인사까지 영업확대고객사만 15만곳…성장동력↑[헤럴드경제=이세진 기자] 사모펀드(PEF) 운용사 프랙시스캐피탈이 보유한 ‘비즈니스온’이 잇따른 인수합병(M&amp;A)에 나서고 있다. 프랙시스캐피탈이 기업용 SaaS(서비스형 소프트웨어) 전문업체인 비즈니스온에 다양한 솔루션을 추가해 서비스 라인을 확장하는 ‘볼트온(bolt-on, 동종기업 인수)’ 전략을 적극 구사하는 모습이다.비즈니스온은 지난 7일 근태·인력관리 솔루션 스타트업 시프티 지분 66.72%를 280억원에 인수했다. 프랙시스캐피탈을 최대주주로 맞은 이후 최근 4번째 M&amp;A로 규모는 가장 크다. 이번 거래로 기존 재무영역을 아우르는 SaaS 플랫폼에 더해, 인사관리(HR) 영역으로까지 서비스를 확대하게 됐다.시프티는 SK네트웍스, 미래에셋, 롯데쇼핑, 현대오일뱅크 등 대기업은 물론, 카카오, 쿠팡, 토스, 딜리버리히어로, 우아한형제들과 같은 정보기술(IB) 기업까지 15만 곳의 고객사를 확보하고 있다.프랙시스캐피탈은 2019년 9월 비즈니스온 경영권을 인수했다. 특수목적회사(SPC)인 비아이에스홀딩스를 통해 지분 36.24%를 730억원에 취득하고, 신주인수권부사채(BW)와 전환사채(CB)도 각각 100억원씩 인수, 총 930억원을 투자했다. 비아이에스홀딩스는 2020년 4분기 중 신주인수권과 전환권을 행사해 지분율이 46.51%까지 높아졌다.비즈니스온은 프랙시스 인수 직후부터 현재까지 총 710억원에 달하는 금액을 M&amp;A에 투입했다. 지난해에는 e-어카운트솔루션 ERP 전문회사인 넛지를 100억원에 인수했고, 앞서 2020년에는 웹 기반 간편인증 전자서명 기술을 보유한 글로싸인을 60억원에 사들였다. 빅데이터 분석 기업인 플랜잇도 270억원에 껴안으며 서비스 확장 밑그림을 그렸다.유진투자증권은 지난해 비즈니스온의 연결기준 매출액이 전년 대비 82% 성장한 336억원, 영업이익은 같은 기간 78% 상승한 98억원을 기록할 것으로 전망했다. 3분기까지 비즈니스온은 매출 249억원, 영업이익 72억원을 기록한 바 있다.회사 관계자는 “앞으로도 비즈니스온은 시너지 창출 극대화로 이어질 수 있는 다양한 M&amp;A 등 공격적인 투자를 지속할 예정”이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
-        <v>153</v>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] 마이데이터 발목잡힌 삼성 금융계열사…‘통합앱’ 승부수 통할까?</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000274596?sid=101</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>삼성화재·카드·생명·증권 등 4개 삼성 금융계열사들이 통합앱 출시를 준비하고 있습니다.'모니모'라는 가칭이 붙은 통합앱은 삼성 보험 부문에 카드와 증권이 결합된 '원앱' 형태가 될 전망입니다. 오픈뱅킹까지 가능하다는 점을 감안하면 앱 하나로 보험과 카드, 증권 서비스에 은행 업무까지도 가능해지는 셈입니다. 4개사의 가입자가 3200만명(중복 가입자 포함)에 달하기 때문에 통합앱이 이 가입자들을 흡수할 경우 각 업계에 미치는 영향이 만만치 않을 것으로 전망됩니다.삼성 계열사들은 왜 통합앱을 내놓게 됐을까요?가장 큰 이유 중 하나는 위기감입니다. 이미 금융지주들은 각 계열사의 서비스를 하나의 앱에 담는 전략으로 강하게 드라이브를 걸고 있고, 빅테크는 막강한 플랫폼 장악력을 기반으로 금융 서비스를 하나씩 확장해나가고 있습니다.금융소비자들 사이에서 '원앱'에 대한 필요성이 커지고 있다는 점도 중요한 이유 중 하나입니다. 모바일 빅데이터 플랫폼 아이지에이웍스가 데이터 분석 솔루션 ‘모바일인덱스’를 통해 분석해 발표한 보고서에 따르면 지난해 12월 토스의 사용자 수는 1397만4762명으로, 카카오뱅크 사용자 수(1317만 154명)를 넘어서 1위를 차지했습니다. 앱 하나로 간편결제와 은행, 증권 업무까지 모두 볼 수 있는 토스의 '원앱 전략'이 통했다는 분석이 설득력을 얻고 있습니다.금융사들이 먹거리로 꼽는 마이데이터 사업(본인신용정보관리업)을 삼성 금융계열사들이 자유롭게 펼치기 어렵다 점도 또 하나의 이유로 꼽힙니다.삼성생명은 지난 4일 암 입원 보험금 미지급 등과 관련해 중징계에 해당하는 기관경고 내용이 담긴 금융당국의 종합검사 결과서를 수령했습니다. 삼성생명이 관련 제제를 받아들이면 결과서 수령일로부터 향후 1년간 금융당국의 인허가가 필요한 신사업에 진출할 수 없게 됩니다. 삼성생명의 자회사인 삼성카드 등도 같은 제한을 받습니다.마이데이터 사업은 당국의 인허가가 필요한 사업이어서, 삼성생명 등 삼성 금융계열사의 진출에도 제동이 걸리게 됩니다. 다른 금융사들이 흩어진 개인 신용정보를 한곳에 모아 보여주고 재무 현황·소비패턴 등을 분석해 적합한 금융상품 등을 추천해주는 마이데이터 서비스를 미래 먹거리 사업으로 꼽고 확장할 때, 삼성 금융계열사는 보고만 있어야 하는 상황이 되는 것입니다.결국 마이데이터의 부재를 3200만 가입자가 있는 삼성 금융계열사 만의 서비스 통합으로 맞서겠다는 것으로 해석됩니다.일각에서는 삼성페이와의 시너지까지 가능할 경우 마이데이터를 넘어서는 효과를 기대할 수도 있다는 시각도 있지만, 삼성 계열사 측은 삼성페이와의 시너지에 대해서는 부인했습니다. 차후에라도 삼성페이까지 통합앱에 들어간다면 막강한 파괴력을 보여줄 수 있는 만큼, 가능성은 열려있다고 생각됩니다.삼성이 던진 통합앱 승부수가 어떤 결과를 낳을지, 금융권의 이목이 쏠릴 수밖에 없게 됐습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
-        <v>154</v>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>쿠콘, 대출 비교 서비스…증권·카드사 등 이용 업권 확대</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002246920?sid=105</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>쿠콘(대표 김종현)은 대출 한도 및 금리 조회 API로 구현되는 대출 비교 서비스가 다양한 업권에서 활용되고 있다고 8일 밝혔다.쿠콘은 키움증권과 하나카드의 마이데이터 서비스에 대출 비교 서비스를 연계했다. 대출 비교 서비스는 각각 키움증권의 마이데이터 서비스 ‘MY자산’과 하나카드의 마이데이터 서비스 ‘하나합’에서 만나볼 수 있다.쿠콘이 제공하는 대출 비교 서비스는 30여개 금융 기관에서 대출 한도와 확정 금리 정보를 실시간으로 받을 수 있는 서비스다. 기업은 쿠콘만 연결하면 금융 기관을 일일이 연계하지 않아도 여러 금융 기관의 상품 정보를 조회할 수 있다. 쿠콘은 대출 비교 서비스 연계 시장에서 독점적인 시장 지위를 확보하고 있다.쿠콘이 키움증권, 하나카드의 대출 비교 서비스를 구현하며 다양한 업권의 마이데이터 사업자들과 연계를 넓히고 있다(이미지=쿠콘)2021년 마이데이터(본인신용정보관리업) 본허가를 취득한 키움증권, 하나카드와의 이번 연계는 쿠콘의 API가 은행·핀테크 기업뿐만 아니라, 증권사·카드사 등 다양한 업권에서 활용되고 있는 것을 보여주는 사례이기도 하다. 특히 키움증권과의 연계는 쿠콘과 증권사가 최초로 API를 연계한 사례라는 점에서 의미가 있다.쿠콘 대출 한도 및 금리 조회 API는 마이데이터 시대에 최적화한 API로, 초개인화한 서비스 구현이 가능하다. 시중에 출시된 대다수 대출 비교 서비스가 쿠콘 API를 탑재했으며, 시장에서 서비스 안정성과 기술력을 인정받고 있다. 대표적으로 토스, 카카오페이, 핀다, 현대카드 등이 쿠콘 대출 한도 및 금리 조회 API를 통해 개인 맞춤형 대출 상품 비교·추천 서비스를 제공한다.마이데이터 사업자의 경우 통합 자산 관리와 대출 상품 비교·추천 서비스를 접목해 더 정교한 마이데이터 서비스를 선보일 수 있다. 쿠콘과 연계해 대출 상품 비교·추천 서비스를 출시하는 금융 기관, 마이데이터 사업자는 꾸준히 늘고 있으며 다양한 업권에서 들어오는 연계 문의도 이어지는 중이다.김종현 쿠콘 대표는 “쿠콘 대출 한도 및 금리 조회 API가 은행·핀테크 기업뿐만이 아닌 다양한 업권에서 마이데이터 서비스를 고도화하는 데 적극적으로 활용되고 있어 기쁘다”며 “쿠콘은 앞으로 핀테크 서비스와 금융 기관 간 연계 사업을 활성화해 금융 소비자에게 다양한 대출 상품 정보가 제공될 수 있도록 노력하겠다”고 말했다.쿠콘은 금융, 공공, 의료, 물류, 통신 등 국내 500여개 기관과 해외 40여개국, 2000여개 기관의 데이터를 수집·연결해 API 형태로 제공한다. 2021년 4월 코스닥에 상장한 쿠콘은 2021년 1월 금융위원회에서 마이데이터 사업자로 선정돼 마이데이터 전문 플랫폼을 제공하고 있으며, 마이데이터 서비스 기능 적합성 심사를 통과해 마이데이터 서비스 안정성을 입증했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
-        <v>155</v>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>쿠콘, 마이데이터 사업장에 대출비교 서비스</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002719276?sid=105</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>쿠콘(대표 김종현)은 자사 상품 '대출한도 및 금리조회 API(앱인터페이스)'로 구현되는 대출 비교 서비스가 다양한 업권에서 활용되고 있다고 8일 밝혔다.쿠콘은 키움증권과 하나카드의 마이데이터 서비스에 대출 비교 서비스를 연계했다. 쿠콘의 서비스는 30여 개 금융기관으로부터 대출 한도와 확정 금리 정보를 실시간 제공한다. 기업은 쿠콘만 연결하면 금융기관을 일일이 연계하지 않아도 많은 금융기관의 상품 정보를 조회할 수 있다. 쿠콘 측은 "키움증권, 하나카드와의 연계는 쿠콘의 API가 은행, 핀테크 기업뿐만 아니라 증권사, 카드사 등 다양한 업권에서 활용되고 있는 것을 보여주는 사례"라면서 "특히, 키움증권과의 연계는 쿠콘과 증권사가 최초로 API를 연계한 사례"라고 밝혔다. 쿠콘 대출한도 및 금리조회 API를 이용하면 초개인화된 서비스 구현이 가능하다. 토스, 카카오페이, 핀다, 현대카드 등이 쿠콘 대출한도 및 금리조회 API를 통해 개인 맞춤형 대출 상품 비교·추천 서비스를 제공 중이다. 특히 마이데이터 사업자들의 경우 통합자산관리와 대출 상품 비교·추천 서비스를 접목해 보다 정교화된 마이데이터 서비스를 선보일 수 있다. 김종현 쿠콘 대표는 "앞으로 핀테크 서비스와 금융기관 간 연계사업을 활성화해 금융소비자에게 다양한 대출상품 정보가 제공될 수 있도록 노력하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>갤럭시 S22 사전 판매 시작…새벽배송으로 받아본다[쇼핑카트]</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004018341?sid=101</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>[서울경제] 삼성전자의 새로운 플래그십 스마트폰 ‘갤럭시 S22’ 시리즈가 25일 공식 출시를 앞두고 14일부터 사전 판매를 시작한 가운데 주요 e커머스 업체들이 수요 공략에 나섰다. 다양한 할인 혜택과 경품 이벤트는 물론 새벽배송 서비스를 통해 고객들의 구매 편의성과 기대감을 높이겠다는 전략이다.마켓컬리는 ‘갤럭시S22’를 오는 21일까지 사전예약을 받아 한정 수량으로 판매한다고 14일 밝혔다. 사전예약 기간에 주문을 하면 바로 다음 날 새벽부터 차례로 상품을 받을 수 있다. 또 지정된 4개 카드(신한·국민·롯데·우리)로 결제 시 정상가에서 13% 할인된 가격에 구매할 수 있다. 21일 밤 11시까지의 사전예약 고객을 추첨해 갤럭시탭 S8(1명)과 마켓컬리 적립금 5만 원(30명), 3000원(500명)을 제공하는 경품 이벤트도 진행한다.쿠팡도 같은 기간 갤럭시 S22 사전 예약 판매를 진행한다. 사전예약을 통해 구매한 상품은 오는 22일부터 배송될 예정이다. 특히 쿠팡은 사전 예약 시 파손보상 2회, 수리비 즉시 할인, 방문 수리 3회 등의 혜택이 포함된 ‘삼성 케어 플러스 파손 보장형 1년 권’ 혜택을 제공한다. 또 갤럭시 웨어러블 제품을 30% 할인된 금액에 구매할 수 있는 쿠폰을 발급한다.SSG닷컴은 오는 20일까지 ‘신학기 디지털 가전 위크’를 실시하고, 인기 디지털 기기와 가전제품을 최대 50% 할인한 가격에 선보인다. 그 중 ‘갤럭시 S22’의 경우 즉시 할인 혜택이 적용돼 결제 수단과 관계없이 13% 할인가에 판매한다. 또 SSG페이로 디지털 가전 상품을 구매할 경우 적용 가능한 최대 2만 원 할인 쿠폰팩을 매일 선착순 1만 명에게 발급한다. 위메프는 ‘갤럭시 S22’ 전 시리즈를 출고가 대비 최대 13% 할인한 가격에 선보인다. 먼저 전 고객에게 8% 할인 쿠폰을 제공하고, 카드(국민·삼성·농협·비씨·우리·하나·전북), 간편결제(카카오페이·페이코·토스·차이) 결제 시 5% 즉시 할인을 해준다. 또 사전 예약 둘째 날인 15일 오후 2시에는 사전 예약 시 백화점 상품권 1만 원권을 제공하는 라이브 방송 판매를 진행한다.이밖에 11번가는 사전예약 행사기간 △9개 ’카드사 할인쿠폰’ △SK페이 결제 시 최대 22개월 무이자 할부 △갤럭시워치4, 갤럭시버즈 시리즈 30% 할인쿠폰 △T멤버십 3,000원 추가 할인 등을 제공한다. 제품은 사전예약 종료 다음날인 22일부터 순차적으로 받아볼 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
-        <v>157</v>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>2022.02.09.</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>올해 비상장 주식 인기 종목은?… 상장 앞둔 마켓컬리, 순위권 진입</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000783114?sid=101</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>올들어 비상장 투자자들 사이에서 마켓컬리 운영사 '컬리'에 대한 관싱미 높아진 것으로 나타났다./사진=컬리올들어 비상장 투자자들 사이에서 마켓컬리 운영사 '컬리'에 대한 관심이 높아진 것으로 나타났다.전날(7일) 두나무는 국내 대표 비상장 주식 거래 플랫폼 '증권플러스 비상장'에서 올 1월 한달 간 인기를 끈 비상장 주식 키워드를 발표했다. LG에너지솔루션을 필두로 IPO(기업공개)에 대한 뜨거운 관심이 이어지는 가운데 컬리가 1월 증권플러스 비상장 인기 조회 및 관심 종목 추가 톱(TOP) 20에 첫 진입했다. 컬리는 1월 증권플러스 비상장 인기 조회 9위, 관심 종목 추가 6위로 안착했다.신선식품 새벽배송으로 잘 알려진 마켓컬리 운영사 컬리에 대해 관심이 쏠린 것은 올해 상반기 국내 증시 상장을 추진한다는 소식 때문으로 풀이된다. 현재 컬리는 주관사들과 함께 이달 한국거래소 상장예비심사 청구를 위한 실무 작업을 진행 중이다. 이르면 4월 중 상장을 완료할 것으로 예상된다.컬리는 지난달 이사회를 열고 금융감독원·공정거래위원회 출신 관료를 영입하는 등 사외이사 구축도 완료한 상태다. 이는 상장 과정에서 발생할 수 있는 리스크를 대비하기 위한 것으로 해석된다.그간 빠른 성장성을 무기로 꾸준한 투자유치를 통해 기업가치를 끌어올린 컬리가 지난해 11월까지 유치한 누적 투자금액은 9000억원을 넘었다. 당시 인정받은 기업 가치는 4조원이다. 일각에서는 컬리가 상장하면 기업 가치가 7~8조원에 이를 것이라는 전망도 나온다.이외에도 코스피 상장 예비심사를 진행 중인 현대오일뱅크와 쏘카는 각각 인기 조회 및 관심 종목 추가 11위, 관심 종목 추가 18위를 기록했다. 지난달 24일 코스닥에 상장한 미술품 경매업체 케이옥션도 인기 조회 15위에 이름을 올렸다. 1월28일 상장철회신고서를 제출한 현대엔지니어링은 1월 한 달 인기 조회 3위, 관심 종목 추가 4위를 기록했다.새해에도 핀테크 주의 인기는 굳건했다. 지난 달 19일 이사회를 열고 IPO 추진을 결의한 국내 1호 인터넷전문은행 케이뱅크는 1월 인기 조회 4위, 관심 종목 추가 2위에 안착했다. 토스페이의 구글 제휴, 토스증권 MTS(모바일트레이딩시스템) 신년 첫 대규모 업데이트 등 연이은 호재를 보인 비바리퍼블리카는 1월 인기 조회 6위, 관심 종목 추가 3위를 기록하며 무난히 TOP 10 안에 자리했다. 블록체인 및 핀테크 전문 기업 두나무는 1월에도 인기 조회 및 관심 종목 추가 1위를 수성하며 핀테크 주 강세를 견인하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
-        <v>158</v>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>[人터뷰] ‘리딩뱅크아니고 리딩플랫폼’, KB스타뱅킹앱 사용자 1500만으로</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001945880?sid=101</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>KB금융 디지털 사업 진두지휘…조영서 CDPO인터넷뱅크 벤치마킹 금융상품 탑재디지털콘텐츠센터 신설 사용자친화 강화MZ세대 자산관리 NFT·메타버스도 추진각 지점서 디지털 소외고객 앱 사용 교육개인정보보호 철저히 대비…솔루션 마련도[대담=한석희 금융부장, 정리=성연진·서정은 기자] “올해 KB스타뱅킹 앱 이용자수를 1500만으로 잡았다. 전 그룹사 금융상품을 탑재하고, 매일매일 사람들이 앱에 방문할 수 있도록 콘텐츠도 집어넣을 예정이다.”더이상 은행에 가지않고 앱에 터치하는 시대. 주거래 충성고객이 아니라 이용자수(MAU·월간활성이용자수)로 시장 영향력을 가늠하는 때다. ‘리딩뱅크’ KB금융지주를 ‘리딩플랫폼’이란 새 비전으로 이뤄낼 전략가 조영서 KB 디지털플랫폼총괄책임자(CDPO)를 만났다. KB는 올해 일등금융플랫폼을 목표로 ‘슈퍼앱(원앱)’ 전략을 추진하고 있다.27일 오후 서울 영등포구 KB금융 신관에서 조영서 KB금융지주 CDPO가 본지와 인터뷰를 하고 있다. 이상섭 기자-KB앱이 많이 가벼워졌다.▶KB지주사 앱이 너무 많다는 지적이 있었다. 뱅킹앱의 혁신을 가져온 인터넷뱅크를 충분히 벤치마킹하고 마이데이터로 생긴 제판분리(제조·판매 분리)를 감안해 슈퍼앱 콘셉트를 잡았다. 은행, 카드, 증권, 캐피탈(자동차금융), 손해보험, 부동산 등 6개 카테고리의 33개 서비스를 선보였다. 주식도 거래하고, 보험 보장분석도 하고, 차 관련 금융생활을 모두 분석해주고 부동산 시세에 부가 서비스도 더해줄 것이다. 서비스는 확장될 것이고 투자도 논의하고 있다. 그러나 핵심은 자본시장을 포함한 금융이다.-목표는 얼마인가.▶한국의 모바일뱅킹 MAU를 모두 더하면 7000만 정도 된다. 카카오뱅크나 토스가 1000만대 중반이고, KB는 현재 900만 정도다. 플랫폼으로 인정받으려면 1000만은 넘어야 한다고 생각하고, 마이데이터로 촉발된 플랫폼 전쟁에서 보다 공격적으로 목표를 1500만 이용자로 잡았다.-금융상품이나 서비스 만으론 경쟁사와의 차별화가 어렵지 않나.▶올해 조직개편을 하면서 은행 겸직 조직으로 디지털 콘텐츠 센터를 만들었다. 사용자친화적인, 금융콘텐츠를 선보일 조직이다. 고객경험디자인센터도 생겼다. 그동안 UX(사용자경험) 디자인을 외주를 줬는데 지난해부터 내부에서 소화하고 있다. 개발자도 직접 뽑고 있다. 개발자는 올해도 100명 이상 채용할 것이고, 자체개발자 조직을 따로 두는 것이 아니라 전진배치시켜 프로덕트 오너, UX 등 8명의 애자일 조직으로 내재화시키고 고객부서로 치환하고 있다. 개발 속도를 높이고 고객 피드백을 빨리 받기 위해서다.-마이데이터 경쟁력의 핵심은 무엇인가.▶ ‘초개인화(hyper personalization)’를 넘어선 ‘초초개인화’가 필요하다. 한국은 카드 사용이 높고 현금도 현금영수증을 통해 데이터화돼있다. 오픈뱅킹으로 모든 금융기관 정보가 공유되고 있다. 마이데이터 정보 공유에 고객이 동의만 하면 소득과 소비, 대출 등 100% 자산분석이 가능하다. 초개인화를 할 수 있다. 이를 토대로 현금흐름을 분석하고 투자성향에 적합한 여윳돈 투자상품을 추천해줄 수 있다. 게다가 결혼, 출산, 내 집 마련, 은퇴 등 생애주기자산관리도 가능하다.-앱 하나로 금융 생활이 다 된다는 의미인데.▶금융사가 디지털 회사가 되는 수 밖에 없다. 모든 비즈니스는 이미 인터넷 세상에서 이뤄진다. 은행도 디지털 회사가 될 수밖에 없다.27일 오후 서울 영등포구 KB금융 신관에서 조영서 KB금융지주 CDPO가 본지와 인터뷰를 하고 있다. 이상섭 기자-테크핀 말고 소규모 핀테크 회사들은, 은행의 슈퍼앱으로 어려워지는 것 아닌가. 작은 핀테크업 M&amp;A(인수합병) 등으로 투자에 나설 계획은.▶작년부터 디지털투자(SI)펀드 조성을 통해 투자할 곳을 찾고 있다. 단순 제휴 말고 실제 투자금이 들어가는 게 중요하다고 본다. 핀테크들이 정통 은행보다 미래 세대엔 더 강하다. KB도 리브넥스트로 Z세대에 소구하려 하고 있지만, 강점이 있는 핀테크사들과 윈윈할 수 있는 전략을 세우고 있다.-마이데이터 시대 MZ세대 소구를 하려면 결국 가상자산도 다뤄야 하지 않나.▶올해 가상자산까진 아니겠지만 NFT(대체불가능한토큰)나 메타버스 같은 영역은 들여다보고 있다. 비즈니스 모델에 필요한걸 투자하고 계획도 짤 예정이다. 제도적·법적 기반은 갖춰지지 않았지만 연내 가닥이 나올 것이라 생각하고 대비하고 있다. 미래세대의 자산관리를 커버하려면 무시할 수 없는 영역이라고 생각하고 궁극적으론 다뤄야할 것이라고 생각하고 있다.-MZ세대 맞추다보면, 디지털 소외에 대한 지적도 나온다.▶ESG(환경·사회·지배구조), 사회적 책임면에서도 그렇고 노년층 등 소외계층을 포용해야하는 책임도 있다. 디지털화가 진행되면서 지점은 디지털에 익숙하지 않은 고객을 흡수할 역할이 있다. KB는 각 지점에 누구보다 친절한 직원들이 있다. 디지털에 소외된 고객 방문 시, 앱 사용을 도울 교육을 하는 것도 그들의 역할이다. 각 지역에서 같이 성장해 온 소상공인 등도 지점을 통해 슈퍼앱에 편안히 정착할 수 있도록 도울 것이고 이러한 과정들이 지점 축소 흐름 하에서 부작용이나 불편을 없앨 것이라 기대한다.-그럼에도 앱 사용이 불편하다는 지적은 나올 것이다.▶큐레이션이 부정확하고 UX가 불편하기 때문이다. 결국 음성뱅킹 같은 더 편리한 것으로 진화해야 하고, 맞춤형 금융상품 추천 등도 큐레이션이 보다 정확해야 한다. AI금융비서가 필요하다. 올해는 똑똑한 AI금융비서도 저희가 진도를 잘 빼서 슈퍼앱에 어느 정도 탑재를 시킬 계획이다. 연내 고도화까진 힘들지만, 선보일 순 있다.-마이데이터로 예적금, 펀드, 보험, 카드까지 모든걸 다 파는 만물상 금융앱이 되면 정보유출 위험도 있다.▶개인정보보호에 대해서 철저히 대비하고 있고, 솔루션도 마련하고 있다. 금융은 데이터, 고객경험 설계 다 중요하지만 신뢰가 가장 중요하다. 나의 금융정보를 평생 책임지는 금융집사, 파트너가 돼야 한다. 불려주는 건 알고리즘도 가능하지만, 안전은 그것만으로 해결할 수 없는 가장 중요한 영역이다.-충성고객의 개념이 바뀔 것 같다. 경쟁도 치열할 것이고, 1등 금융지주를 플랫폼에서도 유지할 수 있을까.▶ 앞으로 금융상품 구조가 일상적 교류(daily engagement)를 하는 구조로 바뀔 것이라고 생각한다. 다만 피로감을 느끼지 않고 교류할 수 있는 형식으로. 때문에 앞으로 스팸은 없어질 것이라고 본다. 불필요한 광고로 고객이 접속을 끊고 도태되면 한 고객의 전체 금융데이터를 날리는 것이니까. 고객 한분 한분 가치가 어마어마하다. 정통 금융사가 플랫폼사로 변화하는 것은 힘든 게임이고 무한경쟁이지만, 다행히 충분한 자원이 있다. KB금융지주 기반 고객이 2400만명이다. 보다 충성 고객으로 분류되는 스타클럽은 900만명이다. 집중력을 가지고 고객 한명 한명을 팬으로 만들어야 한다. 방향을 잘 잡으면 추진력이 세서 갈 수 있다고 본다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
-        <v>159</v>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>토스뱅크, 이달 중 개인사업자 대출상품 출시</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002572575?sid=101</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>최대 한도 1억원서울 강남구 소재 토스뱅크 본사 내부 전경 ⓒ토스뱅크[데일리안 = 이호연 기자] 인터넷전문은행 토스뱅크가 업계 최초로 개인사업자 대출 시장에 진출한다.4일 금융권에 따르면 토스뱅크는 이달 중순쯤 자체 신용평가 모형을 활용하는 개인사업자 전용 대출 상품을 선보인다. 담보나 보증을 끼지 않고 최대 1억원까지 되는 상품이다.이를 위해 토스뱅크는 기존 신용평가 모형에 금융거래정보 등을 더해 실질 상환능력을 심사한다. 부동산, 주식 등 본래 목적에 맞지 않는 투자자금으로 유용되지 않도록 검증 체계도 고도화할 방침이다.토스뱅크는 별개로 신용보증재단중앙회와 제휴를 맺고 ‘온택트특례보증’ 상품도 판매할 예정이다. 온택트 특례보증을 이용하면 소상공인이 비대면으로 보증과 대출을 신청할 수 있다.한편 토스뱅크의 모회사인 비바리퍼블리카는 신용평가사(CB) 설립도 추진하고 있다. 이를 위한 예비허가를 내달 금융 당국에 신청한다. 신설 CB사 대표 내정자는 강지훈 헤드이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
-        <v>160</v>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>2022.02.11.</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>네이버 이어 토스·NHN 참전…후불결제 시장 경쟁 뜨겁다</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005043010?sid=101</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>서비스 준비 한창…MZ세대 타깃 편리한 기능 초점"결제금액 0원, 나중결제." 올해 국내 후불결제 시장이 불붙는다.11일 관련업계에 따르면 토스는 다음달 출시를 목표로 후불결제 서비스를 준비 중이다. 토스 관계자는 "일부 가맹점들을 중심으로 서비스를 시작하고 점차 확대할 계획"이라고 말했다. 후불결제는 말그대로 신용카드가 없는 사람이어도 후불로 물건을 살 수 있게 해준다는 의미다. 일단 소비자가 물건을 받은 뒤 비용을 나중에 지불하는 방식이다. 핀테크 기업들은 자체 데이터 기술을 통해 상환 능력을 파악하고 심사한다. 후불결제 서비스의 주타깃층은 MZ세대(밀레니얼+Z세대)다. 금융이력이 부족해 신용카드를 만들지 못하는 20대가 현금이 없어도 물건을 구입할 수 있게 해준다.NHN페이코 역시 다음달 자체 개발한 신용평가모형 ‘피스코어(P-Score)’를 출시하고 연내 후불결제 시장에 참전한다. NHN관계자는 "금융이력이 적은 2030세대에서도 페이코 결제내역 등 비금융 데이터와 금융 데이터를 활용해 소액 후불결제나 대출 등 금융상품을 이용할 수 있게 할 예정"이라고 말했다.국내에서 일찌감치 시장에 뛰어든 건 네이버다. 네이버파이낸셜은 지난해부터 월 30만원 한도의 후불결제 서비스를 시범적으로 운영하고 있다. 네이버는 빅데이터 처리 기술을 활용한 대안신용평가시스템(ACSS)를 활용해 후불결제 서비스를 제공하고 있다. 쿠팡 역시 일부 회원을 대상으로 월 50만원 한도(개인신용별 차등지급)의 ‘나중결제’ 서비스를 하고 있고, 카카오페이의 경우 지난달 월 15만원 한도의 후불 교통카드 서비스를 시작했다.서구권에서는 이미 애플, 페이팔 등 글로벌 기업들이 뛰어들면서 ‘지금 사고 돈은 나중에 내라’는 의미의 ‘BNPL(Buy Now, Pay Later)’시장이 커지고 있다. 뱅크오브아메리카는 이 시장이 2025년까지 최대 1조달러(1199조원) 규모로 커질 것이라고 내다봤다. 이에 비하면 국내는 아직까지 금액도 소규모인 데다가 서비스 초기 단계 수준이다. 다만 대형 핀테크들이 연이어 뛰어들 만큼 관심이 높은 시장이다. 수수료로 수익을 내려는 해외와 달리 국내 핀테크 기업들은 수익성보다는 이용자들을 플랫폼에 묶어두는 ‘락인효과(Lock in)’에 주목하고 있다. 사회초년생과 MZ세대 등에게 소액 후불결제 서비스의 편의성을 제공해 미래 고객을 확보하는 데 집중하고 있다. 또 이들의 소비, 신용데이터 등은 국내 핀테크 기업들에게는 또 다른 자산이 된다. 업계 관계자는 "국내 서비스는 수익보다는 편리한 기능에 초점을 맞추고 있다"며 "이를 통해 충성고객을 늘리는 데 집중하려는 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
-        <v>161</v>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>정은보 금감원장, 글로벌 리스크 대응 해외 금융수장 만난다</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004708304?sid=101</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>[서울=뉴시스] 김선웅 기자 = 정은보 금융감독원장이 9일 서울 여의도 켄싱턴호텔에서 열린 기관전용 사모펀드(PEF) 운용사 간담회에서 모두발언을 하고 있다.(공동취재사진) 2022.02.09.정은보 금융감독원장이 17~24일 해외 금융수장들과 글로벌 금융 리스크 관련 면담을 위해 16일부터 독일, 영국, 미국을 방문한다.정 원장은 독일에서 토스튼 포에취 독일 금융감독청 부청장, 크리스틴 라가르드 유럽중앙은행(ECB) 총재를 만난다. 다음으로 영국에서 앤드류 베일리 영란은행 총재, 미국에서는  롭 파우버 무디스 회장과 블라드미르 보론코프 유엔 대테러실(UNOCT) 사무차장과 면담한다. 정 원장은 이들과 최근 글로벌 중앙은행의 금융 긴축에 대한 대응, 우크라이나 사태로 일어날 수 있는 리스크 관련 기관별 대응방안·금융감독 협력 사항 등을 논의한다. 블라드미르 보론코프 사무차장과는 자금세탁 방지와 관련해 양 기관의 협력방안도 모색할 계획이다.또 정 원장은 독일, 영국, 미국에 진출한 한국 금융사 대상 간담회를 열어 현지화 현황과 애로사항을 들은 뒤 지원방안도 찾을 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>2022.02.05.</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>“실패해봐서 그 맘 알지”… 후배 스타트업에 손 내미는 선배들</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001503175?sid=101</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>신규 창업자에게 경험 전수·투자  실리콘밸리 ‘페이잇포워드’ 문화  국내 스타트업계서도 빠르게 확산2014년 미국 UC버클리대와 UC샌디에이고대의 심리학자 4명은 흥미로운 실험을 했다. 한 식당 계산서에 특정 문구를 적어놓고 손님의 반응을 살폈다. 문구는 다음과 같다. “앞에 오신 손님이 당신을 위한 선물로 식사비를 대신 내주셨으니 그냥 가셔도 됩니다. 당신도 다음 손님을 위해 익명으로 식사비를 내줄 수 있어요.”결과는 놀라웠다. 손님들이 자신의 밥값보다 더 많은 돈을 낸 것이다. 이 연구논문의 제목은 ‘(다른 이를 위해) 미리 계산할 때 더 많은 돈을 지불한다(Pay more when you pay it forward)’이다. 이후 ‘페이잇포워드’는 성공한 창업자가 신규 창업자에게 자신의 경험과 노하우를 공유하는 실리콘밸리 문화를 설명할 때 자주 언급하는 문구가 됐다.페이잇포워드 문화가 한국에서도 확산되고 있다. 유니콘 기업(기업가치 10억 달러 이상 비상장 스타트업)이 된 ‘선배’ 스타트업이 신규 창업자에게 자금을 투입하거나 사업 노하우를 공유하는 방식으로 ‘후배’ 스타트업 육성에 나서고 있다.모바일 금융서비스 토스를 운영하는 비바리퍼블리카는 스타트업 경진대회 ‘파운드(FOUND)’를 열기로 하고 지난달 23일까지 참가 신청을 받았다. 파운드는 풀어야 할 문제를 발견하다는 뜻과 회사를 설립하다는 의미를 동시에 담고 있다. 비바리퍼블리카는 최종 우승팀 3곳을 선정해 10억원 규모의 투자를 하고 코칭, 파트너십 등의 혜택도 제공한다. 비바리퍼블리카 관계자는 “유망 스타트업을 발굴하고 스타트업 생태계에 활력을 불어넣기 위해 대회를 마련했다”고 설명했다.중고거래 플랫폼 당근마켓은 지난해 9월 ‘남의집’에 10억원을 투자했다. 남의집은 취향이 비슷한 사람들이 오프라인 공간에서 만날 수 있도록 연결해 주는 커뮤니티 플랫폼이다. 지역주민에게 동네에서 열리는 소규모 모임, 작업실, 공방 등을 소개한다. 당근마켓은 2100만명의 이용자가 남의집 플랫폼으로 유입될 수 있게 할 계획이다. 김성용 남의집 대표는 “당근마켓과 남의집은 연결 기회를 확대해 지역 공동체를 활성화하겠다는 지향점이 같다. 이번 투자로 다양하게 도전할 수 있게 됐다. 각 지역의 로컬 크리에이터를 육성하고 이를 통해 지역경제까지 활성화하는 게 목표”라고 말했다.패스트벤처스는 예비창업자 교육 프로그램 ‘텍스트북(Textbook)’을 운영 중이다. 김슬아 마켓컬리 대표, 문성욱 블라인드 대표, 강석훈 에이블리 대표 등 16명의 성공한 기업가가 창업자에게 경험을 공유한다.직접 벤처캐피털(VC)을 설립해 유망 스타트업에 투자하는 유니콘 기업도 등장했다. 직방은 2020년 초 ‘브리즈인베스트먼트’를 설립해 프롭테크(부동산+정보기술) 분야에서 성장 가능성이 큰 스타트업에 투자를 시작했다. 직방과 우미건설이 각각 100억원을 출자했다. 지난해 3월 인테리어 플랫폼 ‘집꾸미기’에 투자했고 인테리어 가상현실(VR) 서비스를 제공하는 ‘큐픽스’, 공유주방 ‘고스트키친’ 등도 포트폴리오에 포함됐다. 직방 관계자는 “해외는 이미 프롭테크 생태계를 키우는 대규모 펀드가 조성돼 있는데 한국은 전무해 직방이 문을 열어젖힌 것”이라며 “프롭테크 생태계 전반을 성장시키는 게 목적”이라고 강조했다.‘상어 가족’ ‘핑크퐁’ 콘텐츠로 유명한 더핑크퐁컴퍼니는 2019년 스마트스터디벤처스를 설립해 영화·공연·게임 등의 콘텐츠 스타트업에 자금을 넣고 있다. 애니메이션 제작사 ‘레드독컬처하우스’, 아이돌봄 앱 스타트업 ‘째깍악어’, 캐릭터기업 ‘키키히어로즈’에 투자했다. 지난해 7월 450억원 규모의 ‘베이비샤크넥스트유니콘IP펀드’를 결성해 상어가족과 핑크퐁을 잇는 차세대 콘텐츠 스타트업 육성에도 나섰다.온라인 패션 플랫폼 무신사는 자체 VC ‘무신사파트너스’를 운영한다. 2018년부터 지금까지 지오그래픽, 안다르, 플랙 등에 50여건의 투자를 집행했다. 잠재력 있는 신진 브랜드를 지원하기 위해 패션 특화 공유오피스 ‘무신사스튜디오’도 갖췄다.지분 투자, 인수·합병(M&amp;A)이 아닌 VC 투자는 스타트업 창업자에게 매력적이다. 투자자가 지분을 가져가면 경영 독립성을 보장받지 못할 수 있어서다. 한 VC 관계자는 “사업을 잘 이해하는 VC가 투자하면 투자사 모기업이 쌓아온 생태계를 성장에 활용할 수도 있다. 스타트업의 호응도가 높은 편”이라고 설명했다.스타트업 창업에서 유니콘으로의 성장까지 통상 8~10년이 걸린다. 투자 유치 과정은 험난하다. 유니콘 반열에 오른 스타트업들이 페이잇포워드 활동을 하는 건 이미 겪어본 ‘선배’가 ‘후배’의 시행착오를 줄여 최대한 빨리 안착할 수 있게 돕는다는 의미가 크다. 시장을 키우고 동반성장도 가능하다. 한국벤처투자가 발간한 ‘2021년 VC 트렌드 리포트’는 “최근 정책자금과 투자재원 규모가 확대되면서 유능한 인재들이 스타트업으로 몰리고 엑시트(투자회수) 기회도 많아졌다. 올해도 스타트업 열풍은 지속할 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
-        <v>163</v>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>정은보 금감원장, 16일 출국…주요국 중앙은행장 만난다</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004663763?sid=101</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>정은보 금융감독원장.(사진=김영우 기자)정은보 금융감독원장이 글로벌 금융시장 동향 파악 및 현지 진출 국내 금융회사 지원 방안 논의에 나선다.15일 금감원에 따르면 정 원장은 16일 출국해 17일부터 24일까지 주요국 중앙은행장, 감독당국 및 글로벌 신용평가사 등의 최고위급 면담을 진행한다.이번 일정을 통해 정 원장은 크리스틴 라가르드 ECB 총재, 앤드류 베일리 영란은행 총재, 토스튼 포에취 독일 금융감독청 부청장, 롭 파우버 무디스 회장과의 면담에서 최근 글로벌 금융시장에 대한 의견을 교환할 방침이다.아울러 글로벌 금융긴축, 우크라이나 사태 등 대내외 리스크 관련 기관별 대응 방안 및 금융감독 관련 협력 사항 등을 폭넓게 논의할 예정이다.또한 블라드미르 보론코프 유엔 대테러실(UNOCT) 사무차장과의 면담에서는 자금세탁 방지 관련 양 기관 간 협력 방안 등에 대해 논의할 계획이다.금감원은 "정 원장은 현지 금융회사 간담회 개최를 통해 국내 금융회사의 현지화 현황 및 애로사항 등을 청취하고 해외 진출 지원방안 등도 함께 모색할 예정"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
-        <v>164</v>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>노는 돈 잡아라… 고금리 `파킹통장` 부활</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002719499?sid=101</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>설 연휴 이후 상여금·세뱃돈 등으로 현금이 늘어난 금융 소비자들이 늘면서 고금리 파킹통장이 다시 인기를 끌고 있다. 저축은행·인터넷전문은행·시중은행의 금리를 비교해 넣어두었다가 IPO 등을 대비하려는 수요다.8일 금융권에 따르면 카카오뱅크의 대표 파킹통장 상품인 세이프박스 기본금리는 0.1%포인트 인상해 연 1.1% 금리를 적용한다. 세이프박스는 계좌 속 금고로 간편하게 잔고를 분리해서 관리할 수 있다는 장점도 있다. 세이프박스는 입출금 계좌당 1좌씩 개설할 수 있고 최대 보관 한도는 1억원이다.케이뱅크는 파킹통장 '플러스박스'의 금리를 지난해 12월 기존의 연 0.8%(세전 기준)에서 0.2%포인트 오른 연 1.0%(세전 기준)의 금리로 인상키로 했다.플러스박스 계좌 잔액을 모두 합산해 최대 3억원까지 적용한다.토스뱅크의 '조건 없이 연 2% 금리를 주는 토스뱅크 통장'은 지난해 신청을 받기 시작한지 이틀 만에 신청자 37만명을 넘어설 정도로 뜨거운 인기를 끌었다. 토스뱅크 통장은 가입 기간, 예치 금액 등 제한 없이 연 2% 이자를 지급했다. 다만 올해부터는 최대 1억원 한도 내에서 연 2% 금리 혜택이 제공된다.웰컴저축은행이 내놓은 '웰뱅 모두페이 통장'과 '웰컴 비대면 보통예금'(자유입출금 통장)은 매달 이자가 나온다. 특히 웰뱅 모두페이 통장은 100만 원까지 최대 연 3% 금리를 제공한다. 연 0.5% 기본금리에 50만 원 이상 예치 시 연 0.5%포인트, 웰뱅 모두페이 통장을 통해 네이버페이나 카카오페이 등에 10만 원 이상 충전하면 연 2% 포인트를 추가 지급해 총 3% 금리를 받을 수 있다. 웰컴 비대면 보통예금 계좌를 개설하면 단 하루만 돈을 맡겨도 연 1.3% 금리를 적용 받아 1000만 원 기준 월 1만 800원, 2000만 원 기준 월 2만 2600원, 3000만 원 기준 월 3만 2400원 이자 혜택을 볼 수 있다.OK저축은행이 지난달 26일부터 판매 중인 'OK읏샷! 정기예금 특판' 상품도 눈길을 끈다. 1000억 원 한도로 진행되는 이번 특판은 기존 적용 금리인 연 1.3%에 1.2%포인트를 더한 연 2.5%의 금리를 얻을 수 있다.SC제일은행은 이달 말까지 신규 고객을 대상으로 'SC제일마이시그니처통장 특별 금리 이벤트'로 최대 연 1.5% 금리를 제공한다. 국민은행 파킹통장인 'KB마이핏통장'은 관리 목적에 따라 기본비·비상금 등으로 나눠 관리할 수 있다. 비상금으로 관리할시 하루만 넣어도 최대 연 1.5% 금리를 제공한다. 신한은행의 '한달애(愛)저금통'은 1일 입금 한도 3만 원, 최대 30만원까지 입금 가능하며 연 3% 금리를 받을 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
-        <v>165</v>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>토스뱅크, 이달 중 개인사업자 전용 대출 출시…최대한도 1억원</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012954940?sid=101</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>토스뱅크[연합뉴스 자료사진]    (서울=연합뉴스) 오주현 기자 = 인터넷 전문은행 토스뱅크가 인터넷 은행 중 최초로 자체 개인사업자 전용 대출을 출시한다.    3일 금융권에 따르면 토스뱅크는 이달 중 개인사업자 전용 대출 상품을 선보인다.     금리와 한도 등 조건은 토스뱅크 신용대출에 쓰이는 자체 신용평가 모형을 활용해 정해지며, 최대한도는 1억원이 될 전망이다.    특히 토스뱅크는 자체 신용평가 모형에 더해 금융거래 정보 등 소상공인에 특화된 대출 심사기준을 추가로 반영해 실질 상환능력을 심사하는 방식으로 개인 사업자 대출을 공급할 계획이다.    토스뱅크는 또 지역신용보증재단 중앙회와의 제휴를 통해 온택트특례보증 상품을 후속으로 출시할 예정이다.    아울러 토스뱅크의 모회사인 토스는 연내 신용평가사(CB) 설립을 목표로 준비하고 있다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
-        <v>166</v>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>5대 은행 제쳤다…카뱅 토스 네이버페이 이용자 8500만명 돌파</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004917135?sid=101</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>카뱅·토스·네이버페이…이용자 8500만명 돌파5대 은행 고객 수 앞질러금융산업 기술혁신 주도◆ 대한민국 핀테크 대해부 ① ◆  금융 서비스가 싸고 간편하고 빨라졌다. 몇만 원이던 해외송금 수수료가 1000원대로 떨어졌고, 은행 창구에서 2시간 넘게 걸리던 법인카드 발급은 비대면으로 15분이면 뚝딱이다. 한때는 수십억 원대 자산가만 은행 프라이빗뱅킹(PB)센터에서 받았던 자산관리 서비스에 누구나 접근할 수 있다. 불과 5년 만에 핀테크가 바꾼 금융권 풍경이다. 2015년 토스 출시부터 태동한 국내 핀테크 산업은 2017년 카카오뱅크가 출범하면서 생태계를 본격적으로 확장하기 시작했다. 특히 코로나19로 비대면 시대가 본격화되면서 핀테크 발전에 기름을 부었다.  3일 매일경제가 한국핀테크산업협회에 등록한 회원사 344곳 중 대기업 로펌 등을 제외한 핀테크 기업 288곳을 분석한 결과 핀테크사의 약진이 두드러진 것으로 나타났다. 2016년 109개이던 회원사는 5년여 만에 3배 이상 늘었다. 이용자 수도 기존 금융권을 압도한다. 자료를 제공한 상위 핀테크 기업 8곳의 경우 월간 활성화 이용자 수(MAU)를 기준으로 한 가입자가 약 8500만명(중복 포함)으로 집계됐다. 8대 핀테크 기업은 카카오페이, 네이버페이, 카카오뱅크, 토스, 케이뱅크, 업비트, 빗썸, 코인원(이용자 순)이다. 이는 작년 말 기준 5대 은행(KB국민·신한·하나·우리·NH농협은행)의 실제 활동 고객 수 7127만명을 훌쩍 뛰어넘는 수준이다.핀테크 기업이 진출하는 분야도 빠르게 범위가 넓어지고 있다. 각 사의 대표 분야를 기준으로 핀테크 업체 288곳을 분류한 결과 총 138곳이 지급결제·자산관리 서비스 기업이었다. 이 중 지급결제 기업이 94곳, 자산관리 회사가 35곳으로 1·2위를 차지했다. 9곳의 로보어드바이저 기업들도 자산관리에 포함해 집계했다. 온라인투자연계금융(과거 P2P)이 32곳, 금융 정보기술(IT) 솔루션과 플랫폼 회사가 23곳, 소액 해외송금 기업이 20곳, 보안·본인인증 서비스 회사가 19곳이었다.각종 기술 분야에서도 빠른 속도로 혁신을 만들어내고 있다. 복잡한 대면 과정을 비대면으로 대체하려면 IT가 필수다. 매일경제 분석 결과 대부분의 기업이 기반 기술로 블록체인을 활용하고 있었다.핀테크협회 회원사 288곳 중에서는 블록체인 기술을 전면에 내세운 기업이 49곳, AI를 대표 서비스에 접목한 기업이 16곳으로 나타났다.특히 지급결제는 '핀테크 산업의 꽃'으로 떠올랐다. 한국은행에 따르면 2020년 기준 하루 평균 8000억원이 스마트폰을 이용한 간편페이로 결제된다. 대표적인 업체로는 한국간편결제진흥원(제로페이), 카카오페이, 네이버파이낸셜(네이버페이)이 있다. 이들의 경쟁력은 소비자들이 돈을 어디에 얼마나 쓰는지 알 수 있다는 데 있다. 커머스 등 다양한 사업과 연계할 수 있어 빅테크 기업들도 핀테크에 진출하면서 페이 사업에 가장 공을 들였다. 최근 1~2년 새 부각된 자산관리 서비스는 올해 절호의 기회를 맞았다. 고객의 금융 정보를 한곳에 모아 관리할 수 있는 '마이데이터 서비스'가 본격 시행됐기 때문이다. 토스·뱅크샐러드 등 핀테크 회사들은 마이데이터 서비스 시행 이전부터 스크래핑 방식을 통해 비슷한 서비스를 제공해왔다. 한국 핀테크 기업의 경쟁력은 전 세계 시장에서도 뒤지지 않는다는 평가다. 세계적인 정보통신기술(ICT) 기반과 현금 없이 디지털 결제에 익숙한 소비 트렌드, 금융당국의 제도적 지원이 맞물려 혁신 서비스가 나올 풍토는 무르익었다. P2P로 익숙한 온라인 투자연계 금융은 이미 1년 전 세계 최초로 관련 법·제도가 완비되기도 했다. 작은 스타트업들이 혁신의 씨앗을 뿌리고 있다는 점도 주목된다. 금융에 IT가 접목되는 핀테크 단계를 넘어 기술이 금융을 혁신하는 '테크핀' 단계로 진화하고 있다는 진단도 나온다. 전 세계 핀테크 업계에서는 2027년께 핀테크와 기존 금융권을 구분할 필요가 없는 새로운 금융 시대가 열릴 것으로 보고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
-        <v>167</v>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>하루만 맡겨도 연이자 3%…"세뱃돈, 엄마가 맡지 마세요" [S머니]</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004015123?sid=101</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>◇투자처 못 정한 여윳돈, 파킹통장에 맡겨볼까중도인출해도 수수료 불이익 없고단기간 보관에 이자까지 받을수 있어목돈 보관중이라면 관심 가져볼만한도·기간따른 혜택 꼼꼼히 따져야공모주 청약 등 자금 썰물 우려에금융사도 고금리 선뵈며 실탄확보저금통. 이미지투데이[서울경제] 40대 직장인 이 모 씨는 고민에 빠졌다. 이번 설 연휴 때 어린 자녀가 받은 세뱃돈을 소액이라도 더 불리면서 금융 교육도 시키고 싶은데 아직 마땅한 투자처를 찾지 못했기 때문이다. 정기예금이나 적금은 최근 금리가 많이 올랐지만 돈을 수시로 넣고 빼기 힘들다는 단점 때문에 망설여졌다. 그러던 중 이 씨의 눈길을 사로잡은 것은 연 2% 넘는 금리를 제공하는 수시 입출금 통장(파킹통장)이었다. 이 씨는 “필요할 때마다 중도 인출이 가능하고 일부 파킹통장은 정기예금과 비슷한 금리를 제공하기 때문에 단기간 돈을 보관하면서 이자까지 받을 수 있다”면서 만족감을 보였다.미국 연방준비제도(Fed·연준)발 긴축에 대한 우려로 국내외 증시가 연일 요동치고 있다. 이 때문에 연말 성과급이나 세뱃돈 등 여윳돈을 불리고 싶어도 마땅한 투자처를 찾지 못한 이들의 고민이 깊어지고 있다. 투자 상품을 아직 정하지 못한 채 보관 중인 금융 소비자라면 ‘파킹통장’에 관심을 가져볼 만하다.파킹통장은 주차(파킹)하듯 목돈을 잠시 보관하는 용도로 사용하는 통장이다. 예적금과 달리 수시로 추가 이체할 수 있고 중도에 인출하더라도 해지 수수료 등 불이익이 없다. 최근에는 최대 연 3% 금리를 제공하는 파킹통장까지 등장할 정도로 금융사가 다양한 상품을 선보이고 있다. 대형 공모주 청약 등을 앞두고 시중 자금이 한 번에 대거 빠져나갈 것을 우려한 금융사가 고금리 파킹통장을 선보이며 실탄 확보에 나선 것이다. 그만큼 소비자의 상품 선택권은 넓어진 셈이다. 4일 금융권 관계자들은 파킹통장별로 한도나 기간에 따라 금리 혜택이 다를 수 있기 때문에 꼼꼼히 따져볼 필요가 있다고 조언한다.◇‘고금리’ 원하면 2금융권 파킹통장=높은 금리를 최우선 순위에 놓은 실수요자라면 저축은행의 파킹통장에 주목할 필요가 있다. 웰컴저축은행이 선보인 ‘웰뱅 모두페이 통장’과 자유 입출금 통장인 ‘웰컴 비대면 보통예금’은 매달 이자를 지급한다. 특히 웰뱅 모두페이 통장은 100만 원까지 최대 연 3% 금리를 제공한다. 연 0.5% 기본금리에 50만 원 이상 예치 시 연 0.5%포인트, 웰뱅 모두페이 통장을 통해 네이버페이나 카카오페이 등에 10만 원 이상 충전하면 연 2% 포인트를 추가 지급해 총 3% 금리를 적용받는다. 웰컴 비대면 보통예금을 이용할 경우 단 하루만 돈을 맡겨도 연 1.3% 금리를 적용 받아 △1000만 원 기준 월 1만 800원 △2000만 원 기준 월 2만 2600원 △3000만 원 기준 월 3만 2400원 이자를 받을 수 있다. 웰컴저축은행 관계자는 “임시 보관 규모가 크면 비대면 보통예금을, 최대 100만 원이라면 웰뱅 모두페이 통장이 도움이 될 것”이라고 했다.OK저축은행이 지난달 26일부터 판매 중인 ‘OK읏샷! 정기예금 특판’ 상품도 눈여겨볼 만하다. 1000억 원 한도로 진행되는 이번 특판은 기존 적용 금리인 연 1.3%에 1.2%포인트를 더한 연 2.5%의 금리가 적용된다. OK저축은행 관계자는 “특별한 우대금리 조건이 없기 때문에 한도가 끝나기 전까지 누구나 연 2.5% 금리 혜택을 받을 수 있다”고 말했다. 이자 지급 방식은 매월 지급 혹은 만기 지급 중에서 선택할 수 있다. 가입 기간은 6개월로 최소 10만 원부터 최대 100억 원까지 가입할 수 있다.상상인저축은행의 ‘뱅뱅뱅 파킹통장 369 정기예금’은 중도 해지 시에도 수수료 등 불이익 없이 약정 금리를 그대로 적용받는다. 예치 기간이 길수록 금리가 높아지는데 1개월 이상 돈을 맡기면 연 2.01%, 3개월 이상시 2.11%, 24개월 기준 최대 연 2.31%까지 적용된다. 가입 금액은 10만 원 이상부터다. SBI저축은행이 선보인 ‘사이다뱅크 입출금통장’도 매달 이자를 지급한다. 2억 원 이하까지는 아무런 조건없이 연 1.2%의 복리식 금리를 제공한다.◇1금융권도 혜택 쏠쏠=1금융권에서 가장 높은 금리를 제공하는 파킹통장은 토스뱅크가 선보인 ‘조건 없이 연 2% 금리를 주는 토스뱅크 통장’이다. 지난해 사전 신청을 받기 시작한 지 이틀 만에 37만 명이 넘는 신청자가 몰릴 정도로 높은 관심을 받았다. 토스뱅크 통장은 가입 기간, 예치 금액 등에 제한 없이 연 2% 이자를 지급하는 파킹통장이다. 다만 올해부터는 금액 제한 없이 제공되던 연 2% 금리 혜택도 최대 1억 원으로 한도가 생겼다.SC제일은행은 이달 말까지 신규 고객을 대상으로 ‘SC제일마이시그니처통장 특별 금리 이벤트’를 진행해 최대 연 1.5% 금리를 제공한다. 우리은행이 선보인 ‘마이원(WON)포켓’도 최대 1000만 원까지 최고 연 1.0% 금리를 적용한다. 국민은행의 파킹통장인 ‘KB마이핏통장’은 관리 목적에 따라 기본비·생활비·비상금으로 분리해 관리할 수 있다. 특히 비상금으로 관리하면 하루만 넣어도 최고 연 1.5% 금리 혜택을 받을 수 있다. 국민은행 관계자는 “예상치 못한 크고 작은 지출에 대비할 비상금을 자유롭게 관리하는 게 핵심”이라고 설명했다. 신한은행의 ‘한달애(愛)저금통’은 소액 보관 시 유용하다. 1일 입금 한도는 3만 원, 최대 30만 원까지 입금 가능하며 연 3% 금리를 제공한다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>정은보 금감원장, 글로벌 금융시장 협력 위해 내일 출국</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/215/0001014733?sid=101</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>정은보 금융감독원장이 주요국 중앙은행장과 감독당국, 글로벌 신용평가사 등의 최고위급 면담을 위해 내일(16일) 출국한다. 일정은 오는 24일까지다.15일 금융감독원에 따르면 정 원장은 이번 일정에서 크리스틴 라가르드 ECB 총재, 앤드류 베일리 영란은행 총재, 토스튼 포에취 금융감독청 부청장, 롭 파우버 무디스 회장 등과의 면담에서 최근 글로벌 금융시장에 대한 의견을 교환하기로 했다.특히 글로벌 금융긴축과 우크라이나 사태 등 대내외 리스크 관련 기관별 대응 방안과 금융감독 관련 협력사항 등을 폭넓게 논의한다는 방침이다.유엔 대테러실 사무차장과의 면담에서는 자금세탁 방지 관련 양 기관의 협력방안 등에 논의할 계획이다.정 원장은 또 현지 금융회사 간담회 개최를 통해 국내 금융회사의 현지화 현황과 애로사항 등을 청취하고 해외 진출 지원방안 등도 함께 모색키로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
-        <v>169</v>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>반복되는 백신 QR인증 먹통… “언제까지 불편 감수해야 하나”</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000791203?sid=105</t>
-        </is>
-      </c>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>3일 점심시간 카카오톡 QR체크인 서비스 오류QR체크인 지금까지 네 번째 전국적 접속 오류쿠브·네이버·카카오톡·토스 등 서비스 안정화 필요모바일 QR체크인 화면. /연합뉴스        3일 점심시간 신종 코로나 바이러스 감염증(코로나19) 백신 예방접종 인증을 위한 카카오톡 QR체크인 서비스가 접속 오류를 일으켰다. 지난해 12월 13일 방역패스 시행 후 질병관리청 쿠브(COOV), 네이버, 카카오톡, 토스 등 QR체크인 서비스를 통틀어 네 번째로 발생한 전국적인 접속 오류다.반복되는 접속 오류는 질병관리청 서버 과부하, 기업 자체 서비스 문제, 외부 네트워크 오류 등 원인이 제각각이고 규명도 모호하게 이뤄지고 있다. 방역패스를 운영하는 정부와 기업들이 원인을 확실하게 해결하고 재발을 막을 수 없는 상황이라, 앞으로도 불편이 반복될 수밖에 없다는 이용자들의 불만이 나오고 있다.이날 서울 가양동에서 식당을 운영하는 A씨는 “QR인증에 먹통(접속 오류)이 생길 때마다 영업에 지장이 올까봐 가슴이 조마조마하다”라며 “언제까지 이런 불편을 감수해야 할지 모르겠다”라고 말했다.지난해 12월 13일 방역패스 시행 후 질병관리청 쿠브, 네이버, 카카오톡, 토스 애플리케이션(앱) 등 일반 이용자가 이용하는 QR체크인에 네 차례 오류가 있었던 것으로 파악된다. 첫날이었던 12월 13일과 이튿날인 12월 14일, 지난달 22~23일, 그리고 이날이다.첫날엔 예기치 않은 접속량 폭주로 질병청 서버에 과부하가 걸린 게 원인이었다. 질병청의 쿠브(COOV) 앱이 장애를 일으킨 후 이와 연동된 네이버, 카카오톡, 토스 앱에도 영향을 미쳤다. 질병청은 서버 증설을 통해 문제를 해결했다고 밝혔다.하지만 이튿날인 12월 14일에도 네이버 앱에서 접속 오류가 보고됐다. 일각에선 네이버 앱에서 해야 하는 ‘최초 인증’ 요청이 몰리면서 네이버 자체 서버에 과부하가 생긴 걸로 추정했지만 네이버는 이를 부인하고 있다. 당시 질병청과 네이버가 함께 오류 원인을 파악 중이라고 밝혔지만 아직 확실한 원인을 설명하지 않고 있다.지난달 22~23일에도 네이버 앱에 문제가 발생했는데, 이 역시 네이버 자체 서비스 문제로 추정됐다. 네이버는 “신규 방역패스 정책 업데이트를 위해 실시하는 전화번호 인증이 작동하지 않는 현상이 발생했다”라고 설명했다. 이용자는 한 달 주기로 백신 접종사실을 증명하는 전화번호 인증을 거쳐야 하는데, 이 절차 수행에 문제가 생겼다는 것이다.이날 카카오가 밝힌 카카오톡 QR체크인 오류의 원인은 ‘외부 네트워크의 일시적인 오류’다. 카카오의 서버를 둔 외부 업체의 데이터센터(IDC)에 일시적인 오류가 생겼다가 해결됐다는 것이다. 카카오맵과 다음뉴스 서비스도 함께 오류가 발생했다. 더 자세한 원인은 아직 조사 중이다.쿠브 앱은 방역패스 시행 첫날 이후 질병청 서버를 증설했고 기업의 자체 문제와도 무관한 만큼 접속 오류 재발 사례가 나오지 않고 있다. 하지만 네이버, 카카오톡, 토스 등 민간 앱에 비해 쿠브 앱 구동에 상대적으로 오랜 시간이 걸려 사용을 꺼리는 이용자들이 적지 않아, 민간 앱의 서비스 안정화 노력이 필요하다는 반응도 나오고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
-        <v>170</v>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>대출 다변화로 돌파구 찾는 인터넷전문은행들</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000793852?sid=101</t>
-        </is>
-      </c>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>카카오뱅크, 케이뱅크, 토스뱅크 등 인터넷전문은행들이 올해 경쟁적으로 주택담보대출(주담대)과 소상공인 등 개인사업자 대상 대출상품을 출시하고 있다. 금융당국이 한층 강화한 가계 대출 관리 정책을 시행한 가운데, 지속적인 성장을 위해 대출 다변화 전략에 나선 것이다. 주담대와 개인사업자대출이 올해 인터넷전문은행들의 성장성을 좌우할 중요한 변수라는 분석이 나온다.카카오뱅크        카카오뱅크는 15일 기자간담회를 열고 모바일 주택담보대출을 출시한다고 밝혔다. 카카오뱅크는 오는 22일 수도권 9억원 이하 아파트를 대상으로 한 모바일 주택담보대출을 출시하는 데 이어 하반기 소호(SOHO) 대출을 출시할 계획이다. 이와 함께 해외 시장 진출도 모색 중으로, 본격적으로 사업 포트폴리오 다변화 전략을 펼치는 모양새다.송호근 카카오뱅크 주택담보대출 스튜디오 팀장은 “2018년에 카카오뱅크가 전월세보증금대출 출시한 이후 비대면과 모바일화가 빠른 속도로 진행됐고, 앞으로 주택담보대출도 4~5년 내로 모바일 비대면 대출이 대세가 될 것”이라며 “카카오뱅크는 주택담보대출 가능 대상 지역, 대상 물건 등을 점차 확대하겠다”고 말했다.윤호영 카카오뱅크 대표는 “현 시점에서 시점과 대상 국가를 구체적으로 밝히기는 어려우나, 해외 시장도 진출할 계획”이라고 밝혔다.앞서 토스뱅크는 지난 14일 인터넷전문은행 가운데 처음으로 개인사업자대출 상품을 내놨다. 실제 사업을 영위하는 자영업자, 소상공인 등을 개인사업자를 대상으로 하며 최저 금리는 연 3% 초중반(변동금리)으로, 최대 한도는 1억원이다. 만기 일시 혹은 원리금균등 중 상환 방식을 선택할 수 있으며, 대출 신청부터 실행까지 100% 비대면, 무보증·무담보로 진행된다.케이뱅크는 올해 1분기 내에 개인사업자 운전자금 대출 상품을 출시할 계획을 갖고 있다. 케이뱅크는 먼저 신용보증재단과 협력해 보증 기반 상품을 출시하고, 순차적으로 신용 기반 상품을 내놓을 예정이다.신용대출 의존도가 높았던 인터넷전문은행들의 이러한 움직임은 금융당국이 급증한 가계 부채의 리스크를 관리하기 위해 가계대출 억제 정책 기조를 펼친데 따른 전략이다. 돈을 빌려주고 이자로 장사하는 은행으로선 업황이 팍팍해졌다.지난 달부터 총 대출금액이 2억원을 초과할 경우 총부채원리금상환비율(DSR) 40%(은행권 기준) 규제가 적용돼 대출 한도가 줄어드는 차주별 DSR 규제가 시행됐다. 이에 지난달 신용대출을 중심으로 가계대출이 감소하는 경향을 보였다.오는 7월부터는 1억원 이상 전체 차주를 대상으로 DSR 규제가 한층 더 강화할 예정인데, 금융당국 예고대로 규제가 시행되면 가계대출 증가세는 둔화할 것이란 전망이 있다. 다시 말해 대출 규제 영향으로 은행들의 이자이익 감소가 우려되는 상황에서 ‘주담대’와 ‘개인사업자 대출’을 열쇠로 삼은 것이다.더구나 인터넷전문은행들은 중저신용자 대상 대출 확대 목표치를 맞춰야 하는 과제가 있다. 지난해 카카오뱅크와 케이뱅크 모두 신용대출 내 중저신용 차주 비중을 20%까지 확대하겠다는 목표 달성에 실패했다.애당초 인터넷전문은행들의 설립 취지가 기존 은행권에서 대출하기가 어려웠던 중저신용자 대상 대출을 공급해 소외됐던 금융소비자의 편익을 증대시키려는 데 있었다. 하지만 인터넷전문은행들이 설립 취지와 달리 고신용층 위주로 보수적인 대출 영업을 하고 있다는 지적이 나왔고, 금융당국은 중·저신용자 대출 비중 확대를 주문했다.은행연합회에 따르면 케이뱅크와 카카오뱅크의 올해 말까지 중저신용자 대상 신용대출 비중(잔액기준) 목표치는 각각 25%다. 토스뱅크는 올해 말까지 42%까지 확대한다는 계획을 제시한 바 있다.시장에서도 인터넷전문은행들이 신용대출 성장률 둔화 우려 속 중저신용자 차주 비중 목표치를 확보하면서 실적 성장세를 이어가려면, 주담대 등 모기지 상품과 소상공인대출의 증가가 중요한 변수가 될 것으로 보고 있다.김도하 한화투자증권 연구원은 올해 카카오뱅크의 고신용대출 비중이 전년 대비 5% 축소한다고 가정하면 중신용대출이 전년 대비 2조원(83%) 늘어야 목표치를 달성할 수 있고, 이때 전체 신용대출 성장률은 8%로 전년 동기 대비 둔화할 수 있다고 분석했다. 그는 “모기지 상품과 소상공인대출이 성장성 회복에 중요한 변수가 될 것”이라고 설명했다.인터넷전문은행의 비대면 대출 상품 다변화가 한도 및 금리 등 대출 조건 경쟁으로 이어지면서 금융소비자에게 긍정적인 기여를 할 수 있을 것이란 기대도 있다. 케이뱅크가 최근 시장금리 상승으로 고정금리형 대출상품 수요가 늘어난 점을 고려해 고정금리형 아파트담보대출 금리를 0.5%포인트 인하했는데, 일각에서는 이를 카카오뱅크가 주담대 시장에 진출한 데 따른 조치라고 보고 있다.업계 관계자는 “주택담보대출 등은 부동산 정책과 맞물려있어 차별화가 어려운 데다 비대면으로 진행한다는 점에서 편의성도 있겠지만, 그에 따른 리스크가 발생할 수도 있다”면서 “카카오뱅크와 토스뱅크, 케이뱅크의 비대면 주담대와 개인사업자 대출 상품이 빠르게 성장세를 보인다면 기존 시중 은행에 대한 견제 요소가 될 수 있다고 본다”고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>빅테크 공격에…'AI행원' 앞세워 문 지키는 은행</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005038986?sid=101</t>
-        </is>
-      </c>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>사진=KB국민은행 여의도 인사이트(InsighT)점에 있는 AI은행원 모습#"안녕하세요. 무엇을 도와드릴까요?" KB국민은행 여의도 인사이트(InsighT)점 입구에 들어서자 한 여성 은행원이 친절하게 맞이해준다. 이 은행원에게 직장인을 위한 적금을 추천해달라고 하자 관련 상품을 줄줄이 설명했다. 친절한 이 은행원에게 이름을 물었더니 "KB국민은행의 인공지능(AI) 은행원입니다"라는 답이 돌아왔다.AI 은행원 띄운다3일 금융권에 따르면 주요 시중은행들은 AI 은행원을 개발하고 적용하는 작업에 한창이다. KB국민은행의 경우 AI 은행원 서비스를 고도화하고 있다. 자체 개발한 금융 특화 언어 모델 ‘KB-STA’를 통해 대출, 펀드 등 간단한 업무에 대해 응답을 해준다. AI 은행원에게 설명을 듣고 통장·체크카드 재발급 등이 가능한 지능형자동화기기(STM)를 이용하면 창구 상담 없이도 단순 업무를 해결할 수 있다. KB국민은행는 추후 이 같은 AI 은행원 서비스를 전국 지점으로 확대할 예정이다. KB국민은행 관계자는 "서비스를 고도화해 장소에 구애 받지 않고 이용 가능한 AI 금융비서도 선보일 계획"이라고 말했다.신한은행도 ‘AI 뱅커’를 도입했다. 실제 영업점에서 고객이 원하는 업무를 묻고 상담 창구로 안내하는 역할을 한다. 신한은행은 번호표 기기를 ‘AI 컨시어지’로 대체하고 청원 경찰들의 업무를 보조하는 역할을 하게 만들었다. 신한은행의 경우 금융권에서 최초로 세계 최대 가전박람회인 CES에 AI 뱅커를 선보이는 등 디지털 전환에 박차를 가하고 있다. 신한은행은 AI 뱅커를 현재 서소문디지로그브랜치, 한양대디지로그브랜치, 여의도중앙, 부산서면 지점 등 4곳에 적용했고 점차 확대할 예정이다.농협은 요즘 IT업계의 화두인 ‘가상인간’ 형태의 AI 은행원을 선보여 주목을 받았다. 농협은 AI은행원을 실제 젊은 직원들의 얼굴로 합성해 만들었고, ‘정이든’과 ‘이로운’이라는 이름을 붙였다. 또 이들에게 사번, 임용장을 주고 일반 행원처럼 직무를 부여해 관리한다는 계획이다. 우리은행은 LG AI 연구원과 업무협약을 체결하고 AI 은행원 등에 대한 개발에 나선 상태다. 아직 영업점에 AI은행원을 도입하진 않았지만 사내교육 등에서 AI 은행원을 활용하고 있다."빅테크에 밀릴라"은행들이 AI 은행원이나 디지털 플랫폼 구축에 사활을 걸고 있는 것은 빅테크와의 경쟁에서 밀리지 않겠다는 의지로 풀이된다. 네이버, 카카오, 토스 등은 간편한 사용자환경(유저인터페이스·UI) 등을 무기로 시장점유율을 넓혀가고 있다. 특히 카카오뱅크의 경우 점포 없이도 1740만명의 고객을 확보하면서 은행권에 큰 충격을 줬다. 점포를 통해 영업을 하는 기존 은행과 달리 빅테크들은 앱에다가 새로운 상품을 올리면 고객들이 접근할 수 있는 구조다. 특히 카카오 계열사의 경우 4500만명의 이용자를 보유한 국민메신저 ‘카카오톡’을 활용한 마케팅까지 가능하다.결국 시중은행들은 많은 인력과 지점 등 현재의 비용구조를 줄이지 않으면 점점 빅테크와 경쟁하기 쉽지 않은 상황이다. 은행들은 인력을 축소하고 있는 추세다. 지난달 KB국민·신한·우리·하나은행 4곳에서만 희망퇴직 형태로 모두 1817명이 떠났다. 위정현 중앙대 경영학과 교수는 "은행들은 카카오뱅크의 등장으로 대단한 위협감을 느끼고 있다"면서 "주요 고객인 50대 때문에 점포 수를 확 줄이기 쉽지 않은 상황에서 AI 은행원 등을 통해 비용구조를 낮추는 고육지책을 마련한 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr">
-        <is>
-          <t>토스뱅크, 이사회 의장에 홍민택 대표 재선임</t>
-        </is>
-      </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000791494?sid=101</t>
-        </is>
-      </c>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>토스뱅크는 전날(3일) 이사회를 통해 홍민택 대표를 이사회 의장으로 재선임했다고 4일 공시했다. 이와 함께 선임 사외이사에 서승원 전 중소기업중앙회 상근부회장을 재선임했다.두 사람의 임기는 오는 2023년 정기주주총회 종료 시까지다.  이사회 의장과 선임 사외이사는 관련 법령에 따라 매년 임명된다.홍민택 토스뱅크 대표 /토스 제공</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>한국전자인증, 안군식 부사장 국내총괄 사장으로 선임</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002118837?sid=004</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>한국전자인증 안군식 국내총괄사장[디지털데일리 이상일기자] 한국전자인증(대표 신홍식)은 2월 인사를 단행하고 안군식 부사장을 국내총괄사장으로 승진 발령했다고 14일 밝혔다. 한국전자인증은 안군식 사장을 국내총괄 사장으로 선임, 국내 사업의 역량을 강화할뿐 아니라 글로벌 비즈니스와의 시너지도 극대화 한다. AI와 생체기술을 접목한 보안인증기술로 글로벌 보안인증 전문기업으로 성장세를 이어나간다는 전략이다.안군식 사장은 창업 초기 멤버로, 19년간 보안인증 사업에서 뛰어난 전략과 기술선도로 성장을 지속시켜온 국내 대표적인 보안인증 전문가로 통한다. 인증사업본부장, 보안솔루션 본부장, CISO 등 주요 보직을 역임하며 전자인증사업의 성장기반을 구축하고, FIDO 생체인증과 V2X 보안인증체계 사업 등 신사업에 대해서도 총괄 지휘했다. 특히 국세청, KB국민은행 등 공공/금융분야에 고객편의성과 안전성을 높인 간편인증서비스를 제공하고 토스뱅크와의 전략적 파트너십도 체결하는 등 다양한 분야에서의 인증서비스 확대를 위해 노력해왔다. 현재 미국 팔로알토에서 글로벌 사업에 집중하고 있는 한국전자인증의 신홍식 대표이사는 “안군식 사장은 탁월한 리더쉽의 보안인증 전문가로서 국내사업을 5년내 1억불대로 성장시키는 한편 스위스 제네바 소재 전자인증 센터를 중심으로 글로벌 브랜드인 튜링사인(TuringSign)을 앞세워 올해 초부터 아시아는 물론 미국 및 유럽 등 전 세계 글로벌 시장 확산에 크게 기여할 것으로 기대한다'고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>금감원, 집 사려고 위장 대출받은 ‘무늬만 개인사업자 대출’ 조사한다</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003672656?sid=101</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>여의도 금융감독원./주완중 기자										사업을 하지 않으면서 개인사업자 대출을 받아 주택 자금을 마련하는 ‘무늬만 사업자 대출’을 막기 위해 관리 방안을 마련하겠다고 14일 금융감독원이 밝혔다. 금감원 관계자는 “개인사업자 대출이 원래 목적대로 쓰이는지 용도 심사와 사후 실태를 점검하겠다”고 말했다.금감원은 우선 가계 대출과 개인사업자 대출을 통합 관리하기로 했다. 그동안 금융사들이 깐깐하게 심사해 온 가계 대출 수준으로 개인사업자 대출을 살피도록 하겠다는 것이다. 금감원은 개인사업자 대출에도 소득 대비 대출 비율(LTI) 등을 활용해 심사하는 방안 등을 언급했다.강민국 국민의힘 의원이 금융감독원에서 받은 시중은행 6곳(KB국민·신한·우리·하나·SC·씨티) 자료에 따르면, 작년 말 개인사업자 대출 규모는 221만3000건에 259조3000억원으로 집계됐다. 코로나 사태 전인 2019년 말보다 건수는 59%, 금액은 23% 증가했다.인터넷 전문 은행들도 개인사업자 대출에 뛰어들고 있어 관리를 강화할 필요성도 커졌다. 토스뱅크는 14일 인터넷 뱅크 중 처음으로 개인사업자 대출 상품을 출시했다. 케이뱅크는 상반기, 카카오뱅크는 하반기에 상품을 내놓을 예정이다.금감원은 네이버파이낸셜, 카카오페이 등 빅테크 전자 금융업체에 대한 관리와 감독도 강화하겠다고 밝혔다. 거래 규모와 신규 사업 등 위험 요소를 분석해 현장 검사도 진행할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr">
-        <is>
-          <t>은행들 올해 '디지털 인재' 확보戰</t>
-        </is>
-      </c>
-      <c r="D177" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005038530?sid=101</t>
-        </is>
-      </c>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>은행들이 올해 디지털 인재 확보에 총력을 기울이고 있다. 은행들이 일제히 '플랫폼 강화'를 강조하고 나선 만큼 개발자 등 디지털 인재의 중요성이 더욱 커졌기 때문이다.2일 은행권에 따르면 KB국민·신한·하나·우리 등 주요 은행들은 플랫폼 강화를 목표로 조직을 정비하거나, 인재 확보에 나섰다. 금융산업에서 '디지털 전환'이라는 변화가 거세지면서 우수한 개발자나 IT기술 인력에 대한 수요가 증가하는 모양새다.KB국민은행은 펀드서비스, 디지털신사업, KB모바일인증, 공급망금융, 기업자금관리, 기업뱅킹, 기관영업, 글로벌디지털 등 8개 부문을 '데브옵스(DevOps)'조직으로 개편했다. 데브옵스는 소프트웨어의 개발(development)'와 운영(operation)의 합성어다. 시스템 개발자와 운영을 담당하는 전문가 사이의 소통, 협업, 통합, 자동화를 강조한다. 국민은행은 특히 빅테크와의 경쟁에 대비한 디지털 경쟁력 강화를 위해 외부인재 영입 기조를 유지한다는 계획이다. 이 외에도 '디지털신사업본부'도 신설했고, 각 영역에 IT업계 출신의 임원들을 앉히고 있다.신한은행은 올해 디지털 인력을 대거 보강할 방침이다. 신한은행은 지난해 수시채용을 통해 200여명의 디지털 인력을 충원했고 올해도 100여명 이상의 디지털-ICT 인력을 수시채용할 계획이라고 밝혔다. 신한은행 관계자는 "올해 수시채용을 통해 디지털 전환에 박차를 가할 예정"이라고 설명했다. 하나은행은 디지털리테일그룹 안에 DT(디지털전환)혁신본부를 신설했다. 하나금융그룹의 중점과제 '디지털 퍼스트'를 실현하기 위한 조치다. 우리은행도 조직 개편을 실시하면서 '금융플랫폼 기업 도약'을 선언한 상태다.은행권이 이처럼 디지털 인재에 공을 들이는 이유는 점차 금융상품의 유통 방식이 오프라인 영업점에서 '비대면 디지털'방식으로 빠르게 변화하고 있기 때문이다. 또 올해부터 본격적으로 추진되는 '마이데이터 사업'을 구축할 인력도 필수적이다. 마이데이터는 금융소비자가 은행, 카드, 보험, 증권 등 금융정보를 한번에 관리하고 상품 등을 추천 받을 수 있는 서비스다.게다가 갈수록 금융권에서 영향력이 커지고 있는 네이버, 카카오 등 국내 빅테크와의 경쟁에서는 '디지털 경쟁력'이 필수다. 네이버, 카카오, 토스 등은 간편한 유저인터페이스(UI) 등을 무기로 금융 시장을 장악하고 있다. 개발 관련 인력이 30~50%에 달하는 빅테크 기업들에 비해 은행권은 여전히 IT인력이 부족한 상황이다. 업계 관계자는 "올해 은행들이 일제히 '디지털'을 강조하고 나선 만큼 인재영입에 공들이는 분위기는 계속될 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>2022.02.11.</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>스타트업 투자하고 느긋하게 기다려볼까...비상장주로 돈 몰린다</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/024/0000073203?sid=101</t>
-        </is>
-      </c>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>최근 비상장 주식에 관심을 두는 개미 투자자가 적지 않다. 주가 등락에 일희일비할 필요 없이 상장전까지 느긋하게 기다리면 꽤 쏠쏠한 수익을 낼 수 있다는 기대감에서다. 이는 통계에도 고스란히 나타난다.   ▶토스·야놀자에 돈 몰려 금융투자협회는 장외주식 거래 서비스 K-OTC를 운영한다. 지난해 이 사이트에서의 연간 거래대금이 1조3982억 원을 기록했다. 2020년 1조2766억 원을 기록한 데 이어 2년 연속 거래액이 1조 원을 넘어섰다. 두나무와 삼성증권이 손잡고 2019년 11월 선보인 장외주식 매매 플랫폼 ‘증권플러스 비상장’은 서비스 시작 2년 만인 지난해 11월 월간 이용자 수(MAU) 43만 명, 누적 가입자 수 90만 명을 돌파했다. 스타트업 PSX가 신한금융투자와 내놓은 ‘서울거래 비상장’도 성장세가 가파르다. 공모주 투자 인기가 장외주식 투자에 불을 붙였다는 해석도 나온다. 상장 직후 주가가 급등하는 기업이 여럿 등장하자 유망 기업을 선점하려는 수요가 증가하며 비상장주로 발길이 이어졌는 얘기다. 2021년 K-OTC 거래대금 상위 종목을 들여다 보면 제약·바이오·헬스케어 기업이 상당수다. 상위 10개 중 6개가 제약·바이오·헬스케어 업체다. 알츠하이머 신약을 개발 중인 아리바이오가 거래대금 4060억 원을 기록하며 1위를 거머쥐었다. 아리바이오는 지난해 알츠하이머 신약 후보물질 ‘AR1001’ 글로벌 임상 2상을 마쳤다는 점에서 좋은 점수를 얻었다. 신약 제조사인 와이디생명과학과 메디포럼에 대한 관심도 뜨겁다. 제약·바이오·헬스케어 이외 업종에서는 SK에코플랜트(옛 SK건설), 아하(옛 아하정보통신) 등이 전체 톱10 안에 들었다. SK에코플랜트는 지난해 5월 SK건설에서 간판을 바꿔 달았다. 이후 환경·신재생에너지 사업을 확장하는 데 한창이다. 지난해 3월 6만 원 밑으로 내려갔던 가중평균 주가(K-OTC에서 종가 대신 쓰는 기준가격)는 등락을 겪기는 했지만 올해 1월 중순 기준 7만 원대 초중반까지 반등했다. 아하는 본래 전자칠판, 전자교탁 등 디지털 교육기기 분야 강자. 2020년 코로나19를 계기로 사업 영역을 넓히고 있다. 최근 급성장하는 장외주식 거래 플랫폼 ‘서울거래 비상장’과 ‘증권플러스 비상장’에서는 핀테크 기업이 강세다. 서울거래 비상장에서는 비바리퍼블리카와 두나무, 빗썸이 2021년 매수 상위권에 이름을 올렸다. 비바리퍼블리카는 송금, 결제 등 다양한 금융 서비스를 제공하는 ‘토스’를 운영한다. 2015년 간편송금 서비스를 내놓으며 금융업에 발을 들였다. 이후 보험(토스인슈어런스), 증권(토스증권), 은행(토스뱅크) 등에 진출하며 종합금융기업으로 거듭나고 있다. 두나무와 빗썸은 암호화폐 거래소를 운영한다. 지난해 비트코인, 이더리움을 비롯한 가상자산 값이 급등하며 암호화폐 시장이 다시 한 번 전성기를 맞이한 것이 투자자가 몰린 배경으로 해석된다.핀테크 이외에 야놀자와 오아시스도 주목받는다. 여가 플랫폼 기업 야놀자는 지난해 소프트뱅크 비전펀드로부터 투자금 17억 달러를 유치하며 승승장구했다. 오아시스는 신선식품 새벽배송 서비스 오아시스마켓을 운영한다. 국내 새벽배송 업체 중 유일하게 흑자 기업이라는 점이 돋보인다. 비상장주 투자는 전형적인 하이 리스크, 하이 리턴 투자다. 기업을 잘 고르면 높은 크게 수익을 낼 수 있지만 반대로 손실 위험도 크다. 또한 거래량이 적은 탓에 주가 변동성이 크고 원하는 시점에 매도·매수하기 어려울 수 있다. 상장이 무산되면 몸값이 급락하기도 한다. 기업 관련 정보를 구하기 어렵다는 것도 위험 요인이다. 비상장사는 공시 의무가 없거나 공시 항목이 엄격하지 않기 때문이다. 위험이 큰 만큼 분산투자는 필수다. 소액투자로 시작해 조금씩 투자금액을 늘리는 게 바람직하다. 공신력 있는 벤처캐피털(VC)이 투자한 기업인지 확인해 보거나 사업 영역이 비슷한 상장사와 기업 가치를 비교한 뒤 자금을 배분하는 것도 리스크를 줄일 수 있는 방안이다. [글 명순영 『매경이코노미』 기자 사진 픽사베이]</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>금감원, 한국형 빅테크 감독방안 만든다</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/648/0000006362?sid=101</t>
-        </is>
-      </c>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>은행 부수·겸업 범위 합리적 조정 등 검토사전·사후검사 균형…포스트 코로나 대비자본시장 특사경 활용…주식리딩방 감독 강화금융감독원이 한국형 빅테크 감독방안을 마련하기로 했다. 금융의 디지털화로 구조적 변화가 가속화되는 가운데 빅테크의 금융진입에 따라 감독방향도 새롭게 설정하겠다는 방침이다.이와 함께 거시경제 불확실성이 확대되는 만큼 금융사들의 리스크요인을 조기 진단하고, 금융소비자 피해를 사전 예방하는 감독체계를 확립하겠다는 구상이다.자본시장 투명성을 높이기 위해서는 특별사법경찰(특사경)을 활용하고, 주식리딩방 등 유사투자자문업 관리‧감독도 강화한다는 계획이다.한국형 빅테크, 혁신·안정·소비자보호 담는다14일 금융감독원 2022년도 업무계획에 따르면 금융산업 경쟁력을 높이고 혁신을 지원하기 위해 업권별 감독제도 정비방안을 검토한다. 토스와 카카오 등 빅테크의 금융진입에 따라 경쟁과 혁신을 촉진하면서도 금융안정과 소비자보호 달성을 위한 '한국형 빅테크 감독방안'을 마련하겠다는 게 금감원 계획이다.이를 위해 금융지주는 그룹 시너지 제고를 위해 감독 제도를 정비하고, 은행은 부수‧겸영업무 범위를 합리적인 수준으로 조정하는 등 금융산업 경쟁력 제고 지원 방안을 검토하기로 했다./그래픽=김용민 기자 kym5380@한국거래소와 예탹결제원 등 자본시장 인프라기관 감독도 국제적 정합성을 높이고 대체 거래소 설립 관련 인가심사 가이드라인 마련으로 자본시장 인프라 선진화에도 나선다.금융의 디지털화와 기후‧환경 등 패러다임 전환에 따른 신규 리스크 관리 강화와 금융소비자보호 사각지대도 해소하겠다는 방침이다.전자금융업 결제수수료 현황 점검과 수수료 공시시스템 구축 추진, 플랫폼을 활용한 신종투자 등에 대한 상시감시 강화와 온라인 비대면 상담과 판매과정에서 소비자 보호 위험요인을 분석‧점검해 개선을 유도한다.ESG 관련 공시체계를 검토해 ESG 채권 평가 준수 기준 등을 마련하고, ESG 표방 펀드 투자전략 심사를 강화해 테마검사 등 사후점검도 실시하기로 했다.이와 함께 은행 유동성커버리지 비율 산정방식과 인터넷전문은행에 대한 예대율 규제 개선으로 은행 자금중개 역량을 높이고, 종합금융투자업자의 SPC를 통한 자금지원 실효성 제고 방안도 마련할 예정이다.정은보의 키워드 '사전‧사후 감독 균형'금감원은 거시경제 불확실성 확대로 리스크요인을 조기 진단해 선제 대응하고 금융소비자 피해를 사전 예방하는 감독‧검사 체계도 확립한다는 계획이다. 이는 정은보 금융감독원장이 취임후 지속적으로 강조해왔던 내용이다.리스크 중심 선제적 감독 방안으로는 부동산 법인 대출과 지급보증 등 비은행권 시스템 리스크 유발요인을 점검하고 글로벌 금융시장 불안 등에 따른 금융사 외화유동성 관리를 강화한다.다양한 리스크 요인을 식별해 파급효과를 추가 고려하고 경제 전망과 개별업권 특성 등을 정교하게 반영하는 등 스트레스 테스트를 고도화하고, 부동산 익스포저 통합관리시스템 확충과 데이터 통합 자산운용 상시감시시스템 등도 확충한다는 방안이다.사전예방 소비자보호를 위해선 소비자피해가 우려되는 금융상품 출시를 예방하기 위해 심사기준을 구체화하고, 금융상품 전단계의 불완전판매 요인을 점검한다.사전‧사후 감독 균형 방안으로는 검사체계를 정기‧수시검사로 개편하고, 검사범위는 회사별 핵심‧취약부문 위주로 차별화한다. 신속한 리스크 대응을 위해 금융사에 자체감사를 요구할 수 있는 자체감사요구 제도를 도입해 시범 실시한다. 다만 중대한 위법‧부당행위는 철저히 검사하고 법과 원칙에 따라 엄중 제재한다는 방침이다.자본시장 특사경 강화 등 소비자 보호금융소비자 보호 방안으로는 소비자 중심 금융생태계를 조성한다는 구상이다. 금융소비자보호법상 6대 판매원칙 보완방안을 마련하고 소비자보호실태평가 3년 주기제 도입에 따른 그룹별 평가와 자율진단을 실시한다.민원‧분쟁 빈발 가능성 있는 사안에는 선제적 처리기준을 마련하고, 은행 보이스피싱 예방체계 실효성을 높이기 위해 대면편취형 보이스피싱 대응역량을 확충한다.이와 함께 은행 점포와 ATM 축소 등 계층별 맞춤형 소비자보호, 취약차주 등에 대한 금융‧위기관리 지원으로 금융양극화를 완화하는 노력도 병행한다.자본시장 신뢰도를 높이는 방안으로는 자본시장 특사경을 활용한 조사 집행력을 강화하기로 했다. 분식 가능성이 높은 기업에 대한 모니터링 강화와 엄정한 감리를 실시하고, 내부회계관리제도 개선을 유도한다.또 주식리딩방 등 유사투자자문업에 대한 관리‧감독을 강화하고, 사모펀드와 유사한 유사 사모집합투자기구에 대한 규제차익 해소 등 투자자보호 강화 방안도 마련하기로 했다.올해부터 본격화된 차주단위 DSR(총부채원리금상환비율) 적용 확대 등 가계대출 관리계획 수립과 이행상황 점검 등 잠재위험에도 대비한다.특히 포스트 코로나에 대비한 코로나19 금융지원과 금융규제 유연화 방안의 연착륙에 주력할 계획이다. 금융사들의 손실흡수능력 확충을 유도하고 건전성 감독제도 선진화 제도 등 위기대응능력을 높이는데 감독 주안점을 두기로 했다.금감원 관계자는 "올해 금융감독 목표를 금융안정과 금융혁신, 금융소비자보호의 빈틈없는 달성으로 설정했다"며 "시장 불안요인을 조기 진단하고 취약부문의 선제적 리스크관리 등을 통한 금융산업의 건전한 발전을 유도하겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr">
-        <is>
-          <t>[Biz 톡] 고금리 미끼로 고객을 낚더니…파킹통장의 배신</t>
-        </is>
-      </c>
-      <c r="D180" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003671280?sid=101</t>
-        </is>
-      </c>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>‘OK파킹대박통장’은 하루만 돈을 맡겨도 기본 1.5%의 금리가 적용되는 상품이다. 작년 12월에 최고 연 2.2%로 금리를 올렸다가 지난달부터는 최고 연 1.5%로 인하해 고객들의 아쉬움을 샀다./OK저축은행 제공										“기준금리는 오르는데 ‘파킹(parking) 통장’ 금리는 뚝뚝 떨어지네요.”주차장에 차를 넣고 빼듯이 언제든 돈을 넣었다 뺄 수 있는 수시입출금식 통장의 금리가 연초부터 줄줄이 인하되고 있습니다. 조건 없이 연 1.6% 금리(세전)를 적용하던 대신저축은행의 ‘더드리고입출금통장’은 지난달 12일 1.5%로 인하하더니 지난달 21일부터는 1.4%로 더 떨어졌습니다.OK저축은행도 작년 12월 5억원 이하 파킹통장 최고 금리를 연 2.2%까지 끌어올렸는데 지난달 4일부터 연 1.5%로 대폭 낮췄습니다. 작년 10월 나온 토스뱅크의 ‘무조건 연 2%’ 수시입출금식 통장도 지난달 5일부터 1억원 초과액에 대해서는 금리를 연 0.1%만 주고 있습니다.전 세계적인 금리 인상 추세에 따라 국내에서도 각종 예·적금 금리가 인상되는데 왜 파킹통장 금리는 내려가는 걸까요? 저축은행 등에서는 금융 당국의 규제를 탓합니다. 적극적으로 대출을 늘리는 데 필요한 실탄을 마련하기 위해 고금리 수신상품을 만들었는데, 가계 대출 축소를 위한 대출총량 규제 등으로 대출을 줄여야 하는 상황이 돼서 금리를 낮췄다고 설명합니다.하지만 말입니다. 고객 입장에서는 “고객 확대를 위한 미끼를 물었구나” 싶은 생각이 들 수밖에 없습니다. 저축은행들이 파킹통장으로 고객 수를 늘리는 데 성공하면 곧바로 금리를 인하하는 수법을 반복하고 있기 때문입니다.한 40대 주부는 “우대금리 받으려 파킹통장 만들었는데 한 달도 안 돼 금리를 낮추더라. 영업에 이용당한 것 같아 찝찝한 기분이 든다”고 하더군요. “뒤통수를 맞은 것 같다”고 화를 내는 고객들도 있습니다.카카오뱅크나 케이뱅크 등 파킹통장 금리를 0.1~0.3%포인트 높인 곳들도 있어 예고 없이 금리를 낮춘 저축은행들에 대한 불만은 커지고 있습니다. 금리 결정은 금융회사의 고유 권한이지만, 속이 훤히 들여다보이는 미끼상품 영업을 되풀이하면 결국 금융업의 기본인 ‘신뢰’를 잃을 수 있다는 점을 잊지 않았으면 합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>대기업중 가장 입사하고 싶은 곳은 어디?</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/032/0003128209?sid=101</t>
-        </is>
-      </c>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>[경향신문] 커리어테크 플랫폼 사람인은 성인 2264명을 대상으로 ‘입사하고 싶은 대기업’을 조사한 결과 삼성전자가 1위를 차지했다고 14일 밝혔다.삼성전자는 전체 응답자 중 20.7%의 선택을 받았다. 지난해 조사에서는 카카오가 1위였다. 삼성전자에 이어 2위는 카카오(12.6%), 3위는 네이버(8.2%)가 차지했다. 현대자동차(6.2%), CJ제일제당(4.3%), 한국전력공사(3.8%), LG전자(3.4%), 우아한형제들(3%), 한국가스공사(3%), SK하이닉스(3%) 등이 뒤를 이었다. 선택 이유는 기업별로 차이가 있었다. 삼성전자, 현대자동차, SK하이닉스를 선택한 응답자들은 ‘높은 연봉’을 꼽았고 카카오, 네이버, CJ제일제당, LG전자, 우아한형제들을 선택한 응답자들은 ‘사내복지 및 복리후생’을 들었다. 한국전력공사, 한국가스공사를 선택한 응답자들은 ‘정년보장 등 안정성’을 선택의 이유로 꼽았다.여성이 가장 입사하고 싶은 대기업은 삼성전자(19.8%), 카카오(16.3%), 네이버(11.1%), CJ제일제당(6.1%), 우아한형제들(3.9%), LG전자(3.7%), 한국전력공사(3.5%), 토스(2.6%), 당근마켓(2.4%), 한국토지주택공사(2.4%) 등의 순으로 주요 IT 기업이 상위권에 다수 포함됐다.남성 응답자들은 삼성전자(21.7%), 현대자동차(10.3%), 카카오(8.6%), 네이버(5%), 한국가스공사(4.4%), 한국전력공사(4.1%), SK하이닉스(3.9%), 한국토지주택공사(3.5%), LG전자(3.1%), 포스코(3%) 등 전통적인 대기업과 공기업을 많이 뽑았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>마이데이터 시행 한 달, 아쉬운 평가...마케팅 경쟁만 ‘후끈’</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002572225?sid=101</t>
-        </is>
-      </c>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>초기 가입자 1000여명 수준, 빅테크 40%‘자산 관리’ ‘개인 정보 관리’ 고도화 시급왼쪽부터 KB국민은행, 신한은행, 토스뱅크의 마이데이터 서비스 화면 ⓒ 데일리안 이호연 기자[데일리안 = 이호연 기자] “마이데이터를 사용해봤는데 아직은 오픈뱅킹과 큰 차이점을 모르겠네요.”“앱에서 한 번에 볼 수 있어 편리한데, 동의했다가 개인정보가 유출될까봐 불안해요.”지난 5일 시행된 '내 손안의 금융비서' 마이데이터 서비스가 금융사들의 떠들썩한 홍보와 달리 기대에 못 미치는 수준이라는 평이 지배적이다. 시행 한 달을 맞이했으나 서비스 자체를 인식하지 못하는 비율도 상당한 것으로 나타났다.3일 업계에 따르면 금융사들의 노력과 달리 마이데이터 사업 안착이 쉽지 않은 분위기다. 마이데이터는 금융소비자가 여러 금융회사에 흩어진 개인 신용정보를 한 곳에 모아 관리할 수 있는 서비스다. 소비자가 동의하면 예·적금 계좌 잔액, 카드 결제 잔액, 주식 보유 수량, 보험 납입 현황 등을 하나의 앱에서 한 눈에 확인할 수 있다.핀테크, 은행, 저축은행 • 상호금융, 금융투자 등은 고객 맞춤형 서비스를 내놓았지만, 실제 서비스 사용자는 1000만여명을 조금 상회하는 수준이다. 배진교 정의당 의원실이 금융위원회에서 제출받은 '마이데이터 서비스 가입자 현황'에 따르면 지난달 12일 기준 마이데이터 서비스 가입자는 1084만명을 기록했다. 중복 포함이다.업종별로는 핀테크·정보기술(IT)·신용평가(CB) 업권의 가입자가 398만명으로 1위를 기록했다. 카드 업권(327만명), 은행·저축은행·상호금융 업권(315만명), 금융투자 업권(44만명) 등이 뒤를 이었다. 초반 성적은 빅테크의 승리다. 토스와 카카오페이, 네이버페이 등 디지털 기반으로 성장한 빅테크들이 마이데이터 사업에서도 영향력 우위에 놓였있는 것으로 보인다. 빅테크와 금융권의 정보 제공 차별 등도 영향을 미쳤다.아직은 이렇다 할 차별화 서비스가 없는 것도 흥행 저조의 이유로 꼽힌다. KB국민은행의 KB마이데이터는 생활밀착형 목표를 자동 제안하는 ‘목표챌린지’를, 우리은행은 ‘우리 마이데이터 서비스’에서 복합자산관리서비스를 제공한다. 신한은행의 경우 재테크 정보를 제공하는 ‘MY캘린더’를 선보였지만 현재 수준에서는 소비자의 기존 금융 정보를 분류해 나열해주는 수준이다. 일부 인터넷뱅크는 자산 분석 서비스 등을 아직 오픈하지 않고 있는 곳도 있다.개인정보 유출에 대한 불안도 마이데이터 사용을 주저하게 만들고 있다. 지난해 12월 네이버파이낸셜은 일부 고객의 은행, 증권, 카드 등의 계좌번호 뿐 아니라 송금, 이체내역, 주식거래정보 등이 노출되는 사건이 발생했다. 이같은 정보노출로 100여명의 고객이 피해를 입은 것으로 전해졌다.상황이 이렇다보니 금융권은 앞다퉈 쿠폰 뿌리기, 천만원대의 고가의 경품 지급하기 등의 마케팅 출혈 경쟁으로 고객을 유치해왔다. 일부 은행에서는 ‘직원 할당제’를 통해 가입자 유치를 시도해 논란이 일기도 했다. 그러나 이같은 금융사들의 노력에도 불구하고 대통령직속 4차산업혁명위원회(4차위)가 발표한 ‘마이데이터 대국민 인식조사’ 결과에 따르면, 마이데이터를 아직도 알지 못하는 비율이 25.8%에 달했다.은행 관계자는 “아직은 마이데이터가 제도 시행 초기 단계인 만큼 미흡한 점이 많이 있을 수 밖에 없다”면서도 “플랫폼 고도화를 통해 고객 데이터 확보량이 늘어나면 좀 더 의미있는 자산 관리 서비스를 보여드릴 수 있을 것”이라고 말했다.지난달 5일 기준 마이데이터 정식 서비스를 시작한 금융사는 총 33곳이다. 업계는 더 많은 금융사들이 관련 사업에 진출하고, 금융을 넘어서 의료나 유통 등 이종 업체간 데이터까지 결합된다면 마이데이터의 진면목을 확인할 수 있을 것으로 기대하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>인터넷전문은행, 개인사업자 대출 기지개</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001950527?sid=101</t>
-        </is>
-      </c>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>토스뱅크 14일 3%대 상품 선봬카카오뱅크·케이뱅크 연내 출시인터넷전문은행들이 일제히 개인사업자 대출에 뛰어들고 있다. 그간 개인 신용대출, 주택(아파트)담보대출 등에 머물러있던 영역을 사업자 대출까지 넓히기 시작하며 대출 포트폴리오 다양화에 나섰다.14일 토스뱅크는 인터넷전문은행으로는 처음으로 개인사업자 대출 상품을 출시했다. 최저 금리 연 3% 초중반(변동금리)에 최대 한도는 1억원이다. 대출은 전면 비대면으로 실행되며 별도 보증과 담보물 없이 대신 개인 신용에 따라 한도를 부여 받는다. 토스뱅크는 자체 신용평가시스템에 소상공인에 특화된 심사기준을 반영해 금리와 한도를 산정할 예정이다.카카오뱅크와 케이뱅크 역시 연내 개인사업자 대출 출시를 목표로 하고 있다. 케이뱅크는 1분기 중에, 카카오뱅크는 하반기에 해당 상품을 선보일 방침이다.서호성 케이뱅크 행장은 올초 발표한 신년 메시지에서 “올해 개인사업자 대출 등을 출시해 여신 라인업을 강화하고 디지털과 금융을 결합한 혁신상품을 출시하겠다”고 말했다.윤호영 카카오뱅크 대표도 지난 9일 진행된 카카오뱅크 실적발표 컨퍼런스콜을 통해 개인사업자 대출에 대한 구상을 전했다. 그는 “개인사업자에 대한 수신/대출 상품 두 가지를 동시에 론칭해서 기업 시장에 진출할 준비를 하고 있다” 고 밝혔다.박자연 기자</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr">
-        <is>
-          <t>토스, 초등학생도 쓰는 충전카드 출시…"청소년 금융 강화"</t>
-        </is>
-      </c>
-      <c r="D184" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012952971?sid=101</t>
-        </is>
-      </c>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>"'날 때부터 비대면' 세대에 올바른 경제 습관 형성 기여" 만 7∼16세 이용 '토스유스카드' 화면 [토스 제공=연합뉴스]    (서울=연합뉴스) 한혜원 기자 = 핀테크(금융기술) 기업 토스가 초등학교 1학년부터 사용할 수 있는 충전식 '유스카드'를 선보였다. '날 때부터 비대면' 세대인 어린이와 10대 고객을 선점하려는 것이다.    2일 핀테크 업계에 따르면 토스는 만 7세부터 만 16세까지 발급받을 수 있는 충전식 청소년 전용 카드 '토스 유스카드'(이하 유스카드)를 최근 출시했다.    청소년 전용 카드는 기존 금융기관에도 있었지만, 대부분 14세 이상이어야 받을 수 있다.    이와 달리 토스는 유스카드 이용 연령을 만 7세로 대폭 낮췄다. 다만 14세 미만은 보호자 동의를 받아야 한다.     토스 애플리케이션(앱)에서 신청하면 무료로 실물카드가 발급되며, 선불 교통카드로 사용하거나 국내 가맹점에서 결제할 수 있다.     만 14세 이상이면 청소년 안심 업종 온라인 결제(KB국민카드 선택)도 된다.     카드에 들어갈 '토스머니'를 충전하면 하루 50만원, 월 200만원까지 결제된다.     토스머니는 토스 앱, 전국 편의점, 지하철 역사 교통카드 충전기, 레일플러스 충전 제휴처에서 충전된다.     유스카드는 토스머니 사용 기록을 실시간으로 보여주고 필요 시 송금 기능도 제공한다. 부모 등에게 충전을 요청하는 기능도 있다.토스[비바리퍼블리카 제공]    토스는 날짜별 입출금 내역을 자동으로 기록하고 보여주는 '용돈 기입장' 기능도 이달 중 추가할 예정이다.     토스가 기존 고객에게 운영 중인 '토스 안심보상제' 또한 청소년 고객에게 동일하게 적용된다.     제3자 명의도용이나 보이스피싱, 중고거래 사기로 피해가 일어났을 때 토스 과실이 아니더라도 내부 절차를 거쳐 피해액을 보상하는 것으로, 고객이 안심하고 금융거래를 할 수 있게 하기 위한 제도다.    토스 관계자는 "만 7∼16세 청소년은 용돈 관리, 각자 내기 등 금융 생활을 모바일로 경험해 온 세대"라며 "이들에게 편리하고 건전한 금융 경험을 제공해 올바른 경제 습관 형성에 기여할 것"이라고 말했다.     회사는 미래 주요 고객층이 될 10대 이용자의 이용 취향을 빨리 반영하고자 이들이 원하는 기능을 조사하는 코너 '토스에게 알려주세요'도 앱에 추가했다.     hye1@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>"빚 받아 언제까지 버티나" 6개 은행 자영업자 대출 2년새 23% 급증</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000784813?sid=101</t>
-        </is>
-      </c>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>6개 은행의 개인사업자대출 규모는 지난해 말 기준 259조3000억원으로 코로나19 사태 이전인 2019년 말(210조6000억원)과 비교하면 23.1% 늘었다. 사진은 서울 명동거리가 한산한 모습을 보이는 모습./사진=뉴스1신종 코로나바이러스 감염증(코로나19)이 2년 이상 확산하면서 개인사업자 대출이 가계대출보다 급증한 것으로 나타났다.사회적 거리두기 등 방역 지침이 강화되면서 한계에 이른 자영업자도 늘고 있어 건전성 관리가 필요하다는 지적이 나온다.14일 국회 정무위원회 소속 강민국(국민의힘·경남 진주시 을) 의원이 금융감독원에서 받은 자료에 따르면 국민·신한·하나·우리·SC·씨티 등 6개 은행의 개인사업자대출 규모는 지난해 말 기준 259조3000억원이었다. 코로나19 사태 이전인 2019년 말(210조6000억원)과 비교하면 23.1% 늘어난 수준이다. 같은 기간 건수로 비교하면 58.6% 증가한 221만3100건으로 집계됐다.가계대출은 2019년 말 538조5000억원에서 지난해 말 622조7000억원으로 15.6% 증가한 것과 비교하면 개인사업자대출 증가율이 7.5%포인트 높은 셈이다. 건수로 봐도 가계대출의 경우 2019년 말 996만2000건에서 지난해 말 1045만9300건으로 4.9% 늘어나는데 그쳤다.이처럼 개인사업자대출이 가계대출에 비해 급격히 늘어난 것은 가계대출의 경우 총량관리 등 금융당국의 고강도 규제로 증가세가 억제됐지만 개인사업자대출은 방역지침 강화에 따른 영업제한, 소비 부진 등으로 상황이 어려워지자 은행에서 돈을 빌려 생계를 이어가는 자영업자가 늘었기 때문으로 풀이된다.특히 다음달 말 자영업자와 중소기업을 대상으로 한 대출 만기연장과 이자 상환유예 등 코로나19 대출 지원책이 종료되면서 잠재된 개입사업자 대출 부실이 한번에 터질 수 있다는 우려도 나온다.━개인사업자 대출 받아 영끌·빚투 나섰나━여기서 주목할 점은 가계대출 규제로 부동산 투자가 어려워지자 개인사업자 대출을 유용했다는 지적도 나온다. 가계대출 규제를 피하기 위해 개인사업자대출을 받아 '영끌'(영혼까지 끌어모아 대출), '빚투'(빚내서 투자)에 나설 가능성도 점검해야 한다는 주장이다.실제로 6개 시중은행이 자체 점검한 개인사업자대출 용도 외 유용은 2019년 68억3900만원(26건)에서 지난해 194억5600만원(71건)으로 184% 급증했다.이러한 가운데 인터넷전문은행 3사가 올해 개인사업자 대출 경쟁을 본격화한다. 토스뱅크는 최저금리 연 3% 초중반, 최대 한도 1억원인 개인사업자 대출을 이날 출시한다. 케이뱅크도 올 1분기 중 ‘개인사업자 운전자금 대출’ 상품을 내놓는다. 카카오뱅크는 올 하반기 개인사업자 대상 소호(SOHO) 대출을 출시할 계획이다.강 의원은 "개인사업자대출이 매년 큰 폭으로 증가하고 있는 것에 반해 대출의 용도외 사용 적발 실적이 극히 저조하다는 것은 은행 차원의 조사에 한계가 있음을 보여준다"며 "금융당국과 국토부 등 유관부처 차원에서 정기적으로 합동 조사를 실시해 관리․감독을 강화하는 것이 필요하다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>토스뱅크, 무보증·무담보 개인사업자대출 출시</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0011000062?sid=101</t>
-        </is>
-      </c>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>기사내용 요약최저금리 연 3% 초중반, 최고한도 1억원언제 갚아도 중도상환수수료 전면 무료[서울=뉴시스] 최선윤 기자 = 토스뱅크가 14일 비대면으로 신청부터 실행까지 가능한 개인사업자 대출을 출시했다.토스뱅크는 이날 오전 8시께부터 고객들에게 상품을 공개했다. 최저 금리는 연 3% 초중반(변동금리)이며, 최대 한도는 1억원이다. 고객은 돈을 빌릴 때 만기일시 혹은 원리금균등 중 상환 방식을 선택할 수 있다. 대출기간은 최소 1년부터 최대 5년이며(만기시 연장가능), 언제 갚는다고 해도 중도상환 수수료는 무료다.이용 대상 고객은 실제 사업을 영위하고 있는 자영업자, 소상공인 등 개인사업자다. 사업자등록번호를 보유하고 1년 이상 실제 사업을 영위하거나 최근 6개월 이상 매출액이 발생해야 한다. 최소 증빙 연소득은 소득금액증명원 기준 1000만원 이상이다. 이번 토스뱅크 개인사업자 대출은 인터넷전문은행 최초로 대출 신청부터 실행까지 100% 비대면, 무보증·무담보로 진행된다. 보증기관의 보증서나, 고객의 부동산 등을 담보로 하지 않고 개인의 신용에 따라 한도를 부여한다. 토스뱅크가 자체적으로 개발한 신용평가모형은 소상공인에 특화된 심사기준을 반영, 고객 맞춤형 한도와 금리를 산정한다. 매출규모가 크고, 수입이 정기적일수록 금리와 한도에서 우대받을 수 있다. 고객은 클릭 한 번으로 실질 상환능력을 평가받으며, 토스뱅크는 고객의 금융거래정보 등에 기반한 면밀한 검토를 진행한다. 토스뱅크 관계자는 "고객의 실질 상환 능력은 물론 실제 영업 여부 등을 면밀히 심사할 계획"이라고 밝혔다.토스뱅크는 개인사업자를 위한 후속 상품으로 지역신용보증재단과의 제휴를 통한 온택트특례보증 상품도 준비 중이다. 개인사업자 고객들이 모바일을 통해 비대면으로 이용할 수 있는 대출 상품으로, 편리성이 높은 보증부 대출 상품이다. 한편, 토스뱅크에 이어 케이뱅크와 카카오뱅크도 연내 개인사업자 대출을 출시할 계획이다. 금융당국의 가계대출 규제가 강화되면서 가계대출 뿐만 아니라 개인사업자 대출 등으로 상품을 다변화해 활로를 모색하겠다는 의지로 풀이된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr">
-        <is>
-          <t>토스뱅크, 개인사업자 대출 출시한다…최대한도 1억원</t>
-        </is>
-      </c>
-      <c r="D187" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005882622?sid=101</t>
-        </is>
-      </c>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>서울 강남구 토스뱅크 본사2021.10.5/뉴스1 © News1 박세연 기자(서울=뉴스1) 민선희 기자 = 인터넷전문은행 토스뱅크가 이달 중 개인사업자 전용 대출을 출시한다. 4일 금융권에 따르면 토스뱅크는 개인사업자 전용 대출상품을 이달 중 출시할 예정이다. 최저금리는 연 3%대 초·중반, 대출 한도는 1인당 1억원 정도가 될 전망이다. 토스뱅크 관계자는 "대상이 되는 개인사업자 고객이 실제 영업 중인지 여부를 면밀히 검토할 것"이라며 "사업자금 외 부동산, 주식 등 투자자금으로 유용되지 않도록 검증체계도 마련한다는 계획"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>2022.02.10.</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>인터넷뱅크 3사 직원 1635명 중 대졸 공채 15명뿐</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003671656?sid=101</t>
-        </is>
-      </c>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>카카오·케이·토스뱅크, 출범 후“신생회사, 신입 가르칠 여력 없어출근 첫날부터 일해야” 경력 선호										“카카오뱅크 대졸 인턴은 금턴(金+인턴), 다른 핀테크도 은턴(銀+인턴)이라네요.”작년 12월 카카오뱅크가 서버 개발자 등 3개 직종에 대한 채용 전환형 인턴 모집 공고를 내자 취업준비생 커뮤니티에는 이런 글들이 꼬리를 물었다. 지난해 구인·구직 포털 잡코리아와 알바몬이 취업준비 중인 대졸자 598명을 대상으로 금융권 취업 선호도를 조사한 결과 카카오뱅크가 KB국민은행을 밀어내고 1위를 차지하기도 했다. 장래 성장 가능성을 밝게 보는 데다 수평적인 근무 분위기와 복지제도 등이 입소문을 타며 인기를 더해가고 있다.하지만 경력 없이는 들어가기가 하늘의 별 따기다. 시중은행과 달리 대규모 대졸 정기공채를 실시하지 않고 있고, 서류 전형 때부터 ‘최소 ○년 이상 경력’을 지원 자격으로 못 박는 경우가 많기 때문이다. 각종 자격증으로 화려한 스펙을 쌓아도 관련 직무 경험이 없으면 원서 통과도 어렵다. 현재 서류 접수 중인 카카오뱅크의 상시·수시 채용 공고 112개 가운데 무경력자가 지원 가능한 직무는 단 1개뿐이다.인터넷은행 5년간 대졸 신입 채용 15명 그쳐							채용 리스크를 줄이기 위해 실전 경험이 있는 경력직을 선호하는 것은 다른 대기업도 마찬가지이지만, 인터넷 전문은행은 이런 현상이 더 두드러진다. 금융감독원이 국민의힘 강민국 의원실에 제출한 자료에 따르면 카카오뱅크와 케이뱅크, 토스뱅크 등 인터넷 전문은행 3곳의 총일반직원 1635명 가운데 입사 전 다른 회사를 다닌 적이 없는 무경력 대졸 신입 직원은 15명(0.9%)에 불과한 것으로 나타났다.작년 10월 문을 연 토스뱅크는 경력이 없는 신입 직원 입사는 단 1명도 없었고, 2017년 출범한 카카오뱅크와 케이뱅크는 지금까지 13명, 2명씩을 뽑았다.그 외 나머지 직원은 모두 은행이나 IT 회사, 사기업 등에서의 근무 경험이 있었다. 카카오뱅크 임직원은 2017년 300여 명에서 2021년 1000여 명으로 불과 4년 만에 3배 이상 몸집이 불었는데, 그 절대다수가 경력직이었던 셈이다.한 인터넷은행 관계자는 “대형은행 인력의 10분의 1도 안 되는 신생 회사이다 보니 신입 직원을 뽑아 연수하고 가르칠 여유가 없다”며 “그렇다 보니 출근 첫날부터 업무에 투입해도 두세 사람 몫을 해낼 경력직 출신을 선호할 수밖에 없다”고 했다. 또 다른 인터넷은행 관계자는 “100% 비대면인 업무 특성상 숙련된 직원을 뽑아야 사고 리스크를 줄일 수 있는 점 때문에 수억원의 연봉을 주더라도 경력자를 주로 뽑고 있다”고 말했다.이러다 보니 공채는 언감생심이고 채용 전환용 인턴 자리도 지원자가 몰리면서 좁디좁은 문이 되고 있다. 작년 11월 케이뱅크가 대졸자와 졸업예정자를 대상으로 모집한 두 자릿수 선발 채용 연계형 인턴십에 2000명이 넘는 지원자가 몰렸다.이순호 금융연구원 은행·보험연구실장은 “어느 신생회사나 출범 초기에는 업계 실력자들 위주로 비즈니스 모델을 개발하는 쪽에 더 집중하기 마련”이라며 “1호 인터넷은행인 케이뱅크가 최근 흑자 전환에 성공하는 등 업계가 점차 자리를 잡아가고 있는 만큼 머지않아 장기 플랜을 세워 신입 직원을 채용·교육하는 문화가 생길 것으로 본다”고 했다.경력직 선호 경향 더 강해질 듯							경력직 선호 경향은 이 회사들에 국한되지 않는다. 핀테크 업계도 수시채용 공고를 낼 때 최소한의 근무 경력을 지원 요건으로 두는 곳이 많다.대출 비교 플랫폼 ‘핀다’의 경우 작년 한 해 채용 인원의 79%가 경력직이었다. 지난해 11월 전 직원에게 최대 1억원 무이자 대출을 해주는 파격적인 복지 제도를 도입해 취업준비생들에게 인기가 높지만, 무경력자도 지원 가능한 채용 공고는 거의 나지 않는다. 작년 실시된 3개월짜리 채용전환형 인턴 모집 경쟁률은 40대1이었다.직원 수 210여 명의 자산관리 플랫폼 ‘뱅크샐러드’도 연간 신규 채용 직원의 90%가 경력직이다.금융위원회가 2015년 6월 인터넷 전문은행 도입 방안을 발표할 때만 해도 “IT·금융 융합을 통한 핀테크 활성화 및 새로운 일자리 창출이 가능할 것으로 예상한다”고 했었지만, 아직 그 효과는 나타나지 않고 있는 것이다. 동종 업계 간 이직이 활발할 뿐 신규 고용 창출은 미미한 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷銀 최초 개인사업자 전용 대출 출시</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000274023?sid=101</t>
-        </is>
-      </c>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>토스뱅크가 이달 중 인터넷 전문은행 최초로 자체 개인사업자 전용 대출을 출시합니다.오늘(3일) 금융권에 따르면 이달 안에 출시되는 토스뱅크의 개인사업자 전용 대출한도는 최대 1억원으로, 금리와 한도 등 조건은 자체 신용평가 모형을 활용해 정해집니다.토스뱅크는 금융거래 정보 등 소상공인에 특화된 대출 심사기준을 추가로 반영해 보증서나 담보 없이 실질 상환능력을 심사하는 방식으로 개인 사업자 대출을 공급할 계획입니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>토스, 초등학생도 쓰는 충전 카드 출시</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000790989?sid=101</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>충전 시 하루 50만원, 월 200만원 결제 가능        핀테크 기업 토스가 초등학교 1학년부터 사용할 수 있는 충전식 ‘유스카드’를 선보였다. 기존 시중에 나와 있는 충전 카드 이용 대상인 청소년뿐만 아니라, 어린이와 10대 고객까지 선점하려는 시도로 보인다.2일 핀테크 업계에 따르면, 토스는 최근 만 7세부터 16세까지 발급받을 수 있는 충전식 청소년 전용 카드 ‘토스 유스카드’를 출시했다. 청소년 전용 카드는 기존 금융기관에도 있었지만, 대부분 14세 이상이어야 받을 수 있다. 이와 달리 토스는 유스카드 이용 연령을 만 7세로 대폭 낮췄다. 다만 14세 미만은 보호자 동의를 받아야 한다.토스 유스카드 화면. /토스 제공        토스 애플리케이션(앱)에서 신청하면 무료로 실물카드가 발급되며, 선불 교통카드로 사용하거나 국내 가맹점에서 결제할 수 있다. 만 14세 이상이면 청소년 안심 업종에 한해 온라인 결제도 된다.카드에 들어갈 ‘토스머니’를 충전하면 하루 50만원, 월 200만원까지 결제가 가능하다. 토스머니는 토스 앱에서 충전할 수 있으며, 전국 편의점·지하철 역사 교통카드 충전기·레일플러스 충전 제휴처에서는 별도로 교통카드용 충전도 가능하다. 유스카드는 토스머니 사용 기록을 실시간으로 보여주고, 필요 시 송금 기능도 제공한다. 부모 등에게 충전을 요청하는 기능도 있다. 이 밖에 10대가 원하는 기능을 조사하는 ‘토스에게 알려주세요’란 코너도 앱에 마련됐다.토스 측은 날짜별 입출금 내역을 자동으로 기록하고 보여주는 ‘용돈 기입장’ 기능도 이달 중 추가할 예정이다. 기존 고객에게 운영 중인 ‘토스 안심 보상제’도 청소년 고객에게 동일하게 적용된다. 이는 제3자 명의도용이나 보이스피싱·중고거래 사기로 피해가 일어났을 때 토스 과실이 아니더라도 내부 절차를 거쳐 피해액을 보상하는 제도다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr">
-        <is>
-          <t>카뱅 2.98% 금리 주담대 출시… 전통금융권 全영역에 도전장</t>
-        </is>
-      </c>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/021/0002503382?sid=101</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>인터넷銀 앞다퉈 사업 확장 카카오뱅크, 대출 全과정 ‘챗봇’ 카톡서 대화하듯 한도 등 안내 케이뱅크, 주담대 우대금리 제공 토스뱅크, 개인사업자대출 선봬인터넷 전문은행인 카카오뱅크가 오는 22일부터 주택담보대출(주담대)을 시작하면서 전통금융권에 대한 도전을 가속화하고 있다. 카카오뱅크는 이번 주담대 금리를 최저 2.989%(변동금리)로 설정했다. 지난 10일 기준 시중은행의 변동금리(3.58~5.23%)보다 최대 1.7%포인트 낮은 수준이다. 비대면 서비스인 대신 챗봇을 활용해 카카오톡에서 대화하듯 상담을 제공한다는 계획도 세웠다.윤호영 카카오뱅크 대표이사는 15일 온라인으로 열린 ‘2022년 카카오뱅크의 방향과 주담대 출시’ 기자간담회에서 주담대 서비스 개시 방침을 밝힌 뒤 “2017년 7월 카카오뱅크 오픈 때 확인됐던 편리한 신용대출의 경험을 이제는 주담대에서도 경험할 수 있을 것”이라고 말했다.이번에 출시되는 카카오뱅크의 주담대는 대출 신청부터 조회·실행까지 카카오톡에서 대화하듯 전 과정에 대화형 인터페이스를 구현했다. 고객이 주담대를 신청하면 카카오뱅크의 챗봇과 고객 사이의 대화창이 열리고 이곳에서 조회 한도, 서류제출, 대출심사, 대출실행이 이뤄지게 된다. 담보인정비율(LTV), 총부채상환비율(DTI), 총부채원리금상환비율(DSR) 조건을 반영한 대출 한도와 금리도 챗봇 안내로 산출된다.백희정 카카오뱅크 주택담보대출 서비스셀 팀장은 “영업점을 통한 대면에서 오는 심리적 안도감을 모바일앱 화면으로 구현하기 위한 방안”이라고 설명했다. 카카오뱅크의 주담대 대상은 본인 단독소유 또는 배우자와 공동소유인 수도권(서울·경기·인천) 소재 KB시세 9억 원 이하 아파트다. 상환 기간은 5년, 15년, 25년, 35년 중 선택할 수 있다.카카오뱅크뿐 아니라 케이뱅크와 토스뱅크도 앞다퉈 전통 금융권의 사업 영역에 진출하면서 시장이 더욱 요동칠 전망이다. 케이뱅크는 전날 1000억 원 한도로 아파트담보대출 고정금리에 0.5%포인트 우대금리를 제공하겠다고 밝혔다. 2020년 8월 출시한 아파트담보대출의 누적 취급액이 1조 원을 돌파한 것을 기념해서다.토스뱅크는 ‘사장님대출’이라는 이름의 개인사업자 대출을 인터넷 전문은행 가운데 최초로 선보였다. 사업자등록증상 개업일로부터 1년 이상 또는 최근 6개월 이상 매출 내역이 있는 연 소득 1000만 원 이상인 개인사업자가 대상이다. 무보증·무담보로 대출이 이뤄지는데, 금리는 연 3.54~15%(변동금리) 수준이다. 최대 한도는 1억 원으로 개인의 신용, 상환능력 및 부채현황 등에 따라 신용평가시스템에서 산출한 한도로 차등 적용된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>“비대면 문화 눈높이에 맞춰라”… 행안부 ‘디지털 정부혁신’ 가속도</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003409095?sid=102</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>‘국민비서 구삐’ 서비스 인기 폭발… 10개월만에 가입자 1400만명 돌파위·변조 어려운 모바일 운전면허증, 7월부터 전국으로 서비스 확대서류 필요없는 공공기관 행정정보 ‘공공마이데이터’ 서비스도 본격화모바일 운전면허증 시범 발급이 시작된 지난달 27일 서울 서부운전면허시험장에서 한 직원이 모바일 운전면허증에 대해 설명하고 있다. 행정안전부는 다양한 공공서비스 분야에서 ‘디지털 정부혁신’ 방안을 추진 중이다. 도로교통공단 제공‘○○○님, 내일은 신종 코로나바이러스 감염증(코로나19) 백신 2차 접종일입니다.’  행정안전부가 지난해 3월 시작한 ‘국민비서 구삐’를 이용하면 받을 수 있는 메시지다. 국민비서는 백신 접종뿐만 아니라 생활에 필요한 행정정보를 카카오톡, 네이버, 토스 등의 애플리케이션(앱)으로 알려주는 서비스다. 백신 접종 관련 알람을 신청하면 접종일은 물론이고 접종 후 주의사항, 이상반응 신고 방법 등을 안내받을 수 있다. 자칫 잊어버리기 쉬운 교통 과태료 및 범칙금 납부, 국가장학금 신청 일정 같은 건강·교육·교통·복지 분야의 다양한 정보도 받아 볼 수 있다. 국민비서는 서비스를 시작한 지 약 10개월 만인 지난달 2일 가입자 1400만 명을 돌파했다. 행안부는 국민비서로 제공하는 행정정보의 종류를 현재 10종에서 올해 38종까지 늘릴 계획이다.● 마스크·요소수 대란 해결 도운 공공데이터 개방정부가 국민비서 같은 ‘디지털 정부혁신’을 적극적으로 추진하고 있다. 스마트폰 이용이 점차 보편화되고, 인공지능(AI)과 클라우드 등 신기술 중심 사회가 되면서 이에 맞는 공공서비스 환경을 구축하기 위해서다. 정부는 2019년 10월 ‘디지털 정부혁신 추진계획’을 발표한 이후 공공서비스의 디지털화 등을 핵심 전략으로 한 정책을 내놓고 있다. 특히 코로나19 이후 비대면 문화의 급속한 확산으로 디지털 행정의 중요성이 점점 더 커지면서 관련 서비스가 더욱 주목받고 있다. 2020년 3월 코로나19 발생 초기 마스크 품귀 현상이 일어났을 때 정부는 공적 마스크 판매 데이터를 공공데이터 포털에 공개했다. 국민들이 마스크를 파는 곳을 찾아 오래 헤매거나 온라인에서 비싼 값에 사는 것을 방지하기 위한 조치였다. 이에 네이버·카카오 같은 민간 정보기술(IT) 업체가 공공데이터를 활용해 마스크 재고를 실시간으로 알려주는 앱을 빠르게 만들 수 있었다. 행안부 관계자는 “데이터 개방을 통해 다양한 민간 서비스가 생기면서 마스크 대란을 막는 데 도움이 됐다”고 설명했다. 지난해 말 있었던 요소수 부족 사태에서도 정부는 공공데이터 중심의 민관협력을 추진했다. 전국 2000여 곳의 주유소별 요소수 재고 데이터가 공공데이터 포털에 개방됐고, 스타트업 ‘샤플앤컴퍼니’는 각 주유소가 요소수 재고량을 QR코드를 활용해 입력하는 시스템을 개발했다. 그 덕에 카카오, 네이버뿐 아니라 개인 개발자들도 관련 데이터를 활용해 ‘요소수 맵’, ‘실시간 요소수 지도’ 등을 개발해 낼 수 있었다.● 플라스틱 대신 모바일 운전면허증모바일 신분증 시대도 열렸다. 행안부는 지난달 27일부터 모바일 운전면허증을 시범 발급하고 있다. 시범 발급 기관은 서울 서부운전면허시험장과 대전 운전면허시험장, 그리고 시험장과 연계된 14곳의 경찰서 민원실이다. 올 7월에는 이 서비스가 전국으로 확대된다. 일반 국민이 사용할 수 있는 모바일 신분증이 도입된 건 처음이다. 모바일 운전면허증은 현행 플라스틱 신분증의 문제점이 꾸준히 제기되면서 도입됐다. 기존 신분증은 소지하기 불편한 데다 위·변조도 쉽고, 개인정보 노출 우려도 컸다.  행안부 관계자는 “기존의 플라스틱 면허증을 들고 다닐 필요가 없어졌고 필요한 정보만 제시할 수 있어 개인정보 노출 염려도 줄었다”고 설명했다. 예를 들어 차량을 렌트할 때는 운전면허증 전부를 보여줄 필요 없이 운전자격에 대한 정보만 보여주면 된다. 담배나 주류를 편의점에서 구매할 때는 성인 여부만을 보여줄 수 있다. 행안부는 국가유공자증, 장애인등록증, 청소년증 등으로 모바일 신분증을 확대해 나갈 예정이다.● 서류 출력 필요 없는 ‘공공마이데이터’공공기관이 보유한 행정정보를 국민이 직접 활용하도록 한 ‘공공마이데이터’ 서비스도 본격화될 것으로 전망된다. 민원처리법(지난해 10월)과 전자정부법(지난해 12월) 개정안이 시행되면서 법적 근거도 마련됐다. 앞으로 행정 서비스를 신청할 때 개인이 요구하면 행정기관과 은행, 신용정보회사 등 다양한 곳에 행정정보를 보낼 수 있게 된다. 기존처럼 서비스를 신청하기 위해 하나하나 서류를 발급받을 필요가 없어진 것이다. 현재는 24종의 공공마이데이터 서비스가 이뤄지고 있다. 신용카드 신청, 신용대출, 소상공인자금신청 등을 진행할 때 서류를 발급받지 않아도 된다. 특히 소상공인진흥공단에서 정책자금을 받는 영세상인들의 편의성이 높아졌다. 예전에는 사업자등록증이나 주민등록등·초본 등 13종의 서류를 발급받아야 했다. 서류 제출에만 이틀에서 사흘이 걸렸는데, 이제는 공단 홈페이지에서 행정정보 전달을 일괄적으로 처리할 수 있게 됐다. 전해철 행정안전부 장관은 “그동안 쌓아 온 디지털정부의 저력이 전례 없는 코로나19 위기를 극복해 나가는 데 중요한 역할을 했다”며 “앞으로도 사회에 변화를 가져오는 디지털 정부혁신을 통해 국민 곁에 가까이 다가가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>대출 폭증… 빚으로 버틴 자영업자</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002720201?sid=101</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>코로나19 영향으로 개인사업자대출 잔액이 크게 늘어난 것으로 조사됐다. 서울 시내 한 은행 창구. 연합뉴스    코로나19 이후 주요은행 자영업자 대출 잔액이 크게 늘어난 것으로 나타났다. 금융당국의 가계대출 총량 관리로 증가세가 더 가팔라졌단 분석이다.13일 국회 정무위원회 소속 강민국 국민의힘 의원이 금융감독원으로부터 받은 6개 시중은행(국민·신한·우리·하나·SC·씨티)의 대출 자료를 분석한 결과 지난해 말 기준 개인사업자대출 규모는 221만3000건, 259조3000억원으로 집계됐다.코로나19 사태 전인 2019년 말과 비교하면 건수는 58.6%, 규모는 23.1% 늘어났다. 반면 가계대출은 건수 4.9%, 규모 15.6% 증가했다. 지난해부터 시작된 금융당국의 가계대출 조이기에 따라 개인사업자대출 증가세가 비교적 더 크게 나타난 셈이다. 코로나19 이후 자영업자들의 어려움이 가중되자 금융당국도 면밀한 모니터링에 나서고 있다.특히 2020년부터 세 차례 연장된 소상공인 대출 만기 연장과 상환 유예 조처는 개인사업대출의 부실이 드러나는 것을 막고 있어 금융권의 우려가 커지고 있다. 이에 금융당국은 상환 컨설팅 및 연착륙 프로그램을 준비하고 있다.강 의원은 현 상황에 대해 "개인사업자대출 증가세는 자영업자들이 대출에 의존해 사업을 운영하고 있을 개연성이 크다는 것이며 경기가 어렵다는 것을 시사한다"면서 정부의 면밀한 실태 파악과 대책 마련 필요성을 주장했다.또한 강 의원은 개인이 부동산 등 목적 이외 유용을 위해 사업자 대출을 받았을 거란 의혹도 제기했다. 6개 시중은행이 자체 점검을 벌여 확인한 개인사업자대출 용도 외 유용은 2019년 68억4000만원(26건)에서 지난해 194억6000만원(71건)으로 184%나 폭증했다. 다만 유용 확인 사례는 전체 대출 규모와 비교하면 미미한 수준이다.강 의원은 SC제일은행과 씨티은행 등 일부 은행은 유용을 단 1건도 확인하지 못하는 등 자체 점검의 한계 속에서도 유용 급증세가 감지된다고 지적했다.인터넷전문은행들도 개인사업자대출 상품 출시를 앞두고 있어 개인사업자대출 잔액은 더욱 커질 것으로 전망된다. 토스뱅크는 14일 최초로 개인사업자 대출을 출시한다. 실제 사업을 영위하는 자영업자와 소상공인 등 개인사업자가 대상이며, 최저금리는 연 3% 초중반(변동금리), 최대한도는 1억원이다. 대출 신청부터 실행까지 전 과정을 비대면·무보증·무담보로 진행한다. 상환방식은 원리금 균등 상환, 만기일시상환 중 선택할 수 있으며 중도상환 수수료는 무료다. 케이뱅크도 올해 1분기 중 '개인사업자 운전자금 대출'을 선보일 예정이다. 카카오뱅크는 하반기중 개인사업자 대상 소호 대출을 출시할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr">
-        <is>
-          <t>모두의 요금제, 카카오벤처스 등에서 10억원 시드투자 유치</t>
-        </is>
-      </c>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004921697?sid=105</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>알뜰폰 요금제를 비교 검색해주는 플랫폼 '모두의 요금제'(이하 모요)가 카카오벤처스와 베이스인베스트먼트로부터 10억원의 시드 투자를 유치했다고 14일 밝혔다.모요는 알뜰폰 요금제를 쉽게 검색하고 비교할 수 있게 만든 온라인 플랫폼이다. 자신의 통신 사용량을 입력하면 1300여 개의 알뜰폰 요금제 중에서 나에게 맞는 최적의 요금제를 추천받을 수 있다. 단순 비교 검색뿐만 아니라 개통 신청까지 지원한다.요금제 뿐만 아니라 자급제 휴대전화를 가장 저렴하게 살 수 있는 비교 서비스도 제공한다. 할인 쿠폰과 회원가 등을 적용해 실제 구매가격을 한 눈에 비교할 수 있다.안동건 모요 대표는 "알뜰폰 시장이 빠르게 성장하고 있는 데 반해 투명하고 믿을 수 있는 정보가 많이 없는 게 현실"이라며 "고객들이 좀 더 편리하게 알뜰폰을 이용할 수 있도록 서비스를 혁신적으로 개선해 가겠다"고 말했다.정신아 카카오벤처스 대표는 "기술력이 뛰어난 것은 물론 철저하게 사용자 시각에서 탐색-결제-CS까지 접근한 점이 인상적"이라며 "모요가 기존 시장의 문제점을 해소하고 중소 알뜰폰 시장을 성장시키는 역할을 할 것"이라고 말했다.모요는 토스의 안동건 대표를 비롯해 쿠팡이츠, 여기어때, 토스, 리멤버, 굿닥 등 플랫폼 전문가들이 모여 설립한 회사이다. 통신 시장의 정보비대칭 문제를 해결하기 위해 모요를 출시했다. 2021년 8월 첫 서비스를 선보인 이후 5개월 만인 올해 1월 약 30만명이 이용했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>두나무, 이스타항공 사태 후폭풍… 비상장주식 거래 중단되나</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003670371?sid=105</t>
-        </is>
-      </c>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>[Biz 톡]							요즘 두나무·토스·마켓컬리 같은 유니콘(기업가치 1조원 이상 비상장 스타트업) 주식을 샀다는 개미 투자자가 늘고 있습니다. 공모주 시장이 뜨거워지면서 아예 “상장 전에 될성부른 떡잎에 미리 투자하겠다”는 MZ세대 투자자들, 이른바 선(先)학개미가 몰린 것이죠. 스타트업이 운영하는 증권플러스 비상장(두나무), 서울거래 비상장(피에스엑스) 두 거래소가 가장 인기인데 이 두곳의 회원 수는 100만명에 육박합니다.하지만 이 거래소들의 비상장 주식 서비스가 중단될 위기입니다. 비상장 주식 플랫폼 거래는 2020년 금융위원회가 혁신 금융 서비스로 지정하면서 시작됐습니다. 비상장 주식을 앱으로 상장 주식을 사듯이 쉽게 거래할 수 있도록 만들어 준 것이지요. 하지만 최근 금융 당국은 올해 3월까지인 서비스 기간을 연장하지 않는 방안을 검토 중이라고 합니다.핀테크 업계에서는 지난해 1위 업체인 두나무의 비상장 주식거래 부실 관리 논란이 이번 사태를 불렀다고 보고 있습니다. 지난해 11월 이스타항공이 기업 회생 절차에 들어가면서 주식을 전부 무상 소각하기로 했습니다. 그런데 두나무 증권플러스에서는 휴지 조각이 된 이스타항공 주식이 계속 거래돼 논란이 일었죠. 두나무는 12일 뒤인 12월 6일에야 거래정지를 하고 무상 소각 이후 거래된 주식 대금을 환불해주기로 했습니다.이를 지켜보던 금융 당국이 거래소들의 투자자 보호 조치가 미흡하다고 보고 ‘연장 불허’ 카드를 검토하고 있는 것이죠. 만약 허가를 연장하더라도 스타트업이 감당하기 어려운 강력한 투자자 보호책을 요구할 것이라는 이야기도 나옵니다.두나무를 제외한 거래소들은 “우리는 이스타항공 무상 소각 인지 당일 거래를 중지하는 등 투자자 보호 정책을 시행해오고 있다”며 억울하다는 입장입니다. 게다가 모든 거래소는 이미 종목 등록 심사, 허위 매물 차단, 실시간 모니터링 같은 제도도 시행하고 있다는 겁니다. 발등에 불이 떨어진 두나무도 설 연휴 직전인 지난달 28일 6000여 상장 종목 중 부실 종목 1600여 개를 거래 중단하면서 투자자 보호에 나섰습니다. 하지만 두나무의 조치가 소 잃고 외양간 고치는 꼴이라는 비판이 나옵니다. 비상장 주식 플랫폼이 새로운 주식 거래 시장으로 안착하기 위해서는 투자자 보호를 최우선 순위에 올려놓아야 한다는 걸 잊지 말기를 바랍니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>토스, 초등학생도 쓰는 충전카드 '유스카드' 출시</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004014342?sid=101</t>
-        </is>
-      </c>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>[서울경제] 토스가 미래 세대 공략을 위해 초등학교 1학년부터 사용할 수 있는 충전식 ‘유스카드’를 선보였다. 2일 핀테크 업계에 따르면 토스는 만 7세부터 만 16세까지 발급받을 수 있는 충전식 청소년 전용 카드 ‘토스 유스카드’(이하 유스카드)를 최근 출시했다. 청소년 전용 카드는 기존 금융기관에도 있었지만 대부분 14세 이상이어야 받을 수 있다.이와 달리 토스는 유스카드 이용 연령을 만 7세로 대폭 낮췄다. 다만 14세 미만은 보호자 동의를 받아야 한다. 토스 애플리케이션(앱)에서 신청하면 무료로 실물카드가 발급되며, 선불 교통카드로 사용하거나 국내 가맹점에서 결제할 수 있다. 만 14세 이상이면 청소년 안심 업종 온라인 결제(KB국민카드 선택)도 된다. 카드에 들어갈 ‘토스머니’를 충전하면 하루 50만원, 월 200만원까지 결제된다. 토스머니는 토스 앱, 전국 편의점, 지하철 역사 교통카드 충전기, 코레일 레일플러스 충전 제휴처에서 충전된다.유스카드는 토스머니 사용 기록을 실시간으로 보여주고 필요 시 송금 기능도 제공한다. 부모 등에게 충전을 요청하는 기능도 있다. 토스는 날짜별 입출금 내역을 자동으로 기록하고 보여주는 ‘용돈 기입장’ 기능도 이달 중 추가할 예정이다.토스가 기존 고객에게 운영 중인 ‘토스 안심보상제’ 또한 청소년 고객에게 동일하게 적용된다. 제3자 명의도용이나 보이스피싱, 중고거래 사기로 피해가 일어났을 때 토스 과실이 아니더라도 내부 절차를 거쳐 피해액을 보상하는 것으로, 고객이 안심하고 금융거래를 할 수 있게 하기 위한 제도다. 회사는 미래 주요 고객층이 될 10대 이용자의 이용 취향을 빨리 반영하고자 이들이 원하는 기능을 조사하는 코너 ‘토스에게 알려주세요’도 앱에 추가했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>2022.02.11.</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>인터넷은행들 '규제 리스크' 덜한 개인사업자 대출 눈독</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005897548?sid=101</t>
-        </is>
-      </c>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>토스뱅크, 다음주 개인사업자 전용 신용대출 출시케뱅도 상반기 보증부 상품 출시…카뱅은 하반기 여수신 상품 동시에인터넷은행 3사 (카카오뱅크, 케이뱅크, 토스뱅크) © News1 최수아 디자이너(서울=뉴스1) 민선희 기자 = 인터넷전문은행들이 올해 잇따라 개인사업자 대출 상품을 내놓는다. 금융당국의 가계대출 규제에 막혀 적극적인 대출영업을 하지 못했던 인터넷은행들이 상대적으로 규제에서 자유로운 기업금융 시장으로 눈을 돌리고 있다. 11일 금융권에 따르면 토스뱅크는 오는 14일 개인사업자 전용 무보증·무담보 신용대출 상품을 선보인다.토스뱅크에 따르면 최저금리는 연 3%대 초·중반, 대출 한도는 1인당 1억원 정도다. 토스뱅크는 자체 신용평가모형을 기초로, 개인사업자들의 매출 정보 등도 추가로 활용해 신용평가를 한다는 계획이다. 케이뱅크도 올해 상반기 중 개인사업자 대상 대출상품을 출시할 예정이다. 케이뱅크는 지난해부터 전담팀을 만들어 개인사업자 대출 상품을 준비해왔으며, 신용보증재단 보증부 상품부터 내놓기로 했다.카카오뱅크는 올해 하반기 중 소호대출을 출시한다. 개인사업자 전용 수신상품과 여신상품을 함께 출시해 다른 은행 상품들과 차별화한다는 게 카카오뱅크의 전략이다. 윤호영 카카오뱅크 대표는 지난 9일 2021년 4분기 실적발표 콘퍼런스콜에서 "개인자금과 사업자금 구분이 어려운 소상공인들이 직관적으로 관리하고 운영할 수 있도록 UI(사용자 환경)를 준비 중"이라며 "지점 방문이 어려운 개인사업자들을 위해 100% 비대면 서비스로 완결성을 높일 것"이라고 말했다.인터넷은행들이 개인사업자 대상 대출시장에 눈독을 들이는 것은, 상대적으로 금융당국의 규제에서 자유롭기 때문이다. 인터넷은행들은 지난해 가계대출 총량규제에 묶여 대출을 적극적으로 늘리지 못했다.  한 인터넷은행 관계자는 "인터넷은행들은 출범 초기인 만큼 이제 막 세를 불려야 하는데 가계대출 총량규제에 같이 묶이니 답답함이 컸다"고 전했다. 특히 인터넷은행들은 시중은행들과 달리 중·저신용자 대출 목표 달성이라는 과제도 안고 있다. 이 때문에 고신용자 대상 신용대출을 내주는 데도 한계가 있었다. 금융당국도 최근 인터넷은행에 대한 규제를 재정비하면서 기업금융 시장 진출 여력을 열어줬다. 금융위원회는 지난달 27일 인터넷은행과 관련된 은행법 시행령 및 감독규정 개정안을 입법예고했다. 3년 유예기간을 거쳐 일반은행과 동일한 예대율(은행의 예금잔액에 대한 대출금잔액의 비율) 규제를 적용하고, 기업대출시 대면거래를 허용한다는 내용이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr">
-        <is>
-          <t>단기 실적에 매몰된 은행들…지난해도 손 쉬운 이자장사 치중했다</t>
-        </is>
-      </c>
-      <c r="D198" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005044061?sid=101</t>
-        </is>
-      </c>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>국내은행 이자수익비중 몇년째 80~90%대해외 대형은행은 이자수익비중 50~70%대코로나19에 예대마진 극대화로 이자수익 올려수수료 못 받고 펀드 팔기 어려운 환경도 원인금융그룹에서 가장 큰 비중을 차지하는 은행 계열사들은 지난해 이자장사를 통해 실적을 대폭 개선했다. 몸집을 키우면서 비이자이익을 높여가는 외국은행과 달리 국내은행은 여전히 이자수익에 크게 의존하고 있다. 코로나19로 자금수요가 높은 때에 대출금리를 대폭 높여 이익을 극대화하는 식의 ‘땅 짚고 헤엄치는 영업’을 강화했다는 비판이 제기된다.14일 금융권에 따르면 4대은행의 이자수익비중은 90.3%로 집계됐다. 해당 지표가 90%를 넘어갔던 건 2014년 이후 7년 만이다. 수익의 상당부분을 비이자이익으로 실현하는 외국은행과 비교하면 이자수익 의존도가 지나치게 높다는 지적이 나온다. 영국계 글로벌 은행인 HSBC는 소매금융에 집중하고 있지만 비이자이익 부문이 전체 수익의 50%대로 유지되고 있다. 뱅크오브아메리카(BOA)도 통상 40%대 후반의 비이자수익비중을 기록하고 있다. 캐나다TD뱅크, 싱가포르 DBS, 일본 미즈호 은행도 통상 이자수익비중이 50%대, 많아봤자 70%대에 불과하다.코로나19·기준금리·예대마진으로 이자수익 훅 늘어이러한 배경에는 코로나19와 주식투자 및 부동산 가격 급등에 따른 막대한 대출수요가 있다. 2020년 시작된 코로나19가 장기간 이어지면서 영세한 개인사업자와 중·소상공인의 대출이 크게 늘었다. 가계대출의 경우 연말까지 집값이 고공행진을 이어가면서 실수요자 중심의 주택담보대출과 전세자금대출이 증가세를 보였다.여기에 기준금리 인상기조를 맞아 대출금리를 가파르게 올리면서 이자수익 창출력이 극대화됐다. 한국은행은 역대 최저였던 0.5%의 기준금리를 지난해에만 두차례, 올해 한차례 올렸다. 통상 민간은행들은 한국은행의 기준금리 인상을 선반영하기 때문에 대출금리는 상반기부터 오름세였다. 그러면서 수신금리는 천천히 올리고, 대출금리를 빠르게 올리는 식으로 큰 수익을 달성했다. 지난해 8월 예금금리와 대출금리 차이는 2.07%로 11년 만에 최대였다. 가계대출 금리는 직전 15개월간 0.37%포인트 올랐는데, 저축성 수신금리는 0.10%포인트 증가하는 데 그쳤다.은행들은 금리인상기조 국면과 함께 금융정책의 여파도 고려해야 한다는 입장이다. 금융당국이 제시한 가계대출 총량을 지키기 위해서 불가피하게 우대금리를 축소하고 대출금리를 높일 수밖에 없었다는 설명이다.수수료 못 받고 파생상품 판매는 여전히 어려워중장기적으로는 해외 금융사와 수수료 체계가 완전히 다른 점도 원인으로 꼽힌다. 한국은 토스와 카카오뱅크 등 인터넷전문은행의 등장으로 시중은행들이 이체 수수료를 거의 받지 않고 있다. 권흥진 한국금융연구원 연구위원은 "은행 간 경쟁이 치열하다보니 수수료 이익이 이자이익에 녹아버렸다"며 "미국은 소비자 등급에 따라 다를 수 있지만 계좌유지 수수료도 받을 정도"라고 설명했다.비이자부문의 한 축인 파생상품 판매시장도 위축된 상태다. 박근혜 정부 이후부터 금융사의 파생상품 판매규제가 많이 완화됐지만, 일련의 ‘사모펀드 불완전판매’ 사태를 거치고 금융소비자보호법까지 통과되면서 조심스러울 수밖에 없다는 뜻이다.은행장들의 임기가 짧은 점도 원인으로 꼽힌다. 국내은행장의 임기는 통상 연임을 포함해 최대 3년이다. JP모건이나 골드만삭스같은 대형 은행이 최고경영자에게 평균 6년에 가까운 재임기간을 보장하는 것과 대조적이다. 임기가 짧은 만큼 단기적인 실적에 매몰될 수밖에 없고, 장기적인 차원의 체질개선이 어렵다는 분석이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>2022.02.09.</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>갈수록 짧아지는 금융위 핀테크담당 국장 임기…왜? [이호기의 금융형통]</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004661538?sid=101</t>
-        </is>
-      </c>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>금융위원회가 9일부로 고위공무원단 인사를 단행했습니다. 자금세탁 방지 및 가상자산 관리 등 업무를 맡는 금융정보분석원(FIU) 제도운영기획관에 전요섭 기획행정실장을 승진 발령하고 핀테크 지원, 혁신금융서비스(금융규제 샌드박스) 등을 주관하는 금융혁신기획단장에 그동안 국무총리실로 잠깐 파견가 있었던 박민우 국장을 불러들인 '투 포인트' 인사였습니다.  그런데 이번 인사에서 눈길을 끈 건 바로 이 금융혁신기획단장 전보 발령이었습니다.  전임인 안창국 단장이 지난해 8월 고승범 금융위원장 취임 직전 실시된 국장급 인사에서 선임된 지 단 6개월만에 보직을 내려놨기 때문입니다. 이번에 물러난 안 단장은 곧 국가공무원인재개발원에서 고위공무원단 신규 진입자를 대상으로 실시하는 외부 위탁 교육을 받을 예정입니다. 금융위원회는 이에 대해 안 단장이 고위공무원단으로 승진한 이후 아직까지 교육을 받지 않았던데다 각 부처별로 파견 대상 인원(TO)이 정해져 있어 어쩔 수 없이 안 단장이 선정된 것이라고 설명했습니다. 또 금융위 주요 국장급 자리에 대한 순환보직 주기가 다른 부처에 비해 상대적으로 짧다는 점에서 재임 기간 6개월이 크게 이상할 게 없다는 얘기도 나옵니다. 하지만 안창국 단장의 전임 인사들을 볼 때 이번 전보가 분명 이례적인 조치라는 분석이 설득력을 얻고 있습니다. 실제 지난해 8월 금융산업국장으로 이동한 이형주 단장은 1년 임기를 채웠고, 전전임이었던 권대영 단장(현 금융정책국장)은 무려 2년을 재임하며 '핀테크의 아버지'라는 별명을 얻기도 했지요. 이런 상황에서 이번 안 단장의 전격적인 교체가 핀테크 업계에 대한 금융위의 스탠스 변화를 반영하고 있다는 의견이 금융권 안팎에서 흘러나오고 있습니다. 핀테크 업계의 한 관계자는 "금융혁신기획단장은 그동안 토스 카카오뱅크 등 국내 금융 혁신을 상징하는 빅테크 기업들의 '산파' 역할을 해 왔다"라면서 "그러나 지난해 하반기 고 위원장 취임 이후 본격화된 빅테크 규제 바람이 갈수록 짧아지고 있는 단장 재임 기간(2년→1년→6개월)과 결코 무관하지 않을 것"이라고 말했습니다. 실제 안 단장은 연세대 경제학과를 졸업하고 행정고시 41회에 합격해 신성장금융팀장, 자산운용과장, 자본시장과장, 산업금융과장 등을 거친 친시장 성향의 관료로 잘 알려져 있습니다. 한 빅테크 관계자는 "안 단장이 지난해 업계의 고충과 어려움을 해결하기 위해 나름 애를 많이 썼다"면서 "그럼에도 최대 당면 과제인 가계부채 문제 등 우선순위에 밀려 내부에서 제 목소리를 내기 힘들었을 것"이라고 했습니다. 사실 안 단장의 후임인 박민우 단장도 서울대 법대를 졸업하고 자본시장과장, 은행과장 등 주요 보직을 골고루 거친 엘리트 관료입니다. 박 단장이 안 단장의 전격적인 교체에 불안해하는 핀테크 업계의 우려를 불식시키고 다시 한번 우리나라 금융 혁신을 이끌어주길 기대해봅니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>2022.02.12.</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>'직장인 억대 마통' 부활…은행 대출 문 다시 열린다 [김혜순의 슬기로운 금융생활]</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004920950?sid=101</t>
-        </is>
-      </c>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>사진=게티이미지뱅크 [김혜순의 슬기로운 금융생활] 정부의 강도 높은 가계부채 관리에 대출 규제를 강화했던 은행권이 새해 들어 문턱을 낮추면서 '억대 마이너스통장'이 다시 부활했다. 다만 전문가들은 거듭된 금리 인상으로 이자 부담이 전년보다 1%포인트 이상 높아진 만큼 섣부른 '빚투(빚내서 투자)'는 경계해야 한다고 조언했다. 10일 은행권에 따르면 하나은행은 1인당 5000만원으로 축소했던 마이너스통장 한도를 '연 소득 100% 범위 내'로 복원했다. 하나원큐신용대출 등 8개 주요 신용대출 상품이 대상이다. 이번 조치로 하나은행의 대표 신용대출 상품인 하나원큐신용대출의 마이너스통장 대출 최대 한도는 1억5000만원으로 오른다. 예를 들어 이제까지 연 소득이 1억원인 사람은 마이너스통장을 최대 5000만원 한도로 뚫을 수 있었지만, 앞으로는 연 소득의 100%인 1억원까지 받는 게 가능해진다. 연 소득이 2억원이면 1억5000만원까지 가능하다. 금융당국 지침에 따라 마이너스통장과 신용대출 한도는 개인별 연 소득을 초과할 수 없다.하나은행 관계자는 "총부채원리금상환비율(DSR) 규제 강화와 개인 연 소득 범위 내 취급 등으로 신용대출의 투기적 수요가 감소했다"면서 "연중 체계적인 관리를 통해 가계대출을 효율적으로 운용할 수 있게 됨에 따라 마이너스통장 대출 한도를 복원하는 조치를 시행하게 됐다"고 설명했다.인터넷전문은행 케이뱅크도 최근 신용대출 최대 한도를 1억5000만원에서 2억5000만원으로 1억원 증액했다. 연 소득 1억5000만원 이상 고소득자는 케이뱅크에서 더 많은 돈을 빌릴 수 있게 됐다. 연 소득이 2억5000만원인 사람은 이전에 최대 1억5000만원까지 케이뱅크에서 빌릴 수 있었지만, 앞으로는 2억5000만원까지 대출할 수 있다. 1금융권 가운데 KB국민은행(3억원)과 토스뱅크(2억7000만원)를 제외하면 가장 높은 신용대출 최대 한도다.케이뱅크는 마이너스통장 대출 최대 한도도 1억원에서 1억5000만원으로 5000만원 증액했다. 무직자나 프리랜서도 신청할 수 있는 케이뱅크 신용대출 플러스 상품의 최대 한도 역시 1억원에서 1억5000만원으로 5000만원 늘어났다. 다만 작년 대비 크게 높아진 대출 금리는 부담이다. 은행연합회에 따르면 지난해 12월 취급한 대출 기준 신용등급 1~2등급인 금융소비자의 신용대출 금리는 3.42~4.77%(전북은행·한국씨티은행 제외) 수준이다. 1년 전 신용대출 금리(2.46~3.47%) 대비 1%포인트 이상 올랐다. 5000만원을 빌린 금융소비자라면 이자를 연 50만원 이상 더 내야 하는 셈이다. 김영웅 신한PWM대구센터장은 "신용대출 금리가 1년 만에 2% 중후반에서 최근 4%대로 올랐는데 투자 수익률을 계산할 때 이런 금리 상승분까지 다 감안해야 할 것"이라며 "작년까진 금리가 워낙 낮아 할 수 있는 최대한 빚을 내서 투자하는 전략이 좋았다면, 앞으로는 금리보다 수익률이 잘 나올 자산을 엄선해 투자해야 한다"고 말했다. 또 "신용대출 만기 도래로 연장 신청 때 은행 측에서 한도를 줄이거나 일부 상환을 요청하는 경우가 늘고 있다"며 "대출을 일으켜 투자하고 있거나 투자를 계획하는 사람이라면 예상보다 빨리 자금을 상환해야 할 수도 있다는 점을 염두에 둬야 한다"고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr">
-        <is>
-          <t>은행권 민원 감소했지만…대출중단 일어난 3Q에 집중</t>
-        </is>
-      </c>
-      <c r="D201" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005139455?sid=101</t>
-        </is>
-      </c>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>국민·신한·하나·우리·농협·카뱅·케뱅 등 7곳 대상 조사최다 민원제기는 국민…증가율은 카뱅이 가장 높아[이데일리 노희준 기자] 지난해 은행권에 제기된 민원은 전년대비 감소한 것으로 나타났다. 하지만 정부가 가계부채 총량관리 시행를 엄격히 관리하면서 대출중단 사태 등이 발생한 3분기에 가장 많은 민원이 발생한 것으로 나타났다.5대 시중은행 및 인터넷은행 2곳 등 7곳 지난해 민원건수 (자료=은행연합회)4일 은행연합회에 따르면 KB국민·신한·하나·우리·NH농협은행 등 주요 시중은행 5곳과 카카오뱅크·케이뱅크 등 인터넷은행 2곳의 총 민원 수는 1895건으로 집계됐다. 이는 지난해 7곳의 총 민원수(2544건)에 비해 26%(649건) 감소한 수준이다. 제3의 인터넷은행 토스는 지난해 10월에 문을 열어 영업기간이 짧아 비교대상에서 제외했다. 토스뱅크는 4분기 26건의 민원이 보고됐다.7곳 가운데 지난해 민원이 가장 많은 곳은 국민은행으로 403건을 기록했다. 이어 △신한(351건) △농협(338건) △우리(304건) △하나(229건)은행 △카카오뱅크(246건) △케이뱅크(24건) 등이 뒤를 이었다.국민은행은 “시중은행에서 거래하는 고객 수가 가장 많다”며 “지난해 대출 규제 변경으로 인한 대출 관련 민원이 증가했기 때문”이라고 설명했다. 실제 고객 10만명당 민원수 기준으로 보면 지난해 4분기 기준으로 우리은행이 0.31건으로 제일 많다. 뒤를 이어 신한(0.28건)·국민(0.26건)·농협(0.25건)·하나(0.24건)·카카오뱅크(0.15건)·케이뱅크(0.08건) 순으로 나타났다.전년대비 민원이 가장 크게 증가한 곳은 카카오뱅크다. 카카오뱅크는 지난해 민원이 1년 새 356%(54건→246건) 급증했다. 이어 케이뱅크(100%, 12건→24건)가 뒤를 이었다. 반면 국민(-23%)·신한(-32%)·하나(-57%)·우리(-38%)·농협(-18%)은행은 모두 전년대비 민원이 줄었다.카카오뱅크는 “지난해 3분기에 전세대출 지연에 따른 민원이 증가했다”고 말했다.카카오뱅크는 지난해 7월께 전세대출 수요가 몰리면서 심사 절차가 지연됐다. 이 때문에 카카오뱅크는 지난해 3분기 165건의 민원이 제기돼 지난해 전체 민원의 67%를 차지했다. 지난해 3분기 카카오뱅크 민원의 78%는 여신 관련 민원이다.7개 은행의 민원을 분기별로 보면, 지난해 3분기 548건의 민원이 접수돼 전체의 29%를 차지했다. 고승범 금융위원장이 취임 이후 강도 높은 가계대출 총량 관리에 나서면서 지난해 8월 농협은행 등에서 대출중단 사태가 벌어지면서 관련 민원이 증가했기 때문으로 풀이된다. 7개 은행에서 금융감독원에 접수된 분쟁조정과 관련해 실제 소송이 제기돼 법적 다툼으로 이어진 건은 신한은행이 4건으로 가장 많았다. 하나·국민은행·케이뱅크가 각각 1건이었고 우리·농협은행 및 카카오뱅크는 소제기로 이어진 금감원 분쟁조정건이 없다.신한은행 관계자는 “모두 (라임)사모펀드 관련 소송으로 4건 중에 한 건은 취하됐다”며 “나머지도 분쟁조정 중에 있어 결과에 따라 계속 진행되거나 취하될 수 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/기사데이터/토스/엑셀파일/news(토스, 2022.02.01~2022.02.15).xlsx
+++ b/기사데이터/토스/엑셀파일/news(토스, 2022.02.01~2022.02.15).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1705,1256 +1705,6 @@
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>2022.02.08.</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>암호화폐 시세 변동, 주식 보유수 제공 등…핀테크도 '잰걸음'</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004661101?sid=101</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>마이데이터의 원조 격이라고 할 수 있는 핀테크업계도 저마다 편의성과 차별화된 서비스를 무기로 고객을 끌어모으고 있다.핀크는 비트코인 등 암호화폐를 등록해 실시간 시세 변동에 따른 손익, 수익률 등을 한눈에 확인할 수 있도록 한 마이데이터 서비스를 선보였다. 금융 SNS인 핀크리얼리를 개편해 자산 현황을 요약해 보여주고 타인의 월별 금융거래 내역까지 볼 수 있도록 했다. 이 같은 마이데이터 서비스 효과에 힘입어 핀크 앱 누적 다운로드는 지난달 1000만 건을 넘어섰다.대출비교 플랫폼인 핀다는 마이데이터 시행을 계기로 고객이 앱에서 대출 상환까지 한꺼번에 처리할 수 있는 신규 서비스를 선보일 예정이다. 현재 핀다 앱에서 대출 조회와 실행은 원스톱으로 할 수 있지만 돈을 갚을 땐 각 금융사 앱에 접속해야 했다. 다중채무자 등이 여윳돈이 생겼을 때 어떤 대출을 먼저 갚는 것이 유리한지 등을 설명해주는 계산기 서비스도 고도화할 예정이다.NHN페이코는 개인에게 최적화된 금융 상품 및 소비 혜택을 안내해주는 ‘금융버디’ 기능을 선보였다. 생활 속 놓치기 쉬운 금융 이슈도 정리해준다. 또 카드 대금 및 대출 이자 납부일, 신용점수 변동 등을 알려주고 금융 상품 만기일이나 라이프스타일에 맞춰 필요한 금융 상품과 혜택 정보를 제공한다.뱅크샐러드는 대출 잔액과 금리 및 상환 정보, 주식 보유 수량, 카드 결제 내역, 포인트 현황 등 상세한 데이터를 바탕으로 자산관리 서비스를 한층 강화했다. 서비스 이용 속도도 대폭 개선했다. 아울러 비트코인이나 이더리움 등 가상자산 보유 내역 관리 기능도 추가했다. 이용자가 직접 평균 매수가와 보유 수량을 입력하면 현재 시세를 반영한 가상자산 규모를 한 눈에 확인할 수 있다.토스는 별도의 새로운 서비스를 내놓진 않고 기존에 운영하던 각종 서비스를 마이데이터 기술을 활용해 고도화하는 전략을 취하고 있다. 카카오페이도 기존의 이용자 맞춤형 금융 자산 지출 분석 서비스인 ‘자산관리’를 마이데이터 기반 서비스로 개편했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>"구직자들이 가장 가고 싶은 회사는? 삼성전자·카카오"</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/076/0003831855?sid=101</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>삼성전자와 카카오가 입사하고 싶은 기업 1, 2위를 각각 차지했다.구직 플랫폼 사람인은 14일 성인 남녀 2264명을 대상으로 실시한 입사 희망 기업 설문조사를 통해 이같이 밝혔다.해당 조사에서 삼성전자는 응답률 20.7%로 가장 많은 이들의 선택을 받았다. 삼성전자는 전년도 조사에서 카카오에 1위 자리를 내줬지만 올해 다시 정상 자리를 탈환하게 됐다.다음으로 응답자의 높은 지지를 받은 회사는 '카카오'(12.6%), '네이버'(8.2%), '현대자동차'(6.2%) 'CJ제일제당(4.3%)', '한국전력공사'(3.8%), 'LG전자'(3.4%), '우아한형제들'(3%), '한국가스공사'(3%), 'SK하이닉스'(3%) 등 순이었다.전체 응답자들이 해당 기업을 선택한 가장 큰 이유로 꼽은 것은 단연 '높은 연봉'(25.7%)이었다.이어 '사내복지 및 복리후생'(19.6%), '회사 비전, 성장 가능성'(17.8%), '정년보장 등 안정성'(14.3%), '대외적 평판 등 기업 이미지'(5.4%), '자기계발 등 커리어 향상 지원'(4.8%) 등의 이유를 들었다.기업별 차이도 뚜렷했다.삼성전자와 현대자동차, SK하이닉스를 선택한 응답자들은 '높은 연봉'을 선택 이유로 꼽았다. 반면 카카오, 네이버, CJ제일제당, LG전자, 우아한형제들을 선택한 응답자들은 '사내복지 및 복리후생'을 언급했다.한국전력공사, 한국가스공사를 선택한 응답자들은 '정년보장 등 안정성'을 중요하게 생각했다.한편 성별로 이를 살펴보면 여성들은 '삼성전자'(19.8%), '카카오'(16.3%), '네이버'(11.1%), 'CJ제일제당'(6.1%), '우아한형제들'(3.9%), 'LG전자'(3.7%), '한국전력공사'(3.5%), '토스'(2.6%), '당근마켓'(2.4%), '한국토지주택공사'(2.4%) 등의 순으로 주요 IT 기업을 상위권에 다수 포함했다.남성 응답자들은  '삼성전자'(21.7%), '현대자동차'(10.3%), '카카오'(8.6%), '네이버'(5%), '한국가스공사'(4.4%), '한국전력공사'(4.1%), 'SK하이닉스'(3.9%), '한국토지주택공사'(3.5%), 'LG전자'(3.1%), '포스코'(3%) 등 전통적인 대기업과 공기업을 꼽았다.▶2022 임인년 신년운세 보러가기- Copyrightsⓒ 스포츠조선(http://sports.chosun.com/), 무단 전재 및 재배포 금지</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>2022.02.09.</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>"30년 키운 딸, 내 딸 아니었다"…체외수정 과실에 '발칵'</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001948496?sid=104</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>존 마이크(오른쪽)-제닌(왼쪽) 하비 부부와 30여년 전 체외수정으로 얻은 딸 제시카. [뉴욕포스트 캡처][헤럴드경제=천예선 기자] 30년간 키운 딸이 친자가 아니라는 사실이 밝혀지자 미국인 부부가 체외수정 시술을 한 불임클리닉을 상대로 소송에 나섰다.CBS뉴스 등 현지 매체에 따르면, 미국 오하이오주(州)에 거주하는 존 마이크 하비는 지난 2일(현지시간) 30여년 전 불임치료 시술을 받았던 의료기관 '섬마 헬스 시스템' 상대로 소송을 제기했다.제시카 하비의 어린 시절. [뉴욕포스트 캡처]하비는 지난 1991년 아내 제닌과의 사이에서 체외수정(IVF)으로 딸 제시카를 품에 안았다. 그러나 체외수정 과정에서 의료진의 과실로 하비의 정자가 아닌 다른 남성의 정자를 수정시킨 것이 드러났다.하비 일가는 2년 전 우연히 가정용 DNA키트로 유전자 검사를 했다가 제시카가 친자가 아니란 사실을 알게 됐다.당시 제시카는 30번째 생일을 맞아 이탈리아 여행을 떠나기 직전 재미삼아 유전자 검사를 했다. 가정용 DNA 검사키트는 부모인 하비 부부가 선물한 것이었다. 이들 부부는 "제시카가 방문할 유럽 국가가 먼 친척뻘일 수 있다는 사실을 알면 멋질 것이라고 생각했었다"고 말했다.그러나 검사 결과는 하비 가족을 경악시켰다. 제시카의 혈통이 아버지 쪽인 이탈리아계가 아니라 아일랜드, 영국, 독일, 웨일즈, 프랑스인의 피가 섞인 것으로 나타났기 때문이다.하비 부부는 DNA 검사 이후 변호사를 고용해 계보를 추적했고, 결국 제시카의 생물학적 친부까지 찾았다. 제시카의 친부는 30여년 전 아내와 불임치료 중이었으며 그가 병원에 정자를 제출한 날, 하비 부부가 병원에 있었던 것으로 파악됐다. 자녀가 없는 친부는 제시카의 존재를 알게 돼 기뻐한 것으로 알려졌다.[뉴욕포스트 캡처]하비가 친부가 아니라는 사실을 알게 된 제시카는 "나와 부모님이 겪은 일은 말로 표현할 수 없으며지금도 믿을 수 없고, 앞으로도 믿을 수 없을 것"이라고 했다. 그러면서 "내게 중요한 것은 DNA나 혈연관계가 아닌 내 가족을 중심으로 생각하는 것"이라고 강조했다.하비 일가는 이달 초 불임시술을 한 의사 니콜라스 스필토스와 의료기관 섬마 헬스 시스템을 상대로 소송을 제기했다. 의료과실 및 사기, 하비의 유전 물질을 적절하게 수집·보호하지 못했다는 혐의다.하비 부부의 변호인 측은 "과거로 거슬러 올라가 상황을 바꿀 순 없다"면서 "현재 우리가 할 수 있는 일은 의료진에 책임을 묻고, 앞으로 하비 가족과 같은 일을 당하는 사람이 나오지 않도록 규제와 감시를 요구하는 것"이라고 말했다.'섬마 헬스 시스템' 측은 성명을 내고 "당사는 1991년 환자에게 남편이 아닌 다른 사람의 정자를 체외수정했다는 주장을 심각하게 받아들이고 있다"며 "현 시점에서 우리는 하비 가족과 접촉을 갖고 있지 않으며, 독자적인 검사도 실시하지 않고 있다. 정보가 제한적이고 시간이 오래 흘렀기 때문에 하비 가족의 대리인인 변호인들이 다음 단계로 진행될 수 있도록 우리와 협조하길 바란다"고 했다.하비 일가는 이번 소송을 계기로 불임치료산업에 대한 연방정부의 감독이 이뤄지길 기대하고 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>2022.02.09.</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>현금 없는 세상 열린다… ‘쩐의 굴기’ 노린 中의 위안화 공습은 문제</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003250292?sid=102</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>[박현갑의 뉴스아이] 세계는 지금 ‘디지털 화폐’ 실험중현금 비중 2년새 36%→26% ‘뚝’한은 등 중앙銀 86% CBDC 연구전자지갑으로 수수료 절감 효과정보 유출·디지털 격차 등 우려도 中, 달러 맞서 디지털 위안화 속도일대일로 국가 거래 확대 가능성 中의존 높은 한국도 변화 대비를연합뉴스디지털 법정 화폐가 탄생한다. 한국은행 등 각국의 중앙은행에서 도입했거나 도입을 논의 중인 중앙은행 디지털화폐(CBDC·Central Bank Digital Currency)다. 은행계좌나 인터넷 연결 없이도 실물화폐와 기능은 같고 형태만 디지털 형식이다.CBDC는 금융·경제 여건 변화에 대응한 디지털 기반의 화폐다. 편의성과 안전성, 신뢰성을 갖춘 저비용의 지급수단이 나오면서 현금 사용은 갈수록 줄고 있다. 한은에 따르면 국내 거래에서 현금 이용 비중은 2017년 36.1%에서 2019년 26.4%로 낮아졌다. 디지털 금융거래에 익숙지 않은 금융 취약 계층이 선호하는 국내은행 지점도 꾸준히 줄고 있다. 국내은행 지점 수는 2016년 7136개에서 2020년 6454개로 줄었다. 반면 카카오페이나 토스 같은 ‘빅테크’의 선불지급 수단과 비트코인이나 스테이블코인 같은 암호화폐에 대한 이용자 관심은 뜨겁다. 통화정책을 관리해야 하는 중앙은행으로서는 모두 위기요인이다. 실물화폐 기반의 통화시스템을 구축한 중앙은행이 CBDC에 관심을 보이는 것은 당연한 일이라 할 수 있다. 지난해 국제결제은행(BIS)의 조사 결과 66개국 중앙은행 가운데 한은 등 86%에 이르는 중앙은행들이 CBDC를 연구 중이다.한은이 구상 중인 CBDC는 빠른 처리 속도에 은행 수수료 절감 등의 효과가 있어 모든 경제주체가 이용할 소액결제용이다. 공급자인 중앙은행은 운영주체로, 시중은행이나 핀테크기업은 중개기관으로 참여한다. 지난해 1차 모의실험에서는 금융기관 간 거액결제 테스트도 했다. 오는 6월까지 마무리할 2차 실험에서는 인터넷 연결 없이 스마트폰이나 스마트워치로 거래가 가능한지와 국가 간 결제시스템 환경을 테스트하게 된다. 2차 모의실험 이후에는 금융기관이 참여하는 실제 테스트를 한다.소액결제용 CBDC는 디지털 화폐 저장 프로그램인 전자지갑만 있으면 이용할 수 있다. 하지만 이 경우 전자지갑에 저장되는 5000만 국민의 결제 정보를 중앙은행이 들여다볼 수 있기에 보유자의 개인 정보 위·변조나 유출 우려, 그리고 디지털 금융거래에 취약한 사람의 낮은 접근성 등이 문제가 될 수 있다. 반면 신속한 거래와 불법자금 세탁 방지 등의 장점이 있다. 한은의 하혁진 디지털화폐연구팀장은 “전자지갑을 개설한 모든 사람의 정보를 한은이 들여다보는 구조가 아니라 불법자금 등의 의심이 있는 경우에 한해 제3의 법적기구에서 들여다보는 방안을 검토 중”이라고 말한다. CBDC를 새로운 통화제도로 도입하려면 국민적 합의를 토대로 중앙은행법 개정 등 법적 기반을 갖춰야 한다.CBDC 도입에 가장 적극적인 나라는 중국이다. e-CNY라는 디지털 위안화를 2020년부터 시범 운영 중이다. 동계올림픽이 열리고 있는 베이징을 비롯해 선전, 칭다오 등 전국 11개 지역에서 시범 운영 중이다. 지난해 말 기준 디지털 위안화 누적 거래액은 16조원이 넘는다. 이용자는 올해 초 기준으로 3억명으로 추정된다. 베이징에서는 지하철 이용도 가능하다.주목할 것은 국제 지급결제 시장에서 디지털 위안화의 확산 여부다. 인민망에 따르면 왕신 중국 인민은행 연구국 국장은 지난해 4월 국무원 신문판공실 주최 브리핑에서 디지털 위안화를 주로 중국 내 소매결제에 사용할 것이라고 밝혔다. 현재 중국 내 간편 결제시장은 알리페이나 위챗페이 같은 모바일 결제수단이 90% 이상을 장악하고 있다. 이 때문에 디지털 위안화가 얼마나 소매거래에 사용될지는 미지수다. 그러나 ‘당’ 중심의 국가주식회사 체제인 만큼 확장 가능성은 열려 있다.중국은 국가 간 결제거래에도 디지털 인민화 사용을 검토하고 있다. 중국 인민은행은 홍콩, 태국, 아랍에미리트 중앙은행과 디지털 통화가교 프로젝트(m-CBDC Bridge)를 진행 중이다.디지털 위안화가 국가 간 결제수단으로 인정받게 되면 ‘디지털 위안화 경제권’ 탄생이 가능해진다. 중국의 경제권 확대 대상인 ‘일대일로’ 국가를 중심으로 디지털 위안화 사용이 늘면 미국 중심의 국제결제청산시스템(SWIFT)에 구애받지 않게 돼 미국발 금융제재를 우회하는 효과도 생긴다. 현재 국제 지급결제의 60% 정도는 미 달러로 이뤄지고 있다. 달러화를 기축통화로 한 미국과 유로화로 단일 경제권을 이룬 유럽연합 등 서방 중심의 국제통화 질서에 맞서는 위안화 경제권 구축은 중국으로서는 매력적인 일이다. 누적된 디지털 위안화 이용 실적과 보안성 강화 등을 토대로 향후 디지털 화폐의 글로벌 기준을 만들 때 ‘차이나 기술’이 우선 논의 대상이 될 수 있다. 대외경제정책연구원의 조고운 전문연구원은 “중국은 이미 동남아 국가와 전자결제에서 다양한 협력을 강화 중”이라면서 “일대일로 국가를 중심으로 디지털 위안화 사용을 유도할 가능성을 배제하기 어려울 것”이라고 전망했다.중국은 세계의 공장이나 다름없다. 지난해 국내 물류시장을 발칵 뒤집어 놓은 요소수 파동에서 보듯이 중국의 원자재 공급망 파워는 위협적이다. 수출의존형 경제체제인 우리나라에서 무역의존도가 가장 높은 나라가 중국이다. 산업통상자원부에 따르면 지난해 우리나라의 대중 수출액은 전체 수출액의 25.3%, 수입액은 22.5%로 국가별 수출액, 수입액에서 중국이 모두 1위였다.이러한 상황에서 중국이 한국과의 수출입 거래에서 달러 대신 디지털 위안화로 결제하면 물량 배정 우대나 세제 혜택 부여 등의 방법으로 사용을 권장할 경우, 어떻게 대처할 것인지 고민해야 한다. 한국을 찾는 중국의 한류 관광객들이 디지털 위안화 결제서비스를 원할 수도 있다. 이주노동자들의 본국 송금에도 수요가 생길 수 있다. 이 같은 가능성에 대해 최공필 온더 디지털금융연구소장은 “매우 민감한 문제 제기”라면서 “달러 중심의 국제 통화체제에 당분간 큰 변화는 없겠지만 국가 간 거래에서 디지털 위안화 사용은 각국 중앙은행 간 규제와 기술적 표준에 대한 협약만 체결되면 가능할 것”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>토스뱅크, 인터넷은행 첫 사업자대출 이달 출시</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/014/0004781662?sid=101</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>무보증·무담보 대출…한도 1억카뱅·케뱅도 상반기 출시 예고 토스뱅크가 이달 사업자대출을 선보일 예정인 가운데, 최근 서울 테헤란로 토스뱅크 본사에서 직원들이 분주하게 움직이고 있다. 뉴스1 토스뱅크가 보증서나 담보 없이 신용점수만으로 대출해주는 개인사업자 전용대출을 2월 중 출시한다. 인터넷은행 중 처음으로 개인사업자 대출 시장에 뛰어드는 것이다.   오는 3월 자영업자 대출 만기연장·상환유예가 종료될 예정인 가운데 토스뱅크를 필두로 인터넷은행들이 속속 개인사업자 대출 시장에 진출할 채비를 하고 있다.   2일 인터넷은행 업계와 정부에 따르면 토스뱅크는 기존 신용평가 모형을 활용하는 개인사업자 전용대출을 2월 중순경 출시한다.   개인사업자 대출 한도는 최대 1억원으로, 기존 신용대출과 마찬가지로 원클릭으로 대출할 수 있다. 상환 방식은 원리금균등상환, 만기일시상환 중 선택할 수 있으며 중도상환 수수료는 무료다.   신용평가모형은 기본적으로는 기존 토스뱅크의 신용평가모형을 그대로 활용한다. 여기에 금융거래 정보 등 소상공인에 특화된 대출 심사기준을 추가로 반영해 운영한다. 실질 상환능력을 심사한다는 취지다.   현재 은행권 소상공인 대출은 보증서, 부동산 등 담보대출 중심으로 이뤄지고 있다. 토스뱅크는 소상공인에 특화된 심사기준을 반영한 신용대출을 우선 출시하고 보증대출은 이후 순차적으로 진행한다는 계획이다.   또 완전 비대면 대출 프로세스에 부가 서류들을 제출하지 않아도 다양한 금융거래정보를 신용대출 심사 기준에 적극 활용하겠다는 입장이다. 토스뱅크 관계자는 "개인사업자 고객이 실제 영업 중인지 여부 등을 면밀히 검토할 계획"이라며 "사업자금 외 부동산, 주식 등 투자자금으로 유용되지 않도록 검증 체계도 마련할 것"이라고 말했다.   토스뱅크는 또 지역신용보증재단 중앙회와 제휴를 통해 온택트특례보증 상품도 후속으로 출시한다.   카카오뱅크와 케이뱅크 등 다른 인터넷은행들도 상반기 중 개인사업자 대출 신상품을 출시할 예정이다.   최근 금융당국이 인터넷은행들도 개인사업자 및 기업대출 시장에 진출할 길을 열어주면서다. 특히 기업에 대한 신용평가와 리스크 관리 의무가 따르는 기업대출보다는 다소 부담이 덜한 개인사업자 대출은 다른 인뱅들도 속속 출시할 움직임을 보이고 있다.   카카오뱅크 관계자는 "우선 상반기 중 주담대 상품을 내놓고 개인사업자 대출은 올해 중 내놓을 계획"이라고 말했다. 케이뱅크 관계자는 "개인사업자 대출 시장이 커질 것으로 예상한다"며 "올해 내 출시를 준비 중"이라고 말했다.   금융위는 최근 인터넷은행의 예대율(예금잔액 대비 대출잔액 비율) 규제를 일반 은행과 동일하게 바꾸고, (기업 대출 심사에 필요한) 현장 실사와 기업인 대면 거래 등을 허용하기로 했다. 3년의 유예기간이 부여된다. 이 기간에 기존 가계대출은 현행대로 100% 가중치를 적용하고, 새로 취급하는 부분만 일반 은행과 같은 115%를 반영한다. 3년 이후에는 일괄적으로 115%로 바뀐다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>55</v>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>사이버대학 졸업증명서도 모바일로 발급</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004019062?sid=102</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>행안부, 대학 제증명 모바일 서비스 확대[서울경제] 앞으로 사이버대학을 비롯한 전국 367개 대학교의 졸업·재학·성적증명서를 모바일 전자증명서로 발급받을 수 있게 된다. 대학교 또는 가까운 읍·면·동 주민센터를 직접 방문해 수령하거나 인터넷증명서 발급 대행기관 사이트에서 종이로 출력한 뒤 기관에 제출해야 하는 번거로움이 사라질 전망이다.행정안전부는 인터넷증명서 발급 전문기관인 디지털존·아이앤텍과 함께 ‘대학 제증명 모바일 전자증명서 발급 서비스’를 오는 16일부터 확대 제공한다고 15일 밝혔다. 대학 관련 증명서는 취업이나 상급학교 진학 시 필요한 서류 중 하나다. 졸업증명과 졸업예정증명, 수료증명, 재학증명, 휴학증명, 제적증명, 자퇴증명, 성적증명, 교육비납입증명 등 총 20종이 있다.기존에는 20개 일부 대학교만 모바일 전자증명서를 발급받을 수 있었지만 이번에 24개 사이버대학을 포함한 347개 대학교가 추가됐다. 사이버대학은 재교육을 원하는 직장인, 주부, 고졸 학력 보유자 등이 많이 수강해 약 45만명이 혜택을 받을 것으로 기대된다.대학 제증명을 모바일 전자증명서로 발급받으려면 행정서비스 통합포털인 정부24) 또는 페이코·토스 앱을 스마트폰에 내려받은 후 전자문서지갑을 발급받아 제증명 수령 방법을 전자문서지갑으로 선택하면 된다. 이후 디지털존이나 아이앤텍 홈페이지에 접속해 발급을 신청하면 된다. 한편 우정사업본부의 우체국 스마트뱅킹 앱과 경찰청의 경찰민원 모바일 앱에서도 서류를 전자증명서로 발급받아 제출할 수 있게 된다. 발급·제출 가능한 증명서는 우체국은 주민등록등본과 한부모가족증명서 등 14종, 경찰청은 운전경력증명, 교통사고사실확인원 등 5종이다.이세영 행안부 공공지능정책과장은 “앞으로 대부분의 대학교 제증명을 모바일 전자증명서로 발급받을 수 있다”면서 “앞으로도 디지털 정부 혁신의 일환으로 언제 어디서나 전자증명서를 편리하게 이용할 수 있도록 활용 분야를 확대해나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>56</v>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>미궁 속의 반인반수, 내면 괴물과의 결전</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/028/0002579045?sid=004</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>테세우스 영웅서사 새로 읽기아테네의 최고 영웅? 아니 그 이상!세계 신화를 말할 때 그리스 신화를 빼놓을 수 없고, 그리스 신화를 말할 때 영웅을 빼놓을 수 없다. 그 중에도 딱 둘을 꼽는다면 헤라클레스와 테세우스일 것이다. 좀더 유명하기로는 헤라클레스겠지만, 서사의 굴곡과 의미 면에서 테세우스의 인생역정에서 받는 특별한 이끌림이 있다.테세우스는 아테네 최고의 영웅으로 일컬어진다. 그는 아테네 왕 아이게우스의 아들로서 이역에서 태어나 성장한 뒤 수많은 악당들을 보란 듯이 제압하고서 아테네로 귀환한다. 그리고 아테네 청년들을 제물로 잡아먹던 황소괴물 미노타우로스를 찾아가 죽이는 데 성공하고 아테네의 왕이 된다. 아테네 국가영웅 내지 종족영웅으로서 부족함이 없는 모습이다. 하지만 우리 관심사는 역사적 영웅으로서의 면모는 아니다. 테세우스의 서사에 담겨 있는 더 보편적이고 심층적인 의미요소에 주목하게 된다. 핵심은 그가 크레타 섬 미노스의 미궁 속에서 펼친 반인반수 괴물과의 결전이다. 그 싸움이 특정 시공간을 넘어서 우리 모두의 인생투쟁에 해당하는 무엇일 수 있음을 본다.그 발견은 예기치 않게 찾아왔다. 여행을 마치고 돌아와 칩거하다 보니 시나브로 심신이 잦아들며 일차원적 본능의 포로가 되어갔다. 먹고 자고 싸고 TV 스마트폰…… 또 먹고 자고 스마트폰…… 휴식과 충전이라는 명분으로 포장된 내적 실체는 극히 동물적인 일상이었다. 여러 날 만에 정신을 차리고 돌아보니 완연한 미로 속이었다. 하염없이 올레길을 걷고 한라산을 오르던 시간과의 아득한 거리! 그때 문득 미노타우로스가 찾아왔다. 나의 자기서사로서. 황소괴물 미노타우로스는 어떻게 생겨났나미노타우로스는 신화에 등장하는 최악의 괴물 중 하나일 것이다. 몸은 인간이되 머리는 황소인 반인반수의 흉한 모습과 난폭한 성질도 그렇지만, 생겨난 내력이 더욱 끔찍하다. 그는 한 여인이 황소와 정을 통해서 낳은 자식이었다. 황소에 혹해서 스스로 암소가 되기를 주저하지 않은 여인은 한 나라의 왕비였다. 당연히 남편이 있는. 크레타 섬의 미노스는 큰 세력을 지닌 강한 왕이었다. 어느 날 바다의 신 포세이돈은 미노스로 하여금 아름다운 소를 얻게 한 뒤 그것을 자신에게 제물로 바치도록 한다. 하지만 소를 욕심낸 미노스는 신을 속이고 다른 소를 바친다. 그러자 포세이돈은 미노스의 아내 파시파에를 소에게 혹하게 만든다. 소와 관계를 맺기 위해 안달하던 파시파에는 최고 기술자 다이달로스가 만든 가짜 암소 속에 들어가서 원하던 바를 성취한다. 그 동물적 교접의 결과로 반인반수의 끔찍한 괴물 미노타우로스가 탄생한 것이었다. 내용 자체로 엽기 막장이거니와, 의미상으로 보면 더 무섭다. 왜냐하면 그 내적 맥락이 너무나 현실적이므로. 미노타우로스는 인간의 범람한 욕망이 만든 산물이다. 미노스왕의 소유욕과 파시파에의 성욕, 다이달로스의 지배욕이 거짓과 술수를 동반하면서 맞물려 합쳐진 상황이다. 그렇게 탄생한 괴물이 욕망의 덩어리로서 정체성을 지님은 당연한 결과가 된다. 어떤 욕망이냐면 제어 불가능한 뒤틀린 욕망! 그런 욕망의 존재는 우리 사는 세상에 얼마나 많은지……미노스의 소는 원래 신이 전해준 아름다운 선물이었다. 세상의 모든 동물은 하늘이 낸 고귀한 생명이니 신의 선물인 터다. 인간의 소중한 동반자인 소는 더욱 그러하다. 문제는 그것이 신적 순리에 반하는 소유적 욕망의 대상이 될 때다. 그 극단에 소와 교접하려 한 파시파에가 있지만, 미노스 왕이나 다이달로스의 일도 명백히 역리에 해당하는 것이었다. 신화는 바다의 신이 분노해서 파시파에로 하여금 소에게 혹하게 했다고 하지만, 인간이 스스로 검은 욕망의 포로가 돼버린 상황을 그리 표현한 것이라고 봄이 옳다. 일컬어 흑화(黑化). 한 인간이 욕망에 사로잡혀 귀(鬼)나 물(物)의 길로 접어드는 것은 얼마나 흔한 일인지…… 그 전락의 속도는 얼마나 걷잡기 어려운 것인지……황소괴물 미노타우로스는 동물적으로 뒤틀린 인간의 신화적 상징이다. 한 마리 짐승이 되어서 식식대면서 날뛰는 존재. 그 짐승은 어디에 있는가 하면 깊은 미궁 속에 들어 있다. 다이달로스로 표상되는 교묘한 기술이 그를 보이지 않게 깊이 가둔 상태다. 하지만 안 보인다고 해서 없는 것이 아니다. 보이지 않음으로 해서 더 거침없고 위험한 것이 인간의 욕망이다. 인간의 내면이라는 깊고 어두운 미궁 속에서 검은 눈을 번득이고 있다가 먹잇감이 보이면 가차없이 덤벼드는 괴물. 이 괴물을 어찌할 것인가.테세우스는 어떻게 괴물을 물리쳤나신화는 아테네의 많은 청춘남녀들이 미노타우로스의 희생물이 되었다고 한다. 한번 걸리면 벗어날 방법이 없다. 그 괴물이 워낙 무섭다는 사실 외에 한번 미궁에 빠져들면 돌아나올 수 없다는 점이 문제였다. 인간의 욕망이라는 것이 본래 그러하다. 빠져들기는 쉽지만 헤어나기는 어려운 찐득한 늪…….괴물 더하기 미궁. 실패로 예정되어 있는 그 싸움을 보란 듯이 승리로 장식한 인물이 우리의 영웅 테세우스다. 그는 라비린토스 깊은 곳을 찾아들어가서 미노타우로스를 맨손으로 때려죽이는 데 성공한다. 그리고 유유히 귀환한다. 그는 어찌 그리할 수 있었던 걸까? 먼저 테세우스가 스스로의 선택으로 괴물을 찾아갔다는 데 주목하게 된다. 그는 처음부터 괴물을 죽이겠다는 마음으로 길을 나선다. 다른 남녀들이 희생물이 되어서 보내진 것과 다르다. 그러니까 그는 욕망의 포로가 된 존재가 아니라 욕망을 지배하러 나선 존재에 해당한다. 주체적 의지와 신념, 그리고 투쟁심과 행동력으로. 그가 미궁과 괴물에 휘둘리지 않을 수 있었던 바탕이다. 생각을 좀더 진전시켜 보자면 테세우스 자체를 미노타우로스가 표상하는 본능적이고 파괴적인 욕망의 대척점에 놓이는 냉철한 이성과 의지의 상징으로 볼 수 있다. ‘우리 안의 미노타우로스’에 대한 ‘우리 안의 테세우스’가 되겠다. 미노타우로스와 테세우스의 싸움이 우리 내면의 싸움, 또는 자기자신과의 싸움에 해당하는 무엇이라는 뜻이다. 가장 가까우면서도 무엇보다 크고 어려운 싸움. 그 싸움을 이겨냈으니 과연 영웅이 분명하다. 하지만 테세우스는 자기 힘만으로 미노타우로스를 제압한 것이 아니었다. 한 명의 특별한 조력자가 있었으니 아리아드네가 그 사람이다. 미노스의 딸로서 테세우스를 사랑하게 된 아리아드네는 미궁으로 들어가는 정인에게 실타래를 전해준다. 실 줄기를 따라서 움직임으로써 테세우스는 미궁에서 길을 찾아 나올 수 있었으니 결정적인 도움이었다.아리아드네의 실타래에 대해 몇 가지 해석을 해볼 수 있다. 먼저 그것이 이성의 끈이라는 것. 내면의 미로 속에서 길을 잃지 않게 하는 무엇이다. 다음은 입구로부터 이어진 실이 하나의 ‘역사’라는 것. 문학치료 식으로 말하면 ‘서사’가 된다. 자신의 서사의 길을 따라 움직임으로 해서 본디의 자리로 돌아올 수 있었던 상황이다. 한편으로 그 실타래를 ‘인연’이나 ‘사랑’으로 볼 수도 있을 것 같다. 신화에서 테세우스와 아리아드네의 관계는 본능적 욕망보다 인간적 연결과 합력에 가까운 것으로 표현된다. 괴물 미노타우로스와의 대척점에서 맺어진 관계이니 이를 사랑이라고 불러도 되지 않을까? 동물적 욕망을 이겨내는 힘은 인간적 사랑에서 나온다는 것. 역설적 진실이다. 어떻든 그렇게 테세우스는 황소괴물을 죽이고 미궁에 길을 낸다. 그렇게 낸 길은 하나의 새로운 서사가 된다. 어떤 서사냐면, 치유와 극복의 서사. 그리고 신성의 서사. 우리는 이를 신화(神話)라 부른다. 도전과 투쟁을 통한 극복의 서사이니 영웅신화!미궁에 갇힌 또 다른 사내들헤아려보면 우리 마음속의 길은 참으로 복잡다단하다. 미궁이라는 말이 꼭 어울린다. 고정된 미궁이 아니라 계속 움직여 바뀌는 끝 모를 미궁. 그 미궁을 이루는 길의 8할이 욕망이라고 하면 지나칠까? 아니, 9할 이상일지도 모른다. 한국 민간신화의 주인공들 가운데 욕망의 미궁에 갇힌 이들이 있다. 특별히 무인도 섬에서 존재적 방황과 절멸을 경험하는 안심국과 궁산이가 마음에 떠오른다. 안심국은 한 나라 왕자로, 궁산이는 한 고을 젊은 선비로 문제없이 잘 살던 사내들이었다. 그러나 그들은 어느 순간 절해고도 무인도에 던져진다. 신화는 그들이 누군가에 의해 보내진 것처럼 말하지만, 실상 그들은 스스로 제 존재를 유폐한 것이라 볼 수 있다.그 뿌리는 역시나 욕망이었다. 안심국은 한 여자와 결혼한 뒤 남편의 책무를 외면하고 밖으로 나돌면서 방탕한 생활을 하다가 무인도 황토섬에 갇힌다. 그가 황토섬을 속절없이 몇년간 배회한 결과는 온몸에 털이 나서 한 마리 짐승처럼 된 일이었다. 세상의 기린아와 황토섬의 짐승 사이. 그건 사실 종이 한 장 차이였다. 스스로 검은 욕망의 미궁에 찾아 들어간 상황에서 존재적 전락은 정해진 코스였다고 보아도 좋다. 궁산이는 상대적으로 순박한 사람이었으나 역시 욕망의 함정을 피하지 못한다. 그는 유혹을 이겨내기에 너무 나약했다. 교활한 악인이 꾀어서 휘둘렀다지만, 노름놀이에 혹해서 아내까지 걸었다가 빼앗긴 것은 그 자신이 한 일이었다. 통제가 안 되는 안일함과 유아적 욕망. 그 결과는 절해고도에서 외로움과 굶주림에 잦아져가는 너절한 몸뚱이였다. 하지만 미궁에는 어떻게든 출구가 있는 법일까? 절망의 끝자락에서 안심국과 궁산이는 가까스로 길을 찾아낸다. 그 바탕은 뼈저린 후회와 반성이었다. 그리고 어떻게든 다시 일어나고자 하는 발버둥이었다. 욕망의 남용을 좌시하지 않았던 것처럼, 신은 그 발버둥을 외면하지 않는다. 천신만고 끝에 무인도를 벗어나 다시 아내 곁에 선 두 사람, 신이 된다. 엉뚱한 비약으로 생각할 수도 있으나, 나는 그렇게 보지 않는다. 자신과의 싸움에서 이긴 그들이니 그 또한 영웅이라고 여긴다. 자기 안의 괴물과 싸워 이긴다는 것은 그 괴물이 어떠한가를 떠나서 언제라도 가볍지 않은 일이다. 뼈아픈 성찰은 용맹한 투쟁 못지않게 큰 무엇일 수 있다.쉼 없이 이어가야 할 싸움다시 테세우스로 돌아와서, 그 용맹한 투쟁과 승리의 뒷자락을 살펴본다. 그 뒤를 이은 것은 뜻밖에도 크나큰 영광과 성취 쪽이 아니었다. 오히려 그 반대에 해당하는 것이었다.테세우스는 미궁을 나온 뒤 싸움의 결정적 조력자였던 아리아드네와의 접속에 실패한다. 특별히 중요하다고 할 수 없는 이유로 아리아드네의 손을 내려놓는다. 그리고 그녀는 다른 운명의 길로 흘러간다. 서사의 단절. 그렇게 테세우스는 실타래를 놓친다. 이성(理性)의 실타래, 또는 사랑의 실타래를.테세우스가 놓아버린 이성 또는 인연의 끈은 또 다른 비극으로 이어진다. 결전에서 승리하면 흰 깃발을 달고 오겠다던 약조를 소홀히 하는 바람에 아버지 아이게우스가 비탄 속에 자결한다. 테세우스는 아테네 왕이 되지만 문제는 끊이지 않는다. 그의 두번째 아내 파이드라가 첫 아내 안티오페의 아들 히폴리토스를 욕망하다가 자살하고, 히폴리토스도 아버지의 저주 속에 죽어버린다. 테세우스의 결말 또한 허무한 비극이었다. 스파르타의 어린 공주 헬레네를 납치했다가 반격을 자초해 몰락해간 끝에 벼랑에서 쓰라린 최후를 맞이한다. 크레타의 미궁 라비린토스에서 괴물 미노타우로스를 죽일 때의 그 드높던 기세는 간 곳이 없다.왜 서사가 이렇게 흘러가는 걸까? 역사적 측면을 떠나 심리적 상징으로 풀이해보자면, 그는 진정한 라비린토스가 자기 안에 있음을 몰랐던 것이라 할 수 있다. 아리아드네의 손을 놓으면서 그는 라비린토스에 갇히기 시작한다. 자식을 저주해서 죽게 할 때의 그는, 또는 헬레네를 납치할 때의 그는 더이상 테세우스가 아니다. 한 마리 괴물짐승 미노타우로스일 따름이다. 내 안의 욕망과의 싸움이란 이렇게 힘든 법이다. 눈에 보이는 크고 중요한 과업 앞에 설 때는 오히려 문제가 아니다. 거기 집중해서 힘을 낼 터이므로. 정말 어렵고 중요한 것은 사소한 일상이다. 일상 속의 소홀함과 범람함이 시나브로 존재를 갉아먹어 결정적으로 무너뜨린다. 테세우스의 비극적 죽음이 미노타우로스의 저주였다고 하면 지나친 일일까? 어떻든 이렇게 말할 수 있다. 미노타우로스는 어딘가에 늘 도사리고 있다고. 죽어도 새로 살아나게 되어 있다고. 그와의 싸움은 평생을 걸쳐 이어가야 할 존재적 숙명이다. 한국 신화 속의 두 사내 안심국과 궁산이는 신이 되었다고 했다. 테세우스보다 약하고 초라한 존재였음을 생각하면 반전적인 결과다. 어쩌면 그 자신 초라한 존재였기 때문에, 그 초라함과 한계를 뼈아프게 느끼며 좌절했기 때문에 미궁에서 벗어날 수 있었던 것이라고 생각해 본다. 테세우스와 달리 그들이 자신의 아리아드네에게로 와서, 계화씨와 명월부인에게로 와서 손을 잡은 일도 빼놓을 수 없겠다.자신이 외면하고 소외시켰던 아내 계화씨 곁으로 돌아온 안심국이 받은 신직은 가신(家神)이다. 그의 별호는 다름 아닌 ‘성조씨’다. 일컬어 성주신! 집의 대들보에 깃드는, 가정의 대들보 구실을 하는 신이다. 성조씨 안심국을 통해서 내가 움직여 써나가야 할 영웅서사의 길을 본다. 일상적인. 크고도 어려운.신동흔 / 건국대 국어국문학과 교수, 한국문학치료학회장***이 시리즈는 대우재단 대우꿈동산과 함께 합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>57</v>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>마이데이터 1년 간 못하는 삼성, 3월 카드·보험·증권 합친 거대 플랫폼 출시</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/366/0000791847?sid=101</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>삼성그룹이 카드·생명·화재·증권 등 계열사 금융 서비스를 한 데 모은 초대형 애플리케이션(앱)을 내놓는다. 금융업계 일각에서는 삼성생명이 암 입원 보험금 미지급 건으로 기관경고 중징계를 당하면서 1년간 마이데이터 사업을 할 수 없게 된 데 따른 일종의 고육지책으로 본다. 다른 금융회사들은 모두 계열사나 심지어 타사 거래 자료까지 한데 모아 활용하는 마이데이터 사업(본인신용정보관리업)에서 공격적인 행보를 펼치고 있다.삼성카드는 이르면 3월 중 자사를 비롯해 생명·화재·증권 같은 계열사 서비스를 한 곳에 모은 앱의 시험판을 내놓을 예정이다. 이 앱에는 현재 ‘모니모(Monimo)’라는 가칭이 붙어있다. 삼성그룹 금융 계열사들은 디자인과 로고, 정확한 일정을 정하는 막바지 논의 작업을 한창 진행 중인 것으로 알려졌다.마이데이터는 각 금융기관에 흩어진 개인 신용(금융)정보를 소비자가 한 곳에 모아 보여주고, 재무 현황·소비 습관을 분석해 맞춤 컨설팅을 받을 수 있는 서비스다. 지난해 12월 한달 간 시범 서비스를 거쳐, 올해 1월 14일부터 정식 서비스를 시작했다. 이 서비스를 의도대로 구축하면 금융사는 여러 금융 데이터에 기반해 맞춤형 금융상품을 소비자에게 추천할 수 있고, 소비자 역시 민감한 본인 금융 데이터를 직접 관리할 수 있다.그러나 이런 정교한 플랫폼 시스템을 구축하는 데 드는 막대한 비용을 감당하기 어려워 은행을 거느리지 않은 비(非)은행권 금융사들은 좀처럼 이 시장에 손을 뻗지 못했다. 다음달 모니모가 예정대로 출시된다면 비은행권 금융사가 마이데이터 앱과 유사한 통합 앱을 내놓는 첫 사례가 될 전망이다.현재 삼성 금융 계열사 이용자를 전부 합치면 중복 가입자를 포함해 약 3200만명 정도다. 삼성화재와 삼성생명 가입자가 각각 1000만명 수준이고, 삼성생명이 820만명, 삼성증권은 400만명을 확보했다. 금융권에서는 이 가운데 중복 가입자를 제외하면 약 2000만명 정도가 삼성 금융 계열사 이용자인 것으로 보고 있다.2000만명을 모니모 이용자로 확보할 경우, 삼성 금융 계열사들은 기존 금융지주 계열 통합 앱이나 빅테크 같은 선두 기업과 경쟁할 만한 기반을 갖추게 된다. 카카오페이 가입자는 약 2000만명, 네이버페이와 토스 가입자는 각각 1600만, 1200만명 정도다.서울 서초구 삼성생명 사옥으로 직원들이 들어가고 있다. /뉴스1        삼성카드·생명·화재·증권은 지난해 4월 이후 1년 여간 이들 이용자를 겨냥한 마이데이터 사업에 대비해 400억원이 넘는 자금을 쏟아가며 공동 플랫폼 구축에 열을 올렸다. 공시에 따르면 삼성화재가 174억원, 삼성생명과 삼성증권이 각각 143억원, 74억원을 관련 사업에 투입했고, 삼성카드는 통합 플랫폼 시스템을 구축·운영하기로 관계사들과 공동 협약을 맺었다.그러나 지난 4일 삼성생명이 금융감독원으로부터 암 입원 보험금 미지급 등과 관련해 중징계에 해당하는 최종 기관경고 통보를 받으면서 계획이 틀어졌다. 삼성생명이 금융당국 제재를 그대로 받아들이면 마이데이터를 포함해 결과서 수령일로부터 1년간 금융당국 인·허가가 필요한 신사업에 진출할 수 없다. 삼성카드 같은 자회사 역시 같은 제한을 받는다.삼성생명 관계자는 “지난 4일 금융감독원으로부터 종합검사 결과서 일부를 받았고, 모두 수령하면 이를 면밀히 검토해 제재 결과를 수용할지 이의를 제기할지 등을 결정할 계획”이라고 말했다.일부 금융권 전문가들은 이런 점을 들어 마이데이터 서비스 출시를 준비하던 삼성 계열 금융사들이 금융당국 제재에 발목을 잡히자, 부득이하게 비슷한 서비스부터 내놓는 쪽으로 방향을 튼 것 아니냐는 평가를 내놨다. 모든 금융사가 경쟁적으로 마이데이터에 뛰어드는 가운데, 삼성생명 관련 징계로 타 금융사 정보를 앱에 연동할 방법이 없으니 아쉬운 대로 자사 통합 앱이라는 고육지책을 택했다는 분석이다.한국금융소비자연맹 관계자는 “주요 금융사 가운데 마이데이터 사업 진출이 막힌 기업은 삼성카드가 유일하다”며 “이미 경쟁사들은 마이데이터 사업을 시작한 상황이기 때문에 삼성생명이 금융당국 제재를 받아 들이든, 불복해 행정소송을 제기하든 경쟁사보다 관련 사업 진입이 늦어지는 것은 피하기 어렵다”고 말했다.삼성카드는 통합 앱에 오픈뱅킹과 보험료 결제와 같은 통합 금융 서비스는 물론 내 차 시세 조회·신차 견적·부동산 시세 조회 같은 자동차·보험 서비스를 담아 차별화에 나설 예정이다. 계열사 별로 지급하는 리워드 포인트도 통합 운용할 계획으로 알려졌다. 삼성카드 포인트나 삼성화재 포인트를 통합 앱에서 통용되는 포인트로 바꿔 삼성증권의 소액 주식 투자에 쓸 수 있게 하는 식이다.삼성카드 관계자는 “이번 통합 앱은 마이데이터와 상관없이 디지털 경쟁력 제고 차원에서 지난해 초부터 추진했던 사업”이라며 “마이데이터 사업 진출 방안 역시 다각도로 검토하고 있다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>58</v>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>기업대출로 눈 돌린 은행권…인터넷 은행도 가세</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005043678?sid=101</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>정부가 총랑관리제 강화로 가계대출 관리에 돌입하면서 은행권이 기업대출로 눈을 돌리고 있다. 특히 시중은행 뿐 아니라 인터넷은행도 올해부터 개인사업자 대출 등 기업대출에 본격 뛰어들면서 관련 시장도 더욱 확대될 전망이다.13일 금융권에 따르면 5대 시중은행(KB국민·신한·우리·하나·NH농협은행)의 지난달 기업대출(대기업·중소기업·개인사업자 대출) 잔액은 644조618억원으로 집계됐다. 이는 전월 대비 8조1740억원(1.28%) 증가한 수치다.차주별로 보면 대기업 대출은 2.32%(1조9139억원) 늘어난 84조3232억원, 중소기업 대출의 경우 1.80%(4조5748억원) 증가한 258조3318억원을 나타냈다. 소호(개인사업자) 대출은 0.56%(1조6854억원) 늘어난 301조4069억원이었다.은행권이 기업대출로 눈을 돌리고 있는 것은 정부의 가계대출 총량관리제의 영향으로 가계 여신 확대가 어려워졌기 때문이다. 실제 한국은행 등에 따르면 지난달 전 금융권의 가계대출액은 7000억원 감소, 지난해 5월 이후 8개월만의 감소세를 나타냈다.시중은행 한 관계자는 "가계대출 총량관리제 강화로 가계 여신 분야의 성장 동력이 약화된 셈"이라며 "각 은행들로선 제한된 가계 여신보다 기업 여신 또는 자산관리 분야로 영업을 확대하는 것이 자연스러운 흐름이 아니겠느냐"고 밝혔다.시중은행들도 기업대출 관련 조직개편에 나서는 등 보폭을 넓히고 있다. KB금융그룹은 최근 실적 발표 컨퍼런스콜을 통해 올해 기업대출 성장률을 7%로 제시했고, 농협은행은 수도권 기업금융센터를 기존 대비 약 30% 늘린 65곳으로 확대하며 수도권 지역의 시설자금 수요를 집중 공략하는 데 방점을 찍었다.최근엔 인터넷은행들도 기업 여신에 적극 나서는 분위기다. 일례로 토스뱅크는 이달 중 개인사업 대출을 출시한다. 인터넷 은행 중 개인사업자 대출에 나서는 것은 토스뱅크가 처음이다. 이밖에 카카오뱅크와 케이뱅크 역시 대출 포트폴리오 다변화를 위해 연내 기업대출 시장에 진출한단 방침이다.금융투자업계에서도 올해 시중은행 및 인터넷은행의 기업 여신이 확대될 것으로 예상하고 있다. 한화투자증권은 최근 보고서를 통해 "은행업종은 법인 중소기업대출 중심의 성장을 도모할 것으로 예상된다"면서 "올해 은행업종의 원화대출 성장률은 전년 대비 5~6% 내외, 순증 기준 120조원 수준을 달성할 것으로 예상한다"고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>59</v>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>스타트업들 대기업에 한 수 가르치네...업스테이지, LG유플에 자문</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/023/0003672531?sid=101</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>KCD는 GS그룹 임원진에 강연황현식(왼쪽) LG유플러스 대표와 김성훈 업스테이지 대표./LG유플러스 뉴시스										LG유플러스는 작년 말 국내 AI(인공지능) 스타트업 ‘업스테이지’와 자문 계약을 맺었다. 자문받는 쪽은 창업 3년 차 업스테이지가 아니라 대기업인 LG유플러스다. 김성훈 업스테이지 대표로부터 AI 서비스 개발과 AI 인재 양성 등에 관해 도움을 받기로 한 것이다. LG유플러스 관계자는 “빠르게 변화하는 AI 산업에서 경쟁력을 갖추기 위해 업계를 선도하는 스타트업과 손잡은 것”이라고 말했다. LG유플러스는 스타트업식 ‘애자일 조직’도 시범 도입했다. 애자일은 ‘민첩한’이라는 뜻의 영어로, 스타트업처럼 빠른 속도로 일을 실행하면서 사업 방향을 조정하는 방식이다.대기업들이 스타트업에 자문을 하는 일이 늘고 있다. 예전엔 스타트업이 대기업을 멘토로 삼는 것이 일반적이었지만, 업계를 선도하는 스타트업이 늘면서 반대 상황이 벌어지고 있는 것이다.소상공인 경영관리 서비스 스타트업 한국신용데이터(KCD)는 최근 GS그룹 최고위 임원진을 상대로 강연을 했다. 내용은 KCD의 데이터 활용 방식과 관련 비즈니스의 발전 방향이었다. 김동호 KCD 대표는 “GS그룹이 작고 빠른 스타트업의 사업 방식을 알고 싶어 해 성사된 일”이라고 했다. 국내 클라우드 서비스 시장 개척자 중 한 명인 베스핀글로벌의 이한주 대표는 클라우드 분야에 진출하는 대기업들에 조언을 해주고 있다. 연쇄 창업자인 이 대표는 대기업들의 미래 사업 방향도 조언하는 것으로 알려졌다. 스타트업에 금융 서비스를 제공하는 핀테크 기업 고위드의 김항기 대표는 전통 금융 기업들의 최고위직들과 토스·카뱅이 강자로 떠오른 금융 시장에 대해 수시로 의견을 주고받는다.벤처캐피털 TBT의 임정욱 대표는 “최근 대기업 회장님들은 각 업계에서 잘나가는 스타트업 창업자를 만나고 싶어 하고, 이들과 함께 일하는 것에 관심이 많다”며 “급변하는 산업 환경에서 스타트업의 혁신 DNA를 장착하지 않으면 뒤처진다는 위기의식이 크다”고 말했다. 일각에서는 배달의민족·쿠팡의 성공 사례가 대기업들의 스타트업 인식을 바꿨다는 분석도 있다. 두 회사가 2010년 창업한 이후 10년 만에 거대 기업으로 성장한 것을 목격한 대기업들이 스타트업의 가능성을 재평가하고 이들의 장점을 배우려고 한다는 것이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>60</v>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>토스뱅크, 이사회 의장에 홍민택 대표 재선임</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/018/0005139353?sid=101</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>[이데일리 전선형 기자] 토스뱅크가 홍민택 토스뱅크 대표이사를 이사회 의장으로 재선임했다.홍민택 토스뱅트 대표.(사진=토스뱅크)토스뱅크는 전날(3일) 열린 이사회를 통해 홍 대표를 이사회 의장에 재선임했다고 4일 공시했다. 이사회는 홍 대표의 의장선임 건을 만장일치로 통과시킨 것으로 알려졌다. 이날 토스뱅크는 선임사외이사에 서승원 전 중소기업중앙회 상근부회장을 재선임했다고도 공시했다.이날 선임된 두 사람의 임기는 이날부터 2023년 정기주주총회 종료 시까지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>61</v>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>토스, 초등학생도 쓰는 충전카드 출시</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004916513?sid=101</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>핀테크 기업 토스가 초등학교 1학년부터 사용할 수 있는 충전식 '유스카드'를 선보였다. 2일 핀테크 업계에 따르면 토스는 만 7세부터 만 16세까지 발급받을 수 있는 충전식 청소년 전용 카드 '토스 유스카드'를 최근 출시했다. 청소년 전용 카드는 기존 금융기관에도 있었지만, 대부분 14세 이상이어야 받을 수 있다. 이와 달리 토스는 유스카드 이용 가능 연령을 만 7세로 대폭 낮췄다. 토스 애플리케이션(앱)에서 신청하면 무료로 실물카드가 발급되며, 선불 교통카드로 사용하거나 국내 가맹점에서 결제할 수 있다. 만 14세 이상이면 청소년 안심 업종 온라인 결제도 된다.카드에 들어갈 '토스머니'를 충전하면 하루 50만원, 월 200만원까지 결제가 가능하다. 토스머니는 토스 앱, 전국 편의점, 지하철 역사 교통카드 충전기, 코레일 레일플러스 충전 제휴처에서 충전하면 된다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>사이버대학 성적‧졸업증명서도 스마트폰으로 OK</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005906407?sid=102</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>16일부터 전자증명서 발급대상에 347개 대학 추가행정안전부 제공 © 뉴스1(서울=뉴스1) 정연주 기자 = 앞으로 전국 약 45만명에 이르는 사이버대학 재학생이나 졸업생도 성적·졸업증명 등 각종 증명서류를 모바일 전자증명서로 발급받을 수 있게 된다.15일 행정안전부는 인터넷 증명서 발급 전문기업인 디지털존, 아이앤텍과 협력해 오는 16일부터 사이버대학을 포함한 347개 대학의 증명서류를 모바일 전자증명서로 발급하는 서비스를 확대 제공한다고 밝혔다. 그동안 대학 제증명을 모바일 전자증명서로 발급하는 서비스는 20개 대학교에 적용해 왔는데 이번에 공주교대, 건국대 등 347개 대학교가 추가된 것이다. 모바일 증명서 발급이 가능한 대학은 총 367개로 늘었다. 특히 한양사이버대 등 24개 사이버대학도 추가됐다. 사이버대학은 인터넷을 이용해 강의를 듣고 학위를 취득하는 방식의 교육을 제공해 재교육을 원하는 직장인, 주부, 고졸 학력 보유자 등이 많이 이용하는 만큼 편의성이 증대할 것으로 보인다. 전국 사이버대학의 재학생은 12만명 이상, 졸업생도 33만명을 넘어 약 45만명이 수혜를 받을 것으로 기대된다.대학 제증명을 모바일 전자증명서로 발급받기 위해서는 정부24앱 또는 페이코, 토스 앱 등을 스마트폰에 내려받아 설치 후 최초 한번 '정부 전자문서지갑' 이용을 신청하고, 인터넷 증명 발급사이트에서 증명서 발급을 신청하면서 수령방법을 '정부 전자문서지갑'으로 선택하면 된다.한편, 대학 성적·졸업증명서 외에 우정사업본부의 '우체국 스마트 뱅킹'앱에서 우체국 예금 가입 등에 필요한 증명서를 제출하거나, 경찰청 '경찰민원 모바일' 앱에서 교통사고사실확인원 등의 서류를 전자증명서로 발급받아 제출하는 것도 가능해진다. 이세영 행정안전부 공공지능정책과장은 "이제 대부분의 국공립 및 사립대학교의 제증명을 모바일 전자증명서로 발급받을 수 있다"며 "앞으로도 디지털 정부혁신의 일환으로, 언제 어디서나 전자증명서를 편리하게 이용할 수 있도록 활용 분야를 확대할 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>민팃, 추가 보상 받고 갤럭시 S22 구매</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004018491?sid=101</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>갤럭시 S20·노트10·노트9 15만 원 추가 보상전국 대형마트 및 통신사 매장에 설치된 민팃ATM 기기. 사진 제공=민팃삼성디지털프라자 홍대 본점에 설치된 ‘찾아가는 민팃(민팃 스페셜존)’. 사진 제공=민팃[서울경제] ICT 리사이클 기업 민팃은 삼성전자가 사전 예약을 시작한 ‘갤럭시 S22’ 구매 고객 대상으로 기존 사용 휴대폰에 대한 추가 보상 프로그램을 운영한다고 14일 밝혔다.3월 말까지 갤럭시 S22 폰을 구매한 후 14일 이내 중고폰을 반납하면 민팃 시세에 더해 기기 모델별 특별 보상을 하는 것이다. 특히 갤럭시 S20·노트10·노트9 시리즈는 15만 원, 갤럭시 S21·S10·S9·노트20은 10만 원을 추가 보상한다. 민팃은 통신3사 신규가입 및 보상기변 고객과 자급제 고객도 이용이 가능하도록 이번 프로그램을 기획했다.통신사에서 신규폰을 구매한 고객은 각 통신사 매장에 설치된 민팃ATM을 통해 자급제폰 구매 고객은 삼성디지털프라자와 하이마트, 이마트, 홈플러스, 롯데마트 등에 위치한 민팃ATM을 이용하면 된다. 통신사 고객의 경우 개통 2주 유지 확인 후 보상이 진행되며, 자급제 폰은 계좌 확인 등의 절차를 거쳐 바로 보상된다.민팃은 이번 프로그램 관련 고객 참여 확대를 위해 다양한 혜택을 담은 이벤트를 진행한다. 이달 21일까지 홈페이지에서는 ‘룰렛 이벤트’를 통해 총 1600여명의 고객에게 갤럭시 S22(2명), 갤럭시 버즈2(5명), 스타벅스·베스킨라빈스 기프티콘 등을 제공할 계획이다. 이날부터 24일까지 삼성디지털프라자 홍대 본점에 찾아가는 민팃(민팃 스페셜존)을 운영한다. ‘토스 앱을 통한 만보기 이벤트’도 준비했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>“대세는 자급제”…이커머스, ‘갤럭시S22’ 사전예약 경쟁</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002118858?sid=105</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>- 할인쿠폰부터 새벽배송까지 혜택으로 고객 잡기 돌입     [디지털데일리 이안나 기자] 이커머스 업계가 일제히 삼성전자 갤럭시S22 시리즈 사전예약 판매를 시작했다. 자급제 스마트폰 구매 선호가 높아진데다 신학기 쇼핑 수요 시기가 맞물리면서 이커머스 업체들이 각종 혜택을 내세워 소비자를 모으고 있다.    갤럭시S22는 삼성전자가 지난 10일 공개한 신제품이다. 이번 시리즈는 ▲갤럭시S22 ▲갤럭시S22플러스(+) ▲갤럭시S22울트라 3종이다. 카메라 성능을 대폭 향상시키고, 갤럭시S22울트라에 S펜을 내장했다는 점이 특징이다.    국내 출고가는 갤럭시S22 99만9900원, 갤럭시S22+ 119만9000원, 갤럭시S22울트라 145만2000원(256GB), S22울트라 155만1000원(512GB)이다.    쿠팡은 14일부터 21일까지 ‘갤럭시 S22 시리즈’에 대해 사전예약을 진행한다. 대상 모델은 갤럭시S22, 갤럭시S22 플러스, 갤럭시S22 울트라 등 3가지로 준비했다. 사전예약을 통해 구매한 상품은 오는 22일부터 순차 배송된다.   쿠팡에서 갤럭시S22 시리즈를 사전예약하는 고객에겐 갤럭시 웨어러블 제품을 30% 할인된 금액에 구매할 수 있는 쿠폰이 발급된다. 23일부터 발급되는 이 쿠폰은 갤럭시워치4, 갤럭시 버즈2, 갤럭시버즈 프로, 갤럭시버즈 라이브 등 웨어러블 제품에 적용된다.     사전예약 시 ‘삼성 케어 플러스 파손 보장형 1년권’ 혜택도 누릴 수 있다. 1년 내 파손보상 2회, 수리비 즉시 할인, 방문수리 3회 등의 혜택이 있다. 휴대폰 구매 시 ‘쿠팡안심케어’를 함께 구매하면 휴대폰을 수리하거나 교체가 필요할 경우 보험서비스를 받을 수 있다. 쿠팡 ‘중고폰 보상판매 서비스’를 통해 기존에 사용하던 휴대폰을 간편하게 처분할 수 있다.    마켓컬리도 갤럭시S22 시리즈를 한정수량으로 사전예약 판매한다. 이 기간 주문하면 오는 22일 새벽부터 순차적으로 갤럭시S22를 배송해, 바로 다음 날 상품을 받을 수 있다. 고객들은 지정된 4개 카드(신한·국민·롯데·우리)로 결제 시 정상가에서 13% 할인된 가격에 구매할 수 있다. 갤럭시S22 구매자를 대상으로 한 경품 이벤트도 진행된다. 21일 밤 11시까지 사전예약 고객을 추첨해 갤럭시탭S8(1명)과 마켓컬리 적립금 5만원(30명), 3000원(500명)을 제공한다.    위메프도 이날부터 21일까지 갤럭시S22 전 시리즈를 출고가 대비 최대 13% 할인한 가격으로 사전예약 판매한다. 먼저 전 고객에게 8% 할인 쿠폰을 제공한다. 결제 수단별 추가 할인 혜택도 있다. 카드(국민·삼성·농협·비씨·우리·하나·전북), 간편결제(카카오페이·페이코·토스·차이) 결제 시 5% 즉시 할인이 가능하다. 이밖에 구매 사은품도 있다.   사전 예약 둘째 날인 15일에는 라이브 방송 판매를 진행한다. 당일 14시부터 2시간 동안 구매하는 고객에게는 백화점 상품권 1만원권을 제공할 예정이다.    11번가는 이날 자정 가장 먼저 갤럭시S22 시리즈 라이브 방송을 진행한 후 사전예약 주문을 받고 있다. 오는 21일까지 ▲신한·삼성·KB국민·현대·BC·롯데·하나·농협·우리 등 9개 ’카드사 할인쿠폰’ ▲SK페이 결제 시 최대 22개월 무이자 할부 ▲갤럭시워치4, 갤럭시버즈 시리즈 30% 할인쿠폰 ▲T멤버십 3000원 추가 할인 등을 제공한다.    11번가는 SK텔레콤 가입 상품도 같은 기간 사전예약을 진행한다. 11번가 ‘T공식대리점’을 통해 사전예약한 고객에게는 ‘카드사 할인’, ‘T멤버십 할인’ 등의 혜택과 ‘T공식대리점 보너스 할인’ 등 추가 통신비 혜택을 제공한다.   신세계그룹 통합 온라인몰 SSG닷컴에서도 ‘신학기 디지털 가전 위크’를 실시하며 삼성전자 ‘갤럭시S22 스마트폰을 판매한다. 즉시 할인 혜택이 적용돼 결제 수단과 관계없이 13% 할인가에 구매할 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>설 연휴 세뱃돈, 예·적금 넣을까...은행권 머니무브 가속화</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002572372?sid=101</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>5대 은행 정기예금, 약 12조↑시중은행 예금 2%, 적금 4%대 진입지난달 24일 오전 서울 강남구 한국은행 강남본부에서 설 자금방출이 이뤄지고 있다. ⓒ데일리안 홍금표 기자[데일리안 = 이호연 기자] 금리상승기 은행들이 예적금 금리를 잇달아 인상하며, 시중은행으로 유동자금이 쏠리고 있다. 최근 인플레이션 우려와 미국 등 주요국 통화정책으로 이같은 추세는 더욱 가속화 중이다. 특히 국내외 증시가 폭락을 거듭하는 가운데 설 연휴 세뱃돈 목돈을 굴리는 투자처로 은행 예적금 상품이 다시 주목받고 있다.3일 금융권에 따르면 5대 은행(KB국민·신한·하나·우리·NH농협은행) 정기예금 잔액은 지난달 27일까지 666조8290억원으로 집계됐다. 이는 지난해 말(654조9359억원)보다 11조8931억원 늘어난 것이다. 기준금리가 인상에 따른 금융권의 수신상품 금리 상승, 자산조정이 맞물린 결과로 분석된다.앞서 인터넷전문은행 카카오뱅크가 지난달 28일 정기예금 금리를 연 0.20%~0.30%p 인상했다. 이에 따라 만기 1년 기준 정기예금 금리도 기존 연 1.80%에서 연 2.00%으로 올랐다. 3년 만기 정기예금은 0.30%p 오른 연 2.30%로 뛰었다. 현재 카카오뱅크, 케이뱅크, 토스뱅크 등 주요 인터넷은행 3곳은 2%대의 정기예금을 제공중이다.Sh수협은행도 기준금리 인상에 따라 예금 10종 및 적금 7종의 금리를 최대 0.5%p 올렸다. 비대면 전용상품인 ‘헤이(Hey)정기예금’은 1년 만기 기준 최고 1.85%에서 2.25%로 뛰었으며, Sh옳다!올다(ALL多)!정기예금은 1년 만기 기준 최고 1.00%에서 1.50%까지 높아졌다. 적금 상품은 1년 만기 최고 2.6%에서 2.8%로, 3년 만기 상품은 최고 3.0%에서 3.2%로 올랐다.5대 은행은 이보다 먼저 한은의 기준금리 인상분을 더 빨리 반영해 주요 수신상품 금리를 최대 0.4%p 올렸다.NH농협은행의 경우 일반정기예금(1년 만기 기준)이 연 0.95%에서 1.20%로, 큰만족실세예금이 1.15%에서 1.40%로 각각 0.25%p 상향됐다. 정기적금은 1.20%에서 1.45%로 조정됐다. 신한은행의 대표 상품인 ‘안녕, 반가워 적금’은 우대금리를 충족할 경우, 1년 만기 최고 연 4.4% 금리를 제공한다.또 KB국민은행은 비대면 전용 상품인 ‘KB반려행복적금’의 금리는 3년 만기 기준 최고 연 3.35%까지 높였다. ‘KB더블모아 예금’ 상품도 최대 연 2.05%까지 금리가 뛰었다. 해당 상품은 시중은행에서 최고 금리 기준 가장 높은 예금금리를 제공한다.이 외 은행들은 특판도 선보이며 고객 잡기에 나섰다. 우리은행은 창립 124주년을 기념해 ‘1·2·3 패키지 상품(1% 입출금 통장, 2%대 예금, 3%대 적금)’을 출시했다. ‘3%대 적금’은 기본금리 2.60%에 우대금리 0.50%p를 더해 최고 3.10%를 제공한다. 해당 상품은 영업점별 거래고객 특성에 맞게 설계되는 특판 적금으로, 영업점별로 우대조건이 다르다.BNK경남은행은 ‘새출발!! 정기예금’ 특판을 오는 3월 31일까지 진행중이다. 가입 시 0.40% 우대 이율, 추가 조건 충족에 따라 최고 연 2.2% 금리를 더 얹어준다. 총 한도 계좌는 5000억원이다.은행권은 시장 금리가 더 인상되면 수신 자금이 더욱 늘어날 것으로 보고 있다. 시장은 올해 한은이 1.75% 안팎까지 금리를 추가 인상할 것으로 관측하고 있다. 다만 금융당국의 고강도 가계대출 규제에 대출금리가 기준금리 인상폭보다 더 오르는 것이 부담이다.한은에 따르면 지난해 12월 기준 신규취급액 기준 은행 저축성 수신금리는 연 1.70%로, 2019년 6월(1.79%) 이후 가장 높았다. 순수저축성예금 금리도 1.67%로 2019년 7월(1.71%) 이후 최고치를 기록했다. 같은 기간 대출금리는 3.25%를 기록, 예대금리차는 1.55%로 집계됐다. 이는 전월대비 0.11%p 줄어든 수준이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
-        <v>66</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>"빚으로 겨우 버티는데 숨통 좀 트이나"…오늘부터 인뱅도 연3%·1억원 빌려준다</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004921362?sid=101</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>코로나19 장기화로 자영업자 대출수요 크게 늘어2년새 자영업자 23%↑·가계 15%↑지난달 6일 저녁 9시 서울 신당동 백학시장에서 자영업자들이 식당·카페 등의 영업시간을 오후 9시까지로 하는 현행 사회적 거리두기에 반발하며 점등시위를 하고 있다. [김호영 기자] 코로나19 영향 등으로 빚으로 연명하는 자영업자가 급격하게 증가한 가운데 오늘부터 인터넷전문은행들이 잇따라 개인사업자 대출을 선보인다. 14일 금융권에 따르면 토스뱅크는 오늘부터 인터넷 전문은행 중 처음으로 개인사업자 대출을 시작한다. 실제 사업을 영위하는 자영업자와 소상공인 등 개인사업자가 주 대상이다.최저금리는 연 3% 초중반(변동금리), 최대한도는 1억원이다. 토스뱅크는 대출 신청부터 실행까지의 전 과정을 비대면, 무보증·무담보로 진행한다. 상환 방식은 원리금 균등 상환과 만기일시상환 중 선택 가능하며 중도상환수수료는 없다.케이뱅크도 다음달께 '개인사업자 운전자금 대출' 상품을 내놓을 예정이고, 카카오뱅크는 올해 하반기에 개인사업자 대상 소호(SOHO) 대출을 출시할 계획이다.한편 코로나19 장기화 등으로 가계대출 보다 개인사업자 대출 수요가 더 급격히 늘어나고 있는 것으로 나타났다.국회 강민국 의원이 금융감독원으로부터 받은 6개 시중은행(KB국민·신한·우리·하나·SC·씨티은행)의 대출 자료를 분석한 결과에 따르면 지난해 말 기준 개인사업자대출 규모는 221만 3000건, 259조 3000억원으로 집계됐다. 코로나19 팬데믹 전인 2019년 말과 비교하면 건수는 58.6%, 규모는 23.1% 급증했다. 이 기간 가계대출은 건수 4.9%, 규모 15.6%의 증가세를 보였다. 지난해 금융당국이 강력한 총량 관리를 펼친 가계대출 보다 개인사업자대출 증가세가 더 가팔랐다는 얘기다. [자료 = 강민국 의원실] 금융위원회 관계자는 "일반적으로 사업자대출이 늘어나 시설 투자나 추가 고용에 사용됐다면 경제에 긍정적으로 작용하지만 한계 사업자들에게 흘러 들어가고 있다면 더 큰 위기를 초래할 수 있다"면서 "자영업자들의 상황을 정확하게 진단하기 위한 경영·재무 미시분석 작업을 하고 있다"고 말했다.강민국 의원은 "개인사업자대출 증가세는 자영업자들이 대출에 의존해 사업을 운영하고 있을 개연성이 크다는 것"이라며 "경기가 어렵다는 것을 시사한다"며 정부에 면밀한 실태 파악과 대책 마련을 요구했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>성탄 선물로 받은 DNA 자가검사키트 결과…"청천벽력, 친부 아냐"</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/003/0010981334?sid=104</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>기사내용 요약DNA 검사 결과 생물학적 친딸 아님 밝혀져30년 전 인공 수정 수술 과정서 실수 발생해DNA 자가검사키트 보급…유사 소송 잇따라[서울=뉴시스] 최근 유전자(DNA) 자가 검사 키트 결과 생물학적 가족이 아니라는 사실이 밝혀진 하비 가족의 모습. (출처 : 트위터) 2022.02.04. *재판매 및 DB 금지[서울=뉴시스]송재민 인턴 기자 = 부모가 크리스마스 선물로 '재미 삼아' 건넨 유전자(DNA) 자가 진단 키트로 딸의 '출생의 비밀'이 밝혀지면서 한 가족의 악몽이 시작됐다. 인공수정(IVF) 시술 과정에서 발생한 실수로 28년 동안 기른 딸이 친딸이 아니라는 사실이 밝혀졌기 때문이다.3일(현지시간) 미국 ABC 방송, 데일리 비스트 등 외신에 따르면 미국 오하이오주에 사는 마이크 하비와 지니 하비는 1991년 숨마 애크런 시티 병원에서 IVF 시술을 받고 딸 제시카를 낳았다.약 30여 년이 흐른 지난해 제시카는 크리스마스를 맞아 이탈리아로 여행을 계획했다. 이에 이탈리아 출신인 아버지 마이크는 제시카에게 앤시스트리 닷컴의 자가 DNA 진단 키트를 선물하며, 이탈리아에 사는 먼 친척들을 찾아볼 것을 권했다.하지만 DNA 검사 결과 제시카는 자신에게 이탈리아 유전자가 전혀 섞이지 않았다는 사실을 알게 됐다. 또 제시카와 아버지 마이크 역시 생물학적으로 부녀 사이가 아니라는 결과를 받았다.이를 믿을 수 없었던 제시카와 마이크는 다른 병원에서 DNA 친자 검사를 받았으며, 둘 사이에 아무런 유전적 관계가 없다는 같은 검사 결과를 받았다.이에 제시카는 자신의 DNA '족보'를 추적, 생물학적 아버지를 찾아낼 수 있었다. 해당 남성은 1991년 같은 병원의 같은 의사인 니콜라스 스퍼토스에게 IVF를 시도한 적 있다고 설명했다.마이크는 지난 2일 기자회견을 통해 병원과 의사에 대해 의료 과실, 사전 동의 부족 등을 이유로 소송을 제기했다고 밝혔다.마이크는 "잠에서 깨보니 다른 누군가의 삶을 사는 듯하다"며 "현실이라고 믿었던 것이 사실이 아니었음을 알게 됐을 때 느끼는 감정을 설명하기가 매우 어렵다"고 했다. 이어 "남편이자 아버지로서, 가족이 고통스러워하는 것을 지켜보는 일이 너무 힘들다"고 덧붙였다.이어 "제시카에게 이탈리아 뿌리를 찾아주기 위해 학창 시절 이탈리아어를 배우게 했다"며 "친할머니와 이탈리아어로 대화하게 했었다"고 밝혔다.이에 대해 병원 측은 성명을 통해 "이번 의혹을 심각하게 받아들인다"며 "가족에게 미칠 충격을 이해한다"고 했다. 그러면서 "시간이 많이 흘러 정보가 많이 남아있지는 않지만, 가족 변호사들과 함께 다음 단계를 진행할 예정이다"고 밝혔다.그러나 하비 가족 변호사인 애덤 울프는 이미 7개월 전 해당 병원과 스피로스 박사에게 의료 기록과 고소장 초안을 보냈지만, 그동안 병원 측에서 아무런 연락을 받지 못했다고 주장했다. 울프 변호사는 그동안 수천 명의 IVF 산업 피해자들을 대리해왔다고 밝히며, IVF 산업에 더 많은 규제가 필요하다고 지적했다. 그러면서 IVF 산업이 "황량한 서부(Wild West)" 시대와 같다고 비판했다.최근 미국에서는 집에서도 간편하게 유전자 검사를 할 수 있는 키트가 인기를 끌면서 소송이 잇따르고 있다. 이에 DNA 검사기 회사 '23앤미'의 포장에 "예상치 못한 혈연관계를 알게 될 수도 있다"며 "흔한 일은 아니지만, 이는 당신과 가족에게 영향이 미칠 수 있다"는 경고문을 볼 수 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2022.02.05.</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>30년 기른 딸이 핏줄 아니라니, 유전자 자가진단키트 선물이 악몽으로</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/081/0003249448?sid=104</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>30년 가까이 정성껏 길러 딸 제시카를 시집까지 보냈는데 지난해 성탄 선물로 유전자 자가진단 키트를 건넸다가 친딸이 아니란 사실을 확인하게 된 마이크와 지니 부부는 얼마나 황당하고 놀랐을까?마이크와 지니 하비 제공부모는 딸이 서른 번째 생일을 이탈리아에서 맞겠다니까 먼 친척과의 혈연 관계를 확인해보라고 지난해 성탄 선물로 유전자(DNA) 자가진단 키트를 건넸다. 우리에게도 제법 낯 익은 앤시스트리 닷컴의 키트였다. 딸은 아버지의 이탈리아 혈통을 이어받은 것으로 철석같이 믿고 있었는데 자가진단 결과는 뜻밖이었다. 이탈리아 핏줄 대신 잉글랜드와 아일랜드, 웨일스, 독일 핏줄이 섞인 것으로 나왔다.악몽의 시작이었다. 30년 가까이 금지옥엽 길러 시집까지 보낸 딸이 아버지의 핏줄이 아닌 것으로 드러났다. 알고보니 인공수정(IVF) 시술을 한 병원이 다른 남성의 정자를 대신 수정시킨 것으로 드러나 부모는 병원을 상대로 소송을 제기하게 됐다.1992년 오하이오주 숨마 애크런 시티 병원에서 딸 제시카를 낳은 마이크와 지니 하비가 사연의 주인공이라고 영국 BBC가 4일(이하 현지시간) 전했다. 미국 매체와 방송들에는 이틀 전쯤 알려진 내용이었다. 제시카가 고교에서 이탈리아어를 배우도록 했고, 할머니와는 이탈리아어로만 얘기를 나누도록 교육시킬 정도로 자신의 핏줄임을 확신했던 마이클로선 어처구니도 없고 황당하기도 한 자가진단 결과였다.다른 유전자 검사업체에 의뢰했는데도 마이크와 제시카가 한 핏줄일 가능성은 0이란 야속한 답이 돌아왔다.우여곡절 끝에 가족들은 제시카의 친아버지를 찾아냈다. 하비 부부와 비슷하게 1991년에 같은 병원의 같은 의사 니콜라스 스퍼토스의 도움을 받아 IVF 시도를 했지만 임신에 실패했던 친아버지의 정자가 마이크의 정자 대신 수정된 사실이 확인됐다.마이크는 지난 2일 기자회견 자리에서 “잠에서 깨어보니 다른 누군가의 삶을 살고 있는 느낌이었다. 남편이자 아버지로서 가족들이 고통에 빠진 것을 바라보는 일은 참으로 힘겹다. 현실이 통째로 당신이 믿던 대로가 아님을 깨닫는 일은 설명하기 힘들다”고 털어놓았다. 제시카는 친아버지를 직접 만나 얘기도 나눴는데 무엇보다 그가 자식이 있었음을 뒤늦게라도 알게 된 것을 기뻐했다고 전했다.병원 측은 성명을 통해 “이런 의심이 제기된 것을 심각하게 받아들이고 있다. 가족에게 상당한 충격일 것을 이해한다. 시간이 많이 흘러 아주 제한된 정보 밖에 없지만 우리는 가족을 대변하는 변호인과 협력해 다음 단계를 밟겠다 ”고 밝혔다.그러나 하비 가족의 변호사는 병원과 스퍼토스 박사에 대한 광범위한 의료 기록과 소장 초안을 7개월 전에 보냈는데 그동안 만남 제의도 없었고 병원 측이 독자적인 검사도 벌이지 않았다고 주장했는데 나중에 병원 측은 두 가지 사실을 모두 인정했다.미국에서는 이렇게 집에서도 간편하게 유전자 검사를 할 수 있는 키트가 인기를 끌면서 소송이 잇따르고 있다. 지난해 성탄과 연말연시 휴가에 하비네와 비슷하게 DNA 검사를 해보고 충격적인 결과에 놀란 이들이 이달 들어 잇따라 소송에 나설 것이라고 애덤 울프 변호사는 털어놓기도 했다. 제법 인기 있는 ‘23andMe’의 자가진단 키트 포장에는 고객들이 “예상치 못한 혈연 관계를 알게 될 수도 있다. 흔치 않지만 이런 발견 때문에 당신과 가족에게 영향이 미칠 수 있다”는 경고문이 붙여져 있을 정도다.울프 변호사는 IVF 산업에 더 많은 규제가 필요하다고 지적하면서 이 분야가 “황량한 서부(Wild West)” 시대와 같다고 단언했다.지난해에도 캘리포니아주의 한 커플이 2019년 딸이 전혀 외모가 닮지 않아 확인했더니 클리닉의 IVF 시술 과정에 실수가 일어난 사실을 확인해 친딸을 돌려주기로 한 일이 있었다. 물론 이 커플은 클리닉을 상대로 소송을 제기했다.30년 가까이 친딸로 알고 제시카를 양육한 지니는 “결코 상상하지도 못했던 트라우마”라며 “우리 가족에게나, 의심조차 하지 않는 수많은 가족에게나 성탄 선물 하나가 우리 삶을 송두리째 바꿔놓았다”고 안타까워했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
-        <v>69</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>인터넷은행 3사, 올해 개인사업자 대출 상품 출시</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/052/0001701420?sid=101</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>인터넷 전문은행 3사가 올해 잇따라 개인사업자 대출 상품을 출시합니다.토스뱅크는 내일(14일) 인터넷 전문은행 중 최초로 개인사업자 대출을 출시합니다.자영업자와 소상공인 등 개인사업자가 대상이며, 최저금리는 연 3% 초중반, 최대한도는 1억 원입니다.케이뱅크는 최근 올해 1분기 중 '개인사업자 운전자금 대출' 상품을 출시하기로 했습니다.케이뱅크는 먼저 신용보증재단과 협력해 보증 기반 상품을 출시하고, 순차적으로 신용 기반 상품을 내놓을 예정입니다.카카오뱅크는 올해 하반기에 개인사업자 대상  대출을 출시할 예정입니다.※ '당신의 제보가 뉴스가 됩니다'[카카오톡] YTN 검색해 채널 추가[전화] 02-398-8585[메일] social@ytn.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>IT업계 "디지털 인재 직접 키운다"… 클라우드·AI 전문가 애지중지</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002719258?sid=105</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>데이타솔루션, AI분석 최다 채용디지털컨설팅 전문가 특화 계획도포스코ICT 채용연계형 교육 강화가비아, 27일까지 9개 부문 공채올초 포스코ICT에 입사한 신입사원들이 교육을 받고 있다.   포스코ICT 제공    디지털 기술에 대한 수요가 늘면서 인재부족 현상이 심화된 가운데 IT업계가 채용, 채용연계형 교육·인턴십, 대학·특성화고 연계 교육 등 인재 양성과 채용에 박차를 가하고 있다. 기업들은 신년 들어 조직개편을 통해 클라우드, AI(인공지능), 데이터 관련 조직을 강화하고 전문 인재 영입에 사활을 걸고 있다. 데이타솔루션은 클라우드, 빅데이터, AI분석 서비스 중심으로 조직개편을 단행하고 창사 이래 최대 규모 채용에 나선다고 7일 밝혔다. 가장 눈에 띄는 부분은 클라우드사업부문 신설이다. 2019년부터 클라우드 사업에 투자해 온 이 회사는 각 사업본부에 흩어져 있던 클라우드 관련 팀을 통합해 별도 사업부문을 신설했다. 이를 통해 데이터, 인프라, 서비스에 더해 클라우드를 사업의 한 축으로 키운다는 전략이다. 클라우드사업부문은 쿠버네티스 기반의 컨테이너 운영환경과 클라우드 네이티브 애플리케이션 개발·배포 서비스를 제공할 예정이다. 특히 고객의 디지털 전환 전략을 뒷받침하는 컨설팅 전문가 조직으로 특화할 계획이다.서비스사업부문은 20여년간 해온 공공서비스 구축 노하우를 기반으로 민간부문으로 사업을 확장한다. 인프라사업부문은 기존 서버·데스크톱 가상화와 함께 네트워크 가상화로 확대한다. 자체 포털솔루션을 업그레이드하고 영업도 강화한다. 데이터&amp;어낼리틱스사업부문은 빅데이터 분석 및 AI 모델링 기술을 바탕으로 AI예측모델 기획부터 관리까지 전 과정을 제공하는 MAaaS(관리형 분석서비스)를 제공한다. 데이타솔루션은 조직개편과 함께 개발자, 아키텍트, 분석가 등 대규모 실무인력 채용에 나선다. 각 분야의 전문가뿐 아니라 관련 실력을 키우고자 하는 이들도 채용해 자체 직업훈련을 통해 실무인재로 양성할 예정이다. 이병도 데이타솔루션 클라우드사업부문장은 "쿠버네티스나 클라우드에 경험이 없는 개발자들도 쿠버네티스 플랫폼 구축부터 클라우드 아키텍팅, 마이크로서비스 아키텍처 컨설팅까지 클라우드 기술과 노하우를 익히고 현장경험을 쌓도록 돕겠다"고 말했다.포스코ICT는 채용 연계형 교육, 다쏘시스템코리아는 채용 연계형 인턴십 프로그램을 통해 인재 확보에 나섰다. 포스코ICT는 지난해부터 IT 전문교육 기관인 비트컴퓨터와 운영하고 잇는 '청년 IT전문가 아카데미'를 확대할 계획이다. 교육생들은 포스코ICT의 지원을 받아 비트교육센터에서 6개월간 무료로 자바, 데이터베이스 개발 등 소프트웨어 교육을 받는다. 훈련수당과 중식비도 받으면서 실력을 키운 수료자들에게는 포스코ICT 입사 기회가 주어진다. 회사는 현재 2기생 25명을 대상으로 교육 중으로, 3기 생도 이달중 모집해 3월부터 교육할 예정이다. 공채를 통해 대규모 인력을 한꺼번에 뽑고 나서 입사 후 직무교육을 하는 이전의 방식과 달리, 모집부문을 세분화해 전문기관과 협업해 교육한 후 선발하는 수시채용을 함으로써 회사와 취업자 모두의 만족도를 높이는 것. 이 회사는 대학 재학생, 지역대학 출신 등을 대상으로 한 인턴십 프로그램도 운영하고 있다. 다쏘시스템코리아는 2016년부터 채용연계형 인턴십 과정을 도입해, 상·하반기로 나눠 신입 인재를 발굴해 채용으로 연결하고 있다. 올해 상반기 대상자는 6일까지 접수를 받아 서류, 과제, 인터뷰를 거쳐 최종 선발한다. 합격자는 3월 중순부터 약 3개월간 인턴십 프로그램에 참여해 다쏘시스템코리아 본사에서 컨설턴트 수준의 교육과 현장 업무를 경험하게 된다. 인턴십 수료 후에는 심사를 거쳐 직무 적합도에 따라 영업과 기술영업 정규직 전환 기회가 주어진다. 다쏘시스템코리아는 정부, 공공기관, 대학 등과 광범위한 협력관계를 맺고 대학생, 특성화고 학생 등을 대상으로 한 교육활동도 펼치고 있다. 가비아는 이달 27일까지 올해 들어 가장 큰 규모의 신입사원 채용에 나선다. 백엔드·프론트엔드 개발, 시스템 엔지니어, 클라우드 인프라 엔지니어, 마케팅, 보안관제 등 9개 부문 인재를 뽑을 예정이다. 합격자는 5월 중 입사하게 된다.인재관리의 중요성이 커지면서 관련 기업에 대한 투자와 M&amp;A도 활발하다. 기업용 SaaS(SW서비스) 기업 비즈니스온커뮤니케이션은 통합인력관리 SaaS 솔루션 기업 시프티를 280억원에 인수한다고 4일 발표했다. 시프티는 SK네트웍스, 미래에셋, 롯데쇼핑, 현대오일뱅크 등의 대기업과 카카오, 쿠팡, 토스, 배달의민족 등 15만개 기업을 고객사로 둔 인력관리 기업이다. 비즈니스온 측은 "시프티 인수를 통해 재무 영역에서 HR(인력관리)까지 기업용 SaaS 영역을 확대할 계획"이라고 밝혔다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
-        <v>71</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2022.02.06.</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>LG엔솔 청약 흥행에 지난달 KB증권 MTS 이용자 업계 1위</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012961021?sid=101</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>카카오페이증권도 이달 MTS 오픈…경쟁 심화 예상주식투자 (CG)[연합뉴스TV 제공](서울=연합뉴스) 채새롬 기자 = 지난달 KB증권의 MTS(모바일트레이딩시스템) 이용자 수가 LG에너지솔루션 청약 흥행에 힘입어 기존 1위인 키움증권을 넘어선 것으로 나타났다.    6일 빅데이터 플랫폼 기업 아이지에이웍스의 모바일인덱스에 따르면 지난달 KB증권 MTS 'M-able(마블)'의 MAU(월간 활성 이용자 수)는 404만7천259명이었다.    이는 기존 MTS 1위인 키움증권 영웅문S(302만9천250명)를 비롯해 미래에셋증권(256만932명), 삼성증권 mPoP(249만5천281명), 한국투자증권(239만4천483명) 등을 제친 것이다.     한 달 전인 작년 12월만 하더라도 KB증권 MTS 이용자 수는 210만1천517명으로 키움증권, 미래에셋증권 등의 MTS 이용자 수보다 적었다.    그러나 1월 역대급 공모주인 LG에너지솔루션 청약을 계기로 상장 대표 주관사를 맡았던 KB증권 MTS 이용자 수가 2배로 뛰면서 순위가 뒤바뀌었다.     KB증권은 LG에너지솔루션 청약에 참여한 KB증권 개인 고객 수가 213만명으로, 전체 청약 참여 고객의 48%가 몰렸다고 밝힌 바 있다. 이중 101만명은 신규 고객이다.    KB증권 관계자는 "LG에너지솔루션 공모주 청약 열풍으로 이용고객이 전월 대비 약 2배 수준으로 증가했다"며 "KB증권만의 비대면 고객관리 서비스를 통해 이번 LG에너지솔루션으로 처음 KB증권을 이용한 고객에게 새로운 경험을 제공하고 KB증권에서의 거래를 지속해서 유지하겠다"고 말했다.     같은 기간 상장 공동 주관사를 맡은 신한금융투자 MTS의 MAU도 112만1천907명에서 191만3천340명으로, 대신증권 MTS의 MAU도 41만7천282명에서 90만4천544명으로 뛰었다.     새해 MTS 경쟁은 더욱 치열해질 전망이다.    후발주자인 토스증권, 카카오페이증권이 '간편한 UI(사용자 인터페이스)'를 무기로 거세게 도전하고 있다.    토스증권이 밝힌 자사 증권 서비스 MAU는 지난달 기준 230만명으로, 이미 기존 증권사와 비교했을 때 뒤지지 않는 수준이다.     토스증권은 새해 들어 국내 주식 투자종목에 상장지수펀드(ETF), 상장지수증권(ETN) 등 상장지수상품을 추가하는 등 대규모로 모바일트레이딩시스템(MTS)을 업데이트했고, 올해 상반기 중 국내 시간외 거래, 해외주식 소수점 거래 서비스를 도입할 예정이다.    카카오페이증권은 현재 사전 예약자를 대상으로 MTS 베타 서비스를 제공 중이며, 이달 중 전체 사용자를 대상으로 베타 서비스를 제공할 예정이다.     별도의 앱 없이 카카오페이앱 내에서 MTS에 바로 연동이 되고, 이용자들에게 친숙한 카카오 캐릭터들이 활용됐다는 것이 강점이다. 카카오페이증권 MTS는 카카오톡과의 연결성도 점차 강화할 계획이다.    증권사들은 MZ세대(1980년대초∼2000년대초 출생)를 공략하기 위한 간편 MTS로 대응 중이다.    편리하고 직관적인 투자를 선호하는 MZ세대와 모바일트레이딩시스템(MTS), 홈트레이딩시스템(HTS) 사용에 어려움을 느끼는 초보 투자자를 위한 별도의 MTS다.     삼성증권의 '오투(O2)'가 작년 6월, KB증권의 '마블 미니'가 작년 8월 출시됐고, 유진투자증권도 이달 3일 간편 MTS 유투를 선보였다.     srchae@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>우아한테크코스 "네카라쿠배 꽃길만 걷자"</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005040475?sid=101</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>배민 개발자 교육 프로그램…일부 경쟁률 18대 11기 IT기업 취업률 95% 달해우아한테크코스 수강생들이 강의를 듣고 있다.카카오, 네이버파이낸셜, 라인, 쿠팡, 우아한형제들. 최근 IT 업계 취업 준비생들이 가고 싶은 회사를 묶어 부르는 ‘네카라쿠배’에 해당하는 회사들이다. 여기에 당근마켓, 야놀자, 토스에 삼성전자까지. 프로그래밍을 배우는 이들이라면 누구나 취업하고 싶어하는 이 회사들의 개발자를 배출한 교육과정이 있다. 배달의민족(배민)을 운영하는 우아한형제들이 만든 ‘우아한테크코스’다. 대기업부터 스타트업까지 개발자 인력난이 심회되고 있는 가운데 배민의 교육 프로그램이 실무형 우수 개발인력의 산실로 부상하고 있다.7일 우아한형제들에 따르면 이달부터 10개월 간 진행되는 우아한테크코스 4기의 경쟁률은 웹 백엔드 과정 약 18대 1, 웹 프론트엔드 과정 15대 1을 기록했다. 웹 백엔드는 데이터베이스(DB), 서버 등의 구성과 최적화와 관련된 개발 영역이며 지난해 3기부터 추가된 웹 프론트엔드 과정은 사용자에게 보이는 웹 디자인의 작동 등과 관련돼 있는 분야다. 올해는 웹 백엔드 과정에 총 1487명이 지원해 81명을 선발했고 40명을 뽑은 웹 프론트엔드 과정에는 총 593명이 지원했다는 설명이다.우아한형제들은 2019년부터 프로그래밍을 배워 개발자의 삶을 살고 싶은 이들을 대상으로 우아한테크코스를 시작했다. IT 개발자 인력난 문제 해결과 업계 전반에 필요한 우수 개발인력 양성을 위해서였다. 개발자로 취업하고 싶은 사람들을 위한 일종의 직업 전문학교인 셈이다. 약 10개월간 진행되는 교육 과정의 강의료 전액은 우아한형제들이 지원한다. 지금까지 총 3기의 수료생을 배출했으며 이번에 4기 교육이 시작된 것이다.우아한테크코스 수강생들이 기념사진을 촬영하고 있다.그동안의 성과도 두드러진다. 45명이 수료한 1기는 우아한형제들을 포함해 쿠팡, 카카오, 카카오페이, 네이버파이낸셜, 위메프, 마이리얼트립, 야놀자 등 국내 IT 기업 취업에 성공하며 취업률 약 95%를 기록했다. 2기는 50명이 수료했으며 취업률은 96%에 달했다. 취업한 회사도 삼성전자, 쿠팡, 카카오, 라인, 카카오엔터프라이즈 등 IT 대기업부터 마이리얼트립, 백패커, 드리머리 등 유망 스타트업까지 범위가 넓어졌다. 지난해 11월 말 교육을 마친 3기도 현재 웹 백엔드 과정 취업률 73%, 웹 프론트엔드 과정 취업률 80%를 기록하고 있다.이 같은 성과에 대해 우아한형제들은 현업에서 기대하는 실무 역량과 대학교 등에서 배우는 프로그래밍 지식 간 차이가 크다는 점에 주목해 기업에서 바로 일할 수 있는 실무형 개발 역량 갖추도록 프로그램 구성한 것이 주효했다고 보고 있다. 수강생들도 프로그래밍 현장에서 실제 업무를 수행하고 있는 재직자의 피드백을 받아 현장 맞춤형 교육이 가능하다는 점을 우아한테크코스의 장점으로 꼽는다. 교육 프로그램은 프로그래밍 기본에서 시작해 웹 프로그래밍, 팀 프로젝트, 웹 프로그래밍 심화의 4단계 커리큘럼을 거친다. 또한 단계별 프로그래밍 미션 수행과 더불어 글쓰기와 발표도 진행해 현업에서 필요한 커뮤니케이션 역량까지 갖출 수 있도록 운영하고 있다. 우아한테크코스 관계자는 "무한한 잠재 역량을 가진 예비 개발자들이 실제 산업 현장에서 우수한 개발 인력으로 성장할 수 있도록 앞으로도 관련 교육 프로그램을 더욱 고도화해 나갈 것"이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표, 이사회 의장 재선임</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/417/0000781845?sid=101</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표./사진=토스뱅크홍민택 토스뱅크 대표가 이사회 의장으로 재선임됐다.토스뱅크는 전날 열린 이사회에서 홍 대표를 만장일치로 이사회 의장으로 재선임했다고 4일 밝혔다. 이사회에선 홍 대표를 의장으로 선임함으로써 은행의 책임 경영을 강화하고 효율적으로 이사회를 운영하겠다는 공감대를 형성했다.사외이사로는 서승원 전 중소기업중앙회 상근부회장이 재선임됐다. 이사회 의장과 선임 사외이사는 관련 법령에 따라 매년 선임된다. 임기는 이날부터 2023년 정기 주주총회까지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
-        <v>74</v>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>"입사하고 싶은 대기업 1위 삼성전자, 2위 카카오"</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/082/0001141133?sid=101</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>삼성전자가 가장 입사하고 싶은 기업에 올랐다. 커리어테크 플랫폼 사람인은 성인남녀 2264명을 대상으로 ‘입사하고 싶은 대기업’에 대해 조사한 결과, 삼성전자(20.7%)가 1위를 차지했다.다음으로 카카오(12.6%), 네이버(8.2%)가 각각 2위와 3위로 뒤를 이었다. 현대자동차(6.2%) CJ제일제당(4.3%), 한국전력공사(3.8%), LG전자(3.4%), 우아한형제들(3%), 한국가스공사(3%), SK하이닉스(3%) 등의 순이었다.성별로 살펴보면, 여성은 삼성전자(19.8%), 카카오(16.3%), 네이버(11.1%), CJ제일제당(6.1%), 우아한형제들(3.9%), LG전자(3.7%), 한국전력공사(3.5%), 토스(2.6%), 당근마켓(2.4%), 한국토지주택공사(2.4%) 등의 순으로 주요 IT 기업이 상위권에 다수 포함됐다.남성 응답자들은 삼성전자(21.7%), 현대자동차(10.3%), 카카오(8.6%), 네이버(5%), 한국가스공사(4.4%), 한국전력공사(4.1%), SK하이닉스(3.9%), 한국토지주택공사(3.5%), LG전자(3.1%), 포스코(3%) 순으로 꼽아, 전통적인 대기업과 공기업이 강세를 보였다.전체 응답자들이 해당 기업을 선택한 가장 큰 이유는 높은 연봉(25.7%)이 1위를 차지햇다. 이어 '사내복지·복리후생(19.6%), '회사 비전, 성장 가능성'(17.8%), 정년보장 등 안정성(14.3%), '대외적 평판 등 기업 이미지'(5.4%), '자기계발 등 커리어 향상 지원'(4.8%) 등의 이유를 들었다.해당 기업을 선택한 이유는 기업별로 차이가 있었다. 삼성전자, 현대자동차, SK하이닉스를 선택한 응답자들은 '높은 연봉'을 강조했다. 반면 카카오, 네이버, CJ제일제당, LG전자, 우아한형제들을 선택한 응답자들은 '사내복지·복리후생'을 우선시 했다. 또 한국전력공사, 한국가스공사를 선택한 응답자들은 '정년보장 등 안정성'을 선택의 이유로 꼽았다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
-        <v>75</v>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>신한, 메타버스 플랫폼 구축…'넥스트 모바일뱅킹' 주도한다</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004018201?sid=101</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>빅테크에 맞서 차세대 금융 속도전AI 펀드 서비스···은행·카드로 확대서울 중구에 있는 신한금융 본점. 사진 제공=신한금융[서울경제] 신한금융지주가 인공지능(AI) 투자 자문 계열사를 통한 자체 메타버스(3차원 가상 세계) 플랫폼 구축에 나선다. 모바일뱅킹 부문에서 카카오뱅크 등 빅테크에 한 발 뒤지자 모바일뱅킹의 다음 단계가 될 수 있는 메타버스에서만큼은 ‘퍼스트 무버 효과'를 선점하겠다는 의지로 풀이된다.13일 신한금융에 따르면 신한에이아이(AI)는 지난해 말부터 투자 플랫폼 ‘메타베스트(가칭)’ 개발을 추진하고 있다. 배진수 신한AI 대표는 서울경제에 “B2C(기업과 소비자 간 거래) 플랫폼으로 갈지 C2C(소비자와 소비자 간 거래)로 할지, 전체를 메타버스로 구현할지, 메타버스 기술이 일정 부분만 들어갈지 등 여러 콘셉트를 놓고 논의하고 있다”고 밝혔다.B2C라면 보다 적극적인 투자 상품 판매가 이뤄질 것으로 전망된다. 가령 나를 닮은 아바타가 현실 세계과 가상 세계를 넘나들며 AI가 자산 배분을 한 펀드 등 투자 상품을 체험하거나 실제로 투자를 할 수도 있을 것으로 보인다. 추후 은행·카드·보험 등 신한금융 계열사 상품을 메타버스 내에서 판매할 수도 있다.신한금융은 주요 금융지주 중 메타버스 분야에 가장 적극적인 모습이다. 핵심 계열사인 신한은행도 메타버스 전문기업 핏펀즈와 메타버스 플랫폼 구축을 준비하고 있다. 신한은행은 지분 교환으로 혈맹을 맺은 KT와도 메타버스 협력 방안을 모색하고 있다.신한금융을 비롯한 전통 금융사는 최근 몇 년 사이 금융 업무의 모바일화 흐름에 민첩하게 대응하지 못한 것이 사실이다. 그 사이 카카오뱅크·토스 등은 직관적인 유저인터페이스(UI) 등으로 고객을 사로잡았다. 이에 모바일뱅킹 다음의 ‘차세대 금융’이 될 수 있는 메타버스에서 승기를 잡기 위해 나선 것으로 풀이된다. 네이버의 제페토 등 기존 메타버스 플랫폼을 이용할 경우 이용자의 행동 패턴 등 구체적인 데이터를 확보하는 것이 어려우므로 자체 플랫폼을 통해 관련 데이터를 축적하려는 의도도 숨어 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
-        <v>76</v>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>[매경CEO 특강] 박재준 앤톡 대표 / 한양대서 강연</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004921644?sid=102</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>이직률·검색빈도…기업성과 분석 새 잣대 마련 박재준 앤톡 대표는 최근 한양대에서 열린 매경CEO 특강에서 "데이터 생태계를 자신만의 시각으로 해석하고 통합하는 과정이 중요하다"며 "차별적인 데이터 분석 관점을 가지라"고 조언했다.연세대 경영학과를 졸업하고 미국 컬럼비아대에서 경영학 석사(MBA)를 받은 박 대표는 외국계 경영컨설팅 회사 언스트앤드영(Ernst &amp; Young)의 금융사업본부 전략팀에서 5년간 컨설팅 업무를 수행하고 2015년 앤톡을 설립했다. 앤톡은 빅데이터 기술을 기반으로 기업을 분석하는 핀테크 스타트업으로 한국사회투자, 우리금융지주, KB금융지주 등의 고객사에 기업 분석 플랫폼을 제공하고 있다.앤톡의 대표 상품은 허블 데이터베이스(Hubble Database) 서비스다. 박 대표는 "허블 우주 망원경이 미지의 별들을 발견한 것처럼 알려지지 않은 별과 같은 기업들을 빅데이터를 통해 발굴해 내겠다는 포부를 갖고 시작했다"고 강조했다. 허블 데이터베이스는 국내 100만여 개 기업의 데이터를 자동으로 추적해 관리하고 분석한다. 금융감독원 전자공시시스템(DART)이 5만여 개 상장 업체의 금융 정보를 관리하는 점을 감안하면 앤톡이 보유한 비상장 및 스타트업을 포함한 100만여 개 법인 데이터는 엄청난 분량이다. 허블 데이터베이스는 중소기업 데이터 인프라스트럭처 부재로 어려움을 겪는 공공기관, 금융기관, 투자기관의 고민을 해결했다. 중소기업에 여신(대출) 서비스를 공급하는 비은행권의 경우 중소기업 신용평가에 어려움이 있었지만 허블 데이터베이스의 인공지능(AI) 분석을 통해 우량 기업과 부실 기업을 분별해낼 수 있다. 앤톡이 금융 정보가 불충분한 중소기업에 대한 데이터 인프라를 구축할 수 있었던 것은 비금융 대안적 데이터에 집중했기 때문이다. 비금융 대안적 데이터는 이직률, 검색 빈도, 수상 이력, 지식재산권 등록 추이, 서버 반응 속도 등 전통적인 재무 데이터에서 벗어나 기업 성과에 대한 보다 정확하고 적시적인 분석을 가능하게 해준다. 박 대표는 "비금융 데이터 추적을 자동화하고 이를 바탕으로 회사의 성장 잠재력을 정량적으로 진단하는 시스템을 구축했다"고 설명했다. 그는 "토스, 당근마켓, 배달의민족 등 정상 궤도를 달리는 기업의 과거 데이터를 분석해 성공 경로를 추출하고 해당 경로와 비슷한 길을 걷고 있는 기업들을 역으로 찾아내고 있다"고 덧붙였다.앤톡은 로보어드바이저로 출발했다. 로보어드바이저는 빅데이터 분석 및 인공지능 기술에 기반한 투자 자문 프로그램이다. 일반 로보어드바이저 회사는 데이터 분석 알고리즘 개발에 공을 들이고, 원천 데이터는 외부에서 구매하거나 가져온다. 박 대표는 "투자 자문을 하는 데 기반이 되는 원천 데이터를 직접 수집하고 검증하는 역량이 필요하다고 판단해 지난 3년간 빅데이터 전문성을 축적했다"고 말했다. 그는 "앞으로 데이터를 통해 사회적 가치를 조명하는 노력이 중요해질 것"이라며 허블 데이터베이스의 기술력을 사회적 경제와 ESG 경영(환경·책임·투명경영)에 접목한 사례를 소개했다. 앤톡은 서울대 경제학과와 협업해 기업의 사회적 가치를 정량적으로 측정하는 알고리즘을 설계했다. 박 대표는 창업을 꿈꾸는 학생들에게 "창업 전에 먼저 취업을 해서 경험과 역량을 쌓아 보는 것이 중요하다"고 전했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>"역마진까지 각오"…카카오뱅크 주담대 '파격조건' 지속가능할까?</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/293/0000038038?sid=105</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>15일 오전 카카오뱅크 여의도 오피스에서 온라인으로 진행된 카카오뱅크 프레스톡(기자간담회)에서 주택담보대출 관련 질의응답하고 있다. 사진 왼쪽부터 백희정 주택담보대출 서비스셀 팀장, 송호근 주택담보대출 스튜디오 팀장, 황은재 PR팀장.(사진=카카오뱅크)카카오뱅크가 한시적이지만 중도상환수수료가 없는 주택담보대출(주담대)을 내놨다. 대출금리도 여타 시중은행보다 약 1%p 낮다. 장기적으로 지속 가능한 조건인지는 미지수다. 수익성 합리화와 건전성 확보 등을 이유로 혜택을 재조정하는 건 손쉽다.윤호영 카카오뱅크 대표이사는 15일 온라인 기자간담회를 열고 "2017년 7월 카카오뱅크 오픈 때 확인하셨던 편리한 신용대출의 경험을 이제는 주택담보대출서도 경험할 수 있을 것"이라고 말했다.중도상환수수료 및 금리 정책은 '유동적'오는 22일 출시 예정인 카카오뱅크 주택담보대출은 'KB시세' 기준 9억원 이하 수도권(서울‧경기‧인천) 소재 아파트를 대상으로 신규 주택구입 자금, 기존 주택담보대출 대환, 생활안정, 전월세보증금반환 대출을 취급한다. 대출 가능 최대 금액은 6억3000만원이다.특히 올해 말까지 중도상환수수료를 100% 면제한다. 기존 시중은행들은 차주의 중도상환 시 발생하는 비용 손실을 보전하기 위해 최대 1.5% 수준의 중도상환수수료를 매기고 있다. 카카오뱅크가 중도상환수수료를 포기하는 건 비용 지출을 감수하겠다는 뜻이다. 다만 '대출 고객의 행태'에 따라서 연장하겠다는 조건을 붙였다.송호근 카카오뱅크 주택담보대출 스튜디오 팀장은 "대출을 취급하고나서 한달 이내 심지어 당일날 중도상환을 해버릴 경우 역마진 정도가 큰데 그렇게 되는 고객이 분명 있을 것"이라며 "면제정책을 하는 건 대부분 고객은 그렇지 않을 거라는 가정에 근거하고, 우려했던 고객행태가 많이 보이지 않는다는 확신이 들면 연장해나갈 계획이다"라고 설명했다.현 시점에서 금리 경쟁력도 상당하다. 카카오뱅크 주담대의 대출 금리는 최저 2.989%(변동금리)로, 이달 10일 기준 시중은행의 변동금리(3.58~5.23%) 대비 최소 0.5%p 최대 1.7%p 낮다. 변동금리형은 6개월마다 대출금리가 바뀐다. 은행은 대출금리 중 업무원가와 목표이익률 등을 더한 가산금리를 조정할 수 있다.인터넷전문은행이 모객을 위해 초기에 파격조건을 제시하고 점진적으로 혜택을 축소하는 패턴은 이어지고 있다. 토스뱅크의 경우 대중교통 이용에 대한 체크카드 캐시백 혜택을 300원에서 100원으로 줄였다. 카카오뱅크는 지난해 중저신용자 유입을 이유로 신용대출 가산금리를 시중은행 중 가장 크게 올린 바 있다.이날 기자간담회에서 금리 관련 질의를 받은 카카오뱅크는 타 시중은행보다 낮은 주담대 금리를 유지하겠다고 약속했다. 송 팀장은 "최근 시중의 기준금리들이 자주 변동하고 여러가지 규제, 시장환경, 경쟁환경에 따라 우대금리 등 금리정책이 많이 바뀌어서 조심스럽다"며 "어떤 상품을 선택하느냐와 만기, 한도에 따라 금리 차등이 있기에 특정한 금리수준을 말씀드리기보다는 타행보다 평균적으로 낮을 것이라는 정책을 유지하겠다는 답변을 드린다"고 했다.카카오 공동체답게 서비스 접근성은 '안정적'모태가 IT(정보기술)기업답게 카카오뱅크 주담대는 서비스 접근성에 공을 들였다. 대출 신청부터 조회‧실행까지 카카오톡에서 대화를 하듯 이용할 수 있다.카카오뱅크 주담대의 모바일 인터페이스는 금융 모바일 애플리케이션에서 일반화된 페이지 전환형이 아닌 룰베이스(Rule Based) 챗봇에 기반한 대화형 인터페이스다. 고객이 주택담보대출을 신청하면 카카오뱅크의 챗봇과 고객의 대화창이 열리며 고객이 정보를 입력하면 한도 조회가 이뤄지고, 서류 제출, 대출 심사, 대출 실행까지 대화창에서 진행된다. 기존 대화를 찾아보면서 대출 진행 상황, 대출 심사 단계 등을 한 눈에 확인할 수 있고 다음 단계에 대한 준비도 가능하다.백희정 카카오뱅크 주택담보대출 서비스셀 팀장은 "주택 구입은 생애 가장 큰 투자이자 설레는 경험이지만 주택담보대출의 규모와 성격상 고객의 긴장감도 크다"며 "영업점을 통한 대면에서 오는 심리적 안도감을 모바일 앱 화면으로 구현하기 위한 방안으로 대화형 인터페이스를 채택했다"고 말했다.카카오뱅크 주담대 안내 이미지(사진=카카오뱅크)실제 대출을 신청하면 챗봇의 안내에 따라 담보인정비율(LTV), 총부채상환비율(DTI), 총부채원리금상환비율(DSR) 조건을 반영한 대출 한도와 금리가 산출된다. 소득 수준을 달리 입력할 경우 대출 한도와 금리 변화도 확인할 수 있다. 대출 서류 제출 부담은 최소화하고자 했다. 부동산 매매 계약서는 사진 촬영해 제출하면 된다. 나머지 대출에 필요한 서류들은 고객 동의하에 카카오뱅크가 유관 기관을 연결해 직접 확인한다.소유권 이전 등기가 필요한 주택구입자금 대출은 카카오뱅크와 협약을 맺은 법무사가 잔금 지급일에 고객을 찾아간다. 법무사에 대한 정보도 챗봇을 통해 안내한다. 소유권 이전이 필요치 않은 기존 주택구입자금 대환 대출, 전세자금 반환 대출, 생활안정자금 대출은 전자등기를 통해 비대면으로 대출 절차를 완료한다.서비스의 안정성도 자신했다. 송 팀장은 "(지난해 전월세대출 지연 이슈를)경험했기 때문에 이번에는 CBT 등을 통해 완벽하게 보완했다"며 "인력은 시중은행에서 최소 3년 이상 많게는 15~20년 주담대를 하셨던 분들 위주로 채용했기 때문에 접수 물량 대비 두 배 정도를 여유롭게 할 수 있도록 준비를 해놨다"고 강조했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
-        <v>78</v>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>[뉴스줌인]은행, "우리도 토스·카카오처럼"...앱 혁신 대대적 예고</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002998323?sid=101</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>주요 시중은행들이 대대적 앱 혁신을 준비하는 것은 금융·비금융 서비스를 모두 하나의 플랫폼에서 편리하게 사용하고 싶어하는 MZ세대 요구가 강해졌기 때문이다. 토스, 카카오뱅크 등 주요 빅테크와 인터넷전문은행 앱 월간활성사용자(MAU) 대비 은행 앱이 현저하게 낮은 수준에 머물고 있다는 위기의식이 작용했다.월간활성사용자(MAU) 상위 금융 앱은 토스(약 1400만명), 카카오뱅크(약 1250만명), 카카오페이(약 2150만명)이다. 국민은행 KB스타뱅킹 900만명, 신한 쏠 858만명으로 격차가 상당하다. 비대면 디지털 금융 수요가 계속 증가하고 인터넷전문은행과 빅테크 앱을 핵심 금융 플랫폼으로 사용하는 경향이 짙어지고 있어 더 이상 격차를 두고 볼 수 없는 위기에 직면했다.위기를 타개하기 위해 신한은행은 올해 추진하는 핵심 디지털 사업 중 하나로 쏠 앱 전면 개편 '뉴 앱 프로젝트'를 추진한다. 원점에서 은행 앱을 다시 설계해 서비스하는 수준으로 대대적 변화를 꾀한다.핵심은 은행 중심이 아닌 사용자 중심 개편이다. 인터넷전문은행이나 빅테크 플랫폼 대비 사용자 불만이 컸던 사항 중심으로 사용자경험(UX)을 개선하기로 했다. 사용자 개개인에 최적화한 맞춤형 화면을 구현하기 위해 UI·UX를 재설계한다.인공지능(AI), 빅데이터를 적극 활용해 사용자 풋프린트를 분석하고 이를 기반으로 한 초개인화 서비스와 마케팅도 함께 준비하기로 했다. AI 챗봇 등 기존 보유한 솔루션을 고도화하고 이를 서비스에 녹여내 더 쉽고 직관적으로 원하는 기능을 이용할 수 있는 신기술 서비스도 함께 선보일 방침이다.NH농협은행은 '올원뱅크'를 종합 생활금융 플랫폼으로 전환하고 MZ세대 고객을 유인할만한 쉬운 금융 서비스로 재무장하는 것을 목표로 잡았다. 내년 상반기를 목표로 새로운 올원뱅크를 선보일 계획이다.우선 MZ세대를 유인하기 위해 NH멤버스 포인트를 금·은 투자에 활용할 수 있도록 서비스를 구현하기로 했다. 비대면 금융상품을 확대 적용하고 NH페이, QR·바코드 송금·결제, 모바일 제증명서 발급, 비대면 화상상담 등을 신설해 인터넷전문은행 수준의 혁신 편의 서비스와 상품을 대거 선보인다.NH투자·카드·보험 등 농협 금융계열사 핵심 상품·서비스를 개인화해 노출하고 해당 앱으로 쉽게 이동할 수 있도록 올원뱅크가 NH금융 허브 역할도 맡게 된다. 이를 위해 NH원패스 기반의 자동로그인과 간편가입 연계 기능을 지원한다.시스템 아키텍처도 정비한다. 신규 서비스를 빠르게 개발·적용할 수 있도록 클라우드 기반 MSA(마이크로 서비스 아키텍처)를 적용해 효율성을 높인다.우리금융그룹은 MZ세대에 특화한 플랫폼 개발을 준비하고 있다. 대학생 사용자가 많은 '위비뱅크'와 별개로 은행·증권·카드 등 기존 금융 서비스 외에 MZ세대가 흥미로워 하는 디지털자산까지 포괄하는 방안을 검토하고 있다.우리금융은 지난해 11월 MZ세대 특화 플랫폼 TF를 출범하고 다양한 아이디어를 모으고 있다. 아직 증권사 인수가 구체화되지 않은 만큼 그룹 변화와 맞물려 특화 플랫폼 준비에 속도가 붙을 것으로 보인다.시중은행 한 관계자는 “은행 앱이 빅테크 앱이나 인터넷전문은행 앱만큼 로그인, 송금·이체 등 기본 금융 서비스 기능이 상당히 편리해졌지만 아직도 은행 앱은 불편하고 무겁다는 고정관념이 크다”며 “금융을 중심으로 유통, 생활, 디지털 등 다양한 생활 영역을 아우르는 종합 생활금융 플랫폼으로 진화하는 과정에서 핀테크를 뛰어넘을 만한 혁신을 보여주는 것이 목표”라고 말했다.[표] 주요 시중은행 차세대 앱 프로젝트 추진 현황</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
-        <v>79</v>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>"자영업자 숨통 트이나"…토스 최저 연3%대 1억 대출 나온다</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/009/0004917103?sid=101</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>인터넷전문은행 중 첫 출시카뱅·케뱅도 상반기 선보일듯인터넷전문은행 토스뱅크가 이달 중 개인사업자 전용 대출을 출시한다. 최저금리는 연 3%대 초·중반, 한도는 1억원 수준이다. 규제, 불황 등으로 가계대출 신규 취급이 어려워지면서 토스뱅크를 필두로 올해 인터넷은행들의 기업대출 시장 진출이 본격화될 것으로 전망된다.3일 금융권에 따르면 토스뱅크는 무보증·무담보 개인사업자 신용대출 상품을 이달 중순께 선보인다. 소상공인을 위한 운전자금대출이다. 대출 한도는 1인당 1억원 안팎의 범위 내에서 확정될 예정이다. 최저금리는 연 3%대 초·중반으로 예상된다. 연 소득 1000만원 이상, 사업기간 1년 이상 사업자가 대상이다. 개별 사업자들 금리는 토스뱅크 신용평가모형과 카드 매출·현금영수증 데이터 등 매출 증빙 자료 등을 종합적으로 활용해 정해진다.대출 과정은 전면 비대면이다. 토스뱅크 관계자는 "실질 상환 능력을 면밀히 심사할 것"이라며 "사업자금 외에 부동산, 주식 등 투자자금으로 유용되지 않도록 검증 체계도 마련하겠다"고 말했다. 토스뱅크는 지역신용보증재단 중앙회와 제휴해 온택트 특례 보증 상품도 출시할 계획이다.다른 인터넷은행들도 연내 개인사업자 대출 신상품 출시를 계획하고 있다. 카카오뱅크는 올 상반기 주택담보대출 상품을 선보이고 개인사업자 대출 상품을 내놓을 예정이다. 케이뱅크도 개인사업자 대출 상품 출시를 준비하고 있다.인터넷은행이 잇달아 기업대출 시장 진출을 모색하는 건 이들 상품군이 가계대출, 그중에서도 신용대출 위주로 구성돼 있는데, 올해 시장 전망이 밝지 않기 때문이다. 대출 규제와 금리 상승, 부동산 불황 등 여파다. 한국은행이 집계한 은행권 전체 가계대출 잔액은 이미 지난해 12월부터 감소 전환했다. 지난해 12월 말 기준 은행의 가계대출 잔액은 1060조7000억원으로 전월 대비 2000억원 줄었다. 금융권은 올해도 감소 추세가 이어질 가능성이 높다고 본다. 당국 정책도 기업대출에 친화적이다. 금융당국은 최근 은행법 시행령과 감독규정 개정안을 입법예고하며 인터넷은행의 예대율 규제를 일반 은행과 동일하게 바꾸기로 했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>인터넷은행, 개인사업자대출 진출 본격화…토스뱅크 14일 첫발</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/001/0012979800?sid=101</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>케이뱅크 1분기·카카오뱅크는 하반기 출시 목표가계대출 중심 여신 포트폴리오에 한계…상품 다변화로 활로 모색토스뱅크[연합뉴스 자료사진]    (서울=연합뉴스) 오주현 기자 = 인터넷 전문은행 3사(카카오·케이·토스뱅크)가 올해 잇따라 개인사업자 대출 상품을 출시한다.    금융당국의 가계대출 총량 관리 기조가 강화되며 가계대출 중심의 여신 포트폴리오에 한계를 느낀 인터넷 전문은행들이 상품 다변화를 통해 활로를 모색하는 것이다.    13일 금융권에 따르면 토스뱅크는 14일 인터넷 전문은행 중 최초로 개인사업자 대출을 출시한다.    실제 사업을 영위하는 자영업자와 소상공인 등 개인사업자가 대상이며, 최저금리는 연 3% 초중반(변동금리), 최대한도는 1억원이다.    토스뱅크는 대출 신청부터 실행까지의 전 과정을 비대면, 무보증·무담보로 진행한다. 대출자의 한도와 금리는 토스뱅크가 자체 개발한 신용평가모형(CSS)에 따라 소상공인에 특화된 기준을 반영해 결정한다.    상환 방식은 원리금 균등 상환, 만기일시상환 중 선택할 수 있으며 중도상환수수료는 무료다.인터넷 전문은행 케이뱅크ㆍ카카오뱅크(PG)[이태호 제작] 사진합성·일러스트    두 번째 주자는 케이뱅크가 될 전망이다. 케이뱅크는 최근 올해 1분기 중 '개인사업자 운전자금 대출' 상품을 출시하기로 가닥을 잡았다.    케이뱅크는 먼저 신용보증재단과 협력해 보증 기반 상품을 출시하고, 순차적으로 신용 기반 상품을 내놓을 예정이다.    케이뱅크는 지난해 초부터 기획, 정보기술(IT) 등 다양한 인력으로 구성된 전담팀을 구성해 상품 개발을 진행해왔다.    2017년부터 개인사업자 전용 생활자금대출 상품을 운영하며 쌓아온 데이터가 케이뱅크의 강점이다. 케이뱅크는 사업자의 매출 추이 등 경영·재무 관련 정보 활용을 확대해 신용평가모형을 차별화하겠다는 계획이다.    카카오뱅크는 올해 하반기에 개인사업자 대상 소호(SOHO) 대출을 출시할 예정이다.    윤호영 카카오뱅크 대표는 지난 9일 실적발표 콘퍼런스콜에서 "개인사업자용 수신, 대출 상품 두 가지를 동시에 론칭해 기업시장에 진출할 준비를 하고 있다"고 말했다.    카카오뱅크는 특히 개인 자금과 사업 자금의 구분이 어려운 소상공인이 직관적으로 각 계좌를 관리·운용할 수 있도록 하는 사용자환경(UI)을 개발하는 데 주안점을 두고 있다.    한 인터넷 은행 관계자는 "그동안 가계대출로만 이뤄진 대출 포트폴리오를 확대하기 위해 계속 준비해왔다"면서 "최근 금융당국이 관련 규제를 완화해 개인사업자 대출 상품 출시가 급물살을 탔다"고 전했다.     금융위원회는 지난달 인터넷 전문은행의 중소기업·개인사업자 대출 취급 활성화를 위해 예대율 체계·대면 거래 예외 규정을 정비한다고 밝혔다.     이에 따라 유예기간 3년을 거쳐 인터넷 은행에 일반은행과 동일한 예대율(은행의 예금 잔액에 대한 대출금 잔액의 비율) 규제를 적용하고, 기업 대출 심사 등에 필요한 현장 실사와 기업인 대면 거래를 허용하기로 했다.    viva5@yna.co.kr</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>2022.02.11.</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>[뉴스'까'페] ‘영업익 1조 클럽’ 입성한 키움증권…기대보다 걱정이 앞서는 이유는?</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/374/0000275120?sid=101</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>지난해도 열일한 '개미' 덕에…증권사 영업이익 1조원 시대지난해도 이어진 증시 유동성 덕분에 국내 증권사들이 '실적 파티'를 벌이고 있습니다. 단적으로, 지난해 영업이익이 1조 원을 돌파한 증권사만 키움증권과 미래에셋증권, 한국투자증권, 삼성증권, NH투자증권 등 5곳으로 올라섰습니다. 직전 해엔 미래에셋증권이 유일한 '1조 원 클럽' 멤버였습니다. 하지만 이같은 사상 최대 실적 잔치를 뒤로하고 올해는 벌써부터 증권업계 연말 성적표가 '좋지 않을 것'이란 전망이 나옵니다. 증시 거래대금 규모에 빨간불이 들어왔기 때문입니다. 전배승 이베스트투자증권 연구원은 "브로커리지(위탁매매) 수익 둔화가 지난 4분기에 이어 올해 1분기에도 이어질 가능성이 크다"면서 "자금 차입 여건 악화와 위험 회피로 대규모 개인 자금의 증시 재유입을 낙관하기 어려운 상황"이라고 내다봤습니다. 실제로 지난달 일평균 거래대금은 20조6541억원으로, 지난해 같은 달(42조1072억원)과 비교하면 반토막 수준입니다.증시 거래대금 급감 '비상'…수익다각화 '사활'예고된 악재의 충격파는 위탁매매 수익 의존도에 비례합니다. 대표적인 리테일 주식거래 점유율 1위 증권사 키움증권이 긴장할 수밖에 없는 이유입니다. 증시 거래대금 둔화가 실적과 주가에 직격탄이 될 수 있어섭니다. 여기에 경기 외적인 사업 환경도 녹록지 않습니다. 핀테크 증권사인 토스증권이 빠르게 시장 점유율을 확대 중인 가운데 카카오페이증권도 이달 중순부터 본격적인 주식거래 중개 서비스 시작을 예고했습니다. 리테일 주식거래 경쟁도 더 치열해질 수밖에 없어 보입니다. 앞서 정태준 유안타증권 연구원은 "올해 업황에서 가장 불리한 위치에 서있다고 판단한다"며 앞서 키움증권의 목표주가를 하향 조정하기도 했습니다.리테일 의존도를 낮출 수 있는 '치트키' 중 하나는 바로 종합금융투자사업자(종투사) 진출입니다. 키움증권도 종투사로 지정되면 지금과 달리 자기자본의 200%까지 일반 기업 및 헤지펀드 등에 신용공여를 할 수 있고 더 완화된 건전성 규제를 적용받을 수 있습니다. 더 큰 규모의 자본을 활용해 수수료 수익을 늘릴 수 있는 수익다각화 기회입니다. 하지만 기다림이 길어지고 있습니다. 키움증권은 지난해 9월 금융위원회에 종투사 인가를 신청했는데, 앞선 사업자들이 허가까지 2개월여 걸렸던 것과 비교하면 반년 가까이 지체되고 있습니다.더불어 이미 8개 종투사가 자리 잡은 만큼 키움증권이 '9번째 종투사'로서 어떤 경쟁력을 보여줄지에도 관심이 쏠립니다. 시장 포화에 종투사들이 나눠 먹을 기업금융 수요가 많지 않은 상황에서, 후발주자로서 키움증권의 자기자본 규모 열위와 높은 이자율 등은 한계로 작용할 수 있기 때문입니다. 키움증권 관계자는 "인가 후 기업 신용공여 한도가 늘어나는 만큼 기존 딜의 규모가 더 커질 것으로 예상해 준비하고 있다"면서, 다만 "프라임브로커리지(PBS) 등 신규 사업은 인가 후 바로 진출 보단 서두르지 않고 시장 상황에 따라 준비할 것"이라고 밝혔습니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>안면결제를 넘어 안면인증까지, 얼굴로 다 되는 세상 온다</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/138/0002118116?sid=105</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>[디지털데일리 이상일기자] 얼굴로 대부분의 금융 서비스를 이용할 수 있을 전망이다. 현재 편의점등에서 활용 가능한 안면인식 결제 서비스에 이어 안면인식기술을 활용한 비대면 실명확인 서비스를 제공하는 금융사가 점차 늘어날 전망이다.  앞서 금융당국은 혁신금융서비스 지정을 통해 안면인식 결제를 위한 얼굴정보 등록 시 본인확인 절차만으로도 등록이 가능하도록 규제특례를 부여해 고객 편의성을 강화했다. 이에 따라 2020년 4월부터 지난해 12월까지 총 5000여건의 결제가 안면인식을 통해 이루어졌다. 이어 안면인식을 활용한 비대면 실명확인 서비스가 순차적으로 서비스되기 시작했다. 안면인식 비대면 실명확인 서비스가 상용화되면 그동안 본인확인을 위해 스마트폰을 통한 영상통화를 해야 했던 번거로움이 없어진다. 단순히 스마트폰 카메라 촬영만으로 본인 인증이 가능해지는 셈이다. 이러한 기술이 상용화되면 비대면 채널 이용객 증가로 인해 CS채널을 가동해야 하는 금융사들의 업무 부담이 줄어들 것으로 전망된다. 케이뱅크, 카카오뱅크, 토스뱅크 등 100% 비대면으로 가입이 이뤄지는 인터넷전문은행의 경우 계좌 개설 및 앱 재 설치 시 일부 화상통화를 통해 본인 인증을 해야 하는 불편함이 있었다. 화상통화 시 고객의 장소와 시간에 대한 제약이 있었으며 금융사 입장에서도 고객 채널 중 일부를 가입 절차 확인 업무에 배당해야 하는 등 제약이 존재했다. 하지만 얼굴인식을 통해 본인 인증이 가능해지면 양 쪽 모두 번거롭고 불편한 절차가 생략되는 셈이다. 한화투자증권, KB증권, DGB대구은행, 부산은행 등이 이미 안면인식을 통한 비대면 실명확인 서비스를 시행 중이며 현재 서비스 개발에 나서고 있는 곳은 하나은행, 한국투자증권, 미래에셋증권, 신한카드, 토스뱅크, 토스증권 등이다.  계획대로라면 3월부터 신한카드의 서비스가 진행될 전망이다. 5월에는 한국투자증권,  6월에는 미래에셋증권이 서비스를 출시할 예정이다.토스뱅크와 증권도 관련 서비스를 준비 중이다.토스 관계자는 “상용화의 구체적인 시점에 대해선 확정이 어렵지만 현재 개발 및 테스트를 진행 중이다”라며 “일부 기술 적용과 관련해서는 당국과 확인을 거치고 있다. 비대면 실명확인시 사용되는 방법이, 필수기술 2가지에 권고기술 하나를 결합하게 되어 있는데, 토스는 필수 방식 중 하나를 대체하는 수단으로 준비 중”이라고 설명했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>토스뱅크, 이사회 의장으로 홍민택 대표 재선임</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/008/0004704057?sid=101</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>홍민택 토스뱅크 대표토스뱅크가 홍민택 대표이사를 이사회 의장으로 재선임했다. 토스뱅크는 지난 3일 오후 화상 회의로 진행한 정기 이사회를 통해 홍 대표를 이사회 의장으로 재선임했다고 4일 밝혔다.토스뱅크는 "대표이사를 이사회 의장으로 선임해 책임 경영을 도모하고, 이사회 구성원의 신뢰를 바탕으로 이사회를 효율적으로 운영하기 위해 홍 대표를 선임했다"고 밝혔다.한편 선임 사외이사로는 서승원 전 중소기업중앙회 상근부회장이 재선임됐다. 토스뱅크 이사회 의장과 선임 사외이사는 관련 법령에 따라 매년 선임된다. 임기는 지난 3일부터 2023년 정기 주주총회까지다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>[성공예감] 물적분할, 이래서 문제다! - 이상훈 경북대 법학전문대학원 교수, 유튜브《86번가》정광우 전 펀드매니저</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/056/0011205707?sid=101</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>■ 인터뷰 자료의 저작권은 KBS 라디오에 있습니다.    인용보도 시 출처를 밝혀주시기 바랍니다.■ 프로그램명 : 성공예감 김방희입니다■ 방송시간 : 2월 1일(화) 09:05-10:53 KBS1R FM 97.3 MHz■ 진행 : 김방희 소장 (생활경제연구소)■ 출연 : 이상훈 교수 (경북대학교 법학전문대학원), 정광우 (유튜브 《86번가》)- 과거 물적분할 후 상장 사례 살펴보면 기업 주가 측면에서 부정적인 경우 많아- 물적분할 시 주주총회 통한 지배권, 주식처분권 사라지며 주주가치 훼손 현실화- 물적분할 관해 문제의식 없었던 국내 상황... 주주 보호 의무가 있었다면 달랐을 것- LG화학의 경우, 사업부 매각/ 구조조정 등으로 자금 마련 가능했다- LG화학 물적분할의 핵심은 지배주주의 사익 추구와 이해 상충에 있어- 포스코의 주주환원 정책 근본적인 해법 안 돼- 대선후보들의 물적분할 정책... 기존 주주 우선 배려도 좋지만 근본적인 의무 규정 필요- 물적분할 전면 금지보다는 기간/ 용도를 제한 등 주주 보호 요건 설정이 필요◇김방희&gt; 오늘 설 당일입니다. 사적 모임도 최대 6명까지만 모일 수 있다 보니까 확실히 명절 분위기가 예전과는 다르죠. 예년 같으면 가족 친지들 두런두런 둘러앉아서 누구네 아파트값이 얼마나 올랐다. 또 어디에 투자하면 좋다더라. 별의별 얘기를 다 쏟아내는 재미가 있었죠. 그래서 저희 성공예감도 차례상 머리 민심을 가끔씩 전해드렸는데요. 코로나19 2년이 되다 보니까 이제는 좀 아득한 기억이 됐습니다. 뭐 같이 차례상 머리에 앉을 수가 있어야 말이죠. 이번 설에 이렇게 다들 모였다면 아마 화두에 오를 것 가운데 하나가 경제, 금융, 주식. 특히 주식에 대한 얘기일 겁니다. 그래서 2022년 이것이 궁금하다 오늘 주식시장에서는 자회사 상장을 염두에 두고 물적분할하는 게 주식시장에서 지금 최대 이슈로 떠올랐죠. 연초에 또 LG에너지솔루션이라는 기업공개 IPO 최대어가 등장하기도 하면서 이 이슈가 더 커지고 있는데요. 2021년만 놓고 보자면 우리 증시의 잔칫상에다가 찬물을 끼얹은 게 이런 물적분할 논란이 아니었나 싶습니다. 그래서 이 이슈를 좀 자세히 짚어드리겠고 해결 방안은 무엇일지 이것도 논의를 해보겠습니다. 아마 올 한 해 내내 이 문제가 거론될 테고 대선이 끝나고 나면 새 정부에서도 이 부분에 대한 대책이 나오지 않을까 그렇게 기대하고 있습니다. 86번가 유튜브 채널을 운영하는 정광우 유튜버, 지금은 저희 성공예감 식구가 됐습니다. 그리고 경북대학교 법학전문대학원 이상훈 교수님, 이렇게 두 분과 함께 얘기를 나누겠습니다. 두 분 어서 오십시오.◆이상훈&gt; 안녕하세요.◆정광우&gt; 안녕하십니까?◇김방희&gt; 새해 복 많이 받으시고요.◆정광우&gt; 새해 복 많이 받으십시오.◇김방희&gt; 물적분할이라는 용어도 익숙지 않았는데 벌써 우리 국민들 사이에서는 투자 피해가 속출하다 보니까 아주 익숙한 용어가 됐습니다. 그러니까 쉽게 얘기하면 회사의 경쟁력이 있는 사업부를 자회사로 만든 다음에 지분 일부 혹은 전부를 매각하는 방법으로 지배 구조를 변경하는 건데 일단 표면적으로는 사업 벌이려고 회사 일부를 떼내는 거니까 큰 문제가 없어 보이기도 하는데 왜 주주들은 피해가 극심하다고 반발하는 건지 이유를 하나씩 들어보죠.★별책부록 AI&gt; 토요일에 만나는 별책부록 AI예요. 오늘 저와 함께 물적분할에 대한 모든 것 같이 공부해 보아요. 첫 번째 키워드. 물적분할 후 상장 이것이 문제로다.◇김방희&gt; LG에너지솔루션은 LG화학이라는 모기업으로부터 떨어져 나와서 상장했고요. 사실은 이 회사 이전에도 물적분할 후에 상장한 사례들이 또 있었습니다. 어떤 사례들이 있었고 증시에서는 어떤 영향이 있었는지 우선 우리 정광우 씨가 한번 되짚어 봐 주시겠습니까?◆정광우&gt; 네, 제가 이제 크게 두 가지로 나누어서 말씀드릴 수 있을 것 같습니다. 이제 물적분할 후에 상장하지 않은 경우와 상장을 한 경우 이렇게 인데요. 상장하지 않았던 경우에는 이제 비핵심 자산을 분할한 후에 매각하는 구조조정의 일환으로 했던 경우가 있습니다. 그 사례가 해태제과가 아이스크림 사업을 분할한 이후에 빙그레 매각을 한 사례라든지 엘지 유플러스가 결제 쪽 PG 사업을 물적분할해서 토스에 매각한 경우가 있고요. 또 다른 사례로는 분할한 후에 파트너사를 찾아가지고서 합작 법인을 설립한 경우가 있습니다. SKC가 화학 사업을 물적분할한 이후에 지분의 49%를 이제 쿠웨이트 쪽에 매각한 적이 있고요. 그래서 이런 경우들은 비핵심 사업을 매각한 후에 핵심 사업에 투자하거나 혹은 좋은 파트너사를 모집함으로 인해서 기업 가치 증대 노력이 좀 있었던 사례라고 할 수 있고요.◇김방희&gt; 기업의 어떤 구조조정의 일환으로 사업부를 재편한 거고요?◆정광우&gt; 예, 그렇습니다. 그런데 그 물적분할한 후에 상장한 사례들은 결과가 좋지 않은 것들이 많았습니다. 제일 먼저 CJ E&amp;M하고 스튜디오드래곤인데요. 드라마 쪽을 떼가지고 물적분할 그 이후에 스튜디오드래곤이 상장을 했습니다. 그 이후에 보시면 CJ E&amp;M이 CJ 오쇼핑하고 합병을 했음에도 불구하고요. 그리고 오쇼핑이 합병 전에 시총이 거의 2조 가까이 됐음에도 불구하고 지금 E&amp;M의 시총이 3조 대, 그다음에 스튜디오드래곤도 3조대입니다. 그런데 스튜디오드래곤 보유 지분율이 원래 E&amp;M이 75%로 굉장히 높았습니다. 그런 점을 고려를 하면 그 차이가 좀 설명이 안 된다라는 말씀들이 많으시고 심지어는 두 기업의 시가총액이 역전을 당했었던 때도 있습니다. 장중 한때. 그리고 이제 지금 이번에 LG화학하고 LG에너지솔루션인데요. LG화학이 물적분할 발표한 게 지난 9월 16일인데 그때 주가가 5% 이상 하락을 했었고요. 아마 일부에서는 이게 별로 그렇게 그 투자자에게 손실을 주지 않은 것이 아니냐. 그렇게 생각을 하실 수도 있지만 사실 주식하는 입장에서는 상대적인 평가를 하게 됩니다. 우리나라에서 2차 전지 관련된 ETF 중에 1조 이상 되는 ETF가 두 개 있습니다. 코덱스하고 타이거가 있는데요. 둘 다 같은 기간 동안 1만 2000원 하던 게 2만 2000원까지 올랐습니다. 그런데 엘지화학은 빠진 것이죠. 오히려. 그래서 상대적인 비교를 하게 되면 참 좋았는데 LG화학은. 아마 이 물적분할이라는 이슈 때문에 상대적으로 그리고 절대적으로도 부진했다. 그렇게 좀 정리를 드릴 수 있을 것 같습니다.◇김방희&gt; 그러니까 구조조정 차원에서 경쟁력을 높인 경우도 있지만 증시 상장을 목적으로 자회사를 떼내는 식의 분할은 결과적으로 주가 하락 등을 불러온 예들이 많다는 걸 쭉 설명해 주셨는데 이상훈 교수님, 여러 가지 문제가 있겠지만 가장 핵심적인 문제는 뭐라고 보세요?◆이상훈&gt; 아무래도 주주가치 훼손이라고 봐야 되겠죠. 주가가 떨어진다는 거는 시장이 정상적이라고 우리가 받아들인다면 주식 가치 하락을 반영하는 거라고 봐야 되지 않겠습니까?◇김방희&gt; 그렇죠. 그런데 이론적으로 보자면 물적분할이라는 것도 자회사로 떨어내는 거고 자회사 주식을 어쨌든 모회사가 가지고 있는 거니까 떨어져야 될 특별한 이유, 그러니까 주주가치가 훼손돼야 될 이유가 이론적으로는 없는 거 아닙니까?◆이상훈&gt; 그게 이제 회사 중심으로 그래서 이제 법인의 계좌냐, 주주 계좌냐. 이 회사의 가치와 주주가치가 분리될 수 있다는 걸 우리가 이번에 많이 그걸 좀 혼동했다. 그거를 좀 깨우치게 되는 계기가 됐다고 이렇게 말씀드리겠고요. 그 회사의 가치는 회사 계좌에 있는 재산이 어디 가는 거 아니지 않느냐. 그 주식의 지분율만큼 가지고 있는데 뭐가 달라졌느냐, 이렇게 말할 수 있지만 주주의 입장에서 보면 원래 이게 구조조정에서 어디다 팔면 되는 거를 이렇게 정상적인 회사를 계속 물적분할해서 이렇게 가져가면 크게 두 가지 면에서 침해가 생깁니다. 하나는 원래 가만히 뒀더라면 또는 인적분할하고 원래 비교해야 되는데 인적분할을 했더라면 주주총회를 통해서 계속 주주권을 가질 수가 있거든요. 그걸 이제 지배권이라고 하는데요.◇김방희&gt; 주식 수는 달라져도 지분율은 유지되니까.◆이상훈&gt; 그렇죠 그리고 그 주주총회 자체가 물적분할하면 아예 없어지거든요. 그건 굉장히 큰 차이거든요. 그래서 의사결정에 참여하고 견제하고 감시할 수 있는 권한이 아예 없어진다. 그거는 나중에 경영진이 무슨 짓을 할 때 나중에 결국은 현금 흐름의 감소로 이어질 수 있기 때문에 그게 하나가 있고요. 그다음 두 번째는 주주권이 유지가 되면 주식을 처분하건 내가 언제 얼마에 팔아서 상장 차익을 회수할 수 있는 권리가 있는데 그게 다 몰수를 당하는 효과가 생기죠. 그래서 주총에서 의결권 그다음에 주식처분권, 이 두 가지가 없어진다.◇김방희&gt; 그런 점에서 사실상 주주가치 훼손이 현실화된다. 이런 말씀이신데 그런데 상장이라는 전제를 빼고 나면 만약에 LG에너지솔루션 예를 들면 배터리 사업을 키우기 위해서 분할한 다음 상장하지 않았다면 주주가치 훼손은 안 벌어지는 겁니까? 괜찮은 겁니까?◆이상훈&gt; 그렇게 보기는 어려울 것 같습니다. 물론 이제 상장하면 상장 차익이 좀 더 두드러지게 보이니까 그게 더 눈에 띄기는 하지만 비상장이더라도 예를 들면 LG화학 같은 경우에는 지금 주주총회 구성이 지배주주가 33, 일반 주주가 한 67~66 이렇거든요. 그런데 그게 LG화학의 대표이사가 단독 주주가 돼 버리거든요. 그렇게 되면 지배주주와 일반 주주의 권한이 100:0으로 바뀌는 거죠. 그럼 일체의 공시에서도 빠지고 예를 들면 주식을 판다고 그래도 이제 5% 공시에서도 빠지고 소송을 한다든지 주주총회에서 합병할 때 반대한다든지 반대매수청구권을 행사한다든지 특히 임원 선임, 배터리 부분의 성과 평가를 하는 데 가장 주주로서 할 수 있는 건 사실 임원 선임에서의 표결밖에 없거든요. 그런 게 모두 다 배제가 되고 비유를 드린다면 의회와 대통령이 이렇게 권력 균형하면서 공화정이었다가 이 황제가 모든 의회의 권한이 대통령한테 몰수되는, 그래서 이건 이제 이 회사법에서는 Corporate Democracy라는 회사 민주주의라는 표현을 쓰는데 그게 굉장히 좀 악화되는 면이 생긴다.◇김방희&gt; 민주주의의 취지에 위배된다. 그러면 지금 물적분할의 경우에 이런 논란이 컸으니까 인적분할 그러니까 수평적으로 다른 회사를 만드는데 기존의 주주가 똑같은 지분율을 가지는, 이 인적분할의 경우는 뭐 별 문제가 없는 겁니까?◆이상훈&gt; 저는 인적분할의 경우에는 일단 주주 구성이 유지되기 때문에 아까 제가 드린 그런 문제가 없고 상장 차익을 회수하는 면에서도 유상증자를 하면 거기에 참여를 하건 안 하건 자기 주식을 받기 때문에, 일단 받고 시작하기 때문에 주주권의 훼손이 전혀 생기지 않는다. 그런 차이가 있다. 그래서 그거를 물적분할이 우리가 주주가치를 훼손을 뭘 했냐고 할 때는 인적분할을 하면 됐는데 왜 안 했을까, 거기서 차이점이 바로, 그 차이점만큼이 주주가치 훼손이다. 이렇게 말할 수 있다. 이렇게 생각을 합니다.◇김방희&gt; 인적분할을 해도 충분했는데.◆이상훈&gt; 그게 그리고 정상이죠. 주주권을 몰수하는 거는 아까 정광우 유튜버께서 말씀하신 것처럼 어디다 전부 다 팔아버릴 때는 그게 편할 수 있죠. 아주 그런 상황에서 전제되는 것이지 이렇게 정상적으로 온 고잉하게 계속 회사를 끌고 가야 되는데 갑자기 주주총회 폐지하고 주주들이 주식 팔 수 있는 권리를 전부 몰수한다 그거는 정상적인 상황의 조치는 아니라고 봐야 되겠죠.◇김방희&gt; 인적분할이라는 게 실제 증시에서 벌어졌을 때는 물적분할과 다른 양상을 띕니까?◆정광우&gt; 네, 가장 최근 사례로 포스코 말씀드릴 수 있을 것 같습니다. 처음에 분할을 한다, 지주사 설립을 한다라는 소문이 기사로 났었을 때에는.◇김방희&gt; 지주사 체제로 재편하면서.◆정광우&gt; 네, 그때는 주가가 올랐습니다. 그때 이야기가 나왔던 것은 인적분할을 할 것이다라고 당연히 생각들을 했었는데 그 뒤에 보니까 물적분할이다라고 하니까 그때부터는 주가가 폭락을 했던 것입니다. 그래서 시장 반응만 딱 보셔도 어떻게 이 둘을 차별적으로 대하는지가 느껴지실 겁니다.◇김방희&gt; 이제 아까 실질적으로 개인 투자자들 소액 주주들의 의결권을 박탈하는 조치다 이런 말씀을 하셨는데 원래 경영진이라고 주주들의 이해를 대변하는 경영진들은 소액주주가 됐건 누가 됐건 주주들에 대한 보호 의무 같은 게 있는 거 아닙니까?◆이상훈&gt; 글쎄요, 아주 핵심을 말씀해 주셨는데요. 그게 지금 우리나라가 그게 지금 없다는 게 해석론이나 판례로 그렇게 돼 있어서 그게 핵심이죠. 사실 말씀하신 대로 그것만 이론상으로 완벽하게 된다면 회사를 어떻게 하든지간에 주주총회에서 하는 것보다 사실 뭐 플라톤 같은 더 현명한 정치인이 잘해줄 수도 있는 거거든요. 이론적으로는.◇김방희&gt; 그렇죠, 이론적으로.◆이상훈&gt; 그런데 전혀 그게, 그게 의무가 없다고 그래 버리면 그 부작용은 이루 말할 수가 없게 되고 그게 현실화된 게 지금 이런 문제다, 이렇게 말씀드릴 수 있습니다.◇김방희&gt; 그런데 법 전공하셨으니까 이런 법적인 허점이랄까 이런 게 기업들한테 악용될 수 있겠다. 이런 논의는 그간은 없었습니까?◆이상훈&gt; 사실은 제가 이거를 이제 외국에 유학 가서 공부를 해보니까 한국에서 왜 이렇게 뭐가 잘 안 되나 제 나름 생각해 보니까 미국하고 비교를 해보니까 딱 이거인 것 같더라고요. 그래서 제가 2008년에 돌아와서 이거에 관해서 처음 논문 쓰고 이게 전체 통설 판례가 바뀌어야 된다, 이렇게 주장을 했는데 지금 이제 14년째 됐는데 14년 동안 별 반응이 없다가 이제 우리 동학개미들이 이렇게 시장의 저변이 커지니까 이게 좀 주목을 갑자기 받아서 이렇게 된 거고요. 논의는 계속 이렇게 있었다. 이렇게 말할 수 있겠습니다.◇김방희&gt; 그러면 외국의 경우에는 주주들한테 모회사 혹은 모회사 경영진이 보호를 해주거나 혹은 이런 피해가 발생했을 때 보상해 주는 방안 같은 게 있습니까?◆이상훈&gt; 이것도 우리가 질문 자체가 보상이라는 거는 뭔가 피해를 입었어야 나오는 개념이거든요. 그러니까 원래는 피해를 입히면 아예 안 되기 때문에.◇김방희&gt; 안 되는 거고.◆이상훈&gt; 보호 의무가 있으면 이런 행위를 하면 안 되는 거고 그다음에 보상이라는 거는 손해배상, 돈으로 주든지 아니면 주식으로 주든지인데 돈으로 주는 거는 이제 그것도 의무가 있어야, 의무 위반이 돼야 손해배상이라는 게 있지 않겠습니까?◇김방희&gt; 그렇죠.◆이상훈&gt; 그리고 주식으로 주는 거는 아예 피해를 막기 위해서 자회사의 주식을 주는 건데 그게 이제 일본 같으면 그게 인적분할입니다. 물적분할한 다음에 그 주식을 주주들한테 다 나눠주면 그게 인적분할하고 똑같아지거든요.◇김방희&gt; 그렇죠, 그렇게 되는 거죠.◆이상훈&gt; 그래서 보상해 준다, 이런 거는 사실 의무가 전제가 돼야 가능한 얘기다.◇김방희&gt; 구글 같은 회사가 알파벳 같은 모기업들이 하나 상장해 있고 분할한다든지 해서 줄줄이 상장하는 예는 없다. 이런 지적도 많은데 그런 건 양국 차이가 문화적 차이입니까? 증시 현장의 관행 같은 겁니까?◆정광우&gt; 사실 이제 저희가 미국 증시에서 알파벳. 그러면 사실 알파벳이 또 유튜브라든지 그다음 모빌리티 쪽이라든지 다양한 쪽의 사업을 가지고 있는데. 만약에 알파벳이, 구글이 한국에 있었다라고 하면 구글 모빌리티, 구글 유튜브, 구글 뮤직, 전부 다 상장이 되어 있었을 거다라는 자조적인 이야기들을 하십니다. 그런데 이 문제 자체는 아마도 이게 아무리 모회사하고 자회사라고 하더라도 서로 간에 이해 상충이 발생할 수 있고 그 점을 해소하려면 사실 모회사가 100%를 자회사를 가지고 가거나 아니면 상장은 이제 모회사 하나로만 있어서 모든 주주의 권익이나 이런 부분들이 모회사 하나로 집중되는 것이 낫거든요. 그런데 우리의 경우에는 이 부분에서는 말씀해 주신 대로 이게 저희가 자산 시장이 발전해 온 양태가 다르다, 이렇게도 말씀하실 수도 있겠지만 기존에는 이런 부분에서 이해 상충이나 이런 부분들에 대해서 해소해야 된다라는 인식 자체가 없었던 그럼 점인 것 같습니다.◇김방희&gt; 문제의식 자체가 없었다. 알겠습니다.◆이상훈&gt; 제가 조금 말씀드리면 이해 상충을 해소한다는 것도 주주 보호 의무에서 파생되는 거거든요. 보호 의무가 없으면 이해 상충할 필요가 없습니다. 예를 들면 진행자님이랑 저랑 아무 의무 관계가 없으면 서로 이해 상충이 생기는 일은...◇김방희&gt; 발생할 여지도 없는 거죠.◆이상훈&gt; 아무 문제없는 거거든요. 그래서 구글이, 미국이 지주회사가 다 이렇게 가는 거에 대해서 몇 년 전에 공정위에서 연구한 결과를 보면 미국은 일단 이 주주 보호 의무가 있기 때문에 우리 정광우 유튜버님 말씀대로 이해 상충하는 걸 굉장히 리스크가 크다고 해서 이제 이렇게 안 하는 거고 그다음에 택스 혜택도 좀 있다. 이렇게 보통 얘기됩니다.◇김방희&gt; 우리의 경우는 그렇지 않아서 문제가 되는 건데요. 두 번째 이슈로 넘어가 보죠.★별책부록 AI&gt; 물적분할에 대한 모든 것. 두 번째 키워드, 물적분할은 무조건 다 나쁜가요?◇김방희&gt; 회사 측 논리입니다. 회사 측에서는 LG에너지솔루션을 하나 예로 들어보죠. 2차 전지, 이른바 전기차 등에 들어가는 배터리 사업을 세계적으로 크게 일으키려면 막대한 돈이 필요하고 그건 기존 주주들한테 유상증자를 하는 것만으로는 조달하기 힘들다. 회사 입장에서 회사의 성장을 위해서 불가피한 조치다, 이런 논리를 내세울 때가 많은데 이건 어떻게 봐야 됩니까?◆정광우&gt; 사실 LG화학의 사례만 봤을 때에는 제 개인적인 생각으로는 전혀 다른 방법이 없었다. 그런 생각이 들지가 않습니다.◇김방희&gt; 다른 방법이 있을 수 있다.◆정광우&gt; 네, 그렇습니다. 그러니까 가령 예를 들어서 물적분할이 아니라 인적분할을 한 이후에 지주회사 LG에서 그 에너지솔루션, 배터리 사업부가 증자할 때 참여를 했다면 그랬다면 이렇게까지 주가가 안 좋지 않았을 것으로 생각합니다. 왜냐하면 대주주가 이제 책임 있는 모습을 보이는 것이니까요. 그리고 또 한 가지는 LG화학이 기존의 다른 사업부들도 존재합니다. 그중에서 흔히 말하는 좌초자산 관련된 화학이나 이런 쪽 사업부들도 많이 있는데 정말로 배터리 쪽이 진심이라면 그런 다른 사업부들을 매각한다든지 아니면 그런 쪽을 이제 활용을 해가지고 일단 구조조정, 이런 것들을 통해서도 자금 마련이 가능하지 않았겠느냐라는 것이고요.이런 이야기를 왜 하느냐 하면 지금 LG화학이 오히려 배당을 늘렸거든요. 이게 무슨 말이냐 하면 원래 배당을 2000원 하던 회사가 이번에 물적분할을 하면서 사실 물적분할이 주주총회 통과하기에 조금 난이도가 높습니다. 왜냐하면 3분의 2 이상의 주주가 필요합니다. 찬성이. 그런데 이 찬성을 끌어내기 위해서 했던 방법이 뭐냐 하면 배당을 최소 1만 원 이상 하겠다. 5배로 올린 것이죠. 이것으로만 해도 매년 유출되는 자금이 8000억입니다. 그러면 이 자금들이 5년 치가 모인다라고 하면 사실 그 돈으로 우리가 물적분할해서 상장하지 않고도 투자금 마련이 가능했던 것이 아니냐. 그러면 결국은 배당이 늘어나면 좋은 사람은 누구냐 하면 지주회사 LG입장에서는 좋을 수 있는 부분이죠. 돈을 한 푼도 안 쓰고 지배력은 유지를 하면서 이게 다 가능하니까요. 그러니까 이게 일반 주주들이 불만이 튀어나올 수밖에 없었던 사례다, 그렇게 생각합니다.◆이상훈&gt; 저도 이 부분이 지금 핵심 질문이라고 생각되는데요. 그러니까 인적분할을 왜 그럼 안 했냐 하면 인적분할을 한 채로 유상증자를 하면 LG가 지분이 한 30% 되는데 자기 경영권을 유지하려면 그다음에 지주사 규제를 맞추려면 30%를 계속 유지해야 되기 때문에 자기도 돈을 넣어야 되거든요. 돈 넣기가 사실 싫은 거예요. 그게 이제 이 사안의 본질이고 돈을 넣기가 싫은 이유는 당장 투자 위험 부담도 있지만 주가가 상승하더라도 자기는 또 팔 수가 없거든요. 30% 유지하려면. 그러니까 그림에 떡이 된다 이거죠. 이게 이렇게 가면. 그래서 일반 주주들 주주권을 몰수해서 팔고서 이렇게 가는 구조로 한 것이기 때문에 일반 주주의 비용과 희생으로 지배주주의 어떤 사익 추구, 이해 상충, 이게 사안의 본질이다.◇김방희&gt; 다만 또 기업 혹은 이제 사실 정확히 얘기하면 기업의 최대 주주라고 할 수 있는 우리가 흔히 얘기하는 오너들 입장은 한국은 경영권 보호 조치가 미흡하다 차등 의결권 제도를 포함해서 30% 가지고 정말 경영권을 유지할 수 있느냐에 대해서 회의가 들 수도 있다. 또 아니면 아까 정광우 유튜버께서 다른 자금 조달 방법을 말씀해 주셨는데 그런 방법도 딱히 마땅치 않다. 여러 가지 미국에 있는 제도 중에 특정 사업을 담보로 한 자금 조달 방식들이 있는데 우리는 힘드니까 한미를 너무 같은 선상에서 보면 안 된다, 이런 주장도 있거든요.◆이상훈&gt; 저는 좀 말이 안 되는 것이다, 이렇게 생각하는데 그 Tracking Stocks, 국회 토론회 때도 얘기가 디스코드 됐는데.◇김방희&gt; 특정 사업부의 주식을 말하는 거죠.◆이상훈&gt; 그거는 이제 말이 안 되는 게 왜냐하면 그건 특정 사업부에서 주식을 거기에 현금 흐름만 추적하게 하려면 인적분할하면 되거든요. 그 사업부만 떼어내서. 그런데 그렇게 하면 지배권이 희석돼서 그게 싫어서 여기로 온 거기 때문에 Tracking Stocks이 없어서 물적분할을 했다. 이거는 일단 그 자체가 말이 안 된다고 보고요.◇김방희&gt; 앞뒤 자체가 안 맞는다.◆이상훈&gt; 그다음에 이제 경영권 보호가 우리나라는 안 된다 하는데 경영권 보호라는 말이 무슨 뜻인지부터 시작을 해야 된다고 봅니다. 경영권이라는 거는 지배주주가 있는 회사의 경우에는 지분율을 얘기하는 거거든요. 그러면 그런데 그걸 왜 정부가 법으로 보호를 해줍니까? 지분율이라는 건 자기가 원래 돈 주고 사야 되는 개념입니다. 그게 누구나 지분을 가지고 싶으면 자기 돈 내고 사는 게 원칙인데 지금 그게 싫어서 이렇게 일반 주주 희생시킨 거 아닙니까? 그다음에 지배주주가 없는 포스코 같은 분산 소유 구조라고 하면 경영진이 주주한테 CEO로, 대표이사로 선임될 수 있는 게 그게 경영권인데 그거는 주주한테 잘 보여서 표결을 계속 받아야 되는 것이고요.저는 조금 생각 고쳐야 된다고 보는 게 다른 거는 독점하면 안 좋고 다 경쟁을 유발하는 게 좋다. 이렇게 하는데 이상하게 경영권만큼은 독점시켜주고 그걸 마치 정부가 보호해야 될 대상으로. 경영권도 외국에서 회사법에서는 다 당연히 경쟁이 좋은 거고 경쟁을 활성화하게, 물론 보호라는 것도 이 경영권 보호는 미국에서 포이즌 필, 차등의결권 얘기하는데 포이즌 필 같은 것도 지배주주의 소유권을 보호한다, 이런 개념이 아니고 예를 들면 적대적 M&amp;A라고 해서 완전히 회사를 파토를 낸다든지 파탄을 낸다든지 이런 경우에 주주를 위해서 어떻게 주주 이익을 보호하는 차원에서 이게 나오는 개념이지 지배주주의 어떤 개인적인 사익을 보호해 주기 위해서 정부가 나서서 법으로 해 줘라. 그거는 전혀 근거가 없는 이야기다, 이렇게 봅니다.◇김방희&gt; 비상장회사의 가치를 어쨌든 많이 올리는 거니까 LG에너지솔루션 같은 경우도 모기업이나 혹은 모기업의 주주에게도 이론상은 어쨌든 자회사의 가치가 뛴 거니까 도움이 되지 않겠느냐. 그런 기대도 사실은 초반에는 있었던 거거든요. 물적분할이라는 게 막 이렇게 유행하기 전에는. 이건 어떻습니까?◆정광우&gt; 네, 사실 그게 꼭 분할을 하고 상장을 해야지만이 인정을 받을 수 있는 것이냐. 왜냐하면 아까도 말씀드렸던 알파벳, 지금 유튜브는 비상장이지만 그 가치를 인정을 받고 있고요. 그다음에 애플이 가지고 있는 앱스토어도 인정을 받고 있고 메타, 페이스북이죠. 여기 같은 경우도 인스타그램, 비상장이지만 다 가치를 제대로 받고 있거든요. 그래서 이 부분은 조금 이제 논점에서 제 생각에는 벗어난 것이 아닌가 생각합니다.◇김방희&gt; 만약에 기업들은 늘 이런 명분을 주식시장에 던지고 있기 때문에 만약에 자회 상장을 막는다고 그러면 물적분할 같은 걸 통한. 따로 떼서 해외에 직상장하는 방법들도 있으니까 미국에 상장할 수 있지 않겠느냐, 이런 주장에 대해서는 어떻게 보십니까? 이상훈 교수님.◆이상훈&gt; 두 가지 말씀을 좀 드리고 싶은데요. 일단 상장 자체가 본질은 아니다. 상장 여부가. 왜냐하면 우리가 요새 서학 게임이 많이 하신다고 하는 버크셔 해서웨이, 워런 버핏이라는 회사 보면 상장 주식, 그 회사 자체가 상장이고 밑에 상장 주식을 많이 가지고 있거든요. 코카콜라니 애플이니. 그런데 거기서 주주가치가 훼손된다거나 디스카운트되지 않지 않습니까? 그다음에 ETF도 보면 상장 주식 잔뜩 가지고 있는데 오히려 그 상장 주식을 수수료 내가면서 산단 말이에요. 디스카운트는 커녕. 그래서 이게 상장이 뭐가 문제거나 더블 카운팅, 중복 상장이 문제다, 이렇게 키워드를 뽑는 것 자체가 저는 잘못됐다고 보고요. 그게 문제는 아니고 그러면 그런 회사들은 설명을 못 하는 거죠.그래서 그럼 차이가 뭐냐. 그런 회사와 주가 떨어지는 회사의 차이는 뭐냐. 그건 주주 보호 의무가 있느냐. 워런 버핏이 과연 이해 상충이 있느냐. 없는 거지. 그런데 ETF 운영자가 과연 이해 상충이 있느냐. 괜히 주식 들고서 우리나라는 상장 주식 들고 있으면 주가가 안 나가는 이유는 그게 주가가 좋을 때 팔 수도 있고 주주를 위해서라고 그러면 팔 수도 있고 언제든 그렇게 활용을 할 수가 있어야 되는데 이 경영권, 총수일가 경영권 주식이면 그 주가가 아무리 올라도 상관이 없거든요. 일반 주주한테는 아무 그게 연결이 안 되기 때문에 거기서 오는 어떤 가치의 손상, 그거라고 일단 보기 때문에 상장 여부로 그렇게 질문하는 것 자체가 조금 본질이 조금 안 맞다. 예를 들면 상장 안 하는 대신에 포스코는 상장 안 한다고 그러지만 주주권을 자기가 다 가지고 있기... 회장에 갖게 되기 때문에 합병시키거나 주식 비상장인 채로 팔아버리면 그럼 어떻게 할 거냐 이거죠. 사실은 주주가치 훼손되기는 마찬가지거든요. 그래서 상장의 본질로 각도를 잡는 것 자체가 조금 문제가 있다. 그 말씀 하나 드리고요. 그다음 두 번째는 외국에 가면 잘 된다는 얘기도 외국은 아까 그 정광우 유튜버께서 말씀하신 대로 다 100%로 가져가지 이렇게 되면 이해 상충이나 소송 리스크나 그런 것 때문에 지금.◇김방희&gt; 그렇네요.◆이상훈&gt; 의회 그때 발표 때 어떤 분이 발표하신 자료 보면 미국은 이런 식으로 상장한 게 거의 0.5%인가 밖에 없다는 거 아닙니까? 일본도 6% 정도밖에 없고. 그래서 모자회사가 중복으로 상장된 경우가. 그래서 외국 가면 아마 자회사 주주들이 모회사하고 이렇게 이해 상충이 있어서 상장 그렇게 쉽게 받아줄 건지 저는 조금 지금 통계에 비춰봐서도 의문이 있습니다.◇김방희&gt; 알겠습니다.★별책부록 AI&gt; 물적분할에 대한 모든 것. 세 번째 키워드, 물적분할 후 상장. 그래서 어쩌면 좋죠?◇김방희&gt; 이제 대안을 모색해 볼 차례입니다. 정광우 유튜버 또 이상훈 경북대 법학전문대학원 교수님과 함께 사실 2020년서부터 2021년, 아마도 올해까지 우리 증시의 가장 큰 이슈가 될 물적분할에 대한 쟁점들을 논리적으로 따져보고 있습니다. '2022 이것이 궁금하다' 설 특집으로 함께하고 계신데요. 포스코 예를 아까 얘기해 주셨는데 일단 주주가 워낙 반발하고 주가가 떨어지니까 일종의 유화책이라고 그럴까요. 주주총회에서 다시 한번 논의한다는 얘기도 있었고 주주 환원 정책이라고 언론이 이름 붙인 것들을 좀 시행해보겠다. 이런 얘기도 나왔는데 이런 게 해법이 될 수 있습니까?◆정광우&gt; 제가 볼 때는 근본적인 해법이 전혀 안 된다라고 생각을 합니다. 좀 전에 교수님께서 말씀해 주셨듯이 사실은 이게 이번에 정관을 좀 변경을 해가지고서 만약에 그 철강 사업부를 다시 쪼갠 회사를 상장한다고 할 때에는 이거를 주총, 모회사에서 특별결의 사안으로 하겠다. 그러면 상장이 사실상 힘드니까 주주 권익이 보호되는 것 아니냐라고 말씀을 하시지만 사실 다양한 방법들이 있습니다. Pre-IPO 방법이나 진짜 다른 데서 투자받거나 아니면 합병을 상장해서 다른 데랑 시켜버리면 자동으로 상장이 되어버리는 거거든요. 그래서 이런 정관을 변경한다고 해서 될 수 있는 방법은 아니다라고 보고요. 오히려 이제 일부에서 제기하는 이번에 포스코가 만약에 정말로 지주사 체제를 제대로 갖추고 싶다고 하면 오히려 반대로 지금 포스코도 여러 가지 기업들이 다 상장이 되어 있습니다. 차라리 그것들을 모두 다 비상장으로 만들고 진심으로 포스코 홀딩스 체제를 가고 싶다면 딱 하나만 상장을 시키는 식으로 하겠다. 그런 해법을 내놓았다고 하면 아마도 시장이 여기에 대해 동의를 했을 것 같습니다. 그런데 지금 방안은 전혀 아니라고 생각합니다.◇김방희&gt; 이 교수님도 동의하십니까?◆이상훈&gt; 포스코 물적분할은 저는 개인적으로 아주 나쁘다 이렇게 봅니다. 이게 지금 지배주주가 아니기 때문에 괜찮다, 이렇게 보는 사람도 있는데 지배주주는 예를 들면 한 50~60% 가지고 있으면 주주권 몰수하는 게 나머지 한 3~40%밖에 아닌데 여기는 전문경영인이 하는 거기 때문에 100% 지금 주주권 다 가져가기 때문에 몰수하는 폭이 더 크다. 그다음에 이제 자사주 소각, 이런 유화책을 내놨는데 미국 같으면 그렇게 하면 오히려 그게 불법이 됩니다.◇김방희&gt; 그런가요? ◆이상훈&gt; 왜냐하면 주주의 의사결정권을 이렇게 약간 매수하는, 의사결정을 압박하는 거예요. 원래 소각은 당연히 해야 되는 건데 그걸 마치 물적분할표를 주면 나를 황제 시켜주면 해 줄게. 이렇게 하는 거는.◇김방희&gt; 일종의 연계를 시킨다.◆이상훈&gt; 주주를 압박하는 행위, 그렇게 하면 아주 나쁜 거라고 저는 보고요. 그다음에 지금 전체적인 트렌드가 순수 지주보다는 사업 지주가 아무래도 주가도 잘 나가고 그 사업을 뭔가 하는 게 좋다는 게 시장의 일반적인 걸로 알고 있는데 이건 완전 순수 지주로 만들어버리겠다는 거 아닙니까? 그래서 밑으로 다 내려 가지고. 그다음에 철강 사장도 선임권을 자기가 가지겠다는 게 되는데, 기존의 주주들이 하는 거를. 그러면 예를 들면 자기 대신에 중대재해법, 감옥 대신 갈 사람. 그만큼 충성심이 높은 사람. 이 사람 앉히면 이 사람은, 자기 인사권자는 이제 철강, 지주회장이 되지 주주가 아니거든요. 그럼 주주권에 거기서 희석이 일어나는 거죠. 주주권을 그만큼 몰수해 가는 효과가 생기기 때문에 포스코에서 철강의 비중을 생각할 때 주주의 선임권은 실효적이지 않더라도 존재 자체만으로 굉장히 상징적인 건데 그거를 이렇게 희석시킨다는 건 좀 문제가 많다.◇김방희&gt; 역시 주주가 훼손이라는 문제가 발생한다는 지적이신데 이런 일련의 물적분할들이 투자자들의 공분을 사다 보니까 대선 후보들 의외로 공약을 내놨어요. 너무 구체적인 사안이라서 안 내놓지 않나, 이런 생각도 있었는데 거래소도 방문하고 그러면서 이런 지적을 많이 받았던 모양입니다. 이건 어떻게 평가하시죠? 정광우 유튜버께서는 또 증시 분위기도 익숙하실 테니까 어떻게들 보고 있어요?◆정광우&gt; 일단 유력 양 후보 쪽에서 모두 다 대책을 내놓았고요. 일단 첫 번째로 이재명 후보 측의 경우에는 첫째로는 물적분할로 자회사 상장 시에 모회사 주주에게 우선 배정, 그다음에 두 번째로는 소액 주주들만의 다수결 도입, MOM이라고 저희가 하는 것. 그다음에 세 번째로는 이사회 의무를 명확히 규정을 하겠다라는 이야기를 했고요. 그다음에 윤석열 후보 측 경우에는 먼저 신사업 분할 상장 시에 기존 주주에게 신주 인수권을 부여를 하겠다. 그다음 두 번째로는 피인수기업 주주에게 주식매수청구권을 부여를 하겠다라고 이야기를 했습니다. 그런데 이 중에서는 저희가 환호하는 부분도 분명히 있고 또 어떤 부분에서는 이 정도로는 조금 약하다, 그런 부분도 좀 존재를 합니다. 조금 더 말씀을 그래서 드려보면 일단은 우선배정이나 MOM, 그다음 신주인수권, 이런 거는 없는 것보다는 분명히 낫습니다. 그런데.◇김방희&gt; 기존 주주를 우선 배려하는 거니까.◆정광우&gt; 네, 그렇습니다. 그런데 이런 식으로 문제가 있을 때 뭔가 하나하나를 리스트를 만들어서 권리를 보호해 주는 데는 한계가 있습니다. 왜냐하면 기업들은 또 다른 방법들을 찾게 되거든요. 그래서 근본적인 부분을 만들어야 되는 것이고 그런 점에서는 지금 이재명 후보 쪽에 이사의 의무를 명확히 규정하는 것, 이 부분이 근본적인 해결책이 될 수 있는 시작점이 아닐까, 그렇게 시장에서는 평가를 하고 있습니다.◇김방희&gt; 그렇군요. 우리 이 교수님은 어떻습니까?◆이상훈&gt; 저도 동감이고요. 주식매수청구권은 한계가 있는, 물론 없는 것보다는 낫습니다마는 뭐냐 하면 물적분할 발표 나면 주가 떨어지면 떨어지기 전의 주가로 주식을 팔고 사준다, 이건데 우리가 이제 비유를 든다면 감기 걸려서 가면 감기를 안 걸리게 하거나 바이러스를 제거하는 게 근치인데 이건 그건 아니고 이제 콧물 닦아주는 정도의 개념이거든요. 그러니까 이런 거는 해도 아무 문제 없도록 그냥 방치하고 그 피해 주주에게만 떨어지기 전 값으로 해 준다. 이런 거기 때문에 한계가 있고 그다음에 이 주주들은 상장 차익을 갖고 싶어 하는데 지금 그거랑은 관계없는 제도거든요. 그래서 이게 굉장히 한계가 있고 신주 배정을 해 준다는 것도 완전히 신주 배정을 완벽하게 해 주면 인적분할하고 똑같아지기 때문에 그럼 그냥 물적분할 하지 말아라, 이러면 더 알아듣기 쉬운 얘기고 만약 그게 아니고 물적분할한 상태에서 이번에 LG화학처럼 15% 정도 공모하는데 그거 좀 나눠줄게 하는 거면 85%로 주주권 편취는 그냥 놔두고 15% 중에 돈 가져오면 조금 줄게, 이 정도이기 때문에 인적분할은 돈이 없어도 그 주식을 받고 시작하는 거에 비해서.◇김방희&gt; 그렇죠. 이 교수님이 그래서 CAS, SIS 조금 어려울 수도 있는데 이 개념을 소개해 주셨는데 이건 어떤 거고 구체적으로는 이 법과 관련해서 어떤 개정이 필요하다는 겁니까?◆이상훈&gt; CAS라는 게 아까 말씀해 주셨듯이 주주 보호 의무를 인정하지 않는 게 CAS. SIS는 주주 보호 의무를 인정하자, 이런 개념입니다. 이게 S는 Shareholder고요. 상법에 이사의 선관의무, 충실의무, 이런 조항들이 있습니다. 그런데 회사를 위해서 한다, 이렇게 돼 있는데 거기에 조문에 회사라고만 돼 있으니까 주주 보호 의무는 없는 거 아니냐. 인정 못 하겠다. 이게 이제 통설 판례거든요. 지금. 그래서 그거를 저는 해석상으로 미국 같으면 그런 게 없어도 판례에서 그 회사는 주주가 당연히 포함되는 걸로 보는데 그 문구 때문이라고 한다면 그 문구를 고치자. 회사와 주주, 이렇게 세 글자를 넣으면 '와 주주' 세 글자를 넣으면, 영국이 그렇게 하고 있거든요. 그래서 그런 식으로 개정을 하면 이렇게 회사에는 손해가 없더라도 주주의 손해가 나는 주주가치 훼손 행위를 막을 수 있지 않느냐.◇김방희&gt; 막을 수 있다. 지금 말씀해 주신 증시에서 기대를 걸고 있다는 이사회의 책임을 정확히 규정하고 또 그 책임을 묻는다, 이것도 관련이 있는 거죠?◆이상훈&gt; 그렇죠. 법률의 세계에서는 책임을 묻는다는 거는 의무가 반드시 전제돼야 하거든요. 의무가 없는데 책임을 물을 수는 없죠.◇김방희&gt; 그래서 이제 증시에서도 이걸 기대하고 있다. 이런 말씀이신데. 그런데 기존에도 주주 집단 소송 같은 거는 있지 않습니까? 이걸 통해서 이 문제를 풀 수는 없습니까? 법 개정이 꼭 필요합니까?◆이상훈&gt; 그래서 집단 소송이라는 것도 두 가지 개념이 들어 있죠. 하나는 집단으로 한다는 개념이 있고요. 하나는 소송을 할 수 있다는 건데 의무가 없으면 소송 자체를 할 수가 없거든요. 그래서 이 집단 소송 제도를 얘기하는 게 본말이 전도돼 있다. 먼저 의무부터, 혼자서도 못 하는데 집단으로 하는 것이 지금 좀 난센스죠. 사실은 집단으로 하게 하자는 얘기는. 그래서 이 책임을 묻는 방법은 아까 조금 보충 드리면 예를 들면 LG화학 같은 경우에 가처분을 하는 책임 묻는 방법이. 왜냐하면 이게 지나가 버리면 손해배상으로는 손해가 얼마냐는 게 되게 산정이 어렵거든요. 그래서 이 회사법에서는 소송에서는 가처분이 되게 중요한데 가처분이나 나중에 사후적인 손해배상, 이런 것들이 의무가 도입이 되면 가능해진다. 이렇게 말씀드리겠습니다.◇김방희&gt; 법률적으로는 우리 이상훈 교수님께서 설명해 주셨는데 증시의 현실이나 현장을 감안하면 이렇게 상법에 회사와 주주의 이해를 보호한다, 이익을 보호한다, 이런 명문 규정 같은 게 들어가고 이사회의 책임을 이제 명백히 하게 되면 글쎄요, 증시는 소액 투자자들의 피해에 분노하기는 하지만 이렇게 기업에 대한 규제나 이런 부분에 대해서는 또 환호하지는 않지 않아요?◆정광우&gt; 대주주 그다음에 일반 주주로 저희가 나눠서 생각해 볼 수 있을 텐데요. 말씀해 주신 대로 대주주 입장에서는 좀 껄끄러운 생각이 드실 수가 있습니다. 그런데 이거 자체가 저희는 들어와 있지 않기 때문에 사실상 일반 주주는 본인들이 권익을 누릴 수 있는 부분이 거의 없어져 있는 상황이다라고 보실 수가 있습니다. 그래서 이 부분에서 좀 개정이 있게 되면 일단 일반 주주들의 권익이 챙겨지는 것이고요. 그렇다라고 하면 펀드를 이제 저희가 하는 운용사라든지 이런 것들도 사실 이제 다 일반 주주입니다. 대주주가 아니지 않습니까? 그래서 그들의 권익이 같이 올라가는 것이기 때문에 그 부분에 대해서는 충분히 환호할 것이다라고 생각합니다.◇김방희&gt; 법에 문외한이라서 제가 이상훈 교수님께 드리는 질문은 회사의 주인은 주주고 그게 최대 주주 혹은 지배적 주주가 됐든 소액주주가 됐건 회사를 보호한다는 얘기는 주주를 보호한다는 뜻도 됐을 텐데 이게 그런 판례가 누적됐다는 것 그리고 공정거래 3법 제정이라든가 이럴 때 이런 논의가 이루어지지 않았다는 게 좀 납득은 안 되는데 왜 그렇습니까?◆이상훈&gt; 그게 이제 아주 좋은 지적이신데요. 일단은 회사하고 주주가 이렇게 분리될 수 있다는 게 약간 조금 어려울 수도 있거든요. 그게 이제 예를 들면 합병 비율 같은 게 대표적인데 두 회사를 합치기 때문에 회사 차원에서 삼성물산, 제일모직 그때도 많이 논란이 됐지만.◇김방희&gt; 그렇죠. 소액주주 권리 침해가 있었죠.◆이상훈&gt; 회사끼리 합치는데 회사는 손해가 있다는 걸 상정하기가 어렵습니다. 그런데 그게 합병 비율을 잘 들여다보면 어떻게 하느냐에 따라서 한쪽 주주는 완전히 시쳇말로 발리는 거거든요. 그런데 그런 게 보니까 재무나 그런 실무나 주식투자, 이런 걸 잘 일단 익숙하게 잘 알아야지 그게 판단이 된다는 부분이 우리가 그동안 좀 소홀히 했다가 최근에 이제 이렇게 주식투자 저변이 넓어지면서 이게 좀 다시 재조명이 됐다. 이렇게 말씀드리겠고. 그래서 제가 3법, 작년에도 공정 3법 개정할 때도 제가 한 2~3년 전에 이미 논문을 통해서 그거 해봐야 사실은 좀 헛짓거리하는 거 그거 아무 쓸모없을 거다. 삼성물산 합병 막자고 하면서 합병하고는 전혀 관련 없는 조문들을 만들어놨다.예를 들면 다중대표 소송 얘기하는데 대표 소송이라는 건 회사 계좌에서 돈을 빼갔을 때 그걸 원상 복귀시키라는 소송이거든요. 회사로. 합병은 회삿돈 빼가는 게 없지 않습니까? 그다음에 분할도 마찬가지고. 회삿돈 빼가서 지금 우리가 이 얘기하는 게 아니기 때문에 정작 중요한 국면에서 주주 이익이 침해될 때는 아무 짝에 쓸모없는, 그런데 원래도 대표 소송이 안 되는 걸 모회사 주주한테 준다고 그래서 될 리가 없는 제도를 가지고 작년에 그렇게 논란을 하면서 만든 게 참 그렇고. 이사 선임할 때 3%로도.◇김방희&gt; 의결권 제한.◆이상훈&gt; 이사에게 의무가 없는데 그걸 의결권을 하면 뭐하냐는 거죠. 가서 예를 들면 3% 기관투자가나 헤지펀드나 또는 노동자 대표가 3% 뽑아놔도 가서 지배 주주하고 얼마든지 담합할 수가 있거든요. 일반 주주 물 먹이는 쪽으로 의사결정 할 수가 있거든요.◇김방희&gt; 그래서 더 근본적으로 주주 보호 의무를 규정하자.◆이상훈&gt; 주주가 있어야, 있고서, 그런데 있어도 잘 안 되니까 이제 보완책으로 그러면 3% 제한, 이렇게 가는 건 일리가 있는데 근본이 안 된 채 이렇게 하는 건 좀 입법 실패의...◇김방희&gt; 다만 취지 자체는 제가 지금 이해가 되는데 기존의 상법에도 보면 418조 같은 게 좋은 예입니다마는 신주의 배정을 받을 권리를 규정하고 있거든요. 주주의 권리로. 그러면 예를 들어서 물적분할을 하는 회사에 대해서 왜 신주 배정을 안 해 줍니까? 기존 주주에 대해서.◆이상훈&gt; 그게 정말 날카로운 논점인데요. 생각해 보십시오. 418조에 따르면 주주가 가진 주식 수에 따라서 신주를 줘야 되기 때문에 물적분할을 안 한 채 하면, 유상증자를 하면 기존 주주한테 주식을 다 줘야 돼요. 그런데 그게 지금 싫은 거잖아요. 아까 말씀드렸듯이. 그러니까 이제 머리를 써보니까 여기 단어가 주주라고 돼 있거든요. 그럼 이 조문을 벗어나가는 방법이 뭘까 생각하니까 이 주주를 모회사 주주로 만들면 되겠구나. 그럼 더 이상 주주가 아니니까. 그래서 회사를 쪼갠 거죠. 그래서 이 조항을 어떻게 보면 회피, 법률용어로 우회하는 거기 때문에 현행법 하에서 한다고 그러면 제가 만약 현직 변호사였다고 그러면 이 조항을 잠탈했다. 이 조항의 실질적인 위반이다. 이렇게 한번 소송도 해볼 법도 한데. 아무도 지금 이렇게 안 하는 거 보면 조문상 문구가 없는 걸 하긴 좀 어렵다. 이렇게 보는 거 아닌가, 시장에서.◇김방희&gt; 또 하나는 시장의 반응인데요. 물적분할이 기존 모회사 주주의 이익을 침해한다. 아까 이상훈 교수님 거듭 얘기한 주주가치 훼손이 벌어진다고 하면서도 물적분할을 한 새로운 회사에 대해서는 열광을 하거든요. LG화학을 예로 들어보면 LG화학 지금 기업 가치가 많이 떨어져서 50조 밑으로 갔는데 LG에너지솔루션은 100조 원 이상 된다. 예전에 하나의 기업이었을 때보다 훨씬 더 커진다는 얘기는 어쨌든 LG화학의 주주들이 피해를 보지만 증시 참가자들 대부분이 환호하고 열광하고 기업 가치를 높이 평가한다는 뜻이니까 시장에서 만약 문제가 있다면 외면해야 되는 거 아닙니까?◆정광우&gt; 그러니까 그 정도로 좋은 것이기 때문에 대주주 쪽에서 이렇게까지 무리를 해서 하는 것이다라고 보시는 게 맞을 것 같습니다. 그래서 처음에 말씀드렸던 CJ에서 드라마 사업부. 스튜디오 드래곤. 이번에 LG화학에서 배터리 쪽. 지금 예정된 기업들도 있죠. 그런 쪽들도 보면 다 핵심입니다. 그런 분들도 계실 수 있습니다. 에너지솔루션에 100조라면 LG화학은 그럼 지금보다 하다못해 지분율이 83%인데 83조까지는 가치를 받아야 되는 것 아니냐. 그런데 현실적으로는 저희가 이게 그 홀딩컴퍼니가 디스카운트 받는 부분이 있고 만약에 100조라고 하면 83조를 보유하는데 디스카운트를 보통 한 30~40%, 50%까지도 줍니다. 50%라고 해버리면 41~42조. 거기에 기존의 화학이나 이런 사업부들의 가치가 10조에서 플러스마이너스 5조로 보거든요. 그러면 지금이 그냥 적정가다, 이렇게 나와버리는 결론에 도달하게 됩니다.◇김방희&gt; 그러네요. 아예 물적분할 자체를 금지하는 법을 만들어야 됩니까? 아까처럼 3법에 일부 주주가치 훼손을 막는 조항만으로도 충분합니까? 입법적인 노력은 어떤 게 돼야 합니까?◆이상훈&gt; 글쎄요. 물적분할은 여러 잘 쓰이는 사례가 있기 때문에 전면 금지보다는 요건을 좀 설정하면 어떨까 싶습니다. 예를 들면 1년 내에 팔아버린다, 이런 거면 필요할 수도 있거든요. 기간과 용도를 제한한다든지. 합병할 거면 미리 어느 범위 내에서 합병하라, 이 조건으로 한다든지 기간을 정해서. 왜냐하면 이건 팔아버릴 때 원래 쓰는 거기 때문에 요건을 좀 목적과 기간을 제한하는 또는 상장을 하면 안 된다든지 이렇게 해서 그런 방법이 어떨까 싶고요. 그다음에 그 방법은 주주 보호하라 그러면 어려우니까 구체적으로 풀어서 지금 쓴 거거든요. 제가 지금 드린 말씀이. 그런 식으로 이제 한 것이기 때문에 근본적으로는 주주 보호 의무를 넣자, 그게 좋을 것 같고요. 그다음에 이번에 LG화학에서 보면 지주사가 30% 지분율 유지 요건이 있으니까 그걸 회피하려고 밑으로 하나 내려서 새로 받으면 이제 85%가 되니까 30% 유지 요건이 저촉이 안 되거든요. 그래서 사실 공정거래법 쪽에서도 좀 지주사 제안을 이거 이렇게 돌아가는 거에 대해서 못하게 좀 막는 것도 한 번 생각해 봐야 되지 않나, 이런 생각도 좀 듭니다.◇김방희&gt; 아마 올해도 증시 최대 이슈가 될 물적분할 그리고 이제 주주 가치 훼손과 관련한 얘기를 이어가고 있는데 마무리를 좀 지어보죠.★별책부록 AI&gt; 자, 이제 슬슬 마무리할 시간이에요. 최종 정리.◇김방희&gt; 저는 이번 사안이 두 가지 측면의 변화를 상징한다고 보거든요. 하나는 코로나19 계기로 우리 증시가 그야말로 폭락했을 때 동학개미들이 힘을 보여주면서 실제로 수익도 실현했거든요. 그러다 보니까 많은 참가자들이 주식시장에 관심을 가졌고 또 뛰어들었다. 이 점이 전과 달라진 요소고 두 번째는 그러다 보니까 권리에 대해서 다시 한 번 생각하게 됐다. 주주는 어떤 특정한 권리를 가지는 그 권리를 내가 돈 주고 사는 것이다 하는 걸 의식하게 됐다. 전에는 사실은 그것보다는 그냥 주가 오르내리고 내가 벌면 되지 하는 생각이 강했다면 권리에 대해서 의식하게 됐다. 그러면서 지금 물적분할 논의도 이렇게 공개적인 장으로까지 나온 게 아닌가 싶은데 마지막으로 꼭 이 문제가 아니어도 지금 많은 증시 참가자들은 우리 기업들의 주주 친화적인 정책이 너무 아쉽다 어떻게 가야 될지 두 분께 다 한마디씩 듣겠습니다. 우선 정광우 씨께서 먼저 해 주시죠.◆정광우&gt; 네, 사실 제일 좋은 것은 기본적으로 법적인 제도화가 가장 선행되어야 된다고 생각을 합니다. 그런데 그 부분을 저희가 확신을 할 수 없는 부분이지 않습니까. 저희 같은 개미 투자자들이 할 수 있는 것. 그나마 생각을 해보면 동학개미 이후로 아마 처음으로 이번에 의결권을 행사하시는 경험을 그런 분들이 많으실 거다라고 봐요. 그런데 나는 주식 수가 너무 적은데 이거를 해도 될까. 지금 온라인 투표도 잘 돼 있거든요. 반드시 그 안건에 대해서 꼼꼼히 보시고요. 본인의 주주로서의 권리를 행사를 하시기를 당부를 드립니다. 그렇게 해서 분위기를 계속해서 뭐 꽹과리치고 만들어 나가야 법 쪽에서도 변화가 있는 부분이라고 보거든요. 그래서 일단 이번 주총에서 꼭 권리를 행사하셨으면 하는 당부를 드리고 싶습니다.◇김방희&gt; 하긴 소액주주들 눈치를 보기 시작한 건 시민단체가 형성된 이후였고 또 최근처럼 투자자들이 급격하게 는 그런 단계에서 또 한 단계 더 도약할 수 있는 거니까 우리 이상훈 교수님도 얘기해 주시죠.◆이상훈&gt; 저는 두 가지 말씀드리겠습니다. 첫 번째는 이번에 LG화학 사태를 통해서 보면 시장 전문가 또는 의결권 자문사, 언론의 역할이 되게 저는 좀 중요하다. 예를 들면 LG화학 때 의결권 자문사들 한 군데 빼고는 다 찬성하라고 그랬고 언론들도 전부 기업 가치가 증가하니까 좋다. 매수하라고 애널들도 그렇게 하고 했는데 지금 와서는 또 훼손된 거 다 공제 사실처럼 됐는데 그 전에 했던 것에 대해서 아무런 사과나 변명도 없이. 이번에 포스코 그걸 보면 또 의결권 자문사들도 다 찬성하라고 지금 그러고 있거든요. 그런데 그 자문사들이 예전에 상장할 때 저 LG화학 때 다 찬성하라고 했던 데들이에요. 그래서 그때 그 잘못된 판단에 대해서 해명하고 이렇게 뭐라 그럴까, 이렇게 좀 본질에 대해서 좀 더 연구하고 전문가 의견을 좀 참고해서 정확한 시장의 오피니언 리더 역할을 좀 하고 언론도 그냥 그걸 갖다 떠나르기보다는 좀 더 분석하고 검토해서 필터링 기능을 좀 해 주는 게 이 시장의 자율 기능도 사실은 중요하기 때문에 그 한 말씀을 좀 강조하고 싶고요.두 번째는 우리 시장 동학개미분들이나 우리 주주들분들이 이 주식의 특성을 이참에, 이번에 아주 좀 잘 깨닫는 계기가 됐으면 합니다. 이게 기업의 가치와 주식의 가치는 다를 수 있다는 거. 그다음에 주식이라는 거는 이 노트북 같이 이런 공산품이 아니기 때문에 권리의 덩어리거든요. 그 권리의 덩어리라는 거는 최고 공직자, 우리로 치면 이제 대통령 공직자가 이해 상충이 있고 정치를 잘못하면 그게 언제든지 결국 자기의 현금 수취권에 악영향을 줄 수 있기 때문에 영업이익만 보면 되지 이해 상충이나 이런 주총에, 아까 표결을 열심히 잘해야 된다고 하셨는데 그걸 무시하면 안 된다. 그래서 그 부분을, 굉장히 그 본질이 지배주주의 이해 상충에 있다는 점을 좀 뭐라고 그럴까, 주의 환기. 기술적인, 상장하면 안 좋고 상장 안 하면 된다, 이런 기술적인데 있는 게 아니라 결국 경영진의 이해 상충과 그로 인한 가치 훼손 이게 본질이다. 이 점을 좀 인식하는 계기가 되었으면 합니다.◇김방희&gt; 그러게요. 직접 피해를 당해 보신 분들. LG화학 같은 경우가 좋은 예입니다마는 이런 분들은 주주가치 훼손이라는 게 추상적인 단어가 아니라는 걸 이해하시게 됐을 겁니다. 이걸 계기로 해서 꼭 물적분할이 아니어도 이 주식시장에서 게임이 일방적으로 최대 주주 혹은 지배적 주주에 유리한 기울어진 운동장을 개선할 수 있었으면 합니다. 오늘 유튜브 86번가 채널에 정광우 유튜버, 경북대학교 법학전문대학원 이상훈 교수와 함께 올 한 해 최대 이슈가 될 물적분할의 다양한 측면을 살펴봤습니다. 두 분 고맙습니다.◆정광우&gt; 감사합니다.◆이상훈&gt; 감사합니다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>2022.02.06.</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>LG엔솔 날개 달고 KB증권 MTS 1위</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002719012?sid=101</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>LG에너지솔루션 청약 흥행에 힘 입어 KB증권의 MTS(모바일트레이딩시스템) 이용자 수가 1위로 올라섰다.6일 빅데이터 플랫폼 아이지에이웍스의 모바일인덱스에 따르면 지난달 KB증권의 MTS 'M-able(마블)'의 MAU(월간 활성 이용자수)는 404만7259명으로 집계됐다.한 달 전인 지난해 12월까지만 하더라도 KB증권 MTS 이용자수는 210만1517명으로 키움증권, 미래에셋증권 등에 뒤처졌다. 그러나 지난달 들어서는 키움증권 영웅문S(302만9250명), 미래에셋증권(256만932명), 삼성증권 mPoP(249만5281명), 한국투자증권(239만4483명) 등을 제쳤다.지난달 진행된 LG에너지솔루션 청약 당시 KB증권이 상장 대표 주관사를 맡으면서 KB증권의 MTS 이용자가 크게 증가한 것으로 보인다. KB증권은 LG에너지솔루션 청약에 참여한 개인 고객수가 213만명으로, 전체 청약 참여 고객의 48%가 몰렸다고 밝혔다. 특히 이들 중 101만명은 신규 고객이다.KB증권 관계자는 "LG에너지솔루션 공모주 청약 열풍으로 이용고객이 전월 대비 약 2배 수준으로 증가했다"며 "KB증권만의 비대면 고객관리 서비스르릍 통해 이번 LG에너지솔루션으로 처음 KB증권을 이용한 고객에게 새로운 경험을 제공하고 KB증권에서의 거래를 지속해서 유지하겠다"고 전했다.KB증권뿐 아니라 상장 공동 주관사를 증권사의 MAU도 한 달 새 크게 늘었다. 신한금융투자의 MTS MAU는 전월 112만1907명에서 191만3340명으로, 대신증권은 41만7282명에서 90만4544명으로 크게 증가했다.한편 새해들어 증권사들의 MTS 경쟁은 치열해질 전망이다. 후발주자인 토스증권과 카카오페이증권이 간편한 UI(사용자 인터페이스)를 강점으로 도전에 나선다.토스증권이 밝힌 자사 증권 서비스 MAU는 지난달 기준 230만명으로 기존 증권사와 맞먹는 수준이다. 토스증권은 새해 들어 국내 투자종목에 상장지수펀드(ETF), 상장지수증권(ETN) 등을 추가하는 업데이트를 진행했으며, 올 상반기 중 국내 시간외 거래, 해외주식 소수점 거래 등을 도입할 예정이다.카카오페이증권은 현재 사전 예약자를 대상으로 MTS 베타 서비스를 제공하고 있으며, 이달 중 전체 사용자를 대상으로 베타 서비스를 진행할 예정이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>2022.02.02.</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>"싱가포르에 해외본부…토스 성공방정식 심겠다"</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/015/0004659259?sid=101</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>이승건 비바리퍼블리카 대표“내년 말이면 토스 사용자 규모는 한국보다 해외에서 훨씬 더 커질 겁니다. 한국을 대표하는 기업을 넘어 ‘한국 기업이 맞느냐’는 말이 나올 정도의 지위에 도달하겠다는 게 토스의 목표입니다.”지난달 26일 서울 역삼동 사무실에서 만난 이승건 비바리퍼블리카(토스 운영사) 대표(사진)는 “지구적인 영향력을 가진 기업이 우리의 진지한 꿈”이라고 했다. 출범 7년 만에 가입자 2100만 명, 활성 사용자 1240만 명을 확보해 국내 금융 앱 1위에 오른 토스의 성공 방정식을 해외 시장에서도 증명하겠다는 것이다.이를 위해 토스는 이르면 올해 1분기에 싱가포르에 글로벌 헤드쿼터를 설립한다. 일본에 관계사 라인을 둔 네이버파이낸셜을 제외하면 국내 유력 핀테크나 빅테크 가운데 해외 거점을 설치한 곳은 이제까지 없었다. 아시아 금융 중심지인 싱가포르에서 해외 법인을 직접 관리하고 공격적으로 사업 확장을 추진한다는 전략이다.주력 타깃은 동남아시아와 일본 시장이다. 토스는 2년 전 진출한 베트남에서 300만 명 넘는 활성 사용자를 확보했고, 지난해 11월에는 말레이시아 인도네시아 태국 필리핀 인도에서도 영업을 시작했다. 이 대표는 “글로벌 기업을 상대로 해외에서도 폭발적인 성장을 할 자신이 있다”며 “토스 같은 ‘슈퍼 앱’으로 내년 말에는 해외 사용자가 최소 1000만 명을 넘을 것”이라고 말했다.베트남 진출 2년 만에 흑자달성카드·대출 아우른 '슈퍼앱' 통했다토스가 해외 진출을 준비한 것은 2018년이다. 출범 후 3년 만에 국내 핀테크 기업 최초로 유니콘 기업(기업가치 1조원 이상인 스타트업)에 올랐을 때다. 국내 시장 점유율을 높이고 안정적으로 매출을 늘리는 데에만 집중해도 이상하지 않을 시기지만 이승건 대표의 목표는 이미 글로벌 시장을 향해 있었다. 토스는 이듬해 베트남에 법인을 세우고 영업을 개시했다. 핀테크 시장이 폭발적으로 성장하고 있는 베트남에서 현지 회사를 인수하거나 합작법인을 만드는 대신 ‘맨땅에 헤딩’하듯 독자 진출을 택한 것도 흔치 않은 선택이었다. 이제까지 없던 ‘금융 슈퍼앱’을 현지에서도 만들자는 목표 때문이다. 이 대표는 “소비자의 페인 포인트(pain point·불편을 느끼는 점)를 해소해주는 제품이 있으면 자금력과 브랜드 파워가 없어도 이길 수 있는 게 모바일 시대”라며 “베트남의 300만 사용자가 이미 그것을 증명하고 있다”고 자신했다.만보기형 리워드 서비스로 시작한 토스베트남은 비은행 최초 선불카드, 보험·대출 비교 서비스 등을 추가하며 금융 슈퍼앱으로서의 정체성을 강화하고 있다. 지난달 말에는 현지 베트남국제은행(VIB)과 제휴해 신용카드와 소액단기대출 서비스도 출시했다. 금융의 핵심인 신용·대출 영역에 진입한 것이다. 전자지갑·결제(페이) 서비스 위주인 현지 앱들과의 차별화에도 성공했다는 평가다. 이 대표는 그 증거로 “베트남에서는 이미 흑자를 보는 서비스들이 있다”고 했다.토스는 지난해 말 리워드 서비스를 개시한 말레이시아·인도네시아·태국·필리핀·인도에서도 두 달여 만에 활성 사용자 1만 명을 확보했다. 싱가포르에 글로벌 헤드쿼터가 들어서면 동남아시아·일본 시장 확대를 더 적극적으로 모색할 수 있게 된다. 서현우 전략 헤드는 “지금까지는 자체 성장에 주력해왔지만 앞으로는 해외 투자·인수도 적극 고려할 것”이라고 말했다.‘글로벌 기업’으로 성장하는 게 국내에서의 토스 사업을 보호하기 위해서도 중요하다는 게 이 대표의 생각이다. “외국에서 돈 벌어오는 글로벌 기업, ‘산업 역군’에 대한 애정이 다들 있지 않냐”는 이유에서다. 국내 스타트업 역사상 최단기 데카콘 기업(기업가치 10조원 이상인 스타트업) 진입을 눈앞에 두고도 이 대표는 “기업가치는 중요하지 않다”고 단언한다. “돈 때문이라면 제가 매주 100시간씩 일하진 않을 겁니다. 우리는 결국 세상을 바꾸고 싶은 사람들이에요. 토스 덕분에 소비자의 금융 경험이 이전처럼 후퇴하지 않을 수만 있다면 기업가치는 크게 중요하지 않습니다.”</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>후배 스타트업 키우는 선배 유니콘… 한국에 퍼지는 ‘페이잇포워드’</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/005/0001502731?sid=101</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>2014년 미국 UC버클리대학과 UC샌디에이고대학의 심리학자 4명은 흥미로운 실험을 했다. 한 식당 계산서에 특정 문구를 적어놓고 손님들 반응을 살폈다. 문구는 다음과 같다. “앞에 오신 손님이 당신을 위한 선물로 식사비를 대신 내주셨으니 그냥 가셔도 됩니다. 당신도 다음 손님을 위해 익명으로 식사비를 내 줄 수 있어요.”결과는 놀라웠다. 손님들이 자신의 밥값보다 더 많은 돈을 낸 것이다. 이 연구논문의 제목은 ‘(다른 이를 위해) 미리 계산할 때 더 많은 돈을 지불한다(Pay more when you pay it forward)’이다. 이후 ‘페이잇포워드’는 성공한 창업자가 신규 창업자에게 자신의 경험과 노하우를 공유하는 실리콘밸리 문화를 설명할 때 자주 언급되는 문구가 됐다.페이잇포워드 문화가 한국에서도 확산되고 있다. 유니콘 기업(기업가치 10억 달러 이상 비상장 스타트업)이 된 ‘선배’ 스타트업이 신규 창업자에게 자금을 투입하거나 사업 노하우를 공유하는 방식으로 ‘후배’ 스타트업 육성에 나서고 있다.토스를 운영하는 비바리퍼블리카가 개최한 스타트업 경진대회 파운트 홈페이지 첫 화면. 파운트 홈페이지 캡처모바일 금융서비스 토스를 운영하는 비바리퍼블리카는 스타트업 경진대회 ‘파운드(FOUND)’를 열기로 하고 지난달 23일까지 참가 신청을 받았다. 파운드는 풀어야 할 문제를 발견하다는 뜻과 회사를 설립하다는 의미를 동시에 담고 있다. 비바리퍼블리카는 최종 우승팀 3곳을 선정해 10억원 규모 투자를 하고 코칭, 파트너십 등의 혜택도 제공한다. 비바리퍼블리카 관계자는 “유망 스타트업을 발굴하고 스타트업 생태계에 활력을 불어 넣기 위해 대회를 마련했다”고 설명했다.중고거래 플랫폼 당근마켓은 지난해 9월 ‘남의집’에 10억원을 투자했다. 남의집은 취향이 비슷한 사람들이 오프라인 공간에서 만날 수 있도록 연결해 주는 커뮤니티 플랫폼이다. 지역 주민에게 동네에서 열리는 소규모 모임, 작업실, 공방 등을 소개한다. 당근마켓은 2100만명의 이용자가 남의집 플랫폼으로 유입될 수 있게 할 계획이다. 남의집 김성용 대표는 “당근마켓과 남의집은 연결 기회를 확대해 지역 공동체를 활성화하겠다는 지향점이 같다. 이번 투자로 다양하게 도전할 수 있게 됐다. 각 지역의 로컬 크리에이터를 육성하고 이를 통해 지역경제까지 활성화하는 게 목표”라고 말했다.당근마켓이 지난해 9월 투자한 관심사 기반 모임 커뮤니티 플랫폼 남의집 홈페이지 첫 화면. 남의집 홈페이지 캡처패스트벤처스는 예비창업자 교육 프로그램 ‘텍스트북(Textbook)’을 운영 중이다. 김슬아 마켓컬리 대표, 문성욱 블라인드 대표, 강석훈 에이블리 대표 등 16명의 성공한 기업가가 창업자에게 경험을 공유한다.직접 벤처캐피털(VC)을 설립해 유망 스타트업에 투자하는 유니콘 기업도 등장했다. 직방은 2020년 초 ‘브리즈인베스트먼트’를 설립해 프롭테크(부동산+정보기술) 분야에서 성장 가능성 높은 스타트업에 투자를 시작했다. 직방과 우미건설이 각각 100억원을 출자했다. 지난해 3월 인테리어 플랫폼 ‘집꾸미기’에 투자했고 인테리어 가상현실(VR) 서비스를 제공하는 ‘큐픽스’, 공유주방 ‘고스트키친’ 등도 포트폴리오에 포함됐다. 직방 관계자는 “해외는 이미 프롭테크 생태계를 키우는 대규모 펀드가 조성돼 있는데 한국은 전무해 직방이 문을 열어젖힌 것”이라며 “프롭테크 생태계 전반을 성장시키는 게 목적”이라고 강조했다.‘상어 가족’ ‘핑크퐁’ 콘텐츠로 유명한 더핑크퐁컴퍼니는 2019년 스마트스터디벤처스를 설립해 영화·공연·게임 등의 콘텐츠 스타트업에 자금을 넣고 있다. 애니메이션 제작사 ‘레드독컬처하우스’, 아이돌봄 앱 스타트업 ‘째깍악어’, 캐릭터기업 ‘키키히어로즈’에 투자했다. 지난해 7월 450억원 규모의 ‘베이비샤크넥스트유니콘IP펀드’를 결성해 상어가족과 핑크퐁을 잇는 차세대 콘텐츠 스타트업 육성에도 나섰다.온라인 패션 플랫폼 무신사는 자체 VC ‘무신사파트너스’를 운영한다. 2018년부터 지금까지 지오그래픽, 안다르, 플랙 등에 50여건의 투자를 집행했다. 잠재력 있는 신진 브랜드를 지원하기 위해 패션 특화 공유오피스 ‘무신사스튜디오’도 갖췄다.지분 투자, 인수·합병(M&amp;A)이 아닌 VC 투자는 스타트업 창업자에게 매력적이다. 투자자가 지분을 가져가면 경영 독립성을 보장받지 못할 수 있어서다. 한 VC 관계자는 “사업을 잘 이해하는 VC가 투자하면, 투자사 모기업이 쌓아온 생태계를 성장에 활용할 수도 있다. 스타트업의 호응도가 높은 편”이라고 설명했다.스타트업 창업에서 유니콘으로 성장까지 통상 8~10년 걸린다. 투자 유치 과정은 험난하다. 유니콘 반열에 오른 스타트업들이 페이잇포워드 활동을 하는 건 이미 겪어본 ‘선배’가 ‘후배’의 시행착오를 줄여 최대한 빨리 안착할 수 있게 돕는다는 의미가 크다. 시장을 키우고 동반성장도 가능하다. 한국벤처투자가 발간한 ‘2021년 VC 트렌드 리포트’는 “최근 정책자금과 투자재원 규모가 확대되면서 유능한 인재들이 스타트업으로 몰리고 엑시트(투자회수) 기회도 많아졌다. 올해도 스타트업 열풍은 지속될 것”이라고 내다봤다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>2022.02.14.</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>[기자의 눈]빅테크의 초심과 혁신</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004018547?sid=110</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>◆금융부 김현진 기자[서울경제] “백 투 더 베이식(back to the basics), 초심으로 돌아가겠다.”신원근 카카오페이 신임 대표이사 내정자가 지난주 진행된 실적 발표 콘퍼런스콜에서 다시 한번 경영진 스톡옵션 행사에 대해 사과하며 이같이 밝혔다. 지난해 12월 류영준 카카오페이 대표 등 임원 8명이 스톡옵션을 행사해 회사 지분 878억 원어치를 한꺼번에 현금화했다. 이 사건으로 인해 카카오페이 주가가 급락한 것은 물론 대내외 신뢰에 손상이 갔다. 상황을 타개하기 위해 카카오페이는 ‘초심’이라는 키워드를 꺼낸 것이다.결은 다르지만 국내 빅테크 2강 중 하나인 네이버파이낸셜도 지난해 대표 관련 이슈로 홍역을 치렀다. 최인혁 네이버파이낸셜 대표는 지난해 네이버 직원 사망 사건의 도의적 책임을 지고 최고운영책임자(COO) 자리에서 내려왔고 오는 3월 대표직에서도 물러난다.양 사 모두 대표 이슈로 뒤숭숭했지만 매출은 이와 상관없이 성장세다. 카카오페이와 네이버파이낸셜은 2년 사이 매출이 두 배 넘게 성장했으며 두 회사의 지난해 간편결제 거래액은 137조 원에 달했다. 하지만 과연 그 안에 빅테크만이 할 수 있는 혁신이 얼마나 있었는지는 미지수다. 두 회사는 수많은 사용자가 확보된 탄탄한 플랫폼을 기반으로 한 결제 사업이 중심이다. 특히 네이버파이낸셜은 미래에셋캐피탈·우리은행과 손잡고 네이버 스마트스토어 사업자를 대상으로 하는 스마트스토어 대출만 눈에 띌 뿐 소극적인 행보를 이어가고 있다. 이마저도 토스뱅크가 개인사업자 대출을 선보이는 등 개인사업자 대출 시장이 커지면서 얼마나 강점을 유지할 수 있을지는 미지수다. 핀테크 업계의 한 관계자는 “네이버파이낸셜이 기존 플랫폼의 우월적 지위를 활용한 것 외에 과연 혁신적으로 한 게 무엇이 있는지 하면 아직까지 보이지 않는다”고 꼬집었다.다행인 것은 양 사 모두 곧 대표가 바뀌면서 변화가 예정돼 있다는 점이다. 특히 카카오페이는 디지털 손해보험사도 출범할 예정인 만큼 보험업에서의 혁신을 가져올 수 있을지 관심이 집중되고 있다. 빅테크들은 금융업 진출에서 기존 금융사들이 하지 못했던 소비자 경험에서의 혁신을 강조한다. 두 빅테크 모두 초심으로 돌아가 진정한 혁신을 보여주기를 기대해본다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>토스뱅크, 이달 개인사업자 신용대출 출시</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004014700?sid=101</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>자영업자 대출 시장 선점 포석담보 중심 소상공인 대출시장 바꾸나[서울경제] 인터넷전문은행 토스뱅크가 이달 중 개인사업자 전용 대출 상품을 출시한다. 국내 1·2호 인터넷은행인 케이뱅크·카카오뱅크를 앞지르고 영세·중소 자영업자 대출 시장에 먼저 뛰어들어 선점하려는 것이다.3일 관련 업계에 따르면 토스뱅크는 이달 중순쯤 자체 신용평가 모형을 활용하는 개인사업자 전용 대출 상품을 내놓는다. 현재 판매 중인 직장인 신용대출과 같이 원클릭으로 대출 한도나 금리를 간편히 확인할 수 있다. 원리금균등상환, 만기일시상환 중 상환 방식을 선택할 수 있으며 중도상환수수료는 없다.토스뱅크는 보증서, 부동산 등 담보대출 중심으로 이뤄지고 있는 소상공인 대출시장에서 신용대출 상품으로 차별화를 꾀한다는 계획이다. 이를 위해 기존 신용평가 모형에 금융거래정보 등을 더해 실질 상환능력을 심사한다. 사업자금 외 부동산, 주식 등 투자자금으로 유용되지 않도록 검증 체계도 마련할 방침이다.토스뱅크는 이와 별개로 신용보증재단중앙회와 제휴를 맺고 ‘온택트특례보증’ 상품도 판매할 예정이다. 인터넷전문은행 3사는 지난 2020년 6월 신보중앙회와 디지털·비대면 기반 스마트보증을 위한 업무협약을 체결한 바 있다. 이를 통해 서류에 기초한 개별적인 심사와 대면 보증서 작성이란 기존 업무 방식을 확 바꿀 수 있으리라고 기대했다.한편 토스뱅크의 모회사인 비바리퍼블리카(토스 운영사)는 늦어도 다음 달 신용평가사(CB) 설립을 위한 예비허가를 금융 당국에 신청한다. 토스는 강지훈 헤드를 신설 CB사 대표로 내정하고 추가 인력을 채용 중에 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>정부 전자문서지갑으로 357개 대학 제증명 모바일 발급</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/092/0002247657?sid=105</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>앞으로 전국 약 45만명에 이르는 사이버대학 재학생이나 졸업생도 성적증명, 졸업증명 등의 각종 증명서류를 모바일로 발급받을 수 있게 됐다.행정안전부는 인터넷 증명서 발급 전문기업인 디지털존 및 아이앤텍과 협력해 오는 16일부터 사이버대학을 포함한 347개 대학의 증명서류를 모바일 전자증명서로 발급한다고 15일 밝혔다.그동안 대학 제증명을 모바일 전자증명서로 발급하는 서비스는 대구교육대, 폴리텍대학 등 20개 일부 대학교에 적용해 왔는데, 이번에 공주교육대, 건국대 등 347개 대학교가 추가된 것이다.이로써 총 367개 대학교의 재학생과 졸업생이 직접 대학교나 주민센터를 방문하여 수령하거나, 인터넷 증명발급 사이트에서 종이 증명서로 출력하여 제출하는 등의 불편함 없이 성적증명, 졸업증명, 재학증명, 휴학증명 등 20종의 대학 제증명을 모바일 전자증명서로 손쉽게 발급받을 수 있게 된 것이다.한양사이버대학 등 24개 사이버대학도 모바일 제증명 발급 대학교에 추가됐다. 사이버대학은 인터넷을 이용하여 강의를 듣고 학위를 취득하는 방식의 교육을 제공하여 재교육을 원하는 직장인, 주부, 고졸 학력 보유자 등이 많이 이용하고 있다. 전국 사이버대학의 재학생이 12만명 이상, 졸업생도 33만명을 넘어서, 이들 약 45만명이 수혜를 받을 것으로 기대된다.대학 제증명을 모바일 전자증명서로 발급받기 위해서는 먼저, 정부24앱 또는 페이코, 토스 앱 등을 스마트폰에 내려받아 설치 후 최초 한번 '정부 전자문서지갑' 이용을 신청하고, 인터넷 증명 발급사이트에서 증명서 발급을 신청하면서 수령방법을 '정부 전자문서지갑'으로 선택하면 된다.모바일 전자증명서 발급 서비스 확대를 통해 대학생이나 졸업생은 취업이나, 국가자격증 시험 등에 필요한 각종 대학 증명서류를 전자증명서로 편리하게 발급받아 제출할 수 있게 된다.행안부 이세영 공공지능정책과장은 "이제 대부분의 국공립 및 사립대학교의 제증명을 모바일 전자증명서로 발급받을 수 있다"면서 "앞으로도 디지털 정부혁신의 일환으로, 언제 어디서나 전자증명서를 편리하게 이용할 수 있도록 활용 분야를 지속 확대해 나가겠다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>2022.02.07.</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>[기자수첩]치열해지는 금융권 생존경쟁, 공정한 게임 보장돼야</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005040461?sid=110</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>삼성생명과 삼성화재, 삼성카드 등 삼성의 금융계열사들이 이들의 서비스를 한번에 이용할 수 있는 통합 애플리케이션(앱)을 준비하고 있다. 삼성의 통합앱은 오픈뱅킹이나 보험료 결제 등의 통합 금융 서비스를 비롯해 자동차나 부동산 등 정보 서비스까지 제공할 것으로 예상된다. 삼성은 빠르면 한두 달 안에 통합앱을 시장에 출시할 계획이다.삼성의 통합앱은 기존 금융사와 핀테크(금융+기술) 업체가 제공하는 마이데이터(본인신용정보관리업) 서비스와 비슷하다. 마이데이터는 여러 금융기관에 흩어져 있는 자신의 정보를 한 곳에 모아 관리하는 서비스다. 다만 삼성의 경우 삼성생명이 최근 금융당국으로부터 일부 고객에 대한 보험금 지급 거부와 관련해서 징계를 받아 향후 1년간 신사업인 마이데이터 서비스를 할 수 없다. 이에 따라 삼성의 통합앱에서 다른 금융사들에 있는 나의 정보를 불러올 수 없는 단점이 있을 것으로 보인다. 다른 회사의 마이데이터 서비스와 비교하면 태생적인 한계를 가지고 태어나는 셈이다.금융당국의 규제에도 삼성이 이처럼 통합앱 출시에 공을 들이는 것은 금융권의 생존경쟁이 갈수록 치열해지고 있기 때문이다. 특히 네이버와 카카오, 토스 등 대형 빅테크(대형 정보기술기업)들이 금융업에 진출하면서 금융회사들은 무한경쟁에 내몰리고 있다. 정치권과 정부는 인터넷전문은행법 등의 특례를 통해 빅테크 기업이 금융권에 진출하기 쉽게 길을 열어줬지만 기존 금융사들의 비금융권 진출은 여전히 막혀 있다. 이는 일종의 역차별이라는 지적도 나온다.빅테크에도 금융회사에 준하는 규제가 필요하다는 주장도 꾸준히 나온다. 보험연구원은 빅테크의 성장세를 고려할 때 전문 규제 도입에 대해 고민할 시점이라고 지적했다. 국제결제은행(BIS)도 빅테크와 핀테크가 은행업에 진출하는 경우 더 강력한 자본 규제를 해야 한다고 주장했다.삼성을 시작으로 비은행권의 핀테크 시장 진출도 활발해질 것으로 보인다. 여러 회사가 공정한 체계 아래 경쟁할수 있도록 정부와 정치권이 규제에 대해 더 고민해봐야 할 시점이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>싱가포르 ‘영앤리치’, 스타트업·가상화폐로 돈 벌어 고가저택 싹쓸이</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/016/0001950197?sid=104</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>[헤럴드경제] 싱가포르의 '영 앤 리치(Young &amp; Rich)'들이 부동산으로 몰리고 있다. 스타트업과 가상화폐로 부를 일궈, 고가 저택들을 싹쓸이히는 모습이다.12일(현지시간) 블룸버그 통신에 따르면 싱가포르의 젊은 부자들이 고가 저택들을 사들이고 있다.싱가포르 인구의 약 80%는 고층 공공주택에 살고 있는 반면 부지가 1400㎡가 넘는 고가 주택들은 사생활 보호를 위해 보통 싱가포르섬에서도 녹음이 우거진 곳에 자리한다.부동산조사업체 나이트 프랭크의 자료에 따르면 싱가포르 내 이런 고가저택은 2500여 채에 불과하지만 지난해에만 60여 채가 팔려 2019년에 비해 거래량이 3배 늘었다.블룸버그에 따르면 과거엔 무역업자, 산업 분야 사업가, 변화사와 의사가 고가저택을 소유했다면, 현재는 스타트업 설립자나 전자상거래 경영진, 가상화폐로 부를 쌓은 사람들이 이곳의 주인이다.싱가포르 현지 언론 비즈니스타임스에 따르면 가상화폐 중심의 헤지펀드 쓰리에로우캐피털의 최고경영자(CEO) 겸 공동창업자인 수 주(Su Zhu)는 4900만 싱가포르달러(약 436억원)에 싱가포르 부킷 티마 지역의 한 고가저택의 권리를 아내와 공동으로 사들였다.유네스코 세계문화유산인 싱가포르 식물원(Botanic Gardens) 인근의 한 초호화 저택은 싱가포르의 전자상거래 마케팅 플랫폼인 스탬프드를 창업한 토미 옹이 6370만 싱가포르달러(약 567억원)에 사들였다. 게이머를 위한 의자를 만드는 스타트업 달링 시크릿랩의 공동 창업자인 20대의 이안 앙은 지난해 3600만 싱가포르달러(약 320억원)를 주고 고가저택을 사들였다.청년 부자들의 구입과 맞물려 부동산 가격도 오르고 있다. 나이트 프랭크에 따르면 지난해 고가 주택의 1제곱피트당 가격은 1725싱가포르달러(약 154만원)로 2019년에 비해 25% 올랐다.부동산회사 싱가포르 리얼토스의 공동창업자 부르스 라이는 "부자들은 주식보다 변동성이 적고 가치가 잘 유지되는 저택에 투자하길 원한다"며 "공급은 부족한데 싱가포르의 부유층은 늘어나고 있어 주택 가격은 더 오를 것으로 보인다"고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>2022.02.11.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>커지는 소호대출시장…지방은행·인뱅 가세</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/029/0002719979?sid=101</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>'비대면 사업자 대출' 출시…가계대출 규제 영향인터넷전문은행도 개인사업자 대출시장에 뛰어들면서 경쟁이 달아오르고 있다. 서울 시내 한 은행 창구. 연합뉴스    최근 금융당국의 가계대출 총량 관리 기조 강화로 시중은행들은 개인사업자대출(소호대출) 확대에 공을 들이고 있다. 여기에 인터넷 전문은행과 지방은행도 비대면 소호대출 상품을 출시하며 경쟁에 뛰어들고 있다.11일 금융권에 따르면 지난달 말 5대 시중은행(국민·신한·하나·우리·NH농협)들의 개인사업자 대출 잔액은 300조원 규모(지난해 말 기준)로 1년 새 11%나 불었다. 사상최대 규모로 코로나19 변이 확산, 당국의 가계대출 규제로 증가세는 지속될 거란 전망이 나온다. 이에 지방은행과 인터넷전문은행도 고객을 끌어모으기 위한 작업에 착수했다. 부산은행은 지방은행 최초로 중·저신용 개인사업자를 위한 비대면 소호 중금리대출 상품을 내놨다. 머신러닝 기반의 심사모형을 탑재한 '소호 중금리대출'은 중·저신용 개인사업자가 영업점 방문 없이 모바일뱅킹 애플리케이션(앱)에서 대출 신청부터 실행까지 가능하도록 했다. 부산은행 모바일뱅킹 앱 'ONE신용대출'과 영업점을 통해 대면·비대면 모두 신청할 수 있다. 대출한도는 최대 7000만원이며, 대출금리는 최저 연 5.89%(2월 4일 기준)이다. 토스뱅크는 인터넷전문은행 중 처음으로 이달 기업대출 상품을 출시할 예정이다. 담보나 보증 없이 3%대 금리에 대출 가능액은 사업자당 1억원으로 알려졌지만 금융당국과 협의 이후 한도와 출시 시기가 조정될 것으로 보인다. 토스뱅크는 자체 신용평가 모형을 개발하고 소상공인에 특화된 심사기준도 마련하겠다는 전략이다.최근 금융당국은 인터넷전문은행 예대율 규제를 일반 은행과 동일하게 하고 기업대출 심사에 요구되는 현장 실사와 대면 거래를 허용하는 등 규제를 개편했다. 이에 따라 인뱅도 소호대출 시장에 적극 뛰어든 것이다.카카오뱅크도 1분기 내로 비대면 주택담보대출 상품을 출시한 뒤 하반기 시작 전후로 개인사업자대출을 내놓을 계획이다. 케이뱅크도 보증서 담보대출 기반 개인사업대출을 준비 중에 있다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>2022.02.04.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>‘미래차 SW인력’ 국내 1000명도 안돼… 테슬라-GM은 4000명씩</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/020/0003409067?sid=101</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>스마트카 경쟁속 한국 SW 인력난미국 테슬라는 최근 발표한 지난해 실적에서 소프트웨어(SW) 서비스 부문 연간 매출이 처음으로 10억 달러(약 1조2060억 원)를 넘어섰다고 밝혔다. 테슬라는 “SW 관련 수익이 전체 수익성 개선을 가속화할 것”이라고도 했다. 테슬라의 SW 인력은 4000명이 넘는 것으로 알려져 있다. 일본 도요타는 올해부터 대졸자 신입 채용 전형에서 40∼50%를 SW 계통 전공자로 채우기로 했다. 도요타는 SW 인력들로 차량용 운영체제(OS)를 자체 개발할 예정이다. 2025년까지 운전대나 브레이크, 가속페달 등을 SW로 제어하기 위한 기반을 닦는다는 목표다. 글로벌 완성차 업체들이 SW를 중심으로 한 미래 기술력 확보에 발 빠르게 움직이고 있다. 그러나 국내 기업들은 당장 SW 인력을 제대로 구하지 못해 경쟁력 확보에 ‘빨간불’이 들어왔다는 지적이 나온다. 현대차그룹은 최근 제네시스의 첫 전기차 전용 모델인 GV60(사진)에 정비소 방문 없이도 소프트웨어(SW)를 업데이트할 수 있는 기능을 최초로 적용했다. 현대차그룹은 커넥티드카, 인포테인먼트 등 SW를 활용한 서비스를 개발하기 위해 지난달 대규모 개발자 채용 공고를 냈다. 현대차그룹 제공3일 자동차 업계에 따르면 현대자동차는 지난달 연구개발(R&amp;D) 신입 및 경력 채용 모집 공고를 냈다. 특히 경력직 SW 부문은 서버 개발 등 53개 세부 분야에서 총 세 자릿수 채용을 목표로 하고 있다. 지난해 4월부터는 인포테인먼트, 자율주행, 로보틱스 등 미래차 핵심 기술을 다루는 개발 인력만을 대상으로 한 채용 사이트도 별도로 운영하고 있다. 하지만 국내에서 양질의 개발자를 확보하기 어려운 상황이다. 국내 SW 인력은 2020년 기준 약 17만 명으로 추정된다. 올해만 해도 신규로 필요한 SW 인력은 6만 명이 넘는 것으로 보고 있다. 그에 반해 매년 배출된 SW 인력은 평균 3만3000명 안팎(2015∼2019년 기준)에 머물렀다. 이런 상황을 극복하기 위해 2021년부터 5년간 21만여 명을 배출하겠다는 정부의 SW 인력 양성 사업이 성공하더라도 2025년까지 적정 수요에 수만 명이 모자랄 것으로 예측되고 있다. 게다가 우수 인재들은 ‘네카라쿠배당토(네이버, 카카오, 라인, 쿠팡, 배달의민족, 당근마켓, 토스)’를 포함한 정보기술(IT) 업체들이 거의 독식하고 있다. 현대차 같은 자동차 기업들이 SW 인력 부족을 호소하는 배경이다. 이항구 한국자동차연구원 연구위원은 “업계 미팅과 고용보험 통계 등을 토대로 순수 차량 SW 직무를 하는 인력을 추산하면 국내에 채 1000명이 되지 않는다”고 말했다. 최근 보상 수준마저 IT 업계에 밀리면서 인력 부족 사태는 더욱 심화되고 있다. 자동차 업계 한 SW 개발자는 “현업 부서를 가 보면 형편없을 정도로 사람이 적다”며 “새로 뽑는 SW 개발자에게 보상이나 복지를 우대해 주려 해도 차별 대접을 반대하는 노조나 타 직군 눈치가 보여 실행에 옮기지 못하는 상황”이라고 설명했다. 반면 제너럴모터스(GM), 포드, 테슬라 등 미국 업체들은 4000명 이상의 자동차 전문 SW 인력을 보유하고 있다. 독일 폭스바겐그룹은 2025년까지 270억 유로(약 36조7700억 원)를 투자해 자체 SW 개발 점유율을 10%에서 60%로 늘린다는 전략을 세웠다. 다임러그룹, 스텔란티스 등도 각각 전담 조직을 마련해 4000명 이상의 SW 인력을 확보하겠다고 공표했다. 김필수 대림대 미래자동차학부 교수는 “자동차 생산량 대비 SW 인력 확충 수준은 한국이 미국 대비 3년 정도가 뒤처진 것으로 평가된다”며 “적체된 기존 자동차 인력을 SW 업무로 전환하기 위한 재교육을 강화하는 등의 중장기 전략이 필요한 시점”이라고 말했다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>2022.02.13.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>토뱅, 14일 자영업 대출 시작…카뱅 22일 '비대면 주담대' 출시</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/011/0004018211?sid=101</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>■빅테크 금융업 침투 가속개인사업자 여신 잇따라 진출전통 금융사와 경쟁 달아올라토스뱅크카카오뱅크 사옥케이뱅크 사옥[서울경제] 올해도 빅테크·핀테크의 금융업 진출이 가속화할 것으로 전망된다. 시중은행 등 전통 금융사의 전유물로 여겨졌던 대출 시장에 본격적으로 뛰어들기 때문이다.13일 금융권에 따르면 올해 카카오뱅크·케이뱅크·토스뱅크 등 인터넷은행 3곳은 개인사업자 대출 상품을 출시한다. 최근 금융 당국이 인터넷전문은행의 중소기업·개인사업자 대출 취급 활성화 차원에서 예대율 체계, 대면 거래 예외 규정을 정비한다고 밝히자 다양한 대출 상품 출시를 통해 사업 포트폴리오 확대에 나선 것이다.인터넷은행 가운데 토스뱅크가 14일 가장 먼저 개인사업자 대출을 선보인다. 실제 사업을 영위하는 자영업자 등 개인사업자가 대상이다. 최저 금리는 연 3% 초중반(변동금리), 최대 한도는 1억 원이다. 인터넷은행의 특성에 따라 대출 신청부터 실행까지 전 과정을 비대면, 무보증·무담보로 진행한다. 케이뱅크는 올 1분기 중 ‘개인사업자 운전자금 대출’ 상품 출시를 준비 중이다. 우선 신용보증재단과 협력해 보증 기반 상품을 출시한 뒤 순차적으로 신용 기반 상품을 내놓는 방식이다.카카오뱅크도 하반기 중 개인사업자 대상 소호(SOHO) 대출을 출시한다. 윤호영 카카오뱅크 대표는 지난 9일 실적 발표 이후 콘퍼런스콜에서 “개인사업자용 수신·대출 상품 두 가지를 동시에 론칭해 기업 시장에 진출할 준비를 하고 있다”고 말했다.카카오뱅크는 오는 22일 비대면 주택담보대출도 출시한다. 현재의 신용대출·전월세보증금대출 등에서 주담대로 업무 영역을 확장하는 것이다. 인터넷은행이 주택 구입 자금 용도의 주담대를 선보이는 것은 카카오뱅크가 처음이다. 케이뱅크 상품은 아파트를 담보로 빌린 기존 주담대를 대환하는 목적이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>2022.02.06.</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Sh수협은행, 개인 금융비서 '알집사' 선보인다</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/030/0002997012?sid=101</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>김혜곤 Sh수협은행 DT본부장Sh수협은행이 올해 온라인 메신저 기반 개인 금융비서 '알집사'를 선보인다. 알집사는 80만 고객을 확보하고 있는 파트너뱅크 애플리케이션(앱)과 생활금융 플랫폼으로 변신을 시도 중인 헤이뱅크 앱에서 고객이 부르면 언제든 응답하는 인공지능(AI) 챗봇 서비스다.기존 금융정보 브리핑이 단순한 정보를 통보하는 형식이었다면 알집사는 나를 위한 정보를 꼭 맞게 설명해주는 서비스다. 취약계층을 위한 목소리 브리핑 기술 도입도 검토하고 있다. 카카오톡 알림톡 서비스도 추진한다.알집사는 알려주다의 '알', 로봇 프로세스 자동화(RPA)의 'R'와 집사를 합친 말이다. 현재는 챗봇 상담 요청이 오면 실제 직원이 채팅으로 답변하고 있어 영업시간 내에서만 가능한데 알집사를 도입하면 24시간 고객이 원할 때 답변해준다. 파트너뱅크 앱 가입자 약 80만명(수협 조합원 포함 시 100만명)과 헤이뱅크 앱을 쓰고 있는 약 8만명 회원들에게 우선 서비스한다. 알집사를 출시하면 앱 사용자 수가 큰 폭으로 증가할 것으로 수협은행은 기대하고 있다.수협은행 디지털 전환(DT) 업무를 총괄하고 있는 김혜곤 DT본부장은 “데이터 기반 고객경험 서비스 알집사를 통해 고객을 밀착 관리할 예정”이라고 말했다.수협은행은 대고객 서비스인 알집사와 함께 사내 업무 혁신 프로세스를 위한 '알대리'도 준비하고 있다. 수협은행은 업무 프로세스 혁신을 통한 DT 체질화를 위해 지난해 말 조직개편에서 디지털금융본부를 DT본부로 명칭을 바꿨고, DT본부 산하에 프로세스혁신팀도 신설했다.알대리는 직원들 업무를 보조한다. 단순 반복적 페이퍼 업무는 RPA가 처리토록하고 은행원들은 좀 더 효율적이고 생산성 있는 일에 집중하도록 하려는 목적이다.수협은행이 알집사, 알대리 실험에 나선 데에는 작고 빠르다는 장점 덕분이다. 오프라인 영업점 수와 고객 수가 다른 은행들에 비해 상대적으로 적은 게 오히려 여러 실험과 협업을 통해 젊은층부터 노년층까지 맞춤형 서비스를 제공할 수 있는 셈이다.김 본부장은 “수협은행은 시중은행 대비 인력과 조직 규모 면에서 다소 차이가 있다”며 “직접 디지털 신기술을 개발하거나 인프라를 구축하는 데 많은 어려움이 있지만 이런 환경적 약점을 극복하기 위해 이미 뛰어난 기술력을 보유한 핀테크 업체들과 제휴 전략을 구사하고 있다”고 말했다. 토스, 비씨카드, SK 등과 제휴를 통해 출시한 소액적금 상품으로 30만명 넘는 신규 고객을 유치한 경험도 있다.수협은행은 각 사업 영역별 핵심 책임자들이 함께 참여하는 'DT추진 협의체'를 신설해 미래사업 발굴과 추진, 투자 및 자원관리 등 디지털혁신 관련 모든 업무에 대한 신속한 의사결정 체계를 수립할 방침이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>정은보 금감원장, 해외 금융권 최고위급 면담 위해 출국</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/119/0002575933?sid=101</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>정은보 금융감독원장.ⓒ금융감독원[데일리안 = 부광우 기자] 금융감독원은 정은보 원장이 주요국 중앙은행장과 감독당국 및 글로벌 신용평가사 등의 최고위급 면담을 위해 출국할 예정이라고 15일 밝혔다.오는 16일 출국하는 정 원장은 17일부터 24일에 걸쳐 크리스틴 라가르드 유럽중앙은행 총재와 앤드류 베일리 영란은행 총재, 토스튼 포에취 독일 금융감독청 부청장, 롭 파우버 무디스 회장과 만나 최근 글로벌 금융시장에 대한 의견을 교환할 계획이다.이 자리에서 정 원장은 글로벌 금융긴축, 우크라이나 사태 등 대내외 리스크 관련 기관별 대응 방안과 금융감독 관련 협력 사항 등을 폭넓게 논의할 예정이다.블라드미르 보론코프 유엔 대테러실 사무차장과의 면담에서는 자금세탁 방지와 관련해 양 기관 간 협력 방안 등에 대해 논의한다.아울러 정 원장은 현지 금융사와의 간담회를 통해 국내 금융사의 현지화 현황과 애로사항 등을 청취하고, 해외 진출 지원방안 등도 함께 모색할 계획이다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>2022.02.03.</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>돌아온 '타다'…'편안한이동'을 왜 따로 내세울까</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/421/0005879705?sid=105</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>타다, 지난해 12월 택시운송 자회사 '편안한이동' 설립'타다금지법' 이후 재개 노리는 '타다 넥스트'의 친택시 행보'타다 넥스트' 차량 모습 (VCNC 제공)(서울=뉴스1) 이기범 기자,이정후 기자 = '타다' 운영사 브이씨앤씨(VCNC)가 별도의 택시운송가맹사업 자회사 '편안한이동'을 전면에 내세워 '타다 넥스트' 사업 확대에 나서고 있다. 플랫폼 사업자로서 직접 차량 호출 서비스에 뛰어든 '타다 베이직' 시절과 다른 행보로, 택시 업계와의 상생을 위한 조치로 풀이된다.3일 모빌리티 업계에 따르면 VCNC는 지난해 12월22일 타다의 직영 운수사로 '편안한이동'을 설립했다. 이후 편안한이동 주체로 '타다 넥스트' 사업 확장에 나서고 있다. 지난 24일에는 직영 운수사 정규직 드라이버 모집에 나선다고 밝혔다. 앞서 12일에는 법인택시 운수법인의 택시 면허를 양수했으며, 해당 계약으로 약 80대 규모의 택시 운영권을 확보했다.◇'타다금지법' 이후 '타다 넥스트'로 사업 재개 나서타다 넥스트는 과거 타다의 원조 '타다 베이직'처럼 7인승 이상 대형차량을 기반으로 한 호출 중개 서비스다. 차이점은 렌터카와 기사를 함께 부르는 형식이 아닌 택시 면허를 보유한 드라이버를 통한 택시 운송 서비스라는 점이다.타다는 지난 2018년 11인승 승합차를 통해 국내에서 '승차 호출'(Ride Hailing) 서비스를 처음 선보인 모빌리티 스타트업이다. 당시 타다 베이직 서비스는 기존의 택시 경험을 혁신하며, 170만 사용자를 확보하는 등 큰 인기를 얻었다. 하지만 2020년 3월 국회를 통과, 지난해 4월부터 시행된 '타다금지법'(여객자동차운수사업법 개정안) 여파로 렌터카와 기사를 함께 부르는 '타다 베이직' 서비스를 종료해야했다.이후 가맹택시 사업 '타다 라이트'를 운영하며 재기를 노려왔지만, 카카오모빌리티 등과의 경쟁 속에 큰 성과를 내지 못했다. 지난해 10월8일 토스 운영사 비바리퍼블리카가 쏘카로부터 인수되면서 새로운 성장 동력을 찾고 있다.타다 넥스트는 토스에 인수된 후 VCNC가 내세운 새로운 사업 모델이다. 과거 타다의 이동 혁신 경험을 중심으로 가져가되 법의 테두리 안에서 전체적인 리브랜딩을 꾀하는 운송 중개 서비스다. 타다금지법으로 불리는 여객자동차운수사업법 개정안 상에서 플랫폼만 가지고 이용자와 택시를 중개하는 '타입쓰리'(플랫폼 중개사업) 형태의 모빌리티 사업이다. 지난해 11월25일부터 서울 지역 대상 베타 서비스가 시작됐으며, 올해 상반기 중 정식 서비스가 출시될 예정이다.'타다금지법'으로 불리는 여객자동차운수사업법(여객법)개정안이 통과된 후 택시 중심의 모빌리티 시장 재편이 가속화되면서 카카오모빌리티의 시장 지배력이 공고해졌다는 지적이 나온다. 사진은 2020년 3월 '타다금지법'이 통과된 직후 서울 서초구의 한 차고지에 타다 차량이 주차된 모습다. 2020.3.9/뉴스1 © News1 송원영 기자◇택시와의 갈등 경험 풀기 위한 자회사 '편안한이동'택시 자회사 편안한이동은 타다 넥스트 사업의 중심축에 있다. 법인 택시 면허를 확보하기 위한 차원도 있지만, 핵심은 택시 업계와의 공생이다. 과거 택시 업계와 갈등으로 사업 위기에 빠졌던 경험을 반복하지 않겠다는 행보로 풀이된다.일각에서는 편안한이동을 통해 타다 넥스트가 법인택시 위주로 규모를 늘려갈 거라는 관측도 나오지만, 수익성 문제로 법인택시 만으로 공급을 늘리기엔 한계가 명확하다.한 모빌리티 업계 관계자는 "법인택시와 개인택시는 생태계가 매우 다르고, 특히 개인택시는 법인 대비 운영의 자율도가 높다"며 "2교대 방식으로 운영에 제한이 있는 법인보다 개인택시는 일하는 만큼 더 많이 버는 구조이기에 대형택시 운행에 더 관심이 많다"고 설명했다.택시운송 자회사 '편안한이동'을 통해 '타다 넥스트' 드라이버 채용에 나선 VCNC (VCNC 제공)VCNC 관계자는 "타다 서비스 목적이 이용자뿐만 아니라 드라이버도 만족할 수 있는 모빌리티 서비스로 자리매김하는 것"이라며 "플랫폼 사업자는 간접적 방식으로 운송 서비스를 제공하지만, 직접 택시 자회사를 운영할 경우 택시 업계와 현장 가까이에서 공생 가능하다는 점에서 편안한이동 법인을 설립하게 됐다"고 밝혔다.이어 "현재 타다 넥스트는 법인택시 면허 양수뿐만 아니라 직영 드라이버, 개인 드라이버 등 다양한 방식으로 드라이버를 모집하고 있다"며 "현재 법인 기사분들의 처우가 좋지 않은데 인센티브 지급 등 동기부여를 통해 드라이버라는 직업적 지위를 향상시키고 이를 통해 질 좋은 서비스를 제공할 것"이라고 덧붙였다.</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>2022.02.15.</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>사이버대학 성적·졸업증명서도 '모바일 전자증명서'로 발급</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>https://n.news.naver.com/mnews/article/277/0005044734?sid=102</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>16일부터 전자증명서 발급대상에 347개 대학 성적·졸업증명 등 추가[이미지출처=연합뉴스]앞으로 전국 45만명에 이르는 사이버대학 재학생이나 졸업생도 성적증명, 졸업증명 등의 각종 증명서류를 스마트폰을 이용해 모바일 전자증명서로 발급받을 수 있게 된다.15일 행정안전부는 인터넷 증명서 발급 전문기업인 디지털존 및 아이앤텍과 협력해 16일부터 사이버대학을 포함한 347개 대학의 증명서류를 모바일 전자증명서로 발급하는 서비스를 확대 제공한다고 밝혔다.그간 대학 제증명을 모바일 전자증명서로 발급하는 서비스는 대구교육대, 폴리텍대학 등 20개 일부 대학교에 적용해 왔는데 이번에 공주교육대, 건국대 등 347개 대학교가 추가된 것이다. 이에 367개 대학교의 재학생과 졸업생이 직접 대학교나 주민센터를 방문하여 수령하거나 인터넷 증명발급 사이트에서 종이 증명서로 출력해 제출하는 등의 불편함 없이 성적증명, 졸업증명, 재학증명, 휴학증명 등 20종의 대학 제증명을 모바일 전자증명서로 손쉽게 발급 받을 수 있게 됐다. 특히 한양사이버대학 등 24개 사이버대학도 추가됐다. 사이버대학은 인터넷을 이용해 강의를 듣고 학위를 취득하는 방식의 교육을 제공해 재교육을 원하는 직장인, 주부, 고졸 학력 보유자 등이 많이 이용하고 있다.대학 제증명을 모바일 전자증명서로 발급받기 위해서는 정부24앱 또는 페이코, 토스 앱 등을 스마트폰에 내려받아 설치 후 최초 한번 ‘정부 전자문서지갑’ 이용을 신청하고, 인터넷 증명 발급사이트에서 증명서 발급을 신청하면서 수령방법을 ‘정부 전자문서지갑’으로 선택하면 된다.한편 대학 성적?졸업증명서 외에, 우정사업본부의 ‘우체국 스마트 뱅킹’ 앱에서 우체국 예금 가입 등에 필요한 증명서를 제출하거나, 경찰청 ‘경찰민원 모바일’ 앱에서 교통사고사실확인원 등의 서류를 전자증명서로 발급받아 제출하는 것도 가능해진다.이세영 공공지능정책과장은 “이제 대부분의 국공립 및 사립대학교의 제증명을 모바일 전자증명서로 발급받을 수 있다”면서 “앞으로도 디지털 정부혁신의 일환으로, 언제 어디서나 전자증명서를 편리하게 이용할 수 있도록 활용 분야를 지속 확대해 나가겠다”고 말했다.</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
